--- a/public/blobs/DjelatnostTemplate.xlsx
+++ b/public/blobs/DjelatnostTemplate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fesb-my.sharepoint.com/personal/aklepo01_fesb_hr/Documents/Documents/VSCode projekti/TDA/Kalkulator_procjene_rizika/public/blobs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="276" documentId="8_{8DBDF971-16D4-4F43-9E93-18B3ACE6548A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85E5EB41-E0E3-4ACD-B3F2-A70ADEC0030A}"/>
+  <xr:revisionPtr revIDLastSave="403" documentId="8_{8DBDF971-16D4-4F43-9E93-18B3ACE6548A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC4AEEC3-B748-4D02-BFC3-433C7097F07E}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15720" xr2:uid="{B92CB1F4-CC3F-45C5-A53B-1957C3DED16D}"/>
+    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{B92CB1F4-CC3F-45C5-A53B-1957C3DED16D}"/>
   </bookViews>
   <sheets>
     <sheet name="Opći podaci" sheetId="5" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="60">
   <si>
     <t>RCP 4.5</t>
   </si>
@@ -172,9 +172,6 @@
     <t>Izljev ledenjačkih jezera </t>
   </si>
   <si>
-    <t>Rezultat izračuna sa mjerama prilagodbe</t>
-  </si>
-  <si>
     <t>Rezultat izračuna bez mjera prilagodbe</t>
   </si>
   <si>
@@ -210,12 +207,24 @@
   <si>
     <t>Mjere prilagodbe</t>
   </si>
+  <si>
+    <t>Šifra</t>
+  </si>
+  <si>
+    <t>Naziv</t>
+  </si>
+  <si>
+    <t>Grupa</t>
+  </si>
+  <si>
+    <t>Rezultat izračuna s mjerama prilagodbe</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -369,7 +378,41 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="22"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="18"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="18"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1569,7 +1612,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="237">
+  <cellXfs count="249">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2004,201 +2047,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="90" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2232,18 +2080,245 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="90" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2687,54 +2762,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3A6D3A6-6CB6-4EDF-A7FA-B385CACA3BAA}">
   <dimension ref="C3:AM55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J24" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:39" x14ac:dyDescent="0.3">
-      <c r="C3" s="155"/>
-      <c r="D3" s="155"/>
-      <c r="E3" s="155"/>
-      <c r="F3" s="155"/>
-      <c r="G3" s="155"/>
-      <c r="H3" s="155"/>
+    <row r="3" spans="3:39" x14ac:dyDescent="0.25">
+      <c r="C3" s="171"/>
+      <c r="D3" s="171"/>
+      <c r="E3" s="171"/>
+      <c r="F3" s="171"/>
+      <c r="G3" s="171"/>
+      <c r="H3" s="171"/>
       <c r="I3" s="151"/>
     </row>
-    <row r="4" spans="3:39" x14ac:dyDescent="0.3">
-      <c r="C4" s="155"/>
-      <c r="D4" s="155"/>
-      <c r="E4" s="155"/>
-      <c r="F4" s="155"/>
-      <c r="G4" s="155"/>
-      <c r="H4" s="155"/>
+    <row r="4" spans="3:39" x14ac:dyDescent="0.25">
+      <c r="C4" s="171"/>
+      <c r="D4" s="171"/>
+      <c r="E4" s="171"/>
+      <c r="F4" s="171"/>
+      <c r="G4" s="171"/>
+      <c r="H4" s="171"/>
       <c r="I4" s="151"/>
     </row>
-    <row r="5" spans="3:39" x14ac:dyDescent="0.3">
-      <c r="C5" s="155"/>
-      <c r="D5" s="155"/>
-      <c r="E5" s="155"/>
-      <c r="F5" s="155"/>
-      <c r="G5" s="155"/>
-      <c r="H5" s="155"/>
+    <row r="5" spans="3:39" x14ac:dyDescent="0.25">
+      <c r="C5" s="171"/>
+      <c r="D5" s="171"/>
+      <c r="E5" s="171"/>
+      <c r="F5" s="171"/>
+      <c r="G5" s="171"/>
+      <c r="H5" s="171"/>
       <c r="I5" s="151"/>
     </row>
-    <row r="6" spans="3:39" x14ac:dyDescent="0.3">
-      <c r="C6" s="155"/>
-      <c r="D6" s="155"/>
-      <c r="E6" s="155"/>
-      <c r="F6" s="155"/>
-      <c r="G6" s="155"/>
-      <c r="H6" s="155"/>
+    <row r="6" spans="3:39" x14ac:dyDescent="0.25">
+      <c r="C6" s="171"/>
+      <c r="D6" s="171"/>
+      <c r="E6" s="171"/>
+      <c r="F6" s="171"/>
+      <c r="G6" s="171"/>
+      <c r="H6" s="171"/>
       <c r="I6" s="151"/>
     </row>
-    <row r="11" spans="3:39" ht="36.6" x14ac:dyDescent="0.7">
+    <row r="11" spans="3:39" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="C11" s="150" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D11" s="146"/>
       <c r="E11" s="146"/>
@@ -2773,131 +2848,131 @@
       <c r="AL11" s="152"/>
       <c r="AM11" s="153"/>
     </row>
-    <row r="14" spans="3:39" ht="25.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C14" s="225" t="s">
+    <row r="14" spans="3:39" ht="25.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C14" s="160" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="154"/>
+      <c r="E14" s="154"/>
+      <c r="H14" s="157"/>
+    </row>
+    <row r="15" spans="3:39" ht="24" x14ac:dyDescent="0.4">
+      <c r="C15" s="160"/>
+      <c r="D15" s="154"/>
+      <c r="E15" s="154"/>
+      <c r="H15" s="156"/>
+    </row>
+    <row r="16" spans="3:39" ht="25.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C16" s="160" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="154"/>
+      <c r="E16" s="154"/>
+      <c r="H16" s="159"/>
+    </row>
+    <row r="17" spans="3:9" ht="24" x14ac:dyDescent="0.4">
+      <c r="C17" s="160"/>
+      <c r="D17" s="154"/>
+      <c r="E17" s="154"/>
+      <c r="H17" s="156"/>
+    </row>
+    <row r="18" spans="3:9" ht="25.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C18" s="160" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="219"/>
-      <c r="E14" s="219"/>
-      <c r="H14" s="222"/>
-    </row>
-    <row r="15" spans="3:39" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="C15" s="225"/>
-      <c r="D15" s="219"/>
-      <c r="E15" s="219"/>
-      <c r="H15" s="221"/>
-    </row>
-    <row r="16" spans="3:39" ht="25.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C16" s="225" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="219"/>
-      <c r="E16" s="219"/>
-      <c r="H16" s="224"/>
-    </row>
-    <row r="17" spans="3:9" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="C17" s="225"/>
-      <c r="D17" s="219"/>
-      <c r="E17" s="219"/>
-      <c r="H17" s="221"/>
-    </row>
-    <row r="18" spans="3:9" ht="25.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C18" s="225" t="s">
+      <c r="D18" s="154"/>
+      <c r="E18" s="154"/>
+      <c r="H18" s="159"/>
+      <c r="I18" s="155"/>
+    </row>
+    <row r="19" spans="3:9" ht="24" x14ac:dyDescent="0.4">
+      <c r="C19" s="160"/>
+      <c r="D19" s="154"/>
+      <c r="E19" s="154"/>
+      <c r="H19" s="156"/>
+    </row>
+    <row r="20" spans="3:9" ht="25.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C20" s="160" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="219"/>
-      <c r="E18" s="219"/>
-      <c r="H18" s="224"/>
-      <c r="I18" s="220"/>
-    </row>
-    <row r="19" spans="3:9" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="C19" s="225"/>
-      <c r="D19" s="219"/>
-      <c r="E19" s="219"/>
-      <c r="H19" s="221"/>
-    </row>
-    <row r="20" spans="3:9" ht="25.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C20" s="225" t="s">
+      <c r="D20" s="154"/>
+      <c r="E20" s="154"/>
+      <c r="H20" s="159"/>
+    </row>
+    <row r="21" spans="3:9" ht="24" x14ac:dyDescent="0.4">
+      <c r="C21" s="160"/>
+      <c r="D21" s="154"/>
+      <c r="E21" s="154"/>
+      <c r="H21" s="156"/>
+    </row>
+    <row r="22" spans="3:9" ht="25.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C22" s="160" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="219"/>
-      <c r="E20" s="219"/>
-      <c r="H20" s="224"/>
-    </row>
-    <row r="21" spans="3:9" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="C21" s="225"/>
-      <c r="D21" s="219"/>
-      <c r="E21" s="219"/>
-      <c r="H21" s="221"/>
-    </row>
-    <row r="22" spans="3:9" ht="25.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C22" s="225" t="s">
+      <c r="D22" s="154"/>
+      <c r="E22" s="154"/>
+      <c r="H22" s="159"/>
+    </row>
+    <row r="23" spans="3:9" ht="24" x14ac:dyDescent="0.4">
+      <c r="C23" s="160"/>
+      <c r="D23" s="154"/>
+      <c r="E23" s="154"/>
+      <c r="H23" s="156"/>
+    </row>
+    <row r="24" spans="3:9" ht="25.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C24" s="160" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="219"/>
-      <c r="E22" s="219"/>
-      <c r="H22" s="224"/>
-    </row>
-    <row r="23" spans="3:9" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="C23" s="225"/>
-      <c r="D23" s="219"/>
-      <c r="E23" s="219"/>
-      <c r="H23" s="221"/>
-    </row>
-    <row r="24" spans="3:9" ht="25.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C24" s="225" t="s">
+      <c r="D24" s="154"/>
+      <c r="E24" s="154"/>
+      <c r="H24" s="159"/>
+      <c r="I24" s="154"/>
+    </row>
+    <row r="25" spans="3:9" ht="24" x14ac:dyDescent="0.4">
+      <c r="C25" s="160"/>
+      <c r="D25" s="154"/>
+      <c r="E25" s="154"/>
+      <c r="H25" s="156"/>
+    </row>
+    <row r="26" spans="3:9" ht="25.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C26" s="160" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="219"/>
-      <c r="E24" s="219"/>
-      <c r="H24" s="224"/>
-      <c r="I24" s="219"/>
-    </row>
-    <row r="25" spans="3:9" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="C25" s="225"/>
-      <c r="D25" s="219"/>
-      <c r="E25" s="219"/>
-      <c r="H25" s="221"/>
-    </row>
-    <row r="26" spans="3:9" ht="25.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C26" s="225" t="s">
+      <c r="D26" s="154"/>
+      <c r="E26" s="154"/>
+      <c r="H26" s="159"/>
+    </row>
+    <row r="27" spans="3:9" ht="24" x14ac:dyDescent="0.4">
+      <c r="C27" s="160"/>
+      <c r="D27" s="154"/>
+      <c r="E27" s="154"/>
+      <c r="H27" s="156"/>
+    </row>
+    <row r="28" spans="3:9" ht="25.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C28" s="160" t="s">
         <v>53</v>
       </c>
-      <c r="D26" s="219"/>
-      <c r="E26" s="219"/>
-      <c r="H26" s="224"/>
-    </row>
-    <row r="27" spans="3:9" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="C27" s="225"/>
-      <c r="D27" s="219"/>
-      <c r="E27" s="219"/>
-      <c r="H27" s="221"/>
-    </row>
-    <row r="28" spans="3:9" ht="25.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C28" s="225" t="s">
+      <c r="D28" s="154"/>
+      <c r="E28" s="154"/>
+      <c r="H28" s="159"/>
+    </row>
+    <row r="29" spans="3:9" ht="24" x14ac:dyDescent="0.4">
+      <c r="C29" s="160"/>
+      <c r="D29" s="154"/>
+      <c r="E29" s="154"/>
+      <c r="H29" s="156"/>
+    </row>
+    <row r="30" spans="3:9" ht="25.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C30" s="160" t="s">
         <v>54</v>
       </c>
-      <c r="D28" s="219"/>
-      <c r="E28" s="219"/>
-      <c r="H28" s="224"/>
-    </row>
-    <row r="29" spans="3:9" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="C29" s="225"/>
-      <c r="D29" s="219"/>
-      <c r="E29" s="219"/>
-      <c r="H29" s="221"/>
-    </row>
-    <row r="30" spans="3:9" ht="25.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C30" s="225" t="s">
+      <c r="D30" s="154"/>
+      <c r="E30" s="154"/>
+      <c r="H30" s="159"/>
+    </row>
+    <row r="34" spans="3:39" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="C34" s="150" t="s">
         <v>55</v>
-      </c>
-      <c r="D30" s="219"/>
-      <c r="E30" s="219"/>
-      <c r="H30" s="224"/>
-    </row>
-    <row r="34" spans="3:39" ht="36.6" x14ac:dyDescent="0.7">
-      <c r="C34" s="150" t="s">
-        <v>56</v>
       </c>
       <c r="D34" s="146"/>
       <c r="E34" s="146"/>
@@ -2936,489 +3011,520 @@
       <c r="AL34" s="152"/>
       <c r="AM34" s="153"/>
     </row>
-    <row r="36" spans="3:39" x14ac:dyDescent="0.3">
-      <c r="C36" s="229"/>
-      <c r="D36" s="229"/>
-      <c r="E36" s="229"/>
-      <c r="F36" s="229"/>
-      <c r="G36" s="229"/>
-      <c r="H36" s="229"/>
-      <c r="I36" s="229"/>
-      <c r="J36" s="229"/>
-      <c r="K36" s="229"/>
-      <c r="L36" s="229"/>
-      <c r="M36" s="229"/>
-      <c r="N36" s="229"/>
-      <c r="O36" s="229"/>
-      <c r="P36" s="229"/>
-      <c r="Q36" s="229"/>
-      <c r="R36" s="229"/>
-      <c r="S36" s="229"/>
-      <c r="T36" s="229"/>
-      <c r="U36" s="229"/>
-      <c r="V36" s="229"/>
-      <c r="W36" s="229"/>
-      <c r="X36" s="229"/>
-      <c r="Y36" s="229"/>
-      <c r="Z36" s="229"/>
-      <c r="AA36" s="229"/>
-      <c r="AB36" s="229"/>
-      <c r="AC36" s="229"/>
-      <c r="AD36" s="229"/>
-      <c r="AE36" s="229"/>
-    </row>
-    <row r="37" spans="3:39" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="C37" s="230"/>
-      <c r="D37" s="231"/>
-      <c r="E37" s="231"/>
-      <c r="F37" s="229"/>
-      <c r="G37" s="229"/>
-      <c r="H37" s="232"/>
-      <c r="I37" s="229"/>
-      <c r="J37" s="229"/>
-      <c r="K37" s="229"/>
-      <c r="L37" s="229"/>
-      <c r="M37" s="229"/>
-      <c r="N37" s="229"/>
-      <c r="O37" s="229"/>
-      <c r="P37" s="229"/>
-      <c r="Q37" s="229"/>
-      <c r="R37" s="229"/>
-      <c r="S37" s="229"/>
-      <c r="T37" s="229"/>
-      <c r="U37" s="229"/>
-      <c r="V37" s="229"/>
-      <c r="W37" s="229"/>
-      <c r="X37" s="229"/>
-      <c r="Y37" s="229"/>
-      <c r="Z37" s="229"/>
-      <c r="AA37" s="229"/>
-      <c r="AB37" s="229"/>
-      <c r="AC37" s="229"/>
-      <c r="AD37" s="229"/>
-      <c r="AE37" s="229"/>
-    </row>
-    <row r="38" spans="3:39" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="C38" s="230"/>
-      <c r="D38" s="231"/>
-      <c r="E38" s="231"/>
-      <c r="F38" s="229"/>
-      <c r="G38" s="229"/>
-      <c r="H38" s="233"/>
-      <c r="I38" s="229"/>
-      <c r="J38" s="229"/>
-      <c r="K38" s="229"/>
-      <c r="L38" s="229"/>
-      <c r="M38" s="229"/>
-      <c r="N38" s="229"/>
-      <c r="O38" s="229"/>
-      <c r="P38" s="229"/>
-      <c r="Q38" s="229"/>
-      <c r="R38" s="229"/>
-      <c r="S38" s="229"/>
-      <c r="T38" s="229"/>
-      <c r="U38" s="229"/>
-      <c r="V38" s="229"/>
-      <c r="W38" s="229"/>
-      <c r="X38" s="229"/>
-      <c r="Y38" s="229"/>
-      <c r="Z38" s="229"/>
-      <c r="AA38" s="229"/>
-      <c r="AB38" s="229"/>
-      <c r="AC38" s="229"/>
-      <c r="AD38" s="229"/>
-      <c r="AE38" s="229"/>
-    </row>
-    <row r="39" spans="3:39" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="C39" s="234"/>
-      <c r="D39" s="231"/>
-      <c r="E39" s="231"/>
-      <c r="F39" s="229"/>
-      <c r="G39" s="229"/>
-      <c r="H39" s="235"/>
-      <c r="I39" s="229"/>
-      <c r="J39" s="229"/>
-      <c r="K39" s="229"/>
-      <c r="L39" s="229"/>
-      <c r="M39" s="229"/>
-      <c r="N39" s="229"/>
-      <c r="O39" s="229"/>
-      <c r="P39" s="229"/>
-      <c r="Q39" s="229"/>
-      <c r="R39" s="229"/>
-      <c r="S39" s="229"/>
-      <c r="T39" s="229"/>
-      <c r="U39" s="229"/>
-      <c r="V39" s="229"/>
-      <c r="W39" s="229"/>
-      <c r="X39" s="229"/>
-      <c r="Y39" s="229"/>
-      <c r="Z39" s="229"/>
-      <c r="AA39" s="229"/>
-      <c r="AB39" s="229"/>
-      <c r="AC39" s="229"/>
-      <c r="AD39" s="229"/>
-      <c r="AE39" s="229"/>
-    </row>
-    <row r="40" spans="3:39" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="C40" s="235"/>
-      <c r="D40" s="231"/>
-      <c r="E40" s="231"/>
-      <c r="F40" s="229"/>
-      <c r="G40" s="229"/>
-      <c r="H40" s="233"/>
-      <c r="I40" s="229"/>
-      <c r="J40" s="229"/>
-      <c r="K40" s="229"/>
-      <c r="L40" s="229"/>
-      <c r="M40" s="229"/>
-      <c r="N40" s="229"/>
-      <c r="O40" s="229"/>
-      <c r="P40" s="229"/>
-      <c r="Q40" s="229"/>
-      <c r="R40" s="229"/>
-      <c r="S40" s="229"/>
-      <c r="T40" s="229"/>
-      <c r="U40" s="229"/>
-      <c r="V40" s="229"/>
-      <c r="W40" s="229"/>
-      <c r="X40" s="229"/>
-      <c r="Y40" s="229"/>
-      <c r="Z40" s="229"/>
-      <c r="AA40" s="229"/>
-      <c r="AB40" s="229"/>
-      <c r="AC40" s="229"/>
-      <c r="AD40" s="229"/>
-      <c r="AE40" s="229"/>
-    </row>
-    <row r="41" spans="3:39" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="C41" s="235"/>
-      <c r="D41" s="231"/>
-      <c r="E41" s="231"/>
-      <c r="F41" s="229"/>
-      <c r="G41" s="229"/>
-      <c r="H41" s="235"/>
-      <c r="I41" s="236"/>
-      <c r="J41" s="229"/>
-      <c r="K41" s="229"/>
-      <c r="L41" s="229"/>
-      <c r="M41" s="229"/>
-      <c r="N41" s="229"/>
-      <c r="O41" s="229"/>
-      <c r="P41" s="229"/>
-      <c r="Q41" s="229"/>
-      <c r="R41" s="229"/>
-      <c r="S41" s="229"/>
-      <c r="T41" s="229"/>
-      <c r="U41" s="229"/>
-      <c r="V41" s="229"/>
-      <c r="W41" s="229"/>
-      <c r="X41" s="229"/>
-      <c r="Y41" s="229"/>
-      <c r="Z41" s="229"/>
-      <c r="AA41" s="229"/>
-      <c r="AB41" s="229"/>
-      <c r="AC41" s="229"/>
-      <c r="AD41" s="229"/>
-      <c r="AE41" s="229"/>
-    </row>
-    <row r="42" spans="3:39" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="C42" s="235"/>
-      <c r="D42" s="231"/>
-      <c r="E42" s="231"/>
-      <c r="F42" s="229"/>
-      <c r="G42" s="229"/>
-      <c r="H42" s="233"/>
-      <c r="I42" s="229"/>
-      <c r="J42" s="229"/>
-      <c r="K42" s="229"/>
-      <c r="L42" s="229"/>
-      <c r="M42" s="229"/>
-      <c r="N42" s="229"/>
-      <c r="O42" s="229"/>
-      <c r="P42" s="229"/>
-      <c r="Q42" s="229"/>
-      <c r="R42" s="229"/>
-      <c r="S42" s="229"/>
-      <c r="T42" s="229"/>
-      <c r="U42" s="229"/>
-      <c r="V42" s="229"/>
-      <c r="W42" s="229"/>
-      <c r="X42" s="229"/>
-      <c r="Y42" s="229"/>
-      <c r="Z42" s="229"/>
-      <c r="AA42" s="229"/>
-      <c r="AB42" s="229"/>
-      <c r="AC42" s="229"/>
-      <c r="AD42" s="229"/>
-      <c r="AE42" s="229"/>
-    </row>
-    <row r="43" spans="3:39" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="C43" s="235"/>
-      <c r="D43" s="231"/>
-      <c r="E43" s="231"/>
-      <c r="F43" s="229"/>
-      <c r="G43" s="229"/>
-      <c r="H43" s="235"/>
-      <c r="I43" s="229"/>
-      <c r="J43" s="229"/>
-      <c r="K43" s="229"/>
-      <c r="L43" s="229"/>
-      <c r="M43" s="229"/>
-      <c r="N43" s="229"/>
-      <c r="O43" s="229"/>
-      <c r="P43" s="229"/>
-      <c r="Q43" s="229"/>
-      <c r="R43" s="229"/>
-      <c r="S43" s="229"/>
-      <c r="T43" s="229"/>
-      <c r="U43" s="229"/>
-      <c r="V43" s="229"/>
-      <c r="W43" s="229"/>
-      <c r="X43" s="229"/>
-      <c r="Y43" s="229"/>
-      <c r="Z43" s="229"/>
-      <c r="AA43" s="229"/>
-      <c r="AB43" s="229"/>
-      <c r="AC43" s="229"/>
-      <c r="AD43" s="229"/>
-      <c r="AE43" s="229"/>
-    </row>
-    <row r="44" spans="3:39" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="C44" s="235"/>
-      <c r="D44" s="231"/>
-      <c r="E44" s="231"/>
-      <c r="F44" s="229"/>
-      <c r="G44" s="229"/>
-      <c r="H44" s="233"/>
-      <c r="I44" s="229"/>
-      <c r="J44" s="229"/>
-      <c r="K44" s="229"/>
-      <c r="L44" s="229"/>
-      <c r="M44" s="229"/>
-      <c r="N44" s="229"/>
-      <c r="O44" s="229"/>
-      <c r="P44" s="229"/>
-      <c r="Q44" s="229"/>
-      <c r="R44" s="229"/>
-      <c r="S44" s="229"/>
-      <c r="T44" s="229"/>
-      <c r="U44" s="229"/>
-      <c r="V44" s="229"/>
-      <c r="W44" s="229"/>
-      <c r="X44" s="229"/>
-      <c r="Y44" s="229"/>
-      <c r="Z44" s="229"/>
-      <c r="AA44" s="229"/>
-      <c r="AB44" s="229"/>
-      <c r="AC44" s="229"/>
-      <c r="AD44" s="229"/>
-      <c r="AE44" s="229"/>
-    </row>
-    <row r="45" spans="3:39" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="C45" s="235"/>
-      <c r="D45" s="231"/>
-      <c r="E45" s="231"/>
-      <c r="F45" s="229"/>
-      <c r="G45" s="229"/>
-      <c r="H45" s="235"/>
-      <c r="I45" s="229"/>
-      <c r="J45" s="229"/>
-      <c r="K45" s="229"/>
-      <c r="L45" s="229"/>
-      <c r="M45" s="229"/>
-      <c r="N45" s="229"/>
-      <c r="O45" s="229"/>
-      <c r="P45" s="229"/>
-      <c r="Q45" s="229"/>
-      <c r="R45" s="229"/>
-      <c r="S45" s="229"/>
-      <c r="T45" s="229"/>
-      <c r="U45" s="229"/>
-      <c r="V45" s="229"/>
-      <c r="W45" s="229"/>
-      <c r="X45" s="229"/>
-      <c r="Y45" s="229"/>
-      <c r="Z45" s="229"/>
-      <c r="AA45" s="229"/>
-      <c r="AB45" s="229"/>
-      <c r="AC45" s="229"/>
-      <c r="AD45" s="229"/>
-      <c r="AE45" s="229"/>
-    </row>
-    <row r="46" spans="3:39" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="C46" s="235"/>
-      <c r="D46" s="231"/>
-      <c r="E46" s="231"/>
-      <c r="F46" s="229"/>
-      <c r="G46" s="229"/>
-      <c r="H46" s="233"/>
-      <c r="I46" s="229"/>
-      <c r="J46" s="229"/>
-      <c r="K46" s="229"/>
-      <c r="L46" s="229"/>
-      <c r="M46" s="229"/>
-      <c r="N46" s="229"/>
-      <c r="O46" s="229"/>
-      <c r="P46" s="229"/>
-      <c r="Q46" s="229"/>
-      <c r="R46" s="229"/>
-      <c r="S46" s="229"/>
-      <c r="T46" s="229"/>
-      <c r="U46" s="229"/>
-      <c r="V46" s="229"/>
-      <c r="W46" s="229"/>
-      <c r="X46" s="229"/>
-      <c r="Y46" s="229"/>
-      <c r="Z46" s="229"/>
-      <c r="AA46" s="229"/>
-      <c r="AB46" s="229"/>
-      <c r="AC46" s="229"/>
-      <c r="AD46" s="229"/>
-      <c r="AE46" s="229"/>
-    </row>
-    <row r="47" spans="3:39" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="C47" s="235"/>
-      <c r="D47" s="231"/>
-      <c r="E47" s="231"/>
-      <c r="F47" s="229"/>
-      <c r="G47" s="229"/>
-      <c r="H47" s="235"/>
-      <c r="I47" s="231"/>
-      <c r="J47" s="229"/>
-      <c r="K47" s="229"/>
-      <c r="L47" s="229"/>
-      <c r="M47" s="229"/>
-      <c r="N47" s="229"/>
-      <c r="O47" s="229"/>
-      <c r="P47" s="229"/>
-      <c r="Q47" s="229"/>
-      <c r="R47" s="229"/>
-      <c r="S47" s="229"/>
-      <c r="T47" s="229"/>
-      <c r="U47" s="229"/>
-      <c r="V47" s="229"/>
-      <c r="W47" s="229"/>
-      <c r="X47" s="229"/>
-      <c r="Y47" s="229"/>
-      <c r="Z47" s="229"/>
-      <c r="AA47" s="229"/>
-      <c r="AB47" s="229"/>
-      <c r="AC47" s="229"/>
-      <c r="AD47" s="229"/>
-      <c r="AE47" s="229"/>
-    </row>
-    <row r="48" spans="3:39" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="C48" s="235"/>
-      <c r="D48" s="231"/>
-      <c r="E48" s="231"/>
-      <c r="F48" s="229"/>
-      <c r="G48" s="229"/>
-      <c r="H48" s="233"/>
-      <c r="I48" s="229"/>
-      <c r="J48" s="229"/>
-      <c r="K48" s="229"/>
-      <c r="L48" s="229"/>
-      <c r="M48" s="229"/>
-      <c r="N48" s="229"/>
-      <c r="O48" s="229"/>
-      <c r="P48" s="229"/>
-      <c r="Q48" s="229"/>
-      <c r="R48" s="229"/>
-      <c r="S48" s="229"/>
-      <c r="T48" s="229"/>
-      <c r="U48" s="229"/>
-      <c r="V48" s="229"/>
-      <c r="W48" s="229"/>
-      <c r="X48" s="229"/>
-      <c r="Y48" s="229"/>
-      <c r="Z48" s="229"/>
-      <c r="AA48" s="229"/>
-      <c r="AB48" s="229"/>
-      <c r="AC48" s="229"/>
-      <c r="AD48" s="229"/>
-      <c r="AE48" s="229"/>
-    </row>
-    <row r="49" spans="3:11" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="C49" s="226"/>
-      <c r="D49" s="227"/>
-      <c r="E49" s="227"/>
-      <c r="F49" s="228"/>
-      <c r="G49" s="228"/>
-      <c r="H49" s="223"/>
-      <c r="I49" s="228"/>
-      <c r="J49" s="228"/>
-      <c r="K49" s="228"/>
-    </row>
-    <row r="50" spans="3:11" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="C50" s="226"/>
-      <c r="D50" s="227"/>
-      <c r="E50" s="227"/>
-      <c r="F50" s="228"/>
-      <c r="G50" s="228"/>
-      <c r="H50" s="221"/>
-      <c r="I50" s="228"/>
-      <c r="J50" s="228"/>
-      <c r="K50" s="228"/>
-    </row>
-    <row r="51" spans="3:11" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="C51" s="226"/>
-      <c r="D51" s="227"/>
-      <c r="E51" s="227"/>
-      <c r="F51" s="228"/>
-      <c r="G51" s="228"/>
-      <c r="H51" s="223"/>
-      <c r="I51" s="228"/>
-      <c r="J51" s="228"/>
-      <c r="K51" s="228"/>
-    </row>
-    <row r="52" spans="3:11" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="C52" s="226"/>
-      <c r="D52" s="227"/>
-      <c r="E52" s="227"/>
-      <c r="F52" s="228"/>
-      <c r="G52" s="228"/>
-      <c r="H52" s="221"/>
-      <c r="I52" s="228"/>
-      <c r="J52" s="228"/>
-      <c r="K52" s="228"/>
-    </row>
-    <row r="53" spans="3:11" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="C53" s="226"/>
-      <c r="D53" s="227"/>
-      <c r="E53" s="227"/>
-      <c r="F53" s="228"/>
-      <c r="G53" s="228"/>
-      <c r="H53" s="223"/>
-      <c r="I53" s="228"/>
-      <c r="J53" s="228"/>
-      <c r="K53" s="228"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C54" s="228"/>
-      <c r="D54" s="228"/>
-      <c r="E54" s="228"/>
-      <c r="F54" s="228"/>
-      <c r="G54" s="228"/>
-      <c r="H54" s="228"/>
-      <c r="I54" s="228"/>
-      <c r="J54" s="228"/>
-      <c r="K54" s="228"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C55" s="228"/>
-      <c r="D55" s="228"/>
-      <c r="E55" s="228"/>
-      <c r="F55" s="228"/>
-      <c r="G55" s="228"/>
-      <c r="H55" s="228"/>
-      <c r="I55" s="228"/>
-      <c r="J55" s="228"/>
-      <c r="K55" s="228"/>
+    <row r="36" spans="3:39" x14ac:dyDescent="0.25">
+      <c r="C36" s="164"/>
+      <c r="D36" s="164"/>
+      <c r="E36" s="164"/>
+      <c r="F36" s="164"/>
+      <c r="G36" s="164"/>
+      <c r="H36" s="164"/>
+      <c r="I36" s="164"/>
+      <c r="J36" s="164"/>
+      <c r="K36" s="164"/>
+      <c r="L36" s="164"/>
+      <c r="M36" s="164"/>
+      <c r="N36" s="164"/>
+      <c r="O36" s="164"/>
+      <c r="P36" s="164"/>
+      <c r="Q36" s="164"/>
+      <c r="R36" s="164"/>
+      <c r="S36" s="164"/>
+      <c r="T36" s="164"/>
+      <c r="U36" s="164"/>
+      <c r="V36" s="164"/>
+      <c r="W36" s="164"/>
+      <c r="X36" s="164"/>
+      <c r="Y36" s="164"/>
+      <c r="Z36" s="164"/>
+      <c r="AA36" s="164"/>
+      <c r="AB36" s="164"/>
+      <c r="AC36" s="164"/>
+      <c r="AD36" s="164"/>
+      <c r="AE36" s="164"/>
+    </row>
+    <row r="37" spans="3:39" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="C37" s="236" t="s">
+        <v>56</v>
+      </c>
+      <c r="D37" s="166"/>
+      <c r="E37" s="166"/>
+      <c r="F37" s="164"/>
+      <c r="G37" s="164"/>
+      <c r="H37" s="237" t="s">
+        <v>57</v>
+      </c>
+      <c r="I37" s="164"/>
+      <c r="J37" s="164"/>
+      <c r="K37" s="164"/>
+      <c r="L37" s="164"/>
+      <c r="M37" s="164"/>
+      <c r="N37" s="164"/>
+      <c r="O37" s="164"/>
+      <c r="P37" s="164"/>
+      <c r="Q37" s="164"/>
+      <c r="R37" s="164"/>
+      <c r="S37" s="164"/>
+      <c r="T37" s="164"/>
+      <c r="U37" s="164"/>
+      <c r="V37" s="164"/>
+      <c r="W37" s="164"/>
+      <c r="X37" s="164"/>
+      <c r="Y37" s="164"/>
+      <c r="Z37" s="164"/>
+      <c r="AA37" s="164"/>
+      <c r="AB37" s="164"/>
+      <c r="AC37" s="164"/>
+      <c r="AD37" s="164"/>
+      <c r="AE37" s="164"/>
+      <c r="AH37" s="238" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="3:39" ht="24" x14ac:dyDescent="0.4">
+      <c r="C38" s="165"/>
+      <c r="D38" s="166"/>
+      <c r="E38" s="166"/>
+      <c r="F38" s="164"/>
+      <c r="G38" s="164"/>
+      <c r="H38" s="167"/>
+      <c r="I38" s="164"/>
+      <c r="J38" s="164"/>
+      <c r="K38" s="164"/>
+      <c r="L38" s="164"/>
+      <c r="M38" s="164"/>
+      <c r="N38" s="164"/>
+      <c r="O38" s="164"/>
+      <c r="P38" s="164"/>
+      <c r="Q38" s="164"/>
+      <c r="R38" s="164"/>
+      <c r="S38" s="164"/>
+      <c r="T38" s="164"/>
+      <c r="U38" s="164"/>
+      <c r="V38" s="164"/>
+      <c r="W38" s="164"/>
+      <c r="X38" s="164"/>
+      <c r="Y38" s="164"/>
+      <c r="Z38" s="164"/>
+      <c r="AA38" s="164"/>
+      <c r="AB38" s="164"/>
+      <c r="AC38" s="164"/>
+      <c r="AD38" s="164"/>
+      <c r="AE38" s="164"/>
+    </row>
+    <row r="39" spans="3:39" s="154" customFormat="1" ht="24" x14ac:dyDescent="0.4">
+      <c r="C39" s="241"/>
+      <c r="D39" s="242"/>
+      <c r="E39" s="242"/>
+      <c r="F39" s="242"/>
+      <c r="G39" s="243"/>
+      <c r="H39" s="248"/>
+      <c r="I39" s="248"/>
+      <c r="J39" s="248"/>
+      <c r="K39" s="248"/>
+      <c r="L39" s="248"/>
+      <c r="M39" s="248"/>
+      <c r="N39" s="248"/>
+      <c r="O39" s="248"/>
+      <c r="P39" s="248"/>
+      <c r="Q39" s="248"/>
+      <c r="R39" s="248"/>
+      <c r="S39" s="248"/>
+      <c r="T39" s="248"/>
+      <c r="U39" s="248"/>
+      <c r="V39" s="248"/>
+      <c r="W39" s="248"/>
+      <c r="X39" s="248"/>
+      <c r="Y39" s="248"/>
+      <c r="Z39" s="248"/>
+      <c r="AA39" s="248"/>
+      <c r="AB39" s="248"/>
+      <c r="AC39" s="248"/>
+      <c r="AD39" s="248"/>
+      <c r="AE39" s="248"/>
+      <c r="AF39" s="248"/>
+      <c r="AG39" s="244"/>
+      <c r="AH39" s="245"/>
+      <c r="AI39" s="246"/>
+      <c r="AJ39" s="246"/>
+      <c r="AK39" s="246"/>
+      <c r="AL39" s="246"/>
+      <c r="AM39" s="246"/>
+    </row>
+    <row r="40" spans="3:39" s="154" customFormat="1" ht="24" x14ac:dyDescent="0.4">
+      <c r="C40" s="241"/>
+      <c r="D40" s="242"/>
+      <c r="E40" s="242"/>
+      <c r="F40" s="242"/>
+      <c r="G40" s="243"/>
+      <c r="H40" s="248"/>
+      <c r="I40" s="248"/>
+      <c r="J40" s="248"/>
+      <c r="K40" s="248"/>
+      <c r="L40" s="248"/>
+      <c r="M40" s="248"/>
+      <c r="N40" s="248"/>
+      <c r="O40" s="248"/>
+      <c r="P40" s="248"/>
+      <c r="Q40" s="248"/>
+      <c r="R40" s="248"/>
+      <c r="S40" s="248"/>
+      <c r="T40" s="248"/>
+      <c r="U40" s="248"/>
+      <c r="V40" s="248"/>
+      <c r="W40" s="248"/>
+      <c r="X40" s="248"/>
+      <c r="Y40" s="248"/>
+      <c r="Z40" s="248"/>
+      <c r="AA40" s="248"/>
+      <c r="AB40" s="248"/>
+      <c r="AC40" s="248"/>
+      <c r="AD40" s="248"/>
+      <c r="AE40" s="248"/>
+      <c r="AF40" s="248"/>
+      <c r="AG40" s="244"/>
+      <c r="AH40" s="245"/>
+      <c r="AI40" s="246"/>
+      <c r="AJ40" s="246"/>
+      <c r="AK40" s="246"/>
+      <c r="AL40" s="246"/>
+      <c r="AM40" s="246"/>
+    </row>
+    <row r="41" spans="3:39" ht="24" x14ac:dyDescent="0.4">
+      <c r="C41" s="169"/>
+      <c r="D41" s="239"/>
+      <c r="E41" s="239"/>
+      <c r="F41" s="239"/>
+      <c r="G41" s="164"/>
+      <c r="H41" s="247"/>
+      <c r="I41" s="247"/>
+      <c r="J41" s="247"/>
+      <c r="K41" s="247"/>
+      <c r="L41" s="247"/>
+      <c r="M41" s="247"/>
+      <c r="N41" s="247"/>
+      <c r="O41" s="247"/>
+      <c r="P41" s="247"/>
+      <c r="Q41" s="247"/>
+      <c r="R41" s="247"/>
+      <c r="S41" s="247"/>
+      <c r="T41" s="247"/>
+      <c r="U41" s="247"/>
+      <c r="V41" s="247"/>
+      <c r="W41" s="247"/>
+      <c r="X41" s="247"/>
+      <c r="Y41" s="247"/>
+      <c r="Z41" s="247"/>
+      <c r="AA41" s="247"/>
+      <c r="AB41" s="247"/>
+      <c r="AC41" s="247"/>
+      <c r="AD41" s="247"/>
+      <c r="AE41" s="247"/>
+      <c r="AF41" s="247"/>
+      <c r="AH41" s="170"/>
+      <c r="AI41" s="170"/>
+      <c r="AJ41" s="170"/>
+      <c r="AK41" s="170"/>
+      <c r="AL41" s="170"/>
+      <c r="AM41" s="170"/>
+    </row>
+    <row r="42" spans="3:39" ht="24" x14ac:dyDescent="0.4">
+      <c r="C42" s="168"/>
+      <c r="D42" s="166"/>
+      <c r="E42" s="166"/>
+      <c r="F42" s="164"/>
+      <c r="G42" s="164"/>
+      <c r="H42" s="167"/>
+      <c r="I42" s="164"/>
+      <c r="J42" s="164"/>
+      <c r="K42" s="164"/>
+      <c r="L42" s="164"/>
+      <c r="M42" s="164"/>
+      <c r="N42" s="164"/>
+      <c r="O42" s="164"/>
+      <c r="P42" s="164"/>
+      <c r="Q42" s="164"/>
+      <c r="R42" s="164"/>
+      <c r="S42" s="164"/>
+      <c r="T42" s="164"/>
+      <c r="U42" s="164"/>
+      <c r="V42" s="164"/>
+      <c r="W42" s="164"/>
+      <c r="X42" s="164"/>
+      <c r="Y42" s="164"/>
+      <c r="Z42" s="164"/>
+      <c r="AA42" s="164"/>
+      <c r="AB42" s="164"/>
+      <c r="AC42" s="164"/>
+      <c r="AD42" s="164"/>
+      <c r="AE42" s="164"/>
+    </row>
+    <row r="43" spans="3:39" ht="24" x14ac:dyDescent="0.4">
+      <c r="C43" s="168"/>
+      <c r="D43" s="166"/>
+      <c r="E43" s="166"/>
+      <c r="F43" s="164"/>
+      <c r="G43" s="164"/>
+      <c r="H43" s="240"/>
+      <c r="I43" s="164"/>
+      <c r="J43" s="164"/>
+      <c r="K43" s="164"/>
+      <c r="L43" s="164"/>
+      <c r="M43" s="164"/>
+      <c r="N43" s="164"/>
+      <c r="O43" s="164"/>
+      <c r="P43" s="164"/>
+      <c r="Q43" s="164"/>
+      <c r="R43" s="164"/>
+      <c r="S43" s="164"/>
+      <c r="T43" s="164"/>
+      <c r="U43" s="164"/>
+      <c r="V43" s="164"/>
+      <c r="W43" s="164"/>
+      <c r="X43" s="164"/>
+      <c r="Y43" s="164"/>
+      <c r="Z43" s="164"/>
+      <c r="AA43" s="164"/>
+      <c r="AB43" s="164"/>
+      <c r="AC43" s="164"/>
+      <c r="AD43" s="164"/>
+      <c r="AE43" s="164"/>
+    </row>
+    <row r="44" spans="3:39" ht="24" x14ac:dyDescent="0.4">
+      <c r="C44" s="168"/>
+      <c r="D44" s="166"/>
+      <c r="E44" s="166"/>
+      <c r="F44" s="164"/>
+      <c r="G44" s="164"/>
+      <c r="H44" s="167"/>
+      <c r="I44" s="164"/>
+      <c r="J44" s="164"/>
+      <c r="K44" s="164"/>
+      <c r="L44" s="164"/>
+      <c r="M44" s="164"/>
+      <c r="N44" s="164"/>
+      <c r="O44" s="164"/>
+      <c r="P44" s="164"/>
+      <c r="Q44" s="164"/>
+      <c r="R44" s="164"/>
+      <c r="S44" s="164"/>
+      <c r="T44" s="164"/>
+      <c r="U44" s="164"/>
+      <c r="V44" s="164"/>
+      <c r="W44" s="164"/>
+      <c r="X44" s="164"/>
+      <c r="Y44" s="164"/>
+      <c r="Z44" s="164"/>
+      <c r="AA44" s="164"/>
+      <c r="AB44" s="164"/>
+      <c r="AC44" s="164"/>
+      <c r="AD44" s="164"/>
+      <c r="AE44" s="164"/>
+    </row>
+    <row r="45" spans="3:39" ht="24" x14ac:dyDescent="0.4">
+      <c r="C45" s="168"/>
+      <c r="D45" s="166"/>
+      <c r="E45" s="166"/>
+      <c r="F45" s="164"/>
+      <c r="G45" s="164"/>
+      <c r="H45" s="168"/>
+      <c r="I45" s="164"/>
+      <c r="J45" s="164"/>
+      <c r="K45" s="164"/>
+      <c r="L45" s="164"/>
+      <c r="M45" s="164"/>
+      <c r="N45" s="164"/>
+      <c r="O45" s="164"/>
+      <c r="P45" s="164"/>
+      <c r="Q45" s="164"/>
+      <c r="R45" s="164"/>
+      <c r="S45" s="164"/>
+      <c r="T45" s="164"/>
+      <c r="U45" s="164"/>
+      <c r="V45" s="164"/>
+      <c r="W45" s="164"/>
+      <c r="X45" s="164"/>
+      <c r="Y45" s="164"/>
+      <c r="Z45" s="164"/>
+      <c r="AA45" s="164"/>
+      <c r="AB45" s="164"/>
+      <c r="AC45" s="164"/>
+      <c r="AD45" s="164"/>
+      <c r="AE45" s="164"/>
+    </row>
+    <row r="46" spans="3:39" ht="24" x14ac:dyDescent="0.4">
+      <c r="C46" s="168"/>
+      <c r="D46" s="166"/>
+      <c r="E46" s="166"/>
+      <c r="F46" s="164"/>
+      <c r="G46" s="164"/>
+      <c r="H46" s="167"/>
+      <c r="I46" s="164"/>
+      <c r="J46" s="164"/>
+      <c r="K46" s="164"/>
+      <c r="L46" s="164"/>
+      <c r="M46" s="164"/>
+      <c r="N46" s="164"/>
+      <c r="O46" s="164"/>
+      <c r="P46" s="164"/>
+      <c r="Q46" s="164"/>
+      <c r="R46" s="164"/>
+      <c r="S46" s="164"/>
+      <c r="T46" s="164"/>
+      <c r="U46" s="164"/>
+      <c r="V46" s="164"/>
+      <c r="W46" s="164"/>
+      <c r="X46" s="164"/>
+      <c r="Y46" s="164"/>
+      <c r="Z46" s="164"/>
+      <c r="AA46" s="164"/>
+      <c r="AB46" s="164"/>
+      <c r="AC46" s="164"/>
+      <c r="AD46" s="164"/>
+      <c r="AE46" s="164"/>
+    </row>
+    <row r="47" spans="3:39" ht="24" x14ac:dyDescent="0.4">
+      <c r="C47" s="168"/>
+      <c r="D47" s="166"/>
+      <c r="E47" s="166"/>
+      <c r="F47" s="164"/>
+      <c r="G47" s="164"/>
+      <c r="H47" s="168"/>
+      <c r="I47" s="166"/>
+      <c r="J47" s="164"/>
+      <c r="K47" s="164"/>
+      <c r="L47" s="164"/>
+      <c r="M47" s="164"/>
+      <c r="N47" s="164"/>
+      <c r="O47" s="164"/>
+      <c r="P47" s="164"/>
+      <c r="Q47" s="164"/>
+      <c r="R47" s="164"/>
+      <c r="S47" s="164"/>
+      <c r="T47" s="164"/>
+      <c r="U47" s="164"/>
+      <c r="V47" s="164"/>
+      <c r="W47" s="164"/>
+      <c r="X47" s="164"/>
+      <c r="Y47" s="164"/>
+      <c r="Z47" s="164"/>
+      <c r="AA47" s="164"/>
+      <c r="AB47" s="164"/>
+      <c r="AC47" s="164"/>
+      <c r="AD47" s="164"/>
+      <c r="AE47" s="164"/>
+    </row>
+    <row r="48" spans="3:39" ht="24" x14ac:dyDescent="0.4">
+      <c r="C48" s="168"/>
+      <c r="D48" s="166"/>
+      <c r="E48" s="166"/>
+      <c r="F48" s="164"/>
+      <c r="G48" s="164"/>
+      <c r="H48" s="167"/>
+      <c r="I48" s="164"/>
+      <c r="J48" s="164"/>
+      <c r="K48" s="164"/>
+      <c r="L48" s="164"/>
+      <c r="M48" s="164"/>
+      <c r="N48" s="164"/>
+      <c r="O48" s="164"/>
+      <c r="P48" s="164"/>
+      <c r="Q48" s="164"/>
+      <c r="R48" s="164"/>
+      <c r="S48" s="164"/>
+      <c r="T48" s="164"/>
+      <c r="U48" s="164"/>
+      <c r="V48" s="164"/>
+      <c r="W48" s="164"/>
+      <c r="X48" s="164"/>
+      <c r="Y48" s="164"/>
+      <c r="Z48" s="164"/>
+      <c r="AA48" s="164"/>
+      <c r="AB48" s="164"/>
+      <c r="AC48" s="164"/>
+      <c r="AD48" s="164"/>
+      <c r="AE48" s="164"/>
+    </row>
+    <row r="49" spans="3:11" ht="24" x14ac:dyDescent="0.4">
+      <c r="C49" s="161"/>
+      <c r="D49" s="162"/>
+      <c r="E49" s="162"/>
+      <c r="F49" s="163"/>
+      <c r="G49" s="163"/>
+      <c r="H49" s="158"/>
+      <c r="I49" s="163"/>
+      <c r="J49" s="163"/>
+      <c r="K49" s="163"/>
+    </row>
+    <row r="50" spans="3:11" ht="24" x14ac:dyDescent="0.4">
+      <c r="C50" s="161"/>
+      <c r="D50" s="162"/>
+      <c r="E50" s="162"/>
+      <c r="F50" s="163"/>
+      <c r="G50" s="163"/>
+      <c r="H50" s="156"/>
+      <c r="I50" s="163"/>
+      <c r="J50" s="163"/>
+      <c r="K50" s="163"/>
+    </row>
+    <row r="51" spans="3:11" ht="24" x14ac:dyDescent="0.4">
+      <c r="C51" s="161"/>
+      <c r="D51" s="162"/>
+      <c r="E51" s="162"/>
+      <c r="F51" s="163"/>
+      <c r="G51" s="163"/>
+      <c r="H51" s="158"/>
+      <c r="I51" s="163"/>
+      <c r="J51" s="163"/>
+      <c r="K51" s="163"/>
+    </row>
+    <row r="52" spans="3:11" ht="24" x14ac:dyDescent="0.4">
+      <c r="C52" s="161"/>
+      <c r="D52" s="162"/>
+      <c r="E52" s="162"/>
+      <c r="F52" s="163"/>
+      <c r="G52" s="163"/>
+      <c r="H52" s="156"/>
+      <c r="I52" s="163"/>
+      <c r="J52" s="163"/>
+      <c r="K52" s="163"/>
+    </row>
+    <row r="53" spans="3:11" ht="24" x14ac:dyDescent="0.4">
+      <c r="C53" s="161"/>
+      <c r="D53" s="162"/>
+      <c r="E53" s="162"/>
+      <c r="F53" s="163"/>
+      <c r="G53" s="163"/>
+      <c r="H53" s="158"/>
+      <c r="I53" s="163"/>
+      <c r="J53" s="163"/>
+      <c r="K53" s="163"/>
+    </row>
+    <row r="54" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C54" s="163"/>
+      <c r="D54" s="163"/>
+      <c r="E54" s="163"/>
+      <c r="F54" s="163"/>
+      <c r="G54" s="163"/>
+      <c r="H54" s="163"/>
+      <c r="I54" s="163"/>
+      <c r="J54" s="163"/>
+      <c r="K54" s="163"/>
+    </row>
+    <row r="55" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C55" s="163"/>
+      <c r="D55" s="163"/>
+      <c r="E55" s="163"/>
+      <c r="F55" s="163"/>
+      <c r="G55" s="163"/>
+      <c r="H55" s="163"/>
+      <c r="I55" s="163"/>
+      <c r="J55" s="163"/>
+      <c r="K55" s="163"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="C3:H6"/>
+    <mergeCell ref="AH41:AM41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3429,66 +3535,66 @@
   <dimension ref="B3:AN113"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection sqref="A1:AM11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="10.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.77734375" customWidth="1"/>
-    <col min="7" max="12" width="4.77734375" customWidth="1"/>
-    <col min="13" max="13" width="10.5546875" customWidth="1"/>
-    <col min="14" max="14" width="9.88671875" customWidth="1"/>
-    <col min="15" max="15" width="8.77734375" customWidth="1"/>
-    <col min="16" max="21" width="4.77734375" customWidth="1"/>
-    <col min="22" max="22" width="10.44140625" customWidth="1"/>
-    <col min="23" max="23" width="8.5546875" customWidth="1"/>
-    <col min="24" max="24" width="8.77734375" customWidth="1"/>
-    <col min="25" max="30" width="4.77734375" customWidth="1"/>
-    <col min="31" max="31" width="10.6640625" customWidth="1"/>
-    <col min="32" max="32" width="9.77734375" customWidth="1"/>
-    <col min="33" max="33" width="8.77734375" customWidth="1"/>
-    <col min="34" max="39" width="5.77734375" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" customWidth="1"/>
+    <col min="7" max="12" width="4.7109375" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" customWidth="1"/>
+    <col min="14" max="14" width="9.85546875" customWidth="1"/>
+    <col min="15" max="15" width="8.7109375" customWidth="1"/>
+    <col min="16" max="21" width="4.7109375" customWidth="1"/>
+    <col min="22" max="22" width="10.42578125" customWidth="1"/>
+    <col min="23" max="23" width="8.5703125" customWidth="1"/>
+    <col min="24" max="24" width="8.7109375" customWidth="1"/>
+    <col min="25" max="30" width="4.7109375" customWidth="1"/>
+    <col min="31" max="31" width="10.7109375" customWidth="1"/>
+    <col min="32" max="32" width="9.7109375" customWidth="1"/>
+    <col min="33" max="33" width="8.7109375" customWidth="1"/>
+    <col min="34" max="39" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:39" x14ac:dyDescent="0.3">
-      <c r="C3" s="155"/>
-      <c r="D3" s="155"/>
-      <c r="E3" s="155"/>
-      <c r="F3" s="155"/>
-      <c r="G3" s="155"/>
-      <c r="H3" s="155"/>
-      <c r="I3" s="155"/>
-    </row>
-    <row r="4" spans="3:39" x14ac:dyDescent="0.3">
-      <c r="C4" s="155"/>
-      <c r="D4" s="155"/>
-      <c r="E4" s="155"/>
-      <c r="F4" s="155"/>
-      <c r="G4" s="155"/>
-      <c r="H4" s="155"/>
-      <c r="I4" s="155"/>
-    </row>
-    <row r="5" spans="3:39" x14ac:dyDescent="0.3">
-      <c r="C5" s="155"/>
-      <c r="D5" s="155"/>
-      <c r="E5" s="155"/>
-      <c r="F5" s="155"/>
-      <c r="G5" s="155"/>
-      <c r="H5" s="155"/>
-      <c r="I5" s="155"/>
-    </row>
-    <row r="6" spans="3:39" x14ac:dyDescent="0.3">
-      <c r="C6" s="155"/>
-      <c r="D6" s="155"/>
-      <c r="E6" s="155"/>
-      <c r="F6" s="155"/>
-      <c r="G6" s="155"/>
-      <c r="H6" s="155"/>
-      <c r="I6" s="155"/>
-    </row>
-    <row r="7" spans="3:39" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:39" x14ac:dyDescent="0.25">
+      <c r="C3" s="171"/>
+      <c r="D3" s="171"/>
+      <c r="E3" s="171"/>
+      <c r="F3" s="171"/>
+      <c r="G3" s="171"/>
+      <c r="H3" s="171"/>
+      <c r="I3" s="171"/>
+    </row>
+    <row r="4" spans="3:39" x14ac:dyDescent="0.25">
+      <c r="C4" s="171"/>
+      <c r="D4" s="171"/>
+      <c r="E4" s="171"/>
+      <c r="F4" s="171"/>
+      <c r="G4" s="171"/>
+      <c r="H4" s="171"/>
+      <c r="I4" s="171"/>
+    </row>
+    <row r="5" spans="3:39" x14ac:dyDescent="0.25">
+      <c r="C5" s="171"/>
+      <c r="D5" s="171"/>
+      <c r="E5" s="171"/>
+      <c r="F5" s="171"/>
+      <c r="G5" s="171"/>
+      <c r="H5" s="171"/>
+      <c r="I5" s="171"/>
+    </row>
+    <row r="6" spans="3:39" x14ac:dyDescent="0.25">
+      <c r="C6" s="171"/>
+      <c r="D6" s="171"/>
+      <c r="E6" s="171"/>
+      <c r="F6" s="171"/>
+      <c r="G6" s="171"/>
+      <c r="H6" s="171"/>
+      <c r="I6" s="171"/>
+    </row>
+    <row r="7" spans="3:39" x14ac:dyDescent="0.25">
       <c r="C7" s="151"/>
       <c r="D7" s="151"/>
       <c r="E7" s="151"/>
@@ -3497,16 +3603,16 @@
       <c r="H7" s="151"/>
       <c r="I7" s="151"/>
     </row>
-    <row r="8" spans="3:39" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:39" x14ac:dyDescent="0.25">
       <c r="D8"/>
       <c r="E8"/>
     </row>
-    <row r="10" spans="3:39" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="3:39" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C10" s="148"/>
     </row>
-    <row r="11" spans="3:39" ht="36.6" x14ac:dyDescent="0.7">
+    <row r="11" spans="3:39" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="C11" s="150" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D11" s="146"/>
       <c r="E11" s="146"/>
@@ -3545,61 +3651,61 @@
       <c r="AL11" s="152"/>
       <c r="AM11" s="153"/>
     </row>
-    <row r="15" spans="3:39" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="3:39" ht="25.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="3:39" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="G16" s="156" t="s">
+      <c r="G16" s="173" t="s">
         <v>0</v>
       </c>
-      <c r="H16" s="157"/>
-      <c r="I16" s="158"/>
-      <c r="J16" s="156" t="s">
+      <c r="H16" s="174"/>
+      <c r="I16" s="175"/>
+      <c r="J16" s="173" t="s">
         <v>1</v>
       </c>
-      <c r="K16" s="157"/>
-      <c r="L16" s="160"/>
+      <c r="K16" s="174"/>
+      <c r="L16" s="177"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-      <c r="P16" s="156" t="s">
+      <c r="P16" s="173" t="s">
         <v>0</v>
       </c>
-      <c r="Q16" s="157"/>
-      <c r="R16" s="158"/>
-      <c r="S16" s="159" t="s">
+      <c r="Q16" s="174"/>
+      <c r="R16" s="175"/>
+      <c r="S16" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="T16" s="157"/>
-      <c r="U16" s="160"/>
+      <c r="T16" s="174"/>
+      <c r="U16" s="177"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="4"/>
-      <c r="Y16" s="156" t="s">
+      <c r="Y16" s="173" t="s">
         <v>0</v>
       </c>
-      <c r="Z16" s="157"/>
-      <c r="AA16" s="158"/>
-      <c r="AB16" s="159" t="s">
+      <c r="Z16" s="174"/>
+      <c r="AA16" s="175"/>
+      <c r="AB16" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="AC16" s="157"/>
-      <c r="AD16" s="160"/>
+      <c r="AC16" s="174"/>
+      <c r="AD16" s="177"/>
       <c r="AE16" s="5"/>
       <c r="AF16" s="6"/>
       <c r="AG16" s="7"/>
-      <c r="AH16" s="156" t="s">
+      <c r="AH16" s="173" t="s">
         <v>0</v>
       </c>
-      <c r="AI16" s="157"/>
-      <c r="AJ16" s="158"/>
-      <c r="AK16" s="159" t="s">
+      <c r="AI16" s="174"/>
+      <c r="AJ16" s="175"/>
+      <c r="AK16" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="AL16" s="157"/>
-      <c r="AM16" s="160"/>
-    </row>
-    <row r="17" spans="2:39" ht="25.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AL16" s="174"/>
+      <c r="AM16" s="177"/>
+    </row>
+    <row r="17" spans="2:39" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="8"/>
       <c r="C17" s="9"/>
       <c r="D17" s="10"/>
@@ -3695,58 +3801,58 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="2:39" ht="25.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="161" t="s">
+    <row r="18" spans="2:39" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="178" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="163" t="s">
+      <c r="D18" s="180" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="163"/>
-      <c r="F18" s="163"/>
-      <c r="G18" s="163"/>
-      <c r="H18" s="163"/>
-      <c r="I18" s="163"/>
-      <c r="J18" s="163"/>
-      <c r="K18" s="163"/>
-      <c r="L18" s="164"/>
-      <c r="M18" s="165" t="s">
+      <c r="E18" s="180"/>
+      <c r="F18" s="180"/>
+      <c r="G18" s="180"/>
+      <c r="H18" s="180"/>
+      <c r="I18" s="180"/>
+      <c r="J18" s="180"/>
+      <c r="K18" s="180"/>
+      <c r="L18" s="181"/>
+      <c r="M18" s="182" t="s">
         <v>8</v>
       </c>
-      <c r="N18" s="166"/>
-      <c r="O18" s="166"/>
-      <c r="P18" s="166"/>
-      <c r="Q18" s="166"/>
-      <c r="R18" s="166"/>
-      <c r="S18" s="166"/>
-      <c r="T18" s="166"/>
-      <c r="U18" s="167"/>
-      <c r="V18" s="168" t="s">
+      <c r="N18" s="183"/>
+      <c r="O18" s="183"/>
+      <c r="P18" s="183"/>
+      <c r="Q18" s="183"/>
+      <c r="R18" s="183"/>
+      <c r="S18" s="183"/>
+      <c r="T18" s="183"/>
+      <c r="U18" s="184"/>
+      <c r="V18" s="185" t="s">
         <v>9</v>
       </c>
-      <c r="W18" s="168"/>
-      <c r="X18" s="168"/>
-      <c r="Y18" s="168"/>
-      <c r="Z18" s="168"/>
-      <c r="AA18" s="168"/>
-      <c r="AB18" s="168"/>
-      <c r="AC18" s="168"/>
-      <c r="AD18" s="168"/>
-      <c r="AE18" s="169" t="s">
+      <c r="W18" s="185"/>
+      <c r="X18" s="185"/>
+      <c r="Y18" s="185"/>
+      <c r="Z18" s="185"/>
+      <c r="AA18" s="185"/>
+      <c r="AB18" s="185"/>
+      <c r="AC18" s="185"/>
+      <c r="AD18" s="185"/>
+      <c r="AE18" s="186" t="s">
         <v>10</v>
       </c>
-      <c r="AF18" s="170"/>
-      <c r="AG18" s="170"/>
-      <c r="AH18" s="170"/>
-      <c r="AI18" s="170"/>
-      <c r="AJ18" s="170"/>
-      <c r="AK18" s="170"/>
-      <c r="AL18" s="171"/>
-      <c r="AM18" s="172"/>
-    </row>
-    <row r="19" spans="2:39" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="162"/>
-      <c r="D19" s="173" t="s">
+      <c r="AF18" s="187"/>
+      <c r="AG18" s="187"/>
+      <c r="AH18" s="187"/>
+      <c r="AI18" s="187"/>
+      <c r="AJ18" s="187"/>
+      <c r="AK18" s="187"/>
+      <c r="AL18" s="188"/>
+      <c r="AM18" s="189"/>
+    </row>
+    <row r="19" spans="2:39" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="179"/>
+      <c r="D19" s="190" t="s">
         <v>11</v>
       </c>
       <c r="E19" s="20" t="s">
@@ -3759,7 +3865,7 @@
       <c r="J19" s="24"/>
       <c r="K19" s="25"/>
       <c r="L19" s="25"/>
-      <c r="M19" s="176" t="s">
+      <c r="M19" s="193" t="s">
         <v>13</v>
       </c>
       <c r="N19" s="20" t="s">
@@ -3772,7 +3878,7 @@
       <c r="S19" s="24"/>
       <c r="T19" s="24"/>
       <c r="U19" s="28"/>
-      <c r="V19" s="179" t="s">
+      <c r="V19" s="196" t="s">
         <v>14</v>
       </c>
       <c r="W19" s="29" t="s">
@@ -3785,7 +3891,7 @@
       <c r="AB19" s="32"/>
       <c r="AC19" s="32"/>
       <c r="AD19" s="33"/>
-      <c r="AE19" s="181" t="s">
+      <c r="AE19" s="198" t="s">
         <v>15</v>
       </c>
       <c r="AF19" s="34" t="s">
@@ -3799,9 +3905,9 @@
       <c r="AL19" s="24"/>
       <c r="AM19" s="36"/>
     </row>
-    <row r="20" spans="2:39" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="162"/>
-      <c r="D20" s="174"/>
+    <row r="20" spans="2:39" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="179"/>
+      <c r="D20" s="191"/>
       <c r="E20" s="37" t="s">
         <v>16</v>
       </c>
@@ -3812,7 +3918,7 @@
       <c r="J20" s="41"/>
       <c r="K20" s="41"/>
       <c r="L20" s="42"/>
-      <c r="M20" s="177"/>
+      <c r="M20" s="194"/>
       <c r="N20" s="43" t="s">
         <v>16</v>
       </c>
@@ -3823,7 +3929,7 @@
       <c r="S20" s="45"/>
       <c r="T20" s="45"/>
       <c r="U20" s="46"/>
-      <c r="V20" s="179"/>
+      <c r="V20" s="196"/>
       <c r="W20" s="47" t="s">
         <v>16</v>
       </c>
@@ -3834,7 +3940,7 @@
       <c r="AB20" s="50"/>
       <c r="AC20" s="50"/>
       <c r="AD20" s="51"/>
-      <c r="AE20" s="182"/>
+      <c r="AE20" s="199"/>
       <c r="AF20" s="52" t="s">
         <v>16</v>
       </c>
@@ -3846,9 +3952,9 @@
       <c r="AL20" s="45"/>
       <c r="AM20" s="55"/>
     </row>
-    <row r="21" spans="2:39" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="162"/>
-      <c r="D21" s="174"/>
+    <row r="21" spans="2:39" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="179"/>
+      <c r="D21" s="191"/>
       <c r="E21" s="43" t="s">
         <v>17</v>
       </c>
@@ -3859,7 +3965,7 @@
       <c r="J21" s="41"/>
       <c r="K21" s="41"/>
       <c r="L21" s="40"/>
-      <c r="M21" s="177"/>
+      <c r="M21" s="194"/>
       <c r="N21" s="43" t="s">
         <v>17</v>
       </c>
@@ -3870,7 +3976,7 @@
       <c r="S21" s="45"/>
       <c r="T21" s="45"/>
       <c r="U21" s="46"/>
-      <c r="V21" s="179"/>
+      <c r="V21" s="196"/>
       <c r="W21" s="56" t="s">
         <v>17</v>
       </c>
@@ -3881,7 +3987,7 @@
       <c r="AB21" s="50"/>
       <c r="AC21" s="50"/>
       <c r="AD21" s="51"/>
-      <c r="AE21" s="182"/>
+      <c r="AE21" s="199"/>
       <c r="AF21" s="52" t="s">
         <v>17</v>
       </c>
@@ -3893,9 +3999,9 @@
       <c r="AL21" s="45"/>
       <c r="AM21" s="55"/>
     </row>
-    <row r="22" spans="2:39" ht="25.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C22" s="162"/>
-      <c r="D22" s="175"/>
+    <row r="22" spans="2:39" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="179"/>
+      <c r="D22" s="192"/>
       <c r="E22" s="58" t="s">
         <v>18</v>
       </c>
@@ -3906,7 +4012,7 @@
       <c r="J22" s="45"/>
       <c r="K22" s="45"/>
       <c r="L22" s="59"/>
-      <c r="M22" s="178"/>
+      <c r="M22" s="195"/>
       <c r="N22" s="58" t="s">
         <v>18</v>
       </c>
@@ -3917,7 +4023,7 @@
       <c r="S22" s="62"/>
       <c r="T22" s="63"/>
       <c r="U22" s="60"/>
-      <c r="V22" s="180"/>
+      <c r="V22" s="197"/>
       <c r="W22" s="64" t="s">
         <v>18</v>
       </c>
@@ -3928,7 +4034,7 @@
       <c r="AB22" s="50"/>
       <c r="AC22" s="50"/>
       <c r="AD22" s="51"/>
-      <c r="AE22" s="183"/>
+      <c r="AE22" s="200"/>
       <c r="AF22" s="65" t="s">
         <v>18</v>
       </c>
@@ -3940,9 +4046,9 @@
       <c r="AL22" s="45"/>
       <c r="AM22" s="55"/>
     </row>
-    <row r="23" spans="2:39" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="162"/>
-      <c r="D23" s="184" t="s">
+    <row r="23" spans="2:39" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="179"/>
+      <c r="D23" s="201" t="s">
         <v>19</v>
       </c>
       <c r="E23" s="20" t="s">
@@ -3964,7 +4070,7 @@
       <c r="S23" s="68"/>
       <c r="T23" s="21"/>
       <c r="U23" s="35"/>
-      <c r="V23" s="187" t="s">
+      <c r="V23" s="204" t="s">
         <v>20</v>
       </c>
       <c r="W23" s="29" t="s">
@@ -3977,7 +4083,7 @@
       <c r="AB23" s="32"/>
       <c r="AC23" s="32"/>
       <c r="AD23" s="33"/>
-      <c r="AE23" s="181" t="s">
+      <c r="AE23" s="198" t="s">
         <v>21</v>
       </c>
       <c r="AF23" s="34" t="s">
@@ -3991,9 +4097,9 @@
       <c r="AL23" s="24"/>
       <c r="AM23" s="36"/>
     </row>
-    <row r="24" spans="2:39" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="162"/>
-      <c r="D24" s="185"/>
+    <row r="24" spans="2:39" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="179"/>
+      <c r="D24" s="202"/>
       <c r="E24" s="43" t="s">
         <v>16</v>
       </c>
@@ -4013,7 +4119,7 @@
       <c r="S24" s="21"/>
       <c r="T24" s="21"/>
       <c r="U24" s="21"/>
-      <c r="V24" s="188"/>
+      <c r="V24" s="205"/>
       <c r="W24" s="47" t="s">
         <v>16</v>
       </c>
@@ -4024,7 +4130,7 @@
       <c r="AB24" s="70"/>
       <c r="AC24" s="70"/>
       <c r="AD24" s="71"/>
-      <c r="AE24" s="182"/>
+      <c r="AE24" s="199"/>
       <c r="AF24" s="52" t="s">
         <v>16</v>
       </c>
@@ -4036,9 +4142,9 @@
       <c r="AL24" s="45"/>
       <c r="AM24" s="55"/>
     </row>
-    <row r="25" spans="2:39" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="162"/>
-      <c r="D25" s="185"/>
+    <row r="25" spans="2:39" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="179"/>
+      <c r="D25" s="202"/>
       <c r="E25" s="43" t="s">
         <v>17</v>
       </c>
@@ -4058,7 +4164,7 @@
       <c r="S25" s="21"/>
       <c r="T25" s="21"/>
       <c r="U25" s="21"/>
-      <c r="V25" s="188"/>
+      <c r="V25" s="205"/>
       <c r="W25" s="56" t="s">
         <v>17</v>
       </c>
@@ -4069,7 +4175,7 @@
       <c r="AB25" s="70"/>
       <c r="AC25" s="70"/>
       <c r="AD25" s="71"/>
-      <c r="AE25" s="182"/>
+      <c r="AE25" s="199"/>
       <c r="AF25" s="52" t="s">
         <v>17</v>
       </c>
@@ -4081,9 +4187,9 @@
       <c r="AL25" s="45"/>
       <c r="AM25" s="55"/>
     </row>
-    <row r="26" spans="2:39" ht="25.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C26" s="162"/>
-      <c r="D26" s="186"/>
+    <row r="26" spans="2:39" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="179"/>
+      <c r="D26" s="203"/>
       <c r="E26" s="72" t="s">
         <v>18</v>
       </c>
@@ -4103,7 +4209,7 @@
       <c r="S26" s="21"/>
       <c r="T26" s="21"/>
       <c r="U26" s="21"/>
-      <c r="V26" s="189"/>
+      <c r="V26" s="206"/>
       <c r="W26" s="73" t="s">
         <v>18</v>
       </c>
@@ -4114,7 +4220,7 @@
       <c r="AB26" s="77"/>
       <c r="AC26" s="77"/>
       <c r="AD26" s="78"/>
-      <c r="AE26" s="183"/>
+      <c r="AE26" s="200"/>
       <c r="AF26" s="79" t="s">
         <v>18</v>
       </c>
@@ -4126,9 +4232,9 @@
       <c r="AL26" s="45"/>
       <c r="AM26" s="55"/>
     </row>
-    <row r="27" spans="2:39" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="162"/>
-      <c r="D27" s="190" t="s">
+    <row r="27" spans="2:39" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="179"/>
+      <c r="D27" s="207" t="s">
         <v>22</v>
       </c>
       <c r="E27" s="20" t="s">
@@ -4150,7 +4256,7 @@
       <c r="S27" s="21"/>
       <c r="T27" s="21"/>
       <c r="U27" s="60"/>
-      <c r="V27" s="193" t="s">
+      <c r="V27" s="210" t="s">
         <v>23</v>
       </c>
       <c r="W27" s="80" t="s">
@@ -4163,7 +4269,7 @@
       <c r="AB27" s="45"/>
       <c r="AC27" s="45"/>
       <c r="AD27" s="81"/>
-      <c r="AE27" s="181" t="s">
+      <c r="AE27" s="198" t="s">
         <v>24</v>
       </c>
       <c r="AF27" s="34" t="s">
@@ -4177,9 +4283,9 @@
       <c r="AL27" s="24"/>
       <c r="AM27" s="36"/>
     </row>
-    <row r="28" spans="2:39" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="162"/>
-      <c r="D28" s="191"/>
+    <row r="28" spans="2:39" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="179"/>
+      <c r="D28" s="208"/>
       <c r="E28" s="43" t="s">
         <v>16</v>
       </c>
@@ -4199,7 +4305,7 @@
       <c r="S28" s="21"/>
       <c r="T28" s="21"/>
       <c r="U28" s="60"/>
-      <c r="V28" s="179"/>
+      <c r="V28" s="196"/>
       <c r="W28" s="56" t="s">
         <v>16</v>
       </c>
@@ -4210,7 +4316,7 @@
       <c r="AB28" s="45"/>
       <c r="AC28" s="45"/>
       <c r="AD28" s="81"/>
-      <c r="AE28" s="182"/>
+      <c r="AE28" s="199"/>
       <c r="AF28" s="52" t="s">
         <v>16</v>
       </c>
@@ -4222,9 +4328,9 @@
       <c r="AL28" s="45"/>
       <c r="AM28" s="55"/>
     </row>
-    <row r="29" spans="2:39" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C29" s="162"/>
-      <c r="D29" s="191"/>
+    <row r="29" spans="2:39" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="179"/>
+      <c r="D29" s="208"/>
       <c r="E29" s="43" t="s">
         <v>17</v>
       </c>
@@ -4244,7 +4350,7 @@
       <c r="S29" s="21"/>
       <c r="T29" s="21"/>
       <c r="U29" s="60"/>
-      <c r="V29" s="179"/>
+      <c r="V29" s="196"/>
       <c r="W29" s="56" t="s">
         <v>17</v>
       </c>
@@ -4255,7 +4361,7 @@
       <c r="AB29" s="45"/>
       <c r="AC29" s="45"/>
       <c r="AD29" s="81"/>
-      <c r="AE29" s="182"/>
+      <c r="AE29" s="199"/>
       <c r="AF29" s="52" t="s">
         <v>17</v>
       </c>
@@ -4267,9 +4373,9 @@
       <c r="AL29" s="45"/>
       <c r="AM29" s="55"/>
     </row>
-    <row r="30" spans="2:39" ht="25.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C30" s="162"/>
-      <c r="D30" s="192"/>
+    <row r="30" spans="2:39" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="179"/>
+      <c r="D30" s="209"/>
       <c r="E30" s="72" t="s">
         <v>18</v>
       </c>
@@ -4289,7 +4395,7 @@
       <c r="S30" s="21"/>
       <c r="T30" s="21"/>
       <c r="U30" s="60"/>
-      <c r="V30" s="180"/>
+      <c r="V30" s="197"/>
       <c r="W30" s="64" t="s">
         <v>18</v>
       </c>
@@ -4300,7 +4406,7 @@
       <c r="AB30" s="45"/>
       <c r="AC30" s="45"/>
       <c r="AD30" s="81"/>
-      <c r="AE30" s="183"/>
+      <c r="AE30" s="200"/>
       <c r="AF30" s="82" t="s">
         <v>18</v>
       </c>
@@ -4312,9 +4418,9 @@
       <c r="AL30" s="63"/>
       <c r="AM30" s="84"/>
     </row>
-    <row r="31" spans="2:39" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="162"/>
-      <c r="D31" s="190" t="s">
+    <row r="31" spans="2:39" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="179"/>
+      <c r="D31" s="207" t="s">
         <v>25</v>
       </c>
       <c r="E31" s="20" t="s">
@@ -4336,7 +4442,7 @@
       <c r="S31" s="21"/>
       <c r="T31" s="21"/>
       <c r="U31" s="60"/>
-      <c r="V31" s="179" t="s">
+      <c r="V31" s="196" t="s">
         <v>26</v>
       </c>
       <c r="W31" s="29" t="s">
@@ -4349,7 +4455,7 @@
       <c r="AB31" s="24"/>
       <c r="AC31" s="24"/>
       <c r="AD31" s="28"/>
-      <c r="AE31" s="211" t="s">
+      <c r="AE31" s="228" t="s">
         <v>27</v>
       </c>
       <c r="AF31" s="85" t="s">
@@ -4363,9 +4469,9 @@
       <c r="AL31" s="45"/>
       <c r="AM31" s="86"/>
     </row>
-    <row r="32" spans="2:39" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="162"/>
-      <c r="D32" s="191"/>
+    <row r="32" spans="2:39" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="179"/>
+      <c r="D32" s="208"/>
       <c r="E32" s="43" t="s">
         <v>16</v>
       </c>
@@ -4385,7 +4491,7 @@
       <c r="S32" s="21"/>
       <c r="T32" s="21"/>
       <c r="U32" s="60"/>
-      <c r="V32" s="179"/>
+      <c r="V32" s="196"/>
       <c r="W32" s="80" t="s">
         <v>16</v>
       </c>
@@ -4396,7 +4502,7 @@
       <c r="AB32" s="41"/>
       <c r="AC32" s="41"/>
       <c r="AD32" s="87"/>
-      <c r="AE32" s="211"/>
+      <c r="AE32" s="228"/>
       <c r="AF32" s="88" t="s">
         <v>16</v>
       </c>
@@ -4408,9 +4514,9 @@
       <c r="AL32" s="45"/>
       <c r="AM32" s="89"/>
     </row>
-    <row r="33" spans="3:40" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C33" s="162"/>
-      <c r="D33" s="191"/>
+    <row r="33" spans="3:40" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C33" s="179"/>
+      <c r="D33" s="208"/>
       <c r="E33" s="90" t="s">
         <v>17</v>
       </c>
@@ -4430,7 +4536,7 @@
       <c r="S33" s="21"/>
       <c r="T33" s="21"/>
       <c r="U33" s="60"/>
-      <c r="V33" s="179"/>
+      <c r="V33" s="196"/>
       <c r="W33" s="80" t="s">
         <v>17</v>
       </c>
@@ -4441,7 +4547,7 @@
       <c r="AB33" s="41"/>
       <c r="AC33" s="41"/>
       <c r="AD33" s="87"/>
-      <c r="AE33" s="211"/>
+      <c r="AE33" s="228"/>
       <c r="AF33" s="56" t="s">
         <v>17</v>
       </c>
@@ -4453,9 +4559,9 @@
       <c r="AL33" s="45"/>
       <c r="AM33" s="89"/>
     </row>
-    <row r="34" spans="3:40" ht="25.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C34" s="162"/>
-      <c r="D34" s="192"/>
+    <row r="34" spans="3:40" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C34" s="179"/>
+      <c r="D34" s="209"/>
       <c r="E34" s="58" t="s">
         <v>18</v>
       </c>
@@ -4475,7 +4581,7 @@
       <c r="S34" s="21"/>
       <c r="T34" s="21"/>
       <c r="U34" s="60"/>
-      <c r="V34" s="180"/>
+      <c r="V34" s="197"/>
       <c r="W34" s="64" t="s">
         <v>18</v>
       </c>
@@ -4486,7 +4592,7 @@
       <c r="AB34" s="45"/>
       <c r="AC34" s="45"/>
       <c r="AD34" s="46"/>
-      <c r="AE34" s="212"/>
+      <c r="AE34" s="229"/>
       <c r="AF34" s="64" t="s">
         <v>18</v>
       </c>
@@ -4498,12 +4604,12 @@
       <c r="AL34" s="63"/>
       <c r="AM34" s="84"/>
     </row>
-    <row r="35" spans="3:40" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C35" s="162"/>
+    <row r="35" spans="3:40" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C35" s="179"/>
       <c r="D35"/>
       <c r="E35"/>
       <c r="U35" s="91"/>
-      <c r="V35" s="179" t="s">
+      <c r="V35" s="196" t="s">
         <v>28</v>
       </c>
       <c r="W35" s="29" t="s">
@@ -4526,8 +4632,8 @@
       <c r="AL35" s="21"/>
       <c r="AM35" s="92"/>
     </row>
-    <row r="36" spans="3:40" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C36" s="162"/>
+    <row r="36" spans="3:40" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C36" s="179"/>
       <c r="D36"/>
       <c r="E36"/>
       <c r="G36" s="21"/>
@@ -4541,7 +4647,7 @@
       <c r="S36" s="21"/>
       <c r="T36" s="21"/>
       <c r="U36" s="91"/>
-      <c r="V36" s="179"/>
+      <c r="V36" s="196"/>
       <c r="W36" s="56" t="s">
         <v>16</v>
       </c>
@@ -4562,8 +4668,8 @@
       <c r="AL36" s="21"/>
       <c r="AM36" s="92"/>
     </row>
-    <row r="37" spans="3:40" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C37" s="162"/>
+    <row r="37" spans="3:40" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C37" s="179"/>
       <c r="D37"/>
       <c r="E37"/>
       <c r="G37" s="21"/>
@@ -4581,7 +4687,7 @@
       <c r="S37" s="21"/>
       <c r="T37" s="21"/>
       <c r="U37" s="91"/>
-      <c r="V37" s="179"/>
+      <c r="V37" s="196"/>
       <c r="W37" s="80" t="s">
         <v>17</v>
       </c>
@@ -4602,8 +4708,8 @@
       <c r="AL37" s="21"/>
       <c r="AM37" s="92"/>
     </row>
-    <row r="38" spans="3:40" ht="25.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C38" s="162"/>
+    <row r="38" spans="3:40" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C38" s="179"/>
       <c r="D38"/>
       <c r="E38"/>
       <c r="G38" s="21"/>
@@ -4621,7 +4727,7 @@
       <c r="S38" s="21"/>
       <c r="T38" s="21"/>
       <c r="U38" s="91"/>
-      <c r="V38" s="180"/>
+      <c r="V38" s="197"/>
       <c r="W38" s="64" t="s">
         <v>18</v>
       </c>
@@ -4642,8 +4748,8 @@
       <c r="AL38" s="21"/>
       <c r="AM38" s="92"/>
     </row>
-    <row r="39" spans="3:40" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C39" s="162"/>
+    <row r="39" spans="3:40" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C39" s="179"/>
       <c r="D39"/>
       <c r="E39"/>
       <c r="G39" s="21"/>
@@ -4661,7 +4767,7 @@
       <c r="S39" s="21"/>
       <c r="T39" s="21"/>
       <c r="U39" s="91"/>
-      <c r="V39" s="179" t="s">
+      <c r="V39" s="196" t="s">
         <v>29</v>
       </c>
       <c r="W39" s="47" t="s">
@@ -4684,8 +4790,8 @@
       <c r="AL39" s="21"/>
       <c r="AM39" s="92"/>
     </row>
-    <row r="40" spans="3:40" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C40" s="162"/>
+    <row r="40" spans="3:40" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C40" s="179"/>
       <c r="D40"/>
       <c r="E40" s="94"/>
       <c r="F40" s="21"/>
@@ -4704,7 +4810,7 @@
       <c r="S40" s="21"/>
       <c r="T40" s="21"/>
       <c r="U40" s="91"/>
-      <c r="V40" s="179"/>
+      <c r="V40" s="196"/>
       <c r="W40" s="56" t="s">
         <v>16</v>
       </c>
@@ -4725,8 +4831,8 @@
       <c r="AL40" s="21"/>
       <c r="AM40" s="92"/>
     </row>
-    <row r="41" spans="3:40" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C41" s="162"/>
+    <row r="41" spans="3:40" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C41" s="179"/>
       <c r="D41"/>
       <c r="E41" s="94"/>
       <c r="F41" s="21"/>
@@ -4745,7 +4851,7 @@
       <c r="S41" s="21"/>
       <c r="T41" s="21"/>
       <c r="U41" s="91"/>
-      <c r="V41" s="179"/>
+      <c r="V41" s="196"/>
       <c r="W41" s="56" t="s">
         <v>17</v>
       </c>
@@ -4766,8 +4872,8 @@
       <c r="AL41" s="21"/>
       <c r="AM41" s="92"/>
     </row>
-    <row r="42" spans="3:40" ht="25.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C42" s="162"/>
+    <row r="42" spans="3:40" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C42" s="179"/>
       <c r="D42"/>
       <c r="E42"/>
       <c r="M42" s="2"/>
@@ -4779,7 +4885,7 @@
       <c r="S42" s="2"/>
       <c r="T42" s="2"/>
       <c r="U42" s="95"/>
-      <c r="V42" s="179"/>
+      <c r="V42" s="196"/>
       <c r="W42" s="64" t="s">
         <v>18</v>
       </c>
@@ -4800,11 +4906,11 @@
       <c r="AL42" s="96"/>
       <c r="AM42" s="97"/>
     </row>
-    <row r="43" spans="3:40" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C43" s="194" t="s">
+    <row r="43" spans="3:40" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C43" s="211" t="s">
         <v>30</v>
       </c>
-      <c r="D43" s="199" t="s">
+      <c r="D43" s="216" t="s">
         <v>31</v>
       </c>
       <c r="E43" s="98" t="s">
@@ -4817,7 +4923,7 @@
       <c r="J43" s="27"/>
       <c r="K43" s="27"/>
       <c r="L43" s="68"/>
-      <c r="M43" s="202" t="s">
+      <c r="M43" s="219" t="s">
         <v>32</v>
       </c>
       <c r="N43" s="101" t="s">
@@ -4830,7 +4936,7 @@
       <c r="S43" s="45"/>
       <c r="T43" s="45"/>
       <c r="U43" s="99"/>
-      <c r="V43" s="205" t="s">
+      <c r="V43" s="222" t="s">
         <v>33</v>
       </c>
       <c r="W43" s="29" t="s">
@@ -4843,7 +4949,7 @@
       <c r="AB43" s="24"/>
       <c r="AC43" s="24"/>
       <c r="AD43" s="28"/>
-      <c r="AE43" s="208" t="s">
+      <c r="AE43" s="225" t="s">
         <v>34</v>
       </c>
       <c r="AF43" s="102" t="s">
@@ -4858,9 +4964,9 @@
       <c r="AM43" s="42"/>
       <c r="AN43" s="104"/>
     </row>
-    <row r="44" spans="3:40" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C44" s="195"/>
-      <c r="D44" s="200"/>
+    <row r="44" spans="3:40" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C44" s="212"/>
+      <c r="D44" s="217"/>
       <c r="E44" s="37" t="s">
         <v>16</v>
       </c>
@@ -4871,7 +4977,7 @@
       <c r="J44" s="41"/>
       <c r="K44" s="41"/>
       <c r="L44" s="40"/>
-      <c r="M44" s="203"/>
+      <c r="M44" s="220"/>
       <c r="N44" s="90" t="s">
         <v>16</v>
       </c>
@@ -4882,7 +4988,7 @@
       <c r="S44" s="45"/>
       <c r="T44" s="45"/>
       <c r="U44" s="53"/>
-      <c r="V44" s="206"/>
+      <c r="V44" s="223"/>
       <c r="W44" s="56" t="s">
         <v>16</v>
       </c>
@@ -4893,7 +4999,7 @@
       <c r="AB44" s="45"/>
       <c r="AC44" s="45"/>
       <c r="AD44" s="46"/>
-      <c r="AE44" s="209"/>
+      <c r="AE44" s="226"/>
       <c r="AF44" s="106" t="s">
         <v>16</v>
       </c>
@@ -4905,9 +5011,9 @@
       <c r="AL44" s="45"/>
       <c r="AM44" s="55"/>
     </row>
-    <row r="45" spans="3:40" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C45" s="195"/>
-      <c r="D45" s="200"/>
+    <row r="45" spans="3:40" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C45" s="212"/>
+      <c r="D45" s="217"/>
       <c r="E45" s="43" t="s">
         <v>17</v>
       </c>
@@ -4918,7 +5024,7 @@
       <c r="J45" s="45"/>
       <c r="K45" s="45"/>
       <c r="L45" s="42"/>
-      <c r="M45" s="203"/>
+      <c r="M45" s="220"/>
       <c r="N45" s="43" t="s">
         <v>17</v>
       </c>
@@ -4929,7 +5035,7 @@
       <c r="S45" s="45"/>
       <c r="T45" s="45"/>
       <c r="U45" s="53"/>
-      <c r="V45" s="206"/>
+      <c r="V45" s="223"/>
       <c r="W45" s="56" t="s">
         <v>17</v>
       </c>
@@ -4940,7 +5046,7 @@
       <c r="AB45" s="45"/>
       <c r="AC45" s="45"/>
       <c r="AD45" s="46"/>
-      <c r="AE45" s="209"/>
+      <c r="AE45" s="226"/>
       <c r="AF45" s="106" t="s">
         <v>17</v>
       </c>
@@ -4952,9 +5058,9 @@
       <c r="AL45" s="41"/>
       <c r="AM45" s="109"/>
     </row>
-    <row r="46" spans="3:40" ht="25.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C46" s="195"/>
-      <c r="D46" s="201"/>
+    <row r="46" spans="3:40" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C46" s="212"/>
+      <c r="D46" s="218"/>
       <c r="E46" s="110" t="s">
         <v>18</v>
       </c>
@@ -4965,7 +5071,7 @@
       <c r="J46" s="62"/>
       <c r="K46" s="62"/>
       <c r="L46" s="21"/>
-      <c r="M46" s="204"/>
+      <c r="M46" s="221"/>
       <c r="N46" s="90" t="s">
         <v>18</v>
       </c>
@@ -4976,7 +5082,7 @@
       <c r="S46" s="45"/>
       <c r="T46" s="45"/>
       <c r="U46" s="66"/>
-      <c r="V46" s="207"/>
+      <c r="V46" s="224"/>
       <c r="W46" s="47" t="s">
         <v>18</v>
       </c>
@@ -4987,7 +5093,7 @@
       <c r="AB46" s="45"/>
       <c r="AC46" s="45"/>
       <c r="AD46" s="46"/>
-      <c r="AE46" s="210"/>
+      <c r="AE46" s="227"/>
       <c r="AF46" s="111" t="s">
         <v>18</v>
       </c>
@@ -4999,9 +5105,9 @@
       <c r="AL46" s="45"/>
       <c r="AM46" s="55"/>
     </row>
-    <row r="47" spans="3:40" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C47" s="196"/>
-      <c r="D47" s="199" t="s">
+    <row r="47" spans="3:40" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C47" s="213"/>
+      <c r="D47" s="216" t="s">
         <v>35</v>
       </c>
       <c r="E47" s="112" t="s">
@@ -5014,7 +5120,7 @@
       <c r="J47" s="24"/>
       <c r="K47" s="24"/>
       <c r="L47" s="28"/>
-      <c r="M47" s="213" t="s">
+      <c r="M47" s="230" t="s">
         <v>36</v>
       </c>
       <c r="N47" s="20" t="s">
@@ -5027,7 +5133,7 @@
       <c r="S47" s="24"/>
       <c r="T47" s="24"/>
       <c r="U47" s="26"/>
-      <c r="V47" s="205" t="s">
+      <c r="V47" s="222" t="s">
         <v>37</v>
       </c>
       <c r="W47" s="113" t="s">
@@ -5040,7 +5146,7 @@
       <c r="AB47" s="24"/>
       <c r="AC47" s="24"/>
       <c r="AD47" s="28"/>
-      <c r="AE47" s="208" t="s">
+      <c r="AE47" s="225" t="s">
         <v>38</v>
       </c>
       <c r="AF47" s="102" t="s">
@@ -5054,9 +5160,9 @@
       <c r="AL47" s="24"/>
       <c r="AM47" s="36"/>
     </row>
-    <row r="48" spans="3:40" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C48" s="196"/>
-      <c r="D48" s="200"/>
+    <row r="48" spans="3:40" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C48" s="213"/>
+      <c r="D48" s="217"/>
       <c r="E48" s="43" t="s">
         <v>16</v>
       </c>
@@ -5067,7 +5173,7 @@
       <c r="J48" s="45"/>
       <c r="K48" s="45"/>
       <c r="L48" s="46"/>
-      <c r="M48" s="214"/>
+      <c r="M48" s="231"/>
       <c r="N48" s="101" t="s">
         <v>16</v>
       </c>
@@ -5078,7 +5184,7 @@
       <c r="S48" s="41"/>
       <c r="T48" s="41"/>
       <c r="U48" s="38"/>
-      <c r="V48" s="206"/>
+      <c r="V48" s="223"/>
       <c r="W48" s="114" t="s">
         <v>16</v>
       </c>
@@ -5089,7 +5195,7 @@
       <c r="AB48" s="41"/>
       <c r="AC48" s="41"/>
       <c r="AD48" s="87"/>
-      <c r="AE48" s="209"/>
+      <c r="AE48" s="226"/>
       <c r="AF48" s="106" t="s">
         <v>16</v>
       </c>
@@ -5101,9 +5207,9 @@
       <c r="AL48" s="62"/>
       <c r="AM48" s="92"/>
     </row>
-    <row r="49" spans="3:40" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C49" s="196"/>
-      <c r="D49" s="200"/>
+    <row r="49" spans="3:40" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C49" s="213"/>
+      <c r="D49" s="217"/>
       <c r="E49" s="43" t="s">
         <v>17</v>
       </c>
@@ -5114,7 +5220,7 @@
       <c r="J49" s="41"/>
       <c r="K49" s="41"/>
       <c r="L49" s="87"/>
-      <c r="M49" s="214"/>
+      <c r="M49" s="231"/>
       <c r="N49" s="101" t="s">
         <v>17</v>
       </c>
@@ -5125,7 +5231,7 @@
       <c r="S49" s="41"/>
       <c r="T49" s="41"/>
       <c r="U49" s="38"/>
-      <c r="V49" s="206"/>
+      <c r="V49" s="223"/>
       <c r="W49" s="114" t="s">
         <v>17</v>
       </c>
@@ -5136,7 +5242,7 @@
       <c r="AB49" s="41"/>
       <c r="AC49" s="41"/>
       <c r="AD49" s="87"/>
-      <c r="AE49" s="209"/>
+      <c r="AE49" s="226"/>
       <c r="AF49" s="106" t="s">
         <v>17</v>
       </c>
@@ -5149,9 +5255,9 @@
       <c r="AM49" s="116"/>
       <c r="AN49" s="104"/>
     </row>
-    <row r="50" spans="3:40" ht="25.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C50" s="196"/>
-      <c r="D50" s="201"/>
+    <row r="50" spans="3:40" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C50" s="213"/>
+      <c r="D50" s="218"/>
       <c r="E50" s="72" t="s">
         <v>18</v>
       </c>
@@ -5162,7 +5268,7 @@
       <c r="J50" s="45"/>
       <c r="K50" s="45"/>
       <c r="L50" s="46"/>
-      <c r="M50" s="215"/>
+      <c r="M50" s="232"/>
       <c r="N50" s="58" t="s">
         <v>18</v>
       </c>
@@ -5173,7 +5279,7 @@
       <c r="S50" s="63"/>
       <c r="T50" s="62"/>
       <c r="U50" s="107"/>
-      <c r="V50" s="207"/>
+      <c r="V50" s="224"/>
       <c r="W50" s="117" t="s">
         <v>18</v>
       </c>
@@ -5184,7 +5290,7 @@
       <c r="AB50" s="45"/>
       <c r="AC50" s="45"/>
       <c r="AD50" s="46"/>
-      <c r="AE50" s="210"/>
+      <c r="AE50" s="227"/>
       <c r="AF50" s="118" t="s">
         <v>18</v>
       </c>
@@ -5196,9 +5302,9 @@
       <c r="AL50" s="45"/>
       <c r="AM50" s="55"/>
     </row>
-    <row r="51" spans="3:40" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C51" s="196"/>
-      <c r="D51" s="199" t="s">
+    <row r="51" spans="3:40" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C51" s="213"/>
+      <c r="D51" s="216" t="s">
         <v>39</v>
       </c>
       <c r="E51" s="120" t="s">
@@ -5211,7 +5317,7 @@
       <c r="J51" s="24"/>
       <c r="K51" s="24"/>
       <c r="L51" s="28"/>
-      <c r="M51" s="216" t="s">
+      <c r="M51" s="233" t="s">
         <v>40</v>
       </c>
       <c r="N51" s="101" t="s">
@@ -5224,7 +5330,7 @@
       <c r="S51" s="45"/>
       <c r="T51" s="27"/>
       <c r="U51" s="26"/>
-      <c r="V51" s="205" t="s">
+      <c r="V51" s="222" t="s">
         <v>41</v>
       </c>
       <c r="W51" s="113" t="s">
@@ -5237,7 +5343,7 @@
       <c r="AB51" s="24"/>
       <c r="AC51" s="24"/>
       <c r="AD51" s="28"/>
-      <c r="AE51" s="208" t="s">
+      <c r="AE51" s="225" t="s">
         <v>42</v>
       </c>
       <c r="AF51" s="102" t="s">
@@ -5251,9 +5357,9 @@
       <c r="AL51" s="121"/>
       <c r="AM51" s="122"/>
     </row>
-    <row r="52" spans="3:40" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C52" s="196"/>
-      <c r="D52" s="200"/>
+    <row r="52" spans="3:40" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C52" s="213"/>
+      <c r="D52" s="217"/>
       <c r="E52" s="43" t="s">
         <v>16</v>
       </c>
@@ -5264,7 +5370,7 @@
       <c r="J52" s="41"/>
       <c r="K52" s="41"/>
       <c r="L52" s="87"/>
-      <c r="M52" s="217"/>
+      <c r="M52" s="234"/>
       <c r="N52" s="90" t="s">
         <v>16</v>
       </c>
@@ -5275,7 +5381,7 @@
       <c r="S52" s="45"/>
       <c r="T52" s="41"/>
       <c r="U52" s="38"/>
-      <c r="V52" s="206"/>
+      <c r="V52" s="223"/>
       <c r="W52" s="114" t="s">
         <v>16</v>
       </c>
@@ -5286,7 +5392,7 @@
       <c r="AB52" s="45"/>
       <c r="AC52" s="45"/>
       <c r="AD52" s="46"/>
-      <c r="AE52" s="209"/>
+      <c r="AE52" s="226"/>
       <c r="AF52" s="106" t="s">
         <v>16</v>
       </c>
@@ -5298,9 +5404,9 @@
       <c r="AL52" s="93"/>
       <c r="AM52" s="123"/>
     </row>
-    <row r="53" spans="3:40" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C53" s="196"/>
-      <c r="D53" s="200"/>
+    <row r="53" spans="3:40" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C53" s="213"/>
+      <c r="D53" s="217"/>
       <c r="E53" s="124" t="s">
         <v>17</v>
       </c>
@@ -5311,7 +5417,7 @@
       <c r="J53" s="41"/>
       <c r="K53" s="41"/>
       <c r="L53" s="87"/>
-      <c r="M53" s="217"/>
+      <c r="M53" s="234"/>
       <c r="N53" s="43" t="s">
         <v>17</v>
       </c>
@@ -5322,7 +5428,7 @@
       <c r="S53" s="45"/>
       <c r="T53" s="62"/>
       <c r="U53" s="107"/>
-      <c r="V53" s="206"/>
+      <c r="V53" s="223"/>
       <c r="W53" s="114" t="s">
         <v>17</v>
       </c>
@@ -5333,7 +5439,7 @@
       <c r="AB53" s="45"/>
       <c r="AC53" s="45"/>
       <c r="AD53" s="46"/>
-      <c r="AE53" s="209"/>
+      <c r="AE53" s="226"/>
       <c r="AF53" s="106" t="s">
         <v>17</v>
       </c>
@@ -5345,9 +5451,9 @@
       <c r="AL53" s="108"/>
       <c r="AM53" s="86"/>
     </row>
-    <row r="54" spans="3:40" ht="25.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C54" s="196"/>
-      <c r="D54" s="201"/>
+    <row r="54" spans="3:40" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C54" s="213"/>
+      <c r="D54" s="218"/>
       <c r="E54" s="58" t="s">
         <v>18</v>
       </c>
@@ -5358,7 +5464,7 @@
       <c r="J54" s="63"/>
       <c r="K54" s="63"/>
       <c r="L54" s="125"/>
-      <c r="M54" s="218"/>
+      <c r="M54" s="235"/>
       <c r="N54" s="72" t="s">
         <v>18</v>
       </c>
@@ -5369,7 +5475,7 @@
       <c r="S54" s="62"/>
       <c r="T54" s="63"/>
       <c r="U54" s="66"/>
-      <c r="V54" s="207"/>
+      <c r="V54" s="224"/>
       <c r="W54" s="126" t="s">
         <v>18</v>
       </c>
@@ -5380,7 +5486,7 @@
       <c r="AB54" s="45"/>
       <c r="AC54" s="45"/>
       <c r="AD54" s="46"/>
-      <c r="AE54" s="210"/>
+      <c r="AE54" s="227"/>
       <c r="AF54" s="118" t="s">
         <v>18</v>
       </c>
@@ -5392,14 +5498,14 @@
       <c r="AL54" s="128"/>
       <c r="AM54" s="84"/>
     </row>
-    <row r="55" spans="3:40" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C55" s="196"/>
+    <row r="55" spans="3:40" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C55" s="213"/>
       <c r="D55" s="129"/>
       <c r="O55" s="130"/>
       <c r="P55" s="130"/>
       <c r="S55" s="130"/>
       <c r="U55" s="91"/>
-      <c r="V55" s="205" t="s">
+      <c r="V55" s="222" t="s">
         <v>43</v>
       </c>
       <c r="W55" s="113" t="s">
@@ -5421,8 +5527,8 @@
       <c r="AL55" s="132"/>
       <c r="AM55" s="134"/>
     </row>
-    <row r="56" spans="3:40" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C56" s="197"/>
+    <row r="56" spans="3:40" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C56" s="214"/>
       <c r="D56" s="135"/>
       <c r="F56" s="21"/>
       <c r="G56" s="21"/>
@@ -5438,7 +5544,7 @@
       <c r="S56" s="133"/>
       <c r="T56" s="133"/>
       <c r="U56" s="136"/>
-      <c r="V56" s="206"/>
+      <c r="V56" s="223"/>
       <c r="W56" s="114" t="s">
         <v>16</v>
       </c>
@@ -5458,8 +5564,8 @@
       <c r="AL56" s="133"/>
       <c r="AM56" s="134"/>
     </row>
-    <row r="57" spans="3:40" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C57" s="197"/>
+    <row r="57" spans="3:40" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C57" s="214"/>
       <c r="D57" s="135"/>
       <c r="F57" s="21"/>
       <c r="G57" s="21"/>
@@ -5475,7 +5581,7 @@
       <c r="S57" s="133"/>
       <c r="T57" s="133"/>
       <c r="U57" s="136"/>
-      <c r="V57" s="206"/>
+      <c r="V57" s="223"/>
       <c r="W57" s="114" t="s">
         <v>17</v>
       </c>
@@ -5495,8 +5601,8 @@
       <c r="AL57" s="133"/>
       <c r="AM57" s="134"/>
     </row>
-    <row r="58" spans="3:40" ht="25.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C58" s="198"/>
+    <row r="58" spans="3:40" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C58" s="215"/>
       <c r="D58" s="137"/>
       <c r="E58" s="138"/>
       <c r="F58" s="138"/>
@@ -5515,7 +5621,7 @@
       <c r="S58" s="139"/>
       <c r="T58" s="139"/>
       <c r="U58" s="140"/>
-      <c r="V58" s="207"/>
+      <c r="V58" s="224"/>
       <c r="W58" s="117" t="s">
         <v>18</v>
       </c>
@@ -5536,355 +5642,355 @@
       <c r="AL58" s="138"/>
       <c r="AM58" s="145"/>
     </row>
-    <row r="59" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C59" s="130"/>
       <c r="X59" s="130"/>
       <c r="Y59" s="130"/>
       <c r="AC59" s="130"/>
       <c r="AD59" s="130"/>
     </row>
-    <row r="61" spans="3:40" x14ac:dyDescent="0.3">
-      <c r="C61" s="154"/>
-      <c r="D61" s="154"/>
-      <c r="E61" s="154"/>
-      <c r="F61" s="154"/>
-      <c r="G61" s="154"/>
-      <c r="H61" s="154"/>
-      <c r="I61" s="154"/>
-      <c r="J61" s="154"/>
-      <c r="K61" s="154"/>
-      <c r="L61" s="154"/>
-      <c r="M61" s="154"/>
-      <c r="N61" s="154"/>
-      <c r="O61" s="154"/>
-      <c r="P61" s="154"/>
-      <c r="Q61" s="154"/>
-      <c r="R61" s="154"/>
-      <c r="S61" s="154"/>
-      <c r="T61" s="154"/>
-      <c r="U61" s="154"/>
-    </row>
-    <row r="62" spans="3:40" x14ac:dyDescent="0.3">
-      <c r="C62" s="154"/>
-      <c r="D62" s="154"/>
-      <c r="E62" s="154"/>
-      <c r="F62" s="154"/>
-      <c r="G62" s="154"/>
-      <c r="H62" s="154"/>
-      <c r="I62" s="154"/>
-      <c r="J62" s="154"/>
-      <c r="K62" s="154"/>
-      <c r="L62" s="154"/>
-      <c r="M62" s="154"/>
-      <c r="N62" s="154"/>
-      <c r="O62" s="154"/>
-      <c r="P62" s="154"/>
-      <c r="Q62" s="154"/>
-      <c r="R62" s="154"/>
-      <c r="S62" s="154"/>
-      <c r="T62" s="154"/>
-      <c r="U62" s="154"/>
-    </row>
-    <row r="63" spans="3:40" x14ac:dyDescent="0.3">
-      <c r="C63" s="154"/>
-      <c r="D63" s="154"/>
-      <c r="E63" s="154"/>
-      <c r="F63" s="154"/>
-      <c r="G63" s="154"/>
-      <c r="H63" s="154"/>
-      <c r="I63" s="154"/>
-      <c r="J63" s="154"/>
-      <c r="K63" s="154"/>
-      <c r="L63" s="154"/>
-      <c r="M63" s="154"/>
-      <c r="N63" s="154"/>
-      <c r="O63" s="154"/>
-      <c r="P63" s="154"/>
-      <c r="Q63" s="154"/>
-      <c r="R63" s="154"/>
-      <c r="S63" s="154"/>
-      <c r="T63" s="154"/>
-      <c r="U63" s="154"/>
-    </row>
-    <row r="64" spans="3:40" x14ac:dyDescent="0.3">
-      <c r="C64" s="154"/>
-      <c r="D64" s="154"/>
-      <c r="E64" s="154"/>
-      <c r="F64" s="154"/>
-      <c r="G64" s="154"/>
-      <c r="H64" s="154"/>
-      <c r="I64" s="154"/>
-      <c r="J64" s="154"/>
-      <c r="K64" s="154"/>
-      <c r="L64" s="154"/>
-      <c r="M64" s="154"/>
-      <c r="N64" s="154"/>
-      <c r="O64" s="154"/>
-      <c r="P64" s="154"/>
-      <c r="Q64" s="154"/>
-      <c r="R64" s="154"/>
-      <c r="S64" s="154"/>
-      <c r="T64" s="154"/>
-      <c r="U64" s="154"/>
-    </row>
-    <row r="65" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="C65" s="154"/>
-      <c r="D65" s="154"/>
-      <c r="E65" s="154"/>
-      <c r="F65" s="154"/>
-      <c r="G65" s="154"/>
-      <c r="H65" s="154"/>
-      <c r="I65" s="154"/>
-      <c r="J65" s="154"/>
-      <c r="K65" s="154"/>
-      <c r="L65" s="154"/>
-      <c r="M65" s="154"/>
-      <c r="N65" s="154"/>
-      <c r="O65" s="154"/>
-      <c r="P65" s="154"/>
-      <c r="Q65" s="154"/>
-      <c r="R65" s="154"/>
-      <c r="S65" s="154"/>
-      <c r="T65" s="154"/>
-      <c r="U65" s="154"/>
-    </row>
-    <row r="66" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="C66" s="154"/>
-      <c r="D66" s="154"/>
-      <c r="E66" s="154"/>
-      <c r="F66" s="154"/>
-      <c r="G66" s="154"/>
-      <c r="H66" s="154"/>
-      <c r="I66" s="154"/>
-      <c r="J66" s="154"/>
-      <c r="K66" s="154"/>
-      <c r="L66" s="154"/>
-      <c r="M66" s="154"/>
-      <c r="N66" s="154"/>
-      <c r="O66" s="154"/>
-      <c r="P66" s="154"/>
-      <c r="Q66" s="154"/>
-      <c r="R66" s="154"/>
-      <c r="S66" s="154"/>
-      <c r="T66" s="154"/>
-      <c r="U66" s="154"/>
-    </row>
-    <row r="67" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="C67" s="154"/>
-      <c r="D67" s="154"/>
-      <c r="E67" s="154"/>
-      <c r="F67" s="154"/>
-      <c r="G67" s="154"/>
-      <c r="H67" s="154"/>
-      <c r="I67" s="154"/>
-      <c r="J67" s="154"/>
-      <c r="K67" s="154"/>
-      <c r="L67" s="154"/>
-      <c r="M67" s="154"/>
-      <c r="N67" s="154"/>
-      <c r="O67" s="154"/>
-      <c r="P67" s="154"/>
-      <c r="Q67" s="154"/>
-      <c r="R67" s="154"/>
-      <c r="S67" s="154"/>
-      <c r="T67" s="154"/>
-      <c r="U67" s="154"/>
-    </row>
-    <row r="68" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="C68" s="154"/>
-      <c r="D68" s="154"/>
-      <c r="E68" s="154"/>
-      <c r="F68" s="154"/>
-      <c r="G68" s="154"/>
-      <c r="H68" s="154"/>
-      <c r="I68" s="154"/>
-      <c r="J68" s="154"/>
-      <c r="K68" s="154"/>
-      <c r="L68" s="154"/>
-      <c r="M68" s="154"/>
-      <c r="N68" s="154"/>
-      <c r="O68" s="154"/>
-      <c r="P68" s="154"/>
-      <c r="Q68" s="154"/>
-      <c r="R68" s="154"/>
-      <c r="S68" s="154"/>
-      <c r="T68" s="154"/>
-      <c r="U68" s="154"/>
-    </row>
-    <row r="69" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="C69" s="154"/>
-      <c r="D69" s="154"/>
-      <c r="E69" s="154"/>
-      <c r="F69" s="154"/>
-      <c r="G69" s="154"/>
-      <c r="H69" s="154"/>
-      <c r="I69" s="154"/>
-      <c r="J69" s="154"/>
-      <c r="K69" s="154"/>
-      <c r="L69" s="154"/>
-      <c r="M69" s="154"/>
-      <c r="N69" s="154"/>
-      <c r="O69" s="154"/>
-      <c r="P69" s="154"/>
-      <c r="Q69" s="154"/>
-      <c r="R69" s="154"/>
-      <c r="S69" s="154"/>
-      <c r="T69" s="154"/>
-      <c r="U69" s="154"/>
-    </row>
-    <row r="70" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="C70" s="154"/>
-      <c r="D70" s="154"/>
-      <c r="E70" s="154"/>
-      <c r="F70" s="154"/>
-      <c r="G70" s="154"/>
-      <c r="H70" s="154"/>
-      <c r="I70" s="154"/>
-      <c r="J70" s="154"/>
-      <c r="K70" s="154"/>
-      <c r="L70" s="154"/>
-      <c r="M70" s="154"/>
-      <c r="N70" s="154"/>
-      <c r="O70" s="154"/>
-      <c r="P70" s="154"/>
-      <c r="Q70" s="154"/>
-      <c r="R70" s="154"/>
-      <c r="S70" s="154"/>
-      <c r="T70" s="154"/>
-      <c r="U70" s="154"/>
-    </row>
-    <row r="71" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="C71" s="154"/>
-      <c r="D71" s="154"/>
-      <c r="E71" s="154"/>
-      <c r="F71" s="154"/>
-      <c r="G71" s="154"/>
-      <c r="H71" s="154"/>
-      <c r="I71" s="154"/>
-      <c r="J71" s="154"/>
-      <c r="K71" s="154"/>
-      <c r="L71" s="154"/>
-      <c r="M71" s="154"/>
-      <c r="N71" s="154"/>
-      <c r="O71" s="154"/>
-      <c r="P71" s="154"/>
-      <c r="Q71" s="154"/>
-      <c r="R71" s="154"/>
-      <c r="S71" s="154"/>
-      <c r="T71" s="154"/>
-      <c r="U71" s="154"/>
-    </row>
-    <row r="72" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="C72" s="154"/>
-      <c r="D72" s="154"/>
-      <c r="E72" s="154"/>
-      <c r="F72" s="154"/>
-      <c r="G72" s="154"/>
-      <c r="H72" s="154"/>
-      <c r="I72" s="154"/>
-      <c r="J72" s="154"/>
-      <c r="K72" s="154"/>
-      <c r="L72" s="154"/>
-      <c r="M72" s="154"/>
-      <c r="N72" s="154"/>
-      <c r="O72" s="154"/>
-      <c r="P72" s="154"/>
-      <c r="Q72" s="154"/>
-      <c r="R72" s="154"/>
-      <c r="S72" s="154"/>
-      <c r="T72" s="154"/>
-      <c r="U72" s="154"/>
-    </row>
-    <row r="73" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="C73" s="154"/>
-      <c r="D73" s="154"/>
-      <c r="E73" s="154"/>
-      <c r="F73" s="154"/>
-      <c r="G73" s="154"/>
-      <c r="H73" s="154"/>
-      <c r="I73" s="154"/>
-      <c r="J73" s="154"/>
-      <c r="K73" s="154"/>
-      <c r="L73" s="154"/>
-      <c r="M73" s="154"/>
-      <c r="N73" s="154"/>
-      <c r="O73" s="154"/>
-      <c r="P73" s="154"/>
-      <c r="Q73" s="154"/>
-      <c r="R73" s="154"/>
-      <c r="S73" s="154"/>
-      <c r="T73" s="154"/>
-      <c r="U73" s="154"/>
-    </row>
-    <row r="74" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="C74" s="154"/>
-      <c r="D74" s="154"/>
-      <c r="E74" s="154"/>
-      <c r="F74" s="154"/>
-      <c r="G74" s="154"/>
-      <c r="H74" s="154"/>
-      <c r="I74" s="154"/>
-      <c r="J74" s="154"/>
-      <c r="K74" s="154"/>
-      <c r="L74" s="154"/>
-      <c r="M74" s="154"/>
-      <c r="N74" s="154"/>
-      <c r="O74" s="154"/>
-      <c r="P74" s="154"/>
-      <c r="Q74" s="154"/>
-      <c r="R74" s="154"/>
-      <c r="S74" s="154"/>
-      <c r="T74" s="154"/>
-      <c r="U74" s="154"/>
-    </row>
-    <row r="75" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="C75" s="154"/>
-      <c r="D75" s="154"/>
-      <c r="E75" s="154"/>
-      <c r="F75" s="154"/>
-      <c r="G75" s="154"/>
-      <c r="H75" s="154"/>
-      <c r="I75" s="154"/>
-      <c r="J75" s="154"/>
-      <c r="K75" s="154"/>
-      <c r="L75" s="154"/>
-      <c r="M75" s="154"/>
-      <c r="N75" s="154"/>
-      <c r="O75" s="154"/>
-      <c r="P75" s="154"/>
-      <c r="Q75" s="154"/>
-      <c r="R75" s="154"/>
-      <c r="S75" s="154"/>
-      <c r="T75" s="154"/>
-      <c r="U75" s="154"/>
-    </row>
-    <row r="76" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="C76" s="154"/>
-      <c r="D76" s="154"/>
-      <c r="E76" s="154"/>
-      <c r="F76" s="154"/>
-      <c r="G76" s="154"/>
-      <c r="H76" s="154"/>
-      <c r="I76" s="154"/>
-      <c r="J76" s="154"/>
-      <c r="K76" s="154"/>
-      <c r="L76" s="154"/>
-      <c r="M76" s="154"/>
-      <c r="N76" s="154"/>
-      <c r="O76" s="154"/>
-      <c r="P76" s="154"/>
-      <c r="Q76" s="154"/>
-      <c r="R76" s="154"/>
-      <c r="S76" s="154"/>
-      <c r="T76" s="154"/>
-      <c r="U76" s="154"/>
-    </row>
-    <row r="105" ht="43.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="106" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="108" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="110" ht="23.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="112" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="113" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" spans="3:40" x14ac:dyDescent="0.25">
+      <c r="C61" s="172"/>
+      <c r="D61" s="172"/>
+      <c r="E61" s="172"/>
+      <c r="F61" s="172"/>
+      <c r="G61" s="172"/>
+      <c r="H61" s="172"/>
+      <c r="I61" s="172"/>
+      <c r="J61" s="172"/>
+      <c r="K61" s="172"/>
+      <c r="L61" s="172"/>
+      <c r="M61" s="172"/>
+      <c r="N61" s="172"/>
+      <c r="O61" s="172"/>
+      <c r="P61" s="172"/>
+      <c r="Q61" s="172"/>
+      <c r="R61" s="172"/>
+      <c r="S61" s="172"/>
+      <c r="T61" s="172"/>
+      <c r="U61" s="172"/>
+    </row>
+    <row r="62" spans="3:40" x14ac:dyDescent="0.25">
+      <c r="C62" s="172"/>
+      <c r="D62" s="172"/>
+      <c r="E62" s="172"/>
+      <c r="F62" s="172"/>
+      <c r="G62" s="172"/>
+      <c r="H62" s="172"/>
+      <c r="I62" s="172"/>
+      <c r="J62" s="172"/>
+      <c r="K62" s="172"/>
+      <c r="L62" s="172"/>
+      <c r="M62" s="172"/>
+      <c r="N62" s="172"/>
+      <c r="O62" s="172"/>
+      <c r="P62" s="172"/>
+      <c r="Q62" s="172"/>
+      <c r="R62" s="172"/>
+      <c r="S62" s="172"/>
+      <c r="T62" s="172"/>
+      <c r="U62" s="172"/>
+    </row>
+    <row r="63" spans="3:40" x14ac:dyDescent="0.25">
+      <c r="C63" s="172"/>
+      <c r="D63" s="172"/>
+      <c r="E63" s="172"/>
+      <c r="F63" s="172"/>
+      <c r="G63" s="172"/>
+      <c r="H63" s="172"/>
+      <c r="I63" s="172"/>
+      <c r="J63" s="172"/>
+      <c r="K63" s="172"/>
+      <c r="L63" s="172"/>
+      <c r="M63" s="172"/>
+      <c r="N63" s="172"/>
+      <c r="O63" s="172"/>
+      <c r="P63" s="172"/>
+      <c r="Q63" s="172"/>
+      <c r="R63" s="172"/>
+      <c r="S63" s="172"/>
+      <c r="T63" s="172"/>
+      <c r="U63" s="172"/>
+    </row>
+    <row r="64" spans="3:40" x14ac:dyDescent="0.25">
+      <c r="C64" s="172"/>
+      <c r="D64" s="172"/>
+      <c r="E64" s="172"/>
+      <c r="F64" s="172"/>
+      <c r="G64" s="172"/>
+      <c r="H64" s="172"/>
+      <c r="I64" s="172"/>
+      <c r="J64" s="172"/>
+      <c r="K64" s="172"/>
+      <c r="L64" s="172"/>
+      <c r="M64" s="172"/>
+      <c r="N64" s="172"/>
+      <c r="O64" s="172"/>
+      <c r="P64" s="172"/>
+      <c r="Q64" s="172"/>
+      <c r="R64" s="172"/>
+      <c r="S64" s="172"/>
+      <c r="T64" s="172"/>
+      <c r="U64" s="172"/>
+    </row>
+    <row r="65" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C65" s="172"/>
+      <c r="D65" s="172"/>
+      <c r="E65" s="172"/>
+      <c r="F65" s="172"/>
+      <c r="G65" s="172"/>
+      <c r="H65" s="172"/>
+      <c r="I65" s="172"/>
+      <c r="J65" s="172"/>
+      <c r="K65" s="172"/>
+      <c r="L65" s="172"/>
+      <c r="M65" s="172"/>
+      <c r="N65" s="172"/>
+      <c r="O65" s="172"/>
+      <c r="P65" s="172"/>
+      <c r="Q65" s="172"/>
+      <c r="R65" s="172"/>
+      <c r="S65" s="172"/>
+      <c r="T65" s="172"/>
+      <c r="U65" s="172"/>
+    </row>
+    <row r="66" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C66" s="172"/>
+      <c r="D66" s="172"/>
+      <c r="E66" s="172"/>
+      <c r="F66" s="172"/>
+      <c r="G66" s="172"/>
+      <c r="H66" s="172"/>
+      <c r="I66" s="172"/>
+      <c r="J66" s="172"/>
+      <c r="K66" s="172"/>
+      <c r="L66" s="172"/>
+      <c r="M66" s="172"/>
+      <c r="N66" s="172"/>
+      <c r="O66" s="172"/>
+      <c r="P66" s="172"/>
+      <c r="Q66" s="172"/>
+      <c r="R66" s="172"/>
+      <c r="S66" s="172"/>
+      <c r="T66" s="172"/>
+      <c r="U66" s="172"/>
+    </row>
+    <row r="67" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C67" s="172"/>
+      <c r="D67" s="172"/>
+      <c r="E67" s="172"/>
+      <c r="F67" s="172"/>
+      <c r="G67" s="172"/>
+      <c r="H67" s="172"/>
+      <c r="I67" s="172"/>
+      <c r="J67" s="172"/>
+      <c r="K67" s="172"/>
+      <c r="L67" s="172"/>
+      <c r="M67" s="172"/>
+      <c r="N67" s="172"/>
+      <c r="O67" s="172"/>
+      <c r="P67" s="172"/>
+      <c r="Q67" s="172"/>
+      <c r="R67" s="172"/>
+      <c r="S67" s="172"/>
+      <c r="T67" s="172"/>
+      <c r="U67" s="172"/>
+    </row>
+    <row r="68" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C68" s="172"/>
+      <c r="D68" s="172"/>
+      <c r="E68" s="172"/>
+      <c r="F68" s="172"/>
+      <c r="G68" s="172"/>
+      <c r="H68" s="172"/>
+      <c r="I68" s="172"/>
+      <c r="J68" s="172"/>
+      <c r="K68" s="172"/>
+      <c r="L68" s="172"/>
+      <c r="M68" s="172"/>
+      <c r="N68" s="172"/>
+      <c r="O68" s="172"/>
+      <c r="P68" s="172"/>
+      <c r="Q68" s="172"/>
+      <c r="R68" s="172"/>
+      <c r="S68" s="172"/>
+      <c r="T68" s="172"/>
+      <c r="U68" s="172"/>
+    </row>
+    <row r="69" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C69" s="172"/>
+      <c r="D69" s="172"/>
+      <c r="E69" s="172"/>
+      <c r="F69" s="172"/>
+      <c r="G69" s="172"/>
+      <c r="H69" s="172"/>
+      <c r="I69" s="172"/>
+      <c r="J69" s="172"/>
+      <c r="K69" s="172"/>
+      <c r="L69" s="172"/>
+      <c r="M69" s="172"/>
+      <c r="N69" s="172"/>
+      <c r="O69" s="172"/>
+      <c r="P69" s="172"/>
+      <c r="Q69" s="172"/>
+      <c r="R69" s="172"/>
+      <c r="S69" s="172"/>
+      <c r="T69" s="172"/>
+      <c r="U69" s="172"/>
+    </row>
+    <row r="70" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C70" s="172"/>
+      <c r="D70" s="172"/>
+      <c r="E70" s="172"/>
+      <c r="F70" s="172"/>
+      <c r="G70" s="172"/>
+      <c r="H70" s="172"/>
+      <c r="I70" s="172"/>
+      <c r="J70" s="172"/>
+      <c r="K70" s="172"/>
+      <c r="L70" s="172"/>
+      <c r="M70" s="172"/>
+      <c r="N70" s="172"/>
+      <c r="O70" s="172"/>
+      <c r="P70" s="172"/>
+      <c r="Q70" s="172"/>
+      <c r="R70" s="172"/>
+      <c r="S70" s="172"/>
+      <c r="T70" s="172"/>
+      <c r="U70" s="172"/>
+    </row>
+    <row r="71" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C71" s="172"/>
+      <c r="D71" s="172"/>
+      <c r="E71" s="172"/>
+      <c r="F71" s="172"/>
+      <c r="G71" s="172"/>
+      <c r="H71" s="172"/>
+      <c r="I71" s="172"/>
+      <c r="J71" s="172"/>
+      <c r="K71" s="172"/>
+      <c r="L71" s="172"/>
+      <c r="M71" s="172"/>
+      <c r="N71" s="172"/>
+      <c r="O71" s="172"/>
+      <c r="P71" s="172"/>
+      <c r="Q71" s="172"/>
+      <c r="R71" s="172"/>
+      <c r="S71" s="172"/>
+      <c r="T71" s="172"/>
+      <c r="U71" s="172"/>
+    </row>
+    <row r="72" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C72" s="172"/>
+      <c r="D72" s="172"/>
+      <c r="E72" s="172"/>
+      <c r="F72" s="172"/>
+      <c r="G72" s="172"/>
+      <c r="H72" s="172"/>
+      <c r="I72" s="172"/>
+      <c r="J72" s="172"/>
+      <c r="K72" s="172"/>
+      <c r="L72" s="172"/>
+      <c r="M72" s="172"/>
+      <c r="N72" s="172"/>
+      <c r="O72" s="172"/>
+      <c r="P72" s="172"/>
+      <c r="Q72" s="172"/>
+      <c r="R72" s="172"/>
+      <c r="S72" s="172"/>
+      <c r="T72" s="172"/>
+      <c r="U72" s="172"/>
+    </row>
+    <row r="73" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C73" s="172"/>
+      <c r="D73" s="172"/>
+      <c r="E73" s="172"/>
+      <c r="F73" s="172"/>
+      <c r="G73" s="172"/>
+      <c r="H73" s="172"/>
+      <c r="I73" s="172"/>
+      <c r="J73" s="172"/>
+      <c r="K73" s="172"/>
+      <c r="L73" s="172"/>
+      <c r="M73" s="172"/>
+      <c r="N73" s="172"/>
+      <c r="O73" s="172"/>
+      <c r="P73" s="172"/>
+      <c r="Q73" s="172"/>
+      <c r="R73" s="172"/>
+      <c r="S73" s="172"/>
+      <c r="T73" s="172"/>
+      <c r="U73" s="172"/>
+    </row>
+    <row r="74" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C74" s="172"/>
+      <c r="D74" s="172"/>
+      <c r="E74" s="172"/>
+      <c r="F74" s="172"/>
+      <c r="G74" s="172"/>
+      <c r="H74" s="172"/>
+      <c r="I74" s="172"/>
+      <c r="J74" s="172"/>
+      <c r="K74" s="172"/>
+      <c r="L74" s="172"/>
+      <c r="M74" s="172"/>
+      <c r="N74" s="172"/>
+      <c r="O74" s="172"/>
+      <c r="P74" s="172"/>
+      <c r="Q74" s="172"/>
+      <c r="R74" s="172"/>
+      <c r="S74" s="172"/>
+      <c r="T74" s="172"/>
+      <c r="U74" s="172"/>
+    </row>
+    <row r="75" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C75" s="172"/>
+      <c r="D75" s="172"/>
+      <c r="E75" s="172"/>
+      <c r="F75" s="172"/>
+      <c r="G75" s="172"/>
+      <c r="H75" s="172"/>
+      <c r="I75" s="172"/>
+      <c r="J75" s="172"/>
+      <c r="K75" s="172"/>
+      <c r="L75" s="172"/>
+      <c r="M75" s="172"/>
+      <c r="N75" s="172"/>
+      <c r="O75" s="172"/>
+      <c r="P75" s="172"/>
+      <c r="Q75" s="172"/>
+      <c r="R75" s="172"/>
+      <c r="S75" s="172"/>
+      <c r="T75" s="172"/>
+      <c r="U75" s="172"/>
+    </row>
+    <row r="76" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C76" s="172"/>
+      <c r="D76" s="172"/>
+      <c r="E76" s="172"/>
+      <c r="F76" s="172"/>
+      <c r="G76" s="172"/>
+      <c r="H76" s="172"/>
+      <c r="I76" s="172"/>
+      <c r="J76" s="172"/>
+      <c r="K76" s="172"/>
+      <c r="L76" s="172"/>
+      <c r="M76" s="172"/>
+      <c r="N76" s="172"/>
+      <c r="O76" s="172"/>
+      <c r="P76" s="172"/>
+      <c r="Q76" s="172"/>
+      <c r="R76" s="172"/>
+      <c r="S76" s="172"/>
+      <c r="T76" s="172"/>
+      <c r="U76" s="172"/>
+    </row>
+    <row r="105" ht="43.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="20.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="23.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="44">
     <mergeCell ref="V47:V50"/>
@@ -5973,67 +6079,67 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1490652-181F-4D07-9371-4E295C056ECC}">
   <dimension ref="B3:AN113"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AQ24" sqref="AQ24"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="10.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.77734375" customWidth="1"/>
-    <col min="7" max="12" width="4.77734375" customWidth="1"/>
-    <col min="13" max="13" width="10.5546875" customWidth="1"/>
-    <col min="14" max="14" width="9.88671875" customWidth="1"/>
-    <col min="15" max="15" width="8.77734375" customWidth="1"/>
-    <col min="16" max="21" width="4.77734375" customWidth="1"/>
-    <col min="22" max="22" width="10.44140625" customWidth="1"/>
-    <col min="23" max="23" width="8.5546875" customWidth="1"/>
-    <col min="24" max="24" width="8.77734375" customWidth="1"/>
-    <col min="25" max="30" width="4.77734375" customWidth="1"/>
-    <col min="31" max="31" width="10.6640625" customWidth="1"/>
-    <col min="32" max="32" width="9.77734375" customWidth="1"/>
-    <col min="33" max="33" width="8.77734375" customWidth="1"/>
-    <col min="34" max="39" width="5.77734375" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" customWidth="1"/>
+    <col min="7" max="12" width="4.7109375" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" customWidth="1"/>
+    <col min="14" max="14" width="9.85546875" customWidth="1"/>
+    <col min="15" max="15" width="8.7109375" customWidth="1"/>
+    <col min="16" max="21" width="4.7109375" customWidth="1"/>
+    <col min="22" max="22" width="10.42578125" customWidth="1"/>
+    <col min="23" max="23" width="8.5703125" customWidth="1"/>
+    <col min="24" max="24" width="8.7109375" customWidth="1"/>
+    <col min="25" max="30" width="4.7109375" customWidth="1"/>
+    <col min="31" max="31" width="10.7109375" customWidth="1"/>
+    <col min="32" max="32" width="9.7109375" customWidth="1"/>
+    <col min="33" max="33" width="8.7109375" customWidth="1"/>
+    <col min="34" max="39" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:39" x14ac:dyDescent="0.3">
-      <c r="C3" s="155"/>
-      <c r="D3" s="155"/>
-      <c r="E3" s="155"/>
-      <c r="F3" s="155"/>
-      <c r="G3" s="155"/>
-      <c r="H3" s="155"/>
-      <c r="I3" s="155"/>
-    </row>
-    <row r="4" spans="3:39" x14ac:dyDescent="0.3">
-      <c r="C4" s="155"/>
-      <c r="D4" s="155"/>
-      <c r="E4" s="155"/>
-      <c r="F4" s="155"/>
-      <c r="G4" s="155"/>
-      <c r="H4" s="155"/>
-      <c r="I4" s="155"/>
-    </row>
-    <row r="5" spans="3:39" x14ac:dyDescent="0.3">
-      <c r="C5" s="155"/>
-      <c r="D5" s="155"/>
-      <c r="E5" s="155"/>
-      <c r="F5" s="155"/>
-      <c r="G5" s="155"/>
-      <c r="H5" s="155"/>
-      <c r="I5" s="155"/>
-    </row>
-    <row r="6" spans="3:39" x14ac:dyDescent="0.3">
-      <c r="C6" s="155"/>
-      <c r="D6" s="155"/>
-      <c r="E6" s="155"/>
-      <c r="F6" s="155"/>
-      <c r="G6" s="155"/>
-      <c r="H6" s="155"/>
-      <c r="I6" s="155"/>
-    </row>
-    <row r="7" spans="3:39" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:39" x14ac:dyDescent="0.25">
+      <c r="C3" s="171"/>
+      <c r="D3" s="171"/>
+      <c r="E3" s="171"/>
+      <c r="F3" s="171"/>
+      <c r="G3" s="171"/>
+      <c r="H3" s="171"/>
+      <c r="I3" s="171"/>
+    </row>
+    <row r="4" spans="3:39" x14ac:dyDescent="0.25">
+      <c r="C4" s="171"/>
+      <c r="D4" s="171"/>
+      <c r="E4" s="171"/>
+      <c r="F4" s="171"/>
+      <c r="G4" s="171"/>
+      <c r="H4" s="171"/>
+      <c r="I4" s="171"/>
+    </row>
+    <row r="5" spans="3:39" x14ac:dyDescent="0.25">
+      <c r="C5" s="171"/>
+      <c r="D5" s="171"/>
+      <c r="E5" s="171"/>
+      <c r="F5" s="171"/>
+      <c r="G5" s="171"/>
+      <c r="H5" s="171"/>
+      <c r="I5" s="171"/>
+    </row>
+    <row r="6" spans="3:39" x14ac:dyDescent="0.25">
+      <c r="C6" s="171"/>
+      <c r="D6" s="171"/>
+      <c r="E6" s="171"/>
+      <c r="F6" s="171"/>
+      <c r="G6" s="171"/>
+      <c r="H6" s="171"/>
+      <c r="I6" s="171"/>
+    </row>
+    <row r="7" spans="3:39" x14ac:dyDescent="0.25">
       <c r="C7" s="151"/>
       <c r="D7" s="151"/>
       <c r="E7" s="151"/>
@@ -6042,16 +6148,16 @@
       <c r="H7" s="151"/>
       <c r="I7" s="151"/>
     </row>
-    <row r="8" spans="3:39" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:39" x14ac:dyDescent="0.25">
       <c r="D8"/>
       <c r="E8"/>
     </row>
-    <row r="10" spans="3:39" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="3:39" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C10" s="148"/>
     </row>
-    <row r="11" spans="3:39" ht="36.6" x14ac:dyDescent="0.7">
+    <row r="11" spans="3:39" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="C11" s="150" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="D11" s="146"/>
       <c r="E11" s="146"/>
@@ -6090,61 +6196,61 @@
       <c r="AL11" s="152"/>
       <c r="AM11" s="153"/>
     </row>
-    <row r="15" spans="3:39" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="3:39" ht="25.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="3:39" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="G16" s="156" t="s">
+      <c r="G16" s="173" t="s">
         <v>0</v>
       </c>
-      <c r="H16" s="157"/>
-      <c r="I16" s="158"/>
-      <c r="J16" s="156" t="s">
+      <c r="H16" s="174"/>
+      <c r="I16" s="175"/>
+      <c r="J16" s="173" t="s">
         <v>1</v>
       </c>
-      <c r="K16" s="157"/>
-      <c r="L16" s="160"/>
+      <c r="K16" s="174"/>
+      <c r="L16" s="177"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-      <c r="P16" s="156" t="s">
+      <c r="P16" s="173" t="s">
         <v>0</v>
       </c>
-      <c r="Q16" s="157"/>
-      <c r="R16" s="158"/>
-      <c r="S16" s="159" t="s">
+      <c r="Q16" s="174"/>
+      <c r="R16" s="175"/>
+      <c r="S16" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="T16" s="157"/>
-      <c r="U16" s="160"/>
+      <c r="T16" s="174"/>
+      <c r="U16" s="177"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="4"/>
-      <c r="Y16" s="156" t="s">
+      <c r="Y16" s="173" t="s">
         <v>0</v>
       </c>
-      <c r="Z16" s="157"/>
-      <c r="AA16" s="158"/>
-      <c r="AB16" s="159" t="s">
+      <c r="Z16" s="174"/>
+      <c r="AA16" s="175"/>
+      <c r="AB16" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="AC16" s="157"/>
-      <c r="AD16" s="160"/>
+      <c r="AC16" s="174"/>
+      <c r="AD16" s="177"/>
       <c r="AE16" s="5"/>
       <c r="AF16" s="6"/>
       <c r="AG16" s="7"/>
-      <c r="AH16" s="156" t="s">
+      <c r="AH16" s="173" t="s">
         <v>0</v>
       </c>
-      <c r="AI16" s="157"/>
-      <c r="AJ16" s="158"/>
-      <c r="AK16" s="159" t="s">
+      <c r="AI16" s="174"/>
+      <c r="AJ16" s="175"/>
+      <c r="AK16" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="AL16" s="157"/>
-      <c r="AM16" s="160"/>
-    </row>
-    <row r="17" spans="2:39" ht="25.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AL16" s="174"/>
+      <c r="AM16" s="177"/>
+    </row>
+    <row r="17" spans="2:39" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="8"/>
       <c r="C17" s="9"/>
       <c r="D17" s="10"/>
@@ -6240,58 +6346,58 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="2:39" ht="25.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="161" t="s">
+    <row r="18" spans="2:39" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="178" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="163" t="s">
+      <c r="D18" s="180" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="163"/>
-      <c r="F18" s="163"/>
-      <c r="G18" s="163"/>
-      <c r="H18" s="163"/>
-      <c r="I18" s="163"/>
-      <c r="J18" s="163"/>
-      <c r="K18" s="163"/>
-      <c r="L18" s="164"/>
-      <c r="M18" s="165" t="s">
+      <c r="E18" s="180"/>
+      <c r="F18" s="180"/>
+      <c r="G18" s="180"/>
+      <c r="H18" s="180"/>
+      <c r="I18" s="180"/>
+      <c r="J18" s="180"/>
+      <c r="K18" s="180"/>
+      <c r="L18" s="181"/>
+      <c r="M18" s="182" t="s">
         <v>8</v>
       </c>
-      <c r="N18" s="166"/>
-      <c r="O18" s="166"/>
-      <c r="P18" s="166"/>
-      <c r="Q18" s="166"/>
-      <c r="R18" s="166"/>
-      <c r="S18" s="166"/>
-      <c r="T18" s="166"/>
-      <c r="U18" s="167"/>
-      <c r="V18" s="168" t="s">
+      <c r="N18" s="183"/>
+      <c r="O18" s="183"/>
+      <c r="P18" s="183"/>
+      <c r="Q18" s="183"/>
+      <c r="R18" s="183"/>
+      <c r="S18" s="183"/>
+      <c r="T18" s="183"/>
+      <c r="U18" s="184"/>
+      <c r="V18" s="185" t="s">
         <v>9</v>
       </c>
-      <c r="W18" s="168"/>
-      <c r="X18" s="168"/>
-      <c r="Y18" s="168"/>
-      <c r="Z18" s="168"/>
-      <c r="AA18" s="168"/>
-      <c r="AB18" s="168"/>
-      <c r="AC18" s="168"/>
-      <c r="AD18" s="168"/>
-      <c r="AE18" s="169" t="s">
+      <c r="W18" s="185"/>
+      <c r="X18" s="185"/>
+      <c r="Y18" s="185"/>
+      <c r="Z18" s="185"/>
+      <c r="AA18" s="185"/>
+      <c r="AB18" s="185"/>
+      <c r="AC18" s="185"/>
+      <c r="AD18" s="185"/>
+      <c r="AE18" s="186" t="s">
         <v>10</v>
       </c>
-      <c r="AF18" s="170"/>
-      <c r="AG18" s="170"/>
-      <c r="AH18" s="170"/>
-      <c r="AI18" s="170"/>
-      <c r="AJ18" s="170"/>
-      <c r="AK18" s="170"/>
-      <c r="AL18" s="171"/>
-      <c r="AM18" s="172"/>
-    </row>
-    <row r="19" spans="2:39" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="162"/>
-      <c r="D19" s="173" t="s">
+      <c r="AF18" s="187"/>
+      <c r="AG18" s="187"/>
+      <c r="AH18" s="187"/>
+      <c r="AI18" s="187"/>
+      <c r="AJ18" s="187"/>
+      <c r="AK18" s="187"/>
+      <c r="AL18" s="188"/>
+      <c r="AM18" s="189"/>
+    </row>
+    <row r="19" spans="2:39" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="179"/>
+      <c r="D19" s="190" t="s">
         <v>11</v>
       </c>
       <c r="E19" s="20" t="s">
@@ -6304,7 +6410,7 @@
       <c r="J19" s="24"/>
       <c r="K19" s="25"/>
       <c r="L19" s="25"/>
-      <c r="M19" s="176" t="s">
+      <c r="M19" s="193" t="s">
         <v>13</v>
       </c>
       <c r="N19" s="20" t="s">
@@ -6317,7 +6423,7 @@
       <c r="S19" s="24"/>
       <c r="T19" s="24"/>
       <c r="U19" s="28"/>
-      <c r="V19" s="179" t="s">
+      <c r="V19" s="196" t="s">
         <v>14</v>
       </c>
       <c r="W19" s="29" t="s">
@@ -6330,7 +6436,7 @@
       <c r="AB19" s="32"/>
       <c r="AC19" s="32"/>
       <c r="AD19" s="33"/>
-      <c r="AE19" s="181" t="s">
+      <c r="AE19" s="198" t="s">
         <v>15</v>
       </c>
       <c r="AF19" s="34" t="s">
@@ -6344,9 +6450,9 @@
       <c r="AL19" s="24"/>
       <c r="AM19" s="36"/>
     </row>
-    <row r="20" spans="2:39" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="162"/>
-      <c r="D20" s="174"/>
+    <row r="20" spans="2:39" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="179"/>
+      <c r="D20" s="191"/>
       <c r="E20" s="37" t="s">
         <v>16</v>
       </c>
@@ -6357,7 +6463,7 @@
       <c r="J20" s="41"/>
       <c r="K20" s="41"/>
       <c r="L20" s="42"/>
-      <c r="M20" s="177"/>
+      <c r="M20" s="194"/>
       <c r="N20" s="43" t="s">
         <v>16</v>
       </c>
@@ -6368,7 +6474,7 @@
       <c r="S20" s="45"/>
       <c r="T20" s="45"/>
       <c r="U20" s="46"/>
-      <c r="V20" s="179"/>
+      <c r="V20" s="196"/>
       <c r="W20" s="47" t="s">
         <v>16</v>
       </c>
@@ -6379,7 +6485,7 @@
       <c r="AB20" s="50"/>
       <c r="AC20" s="50"/>
       <c r="AD20" s="51"/>
-      <c r="AE20" s="182"/>
+      <c r="AE20" s="199"/>
       <c r="AF20" s="52" t="s">
         <v>16</v>
       </c>
@@ -6391,9 +6497,9 @@
       <c r="AL20" s="45"/>
       <c r="AM20" s="55"/>
     </row>
-    <row r="21" spans="2:39" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="162"/>
-      <c r="D21" s="174"/>
+    <row r="21" spans="2:39" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="179"/>
+      <c r="D21" s="191"/>
       <c r="E21" s="43" t="s">
         <v>17</v>
       </c>
@@ -6404,7 +6510,7 @@
       <c r="J21" s="41"/>
       <c r="K21" s="41"/>
       <c r="L21" s="40"/>
-      <c r="M21" s="177"/>
+      <c r="M21" s="194"/>
       <c r="N21" s="43" t="s">
         <v>17</v>
       </c>
@@ -6415,7 +6521,7 @@
       <c r="S21" s="45"/>
       <c r="T21" s="45"/>
       <c r="U21" s="46"/>
-      <c r="V21" s="179"/>
+      <c r="V21" s="196"/>
       <c r="W21" s="56" t="s">
         <v>17</v>
       </c>
@@ -6426,7 +6532,7 @@
       <c r="AB21" s="50"/>
       <c r="AC21" s="50"/>
       <c r="AD21" s="51"/>
-      <c r="AE21" s="182"/>
+      <c r="AE21" s="199"/>
       <c r="AF21" s="52" t="s">
         <v>17</v>
       </c>
@@ -6438,9 +6544,9 @@
       <c r="AL21" s="45"/>
       <c r="AM21" s="55"/>
     </row>
-    <row r="22" spans="2:39" ht="25.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C22" s="162"/>
-      <c r="D22" s="175"/>
+    <row r="22" spans="2:39" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="179"/>
+      <c r="D22" s="192"/>
       <c r="E22" s="58" t="s">
         <v>18</v>
       </c>
@@ -6451,7 +6557,7 @@
       <c r="J22" s="45"/>
       <c r="K22" s="45"/>
       <c r="L22" s="59"/>
-      <c r="M22" s="178"/>
+      <c r="M22" s="195"/>
       <c r="N22" s="58" t="s">
         <v>18</v>
       </c>
@@ -6462,7 +6568,7 @@
       <c r="S22" s="62"/>
       <c r="T22" s="63"/>
       <c r="U22" s="60"/>
-      <c r="V22" s="180"/>
+      <c r="V22" s="197"/>
       <c r="W22" s="64" t="s">
         <v>18</v>
       </c>
@@ -6473,7 +6579,7 @@
       <c r="AB22" s="50"/>
       <c r="AC22" s="50"/>
       <c r="AD22" s="51"/>
-      <c r="AE22" s="183"/>
+      <c r="AE22" s="200"/>
       <c r="AF22" s="65" t="s">
         <v>18</v>
       </c>
@@ -6485,9 +6591,9 @@
       <c r="AL22" s="45"/>
       <c r="AM22" s="55"/>
     </row>
-    <row r="23" spans="2:39" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="162"/>
-      <c r="D23" s="184" t="s">
+    <row r="23" spans="2:39" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="179"/>
+      <c r="D23" s="201" t="s">
         <v>19</v>
       </c>
       <c r="E23" s="20" t="s">
@@ -6509,7 +6615,7 @@
       <c r="S23" s="68"/>
       <c r="T23" s="21"/>
       <c r="U23" s="35"/>
-      <c r="V23" s="187" t="s">
+      <c r="V23" s="204" t="s">
         <v>20</v>
       </c>
       <c r="W23" s="29" t="s">
@@ -6522,7 +6628,7 @@
       <c r="AB23" s="32"/>
       <c r="AC23" s="32"/>
       <c r="AD23" s="33"/>
-      <c r="AE23" s="181" t="s">
+      <c r="AE23" s="198" t="s">
         <v>21</v>
       </c>
       <c r="AF23" s="34" t="s">
@@ -6536,9 +6642,9 @@
       <c r="AL23" s="24"/>
       <c r="AM23" s="36"/>
     </row>
-    <row r="24" spans="2:39" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="162"/>
-      <c r="D24" s="185"/>
+    <row r="24" spans="2:39" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="179"/>
+      <c r="D24" s="202"/>
       <c r="E24" s="43" t="s">
         <v>16</v>
       </c>
@@ -6558,7 +6664,7 @@
       <c r="S24" s="21"/>
       <c r="T24" s="21"/>
       <c r="U24" s="21"/>
-      <c r="V24" s="188"/>
+      <c r="V24" s="205"/>
       <c r="W24" s="47" t="s">
         <v>16</v>
       </c>
@@ -6569,7 +6675,7 @@
       <c r="AB24" s="70"/>
       <c r="AC24" s="70"/>
       <c r="AD24" s="71"/>
-      <c r="AE24" s="182"/>
+      <c r="AE24" s="199"/>
       <c r="AF24" s="52" t="s">
         <v>16</v>
       </c>
@@ -6581,9 +6687,9 @@
       <c r="AL24" s="45"/>
       <c r="AM24" s="55"/>
     </row>
-    <row r="25" spans="2:39" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="162"/>
-      <c r="D25" s="185"/>
+    <row r="25" spans="2:39" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="179"/>
+      <c r="D25" s="202"/>
       <c r="E25" s="43" t="s">
         <v>17</v>
       </c>
@@ -6603,7 +6709,7 @@
       <c r="S25" s="21"/>
       <c r="T25" s="21"/>
       <c r="U25" s="21"/>
-      <c r="V25" s="188"/>
+      <c r="V25" s="205"/>
       <c r="W25" s="56" t="s">
         <v>17</v>
       </c>
@@ -6614,7 +6720,7 @@
       <c r="AB25" s="70"/>
       <c r="AC25" s="70"/>
       <c r="AD25" s="71"/>
-      <c r="AE25" s="182"/>
+      <c r="AE25" s="199"/>
       <c r="AF25" s="52" t="s">
         <v>17</v>
       </c>
@@ -6626,9 +6732,9 @@
       <c r="AL25" s="45"/>
       <c r="AM25" s="55"/>
     </row>
-    <row r="26" spans="2:39" ht="25.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C26" s="162"/>
-      <c r="D26" s="186"/>
+    <row r="26" spans="2:39" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="179"/>
+      <c r="D26" s="203"/>
       <c r="E26" s="72" t="s">
         <v>18</v>
       </c>
@@ -6648,7 +6754,7 @@
       <c r="S26" s="21"/>
       <c r="T26" s="21"/>
       <c r="U26" s="21"/>
-      <c r="V26" s="189"/>
+      <c r="V26" s="206"/>
       <c r="W26" s="73" t="s">
         <v>18</v>
       </c>
@@ -6659,7 +6765,7 @@
       <c r="AB26" s="77"/>
       <c r="AC26" s="77"/>
       <c r="AD26" s="78"/>
-      <c r="AE26" s="183"/>
+      <c r="AE26" s="200"/>
       <c r="AF26" s="79" t="s">
         <v>18</v>
       </c>
@@ -6671,9 +6777,9 @@
       <c r="AL26" s="45"/>
       <c r="AM26" s="55"/>
     </row>
-    <row r="27" spans="2:39" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="162"/>
-      <c r="D27" s="190" t="s">
+    <row r="27" spans="2:39" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="179"/>
+      <c r="D27" s="207" t="s">
         <v>22</v>
       </c>
       <c r="E27" s="20" t="s">
@@ -6695,7 +6801,7 @@
       <c r="S27" s="21"/>
       <c r="T27" s="21"/>
       <c r="U27" s="60"/>
-      <c r="V27" s="193" t="s">
+      <c r="V27" s="210" t="s">
         <v>23</v>
       </c>
       <c r="W27" s="80" t="s">
@@ -6708,7 +6814,7 @@
       <c r="AB27" s="45"/>
       <c r="AC27" s="45"/>
       <c r="AD27" s="81"/>
-      <c r="AE27" s="181" t="s">
+      <c r="AE27" s="198" t="s">
         <v>24</v>
       </c>
       <c r="AF27" s="34" t="s">
@@ -6722,9 +6828,9 @@
       <c r="AL27" s="24"/>
       <c r="AM27" s="36"/>
     </row>
-    <row r="28" spans="2:39" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="162"/>
-      <c r="D28" s="191"/>
+    <row r="28" spans="2:39" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="179"/>
+      <c r="D28" s="208"/>
       <c r="E28" s="43" t="s">
         <v>16</v>
       </c>
@@ -6744,7 +6850,7 @@
       <c r="S28" s="21"/>
       <c r="T28" s="21"/>
       <c r="U28" s="60"/>
-      <c r="V28" s="179"/>
+      <c r="V28" s="196"/>
       <c r="W28" s="56" t="s">
         <v>16</v>
       </c>
@@ -6755,7 +6861,7 @@
       <c r="AB28" s="45"/>
       <c r="AC28" s="45"/>
       <c r="AD28" s="81"/>
-      <c r="AE28" s="182"/>
+      <c r="AE28" s="199"/>
       <c r="AF28" s="52" t="s">
         <v>16</v>
       </c>
@@ -6767,9 +6873,9 @@
       <c r="AL28" s="45"/>
       <c r="AM28" s="55"/>
     </row>
-    <row r="29" spans="2:39" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C29" s="162"/>
-      <c r="D29" s="191"/>
+    <row r="29" spans="2:39" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="179"/>
+      <c r="D29" s="208"/>
       <c r="E29" s="43" t="s">
         <v>17</v>
       </c>
@@ -6789,7 +6895,7 @@
       <c r="S29" s="21"/>
       <c r="T29" s="21"/>
       <c r="U29" s="60"/>
-      <c r="V29" s="179"/>
+      <c r="V29" s="196"/>
       <c r="W29" s="56" t="s">
         <v>17</v>
       </c>
@@ -6800,7 +6906,7 @@
       <c r="AB29" s="45"/>
       <c r="AC29" s="45"/>
       <c r="AD29" s="81"/>
-      <c r="AE29" s="182"/>
+      <c r="AE29" s="199"/>
       <c r="AF29" s="52" t="s">
         <v>17</v>
       </c>
@@ -6812,9 +6918,9 @@
       <c r="AL29" s="45"/>
       <c r="AM29" s="55"/>
     </row>
-    <row r="30" spans="2:39" ht="25.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C30" s="162"/>
-      <c r="D30" s="192"/>
+    <row r="30" spans="2:39" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="179"/>
+      <c r="D30" s="209"/>
       <c r="E30" s="72" t="s">
         <v>18</v>
       </c>
@@ -6834,7 +6940,7 @@
       <c r="S30" s="21"/>
       <c r="T30" s="21"/>
       <c r="U30" s="60"/>
-      <c r="V30" s="180"/>
+      <c r="V30" s="197"/>
       <c r="W30" s="64" t="s">
         <v>18</v>
       </c>
@@ -6845,7 +6951,7 @@
       <c r="AB30" s="45"/>
       <c r="AC30" s="45"/>
       <c r="AD30" s="81"/>
-      <c r="AE30" s="183"/>
+      <c r="AE30" s="200"/>
       <c r="AF30" s="82" t="s">
         <v>18</v>
       </c>
@@ -6857,9 +6963,9 @@
       <c r="AL30" s="63"/>
       <c r="AM30" s="84"/>
     </row>
-    <row r="31" spans="2:39" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="162"/>
-      <c r="D31" s="190" t="s">
+    <row r="31" spans="2:39" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="179"/>
+      <c r="D31" s="207" t="s">
         <v>25</v>
       </c>
       <c r="E31" s="20" t="s">
@@ -6881,7 +6987,7 @@
       <c r="S31" s="21"/>
       <c r="T31" s="21"/>
       <c r="U31" s="60"/>
-      <c r="V31" s="179" t="s">
+      <c r="V31" s="196" t="s">
         <v>26</v>
       </c>
       <c r="W31" s="29" t="s">
@@ -6894,7 +7000,7 @@
       <c r="AB31" s="24"/>
       <c r="AC31" s="24"/>
       <c r="AD31" s="28"/>
-      <c r="AE31" s="211" t="s">
+      <c r="AE31" s="228" t="s">
         <v>27</v>
       </c>
       <c r="AF31" s="85" t="s">
@@ -6908,9 +7014,9 @@
       <c r="AL31" s="45"/>
       <c r="AM31" s="86"/>
     </row>
-    <row r="32" spans="2:39" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="162"/>
-      <c r="D32" s="191"/>
+    <row r="32" spans="2:39" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="179"/>
+      <c r="D32" s="208"/>
       <c r="E32" s="43" t="s">
         <v>16</v>
       </c>
@@ -6930,7 +7036,7 @@
       <c r="S32" s="21"/>
       <c r="T32" s="21"/>
       <c r="U32" s="60"/>
-      <c r="V32" s="179"/>
+      <c r="V32" s="196"/>
       <c r="W32" s="80" t="s">
         <v>16</v>
       </c>
@@ -6941,7 +7047,7 @@
       <c r="AB32" s="41"/>
       <c r="AC32" s="41"/>
       <c r="AD32" s="87"/>
-      <c r="AE32" s="211"/>
+      <c r="AE32" s="228"/>
       <c r="AF32" s="88" t="s">
         <v>16</v>
       </c>
@@ -6953,9 +7059,9 @@
       <c r="AL32" s="45"/>
       <c r="AM32" s="89"/>
     </row>
-    <row r="33" spans="3:40" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C33" s="162"/>
-      <c r="D33" s="191"/>
+    <row r="33" spans="3:40" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C33" s="179"/>
+      <c r="D33" s="208"/>
       <c r="E33" s="90" t="s">
         <v>17</v>
       </c>
@@ -6975,7 +7081,7 @@
       <c r="S33" s="21"/>
       <c r="T33" s="21"/>
       <c r="U33" s="60"/>
-      <c r="V33" s="179"/>
+      <c r="V33" s="196"/>
       <c r="W33" s="80" t="s">
         <v>17</v>
       </c>
@@ -6986,7 +7092,7 @@
       <c r="AB33" s="41"/>
       <c r="AC33" s="41"/>
       <c r="AD33" s="87"/>
-      <c r="AE33" s="211"/>
+      <c r="AE33" s="228"/>
       <c r="AF33" s="56" t="s">
         <v>17</v>
       </c>
@@ -6998,9 +7104,9 @@
       <c r="AL33" s="45"/>
       <c r="AM33" s="89"/>
     </row>
-    <row r="34" spans="3:40" ht="25.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C34" s="162"/>
-      <c r="D34" s="192"/>
+    <row r="34" spans="3:40" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C34" s="179"/>
+      <c r="D34" s="209"/>
       <c r="E34" s="58" t="s">
         <v>18</v>
       </c>
@@ -7020,7 +7126,7 @@
       <c r="S34" s="21"/>
       <c r="T34" s="21"/>
       <c r="U34" s="60"/>
-      <c r="V34" s="180"/>
+      <c r="V34" s="197"/>
       <c r="W34" s="64" t="s">
         <v>18</v>
       </c>
@@ -7031,7 +7137,7 @@
       <c r="AB34" s="45"/>
       <c r="AC34" s="45"/>
       <c r="AD34" s="46"/>
-      <c r="AE34" s="212"/>
+      <c r="AE34" s="229"/>
       <c r="AF34" s="64" t="s">
         <v>18</v>
       </c>
@@ -7043,12 +7149,12 @@
       <c r="AL34" s="63"/>
       <c r="AM34" s="84"/>
     </row>
-    <row r="35" spans="3:40" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C35" s="162"/>
+    <row r="35" spans="3:40" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C35" s="179"/>
       <c r="D35"/>
       <c r="E35"/>
       <c r="U35" s="91"/>
-      <c r="V35" s="179" t="s">
+      <c r="V35" s="196" t="s">
         <v>28</v>
       </c>
       <c r="W35" s="29" t="s">
@@ -7071,8 +7177,8 @@
       <c r="AL35" s="21"/>
       <c r="AM35" s="92"/>
     </row>
-    <row r="36" spans="3:40" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C36" s="162"/>
+    <row r="36" spans="3:40" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C36" s="179"/>
       <c r="D36"/>
       <c r="E36"/>
       <c r="G36" s="21"/>
@@ -7086,7 +7192,7 @@
       <c r="S36" s="21"/>
       <c r="T36" s="21"/>
       <c r="U36" s="91"/>
-      <c r="V36" s="179"/>
+      <c r="V36" s="196"/>
       <c r="W36" s="56" t="s">
         <v>16</v>
       </c>
@@ -7107,8 +7213,8 @@
       <c r="AL36" s="21"/>
       <c r="AM36" s="92"/>
     </row>
-    <row r="37" spans="3:40" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C37" s="162"/>
+    <row r="37" spans="3:40" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C37" s="179"/>
       <c r="D37"/>
       <c r="E37"/>
       <c r="G37" s="21"/>
@@ -7126,7 +7232,7 @@
       <c r="S37" s="21"/>
       <c r="T37" s="21"/>
       <c r="U37" s="91"/>
-      <c r="V37" s="179"/>
+      <c r="V37" s="196"/>
       <c r="W37" s="80" t="s">
         <v>17</v>
       </c>
@@ -7147,8 +7253,8 @@
       <c r="AL37" s="21"/>
       <c r="AM37" s="92"/>
     </row>
-    <row r="38" spans="3:40" ht="25.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C38" s="162"/>
+    <row r="38" spans="3:40" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C38" s="179"/>
       <c r="D38"/>
       <c r="E38"/>
       <c r="G38" s="21"/>
@@ -7166,7 +7272,7 @@
       <c r="S38" s="21"/>
       <c r="T38" s="21"/>
       <c r="U38" s="91"/>
-      <c r="V38" s="180"/>
+      <c r="V38" s="197"/>
       <c r="W38" s="64" t="s">
         <v>18</v>
       </c>
@@ -7187,8 +7293,8 @@
       <c r="AL38" s="21"/>
       <c r="AM38" s="92"/>
     </row>
-    <row r="39" spans="3:40" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C39" s="162"/>
+    <row r="39" spans="3:40" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C39" s="179"/>
       <c r="D39"/>
       <c r="E39"/>
       <c r="G39" s="21"/>
@@ -7206,7 +7312,7 @@
       <c r="S39" s="21"/>
       <c r="T39" s="21"/>
       <c r="U39" s="91"/>
-      <c r="V39" s="179" t="s">
+      <c r="V39" s="196" t="s">
         <v>29</v>
       </c>
       <c r="W39" s="47" t="s">
@@ -7229,8 +7335,8 @@
       <c r="AL39" s="21"/>
       <c r="AM39" s="92"/>
     </row>
-    <row r="40" spans="3:40" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C40" s="162"/>
+    <row r="40" spans="3:40" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C40" s="179"/>
       <c r="D40"/>
       <c r="E40" s="94"/>
       <c r="F40" s="21"/>
@@ -7249,7 +7355,7 @@
       <c r="S40" s="21"/>
       <c r="T40" s="21"/>
       <c r="U40" s="91"/>
-      <c r="V40" s="179"/>
+      <c r="V40" s="196"/>
       <c r="W40" s="56" t="s">
         <v>16</v>
       </c>
@@ -7270,8 +7376,8 @@
       <c r="AL40" s="21"/>
       <c r="AM40" s="92"/>
     </row>
-    <row r="41" spans="3:40" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C41" s="162"/>
+    <row r="41" spans="3:40" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C41" s="179"/>
       <c r="D41"/>
       <c r="E41" s="94"/>
       <c r="F41" s="21"/>
@@ -7290,7 +7396,7 @@
       <c r="S41" s="21"/>
       <c r="T41" s="21"/>
       <c r="U41" s="91"/>
-      <c r="V41" s="179"/>
+      <c r="V41" s="196"/>
       <c r="W41" s="56" t="s">
         <v>17</v>
       </c>
@@ -7311,8 +7417,8 @@
       <c r="AL41" s="21"/>
       <c r="AM41" s="92"/>
     </row>
-    <row r="42" spans="3:40" ht="25.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C42" s="162"/>
+    <row r="42" spans="3:40" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C42" s="179"/>
       <c r="D42"/>
       <c r="E42"/>
       <c r="M42" s="2"/>
@@ -7324,7 +7430,7 @@
       <c r="S42" s="2"/>
       <c r="T42" s="2"/>
       <c r="U42" s="95"/>
-      <c r="V42" s="179"/>
+      <c r="V42" s="196"/>
       <c r="W42" s="64" t="s">
         <v>18</v>
       </c>
@@ -7345,11 +7451,11 @@
       <c r="AL42" s="96"/>
       <c r="AM42" s="97"/>
     </row>
-    <row r="43" spans="3:40" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C43" s="194" t="s">
+    <row r="43" spans="3:40" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C43" s="211" t="s">
         <v>30</v>
       </c>
-      <c r="D43" s="199" t="s">
+      <c r="D43" s="216" t="s">
         <v>31</v>
       </c>
       <c r="E43" s="98" t="s">
@@ -7362,7 +7468,7 @@
       <c r="J43" s="27"/>
       <c r="K43" s="27"/>
       <c r="L43" s="68"/>
-      <c r="M43" s="202" t="s">
+      <c r="M43" s="219" t="s">
         <v>32</v>
       </c>
       <c r="N43" s="101" t="s">
@@ -7375,7 +7481,7 @@
       <c r="S43" s="45"/>
       <c r="T43" s="45"/>
       <c r="U43" s="99"/>
-      <c r="V43" s="205" t="s">
+      <c r="V43" s="222" t="s">
         <v>33</v>
       </c>
       <c r="W43" s="29" t="s">
@@ -7388,7 +7494,7 @@
       <c r="AB43" s="24"/>
       <c r="AC43" s="24"/>
       <c r="AD43" s="28"/>
-      <c r="AE43" s="208" t="s">
+      <c r="AE43" s="225" t="s">
         <v>34</v>
       </c>
       <c r="AF43" s="102" t="s">
@@ -7403,9 +7509,9 @@
       <c r="AM43" s="42"/>
       <c r="AN43" s="104"/>
     </row>
-    <row r="44" spans="3:40" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C44" s="195"/>
-      <c r="D44" s="200"/>
+    <row r="44" spans="3:40" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C44" s="212"/>
+      <c r="D44" s="217"/>
       <c r="E44" s="37" t="s">
         <v>16</v>
       </c>
@@ -7416,7 +7522,7 @@
       <c r="J44" s="41"/>
       <c r="K44" s="41"/>
       <c r="L44" s="40"/>
-      <c r="M44" s="203"/>
+      <c r="M44" s="220"/>
       <c r="N44" s="90" t="s">
         <v>16</v>
       </c>
@@ -7427,7 +7533,7 @@
       <c r="S44" s="45"/>
       <c r="T44" s="45"/>
       <c r="U44" s="53"/>
-      <c r="V44" s="206"/>
+      <c r="V44" s="223"/>
       <c r="W44" s="56" t="s">
         <v>16</v>
       </c>
@@ -7438,7 +7544,7 @@
       <c r="AB44" s="45"/>
       <c r="AC44" s="45"/>
       <c r="AD44" s="46"/>
-      <c r="AE44" s="209"/>
+      <c r="AE44" s="226"/>
       <c r="AF44" s="106" t="s">
         <v>16</v>
       </c>
@@ -7450,9 +7556,9 @@
       <c r="AL44" s="45"/>
       <c r="AM44" s="55"/>
     </row>
-    <row r="45" spans="3:40" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C45" s="195"/>
-      <c r="D45" s="200"/>
+    <row r="45" spans="3:40" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C45" s="212"/>
+      <c r="D45" s="217"/>
       <c r="E45" s="43" t="s">
         <v>17</v>
       </c>
@@ -7463,7 +7569,7 @@
       <c r="J45" s="45"/>
       <c r="K45" s="45"/>
       <c r="L45" s="42"/>
-      <c r="M45" s="203"/>
+      <c r="M45" s="220"/>
       <c r="N45" s="43" t="s">
         <v>17</v>
       </c>
@@ -7474,7 +7580,7 @@
       <c r="S45" s="45"/>
       <c r="T45" s="45"/>
       <c r="U45" s="53"/>
-      <c r="V45" s="206"/>
+      <c r="V45" s="223"/>
       <c r="W45" s="56" t="s">
         <v>17</v>
       </c>
@@ -7485,7 +7591,7 @@
       <c r="AB45" s="45"/>
       <c r="AC45" s="45"/>
       <c r="AD45" s="46"/>
-      <c r="AE45" s="209"/>
+      <c r="AE45" s="226"/>
       <c r="AF45" s="106" t="s">
         <v>17</v>
       </c>
@@ -7497,9 +7603,9 @@
       <c r="AL45" s="41"/>
       <c r="AM45" s="109"/>
     </row>
-    <row r="46" spans="3:40" ht="25.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C46" s="195"/>
-      <c r="D46" s="201"/>
+    <row r="46" spans="3:40" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C46" s="212"/>
+      <c r="D46" s="218"/>
       <c r="E46" s="110" t="s">
         <v>18</v>
       </c>
@@ -7510,7 +7616,7 @@
       <c r="J46" s="62"/>
       <c r="K46" s="62"/>
       <c r="L46" s="21"/>
-      <c r="M46" s="204"/>
+      <c r="M46" s="221"/>
       <c r="N46" s="90" t="s">
         <v>18</v>
       </c>
@@ -7521,7 +7627,7 @@
       <c r="S46" s="45"/>
       <c r="T46" s="45"/>
       <c r="U46" s="66"/>
-      <c r="V46" s="207"/>
+      <c r="V46" s="224"/>
       <c r="W46" s="47" t="s">
         <v>18</v>
       </c>
@@ -7532,7 +7638,7 @@
       <c r="AB46" s="45"/>
       <c r="AC46" s="45"/>
       <c r="AD46" s="46"/>
-      <c r="AE46" s="210"/>
+      <c r="AE46" s="227"/>
       <c r="AF46" s="111" t="s">
         <v>18</v>
       </c>
@@ -7544,9 +7650,9 @@
       <c r="AL46" s="45"/>
       <c r="AM46" s="55"/>
     </row>
-    <row r="47" spans="3:40" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C47" s="196"/>
-      <c r="D47" s="199" t="s">
+    <row r="47" spans="3:40" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C47" s="213"/>
+      <c r="D47" s="216" t="s">
         <v>35</v>
       </c>
       <c r="E47" s="112" t="s">
@@ -7559,7 +7665,7 @@
       <c r="J47" s="24"/>
       <c r="K47" s="24"/>
       <c r="L47" s="28"/>
-      <c r="M47" s="213" t="s">
+      <c r="M47" s="230" t="s">
         <v>36</v>
       </c>
       <c r="N47" s="20" t="s">
@@ -7572,7 +7678,7 @@
       <c r="S47" s="24"/>
       <c r="T47" s="24"/>
       <c r="U47" s="26"/>
-      <c r="V47" s="205" t="s">
+      <c r="V47" s="222" t="s">
         <v>37</v>
       </c>
       <c r="W47" s="113" t="s">
@@ -7585,7 +7691,7 @@
       <c r="AB47" s="24"/>
       <c r="AC47" s="24"/>
       <c r="AD47" s="28"/>
-      <c r="AE47" s="208" t="s">
+      <c r="AE47" s="225" t="s">
         <v>38</v>
       </c>
       <c r="AF47" s="102" t="s">
@@ -7599,9 +7705,9 @@
       <c r="AL47" s="24"/>
       <c r="AM47" s="36"/>
     </row>
-    <row r="48" spans="3:40" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C48" s="196"/>
-      <c r="D48" s="200"/>
+    <row r="48" spans="3:40" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C48" s="213"/>
+      <c r="D48" s="217"/>
       <c r="E48" s="43" t="s">
         <v>16</v>
       </c>
@@ -7612,7 +7718,7 @@
       <c r="J48" s="45"/>
       <c r="K48" s="45"/>
       <c r="L48" s="46"/>
-      <c r="M48" s="214"/>
+      <c r="M48" s="231"/>
       <c r="N48" s="101" t="s">
         <v>16</v>
       </c>
@@ -7623,7 +7729,7 @@
       <c r="S48" s="41"/>
       <c r="T48" s="41"/>
       <c r="U48" s="38"/>
-      <c r="V48" s="206"/>
+      <c r="V48" s="223"/>
       <c r="W48" s="114" t="s">
         <v>16</v>
       </c>
@@ -7634,7 +7740,7 @@
       <c r="AB48" s="41"/>
       <c r="AC48" s="41"/>
       <c r="AD48" s="87"/>
-      <c r="AE48" s="209"/>
+      <c r="AE48" s="226"/>
       <c r="AF48" s="106" t="s">
         <v>16</v>
       </c>
@@ -7646,9 +7752,9 @@
       <c r="AL48" s="62"/>
       <c r="AM48" s="92"/>
     </row>
-    <row r="49" spans="3:40" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C49" s="196"/>
-      <c r="D49" s="200"/>
+    <row r="49" spans="3:40" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C49" s="213"/>
+      <c r="D49" s="217"/>
       <c r="E49" s="43" t="s">
         <v>17</v>
       </c>
@@ -7659,7 +7765,7 @@
       <c r="J49" s="41"/>
       <c r="K49" s="41"/>
       <c r="L49" s="87"/>
-      <c r="M49" s="214"/>
+      <c r="M49" s="231"/>
       <c r="N49" s="101" t="s">
         <v>17</v>
       </c>
@@ -7670,7 +7776,7 @@
       <c r="S49" s="41"/>
       <c r="T49" s="41"/>
       <c r="U49" s="38"/>
-      <c r="V49" s="206"/>
+      <c r="V49" s="223"/>
       <c r="W49" s="114" t="s">
         <v>17</v>
       </c>
@@ -7681,7 +7787,7 @@
       <c r="AB49" s="41"/>
       <c r="AC49" s="41"/>
       <c r="AD49" s="87"/>
-      <c r="AE49" s="209"/>
+      <c r="AE49" s="226"/>
       <c r="AF49" s="106" t="s">
         <v>17</v>
       </c>
@@ -7694,9 +7800,9 @@
       <c r="AM49" s="116"/>
       <c r="AN49" s="104"/>
     </row>
-    <row r="50" spans="3:40" ht="25.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C50" s="196"/>
-      <c r="D50" s="201"/>
+    <row r="50" spans="3:40" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C50" s="213"/>
+      <c r="D50" s="218"/>
       <c r="E50" s="72" t="s">
         <v>18</v>
       </c>
@@ -7707,7 +7813,7 @@
       <c r="J50" s="45"/>
       <c r="K50" s="45"/>
       <c r="L50" s="46"/>
-      <c r="M50" s="215"/>
+      <c r="M50" s="232"/>
       <c r="N50" s="58" t="s">
         <v>18</v>
       </c>
@@ -7718,7 +7824,7 @@
       <c r="S50" s="63"/>
       <c r="T50" s="62"/>
       <c r="U50" s="107"/>
-      <c r="V50" s="207"/>
+      <c r="V50" s="224"/>
       <c r="W50" s="117" t="s">
         <v>18</v>
       </c>
@@ -7729,7 +7835,7 @@
       <c r="AB50" s="45"/>
       <c r="AC50" s="45"/>
       <c r="AD50" s="46"/>
-      <c r="AE50" s="210"/>
+      <c r="AE50" s="227"/>
       <c r="AF50" s="118" t="s">
         <v>18</v>
       </c>
@@ -7741,9 +7847,9 @@
       <c r="AL50" s="45"/>
       <c r="AM50" s="55"/>
     </row>
-    <row r="51" spans="3:40" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C51" s="196"/>
-      <c r="D51" s="199" t="s">
+    <row r="51" spans="3:40" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C51" s="213"/>
+      <c r="D51" s="216" t="s">
         <v>39</v>
       </c>
       <c r="E51" s="120" t="s">
@@ -7756,7 +7862,7 @@
       <c r="J51" s="24"/>
       <c r="K51" s="24"/>
       <c r="L51" s="28"/>
-      <c r="M51" s="216" t="s">
+      <c r="M51" s="233" t="s">
         <v>40</v>
       </c>
       <c r="N51" s="101" t="s">
@@ -7769,7 +7875,7 @@
       <c r="S51" s="45"/>
       <c r="T51" s="27"/>
       <c r="U51" s="26"/>
-      <c r="V51" s="205" t="s">
+      <c r="V51" s="222" t="s">
         <v>41</v>
       </c>
       <c r="W51" s="113" t="s">
@@ -7782,7 +7888,7 @@
       <c r="AB51" s="24"/>
       <c r="AC51" s="24"/>
       <c r="AD51" s="28"/>
-      <c r="AE51" s="208" t="s">
+      <c r="AE51" s="225" t="s">
         <v>42</v>
       </c>
       <c r="AF51" s="102" t="s">
@@ -7796,9 +7902,9 @@
       <c r="AL51" s="121"/>
       <c r="AM51" s="122"/>
     </row>
-    <row r="52" spans="3:40" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C52" s="196"/>
-      <c r="D52" s="200"/>
+    <row r="52" spans="3:40" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C52" s="213"/>
+      <c r="D52" s="217"/>
       <c r="E52" s="43" t="s">
         <v>16</v>
       </c>
@@ -7809,7 +7915,7 @@
       <c r="J52" s="41"/>
       <c r="K52" s="41"/>
       <c r="L52" s="87"/>
-      <c r="M52" s="217"/>
+      <c r="M52" s="234"/>
       <c r="N52" s="90" t="s">
         <v>16</v>
       </c>
@@ -7820,7 +7926,7 @@
       <c r="S52" s="45"/>
       <c r="T52" s="41"/>
       <c r="U52" s="38"/>
-      <c r="V52" s="206"/>
+      <c r="V52" s="223"/>
       <c r="W52" s="114" t="s">
         <v>16</v>
       </c>
@@ -7831,7 +7937,7 @@
       <c r="AB52" s="45"/>
       <c r="AC52" s="45"/>
       <c r="AD52" s="46"/>
-      <c r="AE52" s="209"/>
+      <c r="AE52" s="226"/>
       <c r="AF52" s="106" t="s">
         <v>16</v>
       </c>
@@ -7843,9 +7949,9 @@
       <c r="AL52" s="93"/>
       <c r="AM52" s="123"/>
     </row>
-    <row r="53" spans="3:40" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C53" s="196"/>
-      <c r="D53" s="200"/>
+    <row r="53" spans="3:40" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C53" s="213"/>
+      <c r="D53" s="217"/>
       <c r="E53" s="124" t="s">
         <v>17</v>
       </c>
@@ -7856,7 +7962,7 @@
       <c r="J53" s="41"/>
       <c r="K53" s="41"/>
       <c r="L53" s="87"/>
-      <c r="M53" s="217"/>
+      <c r="M53" s="234"/>
       <c r="N53" s="43" t="s">
         <v>17</v>
       </c>
@@ -7867,7 +7973,7 @@
       <c r="S53" s="45"/>
       <c r="T53" s="62"/>
       <c r="U53" s="107"/>
-      <c r="V53" s="206"/>
+      <c r="V53" s="223"/>
       <c r="W53" s="114" t="s">
         <v>17</v>
       </c>
@@ -7878,7 +7984,7 @@
       <c r="AB53" s="45"/>
       <c r="AC53" s="45"/>
       <c r="AD53" s="46"/>
-      <c r="AE53" s="209"/>
+      <c r="AE53" s="226"/>
       <c r="AF53" s="106" t="s">
         <v>17</v>
       </c>
@@ -7890,9 +7996,9 @@
       <c r="AL53" s="108"/>
       <c r="AM53" s="86"/>
     </row>
-    <row r="54" spans="3:40" ht="25.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C54" s="196"/>
-      <c r="D54" s="201"/>
+    <row r="54" spans="3:40" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C54" s="213"/>
+      <c r="D54" s="218"/>
       <c r="E54" s="58" t="s">
         <v>18</v>
       </c>
@@ -7903,7 +8009,7 @@
       <c r="J54" s="63"/>
       <c r="K54" s="63"/>
       <c r="L54" s="125"/>
-      <c r="M54" s="218"/>
+      <c r="M54" s="235"/>
       <c r="N54" s="72" t="s">
         <v>18</v>
       </c>
@@ -7914,7 +8020,7 @@
       <c r="S54" s="62"/>
       <c r="T54" s="63"/>
       <c r="U54" s="66"/>
-      <c r="V54" s="207"/>
+      <c r="V54" s="224"/>
       <c r="W54" s="126" t="s">
         <v>18</v>
       </c>
@@ -7925,7 +8031,7 @@
       <c r="AB54" s="45"/>
       <c r="AC54" s="45"/>
       <c r="AD54" s="46"/>
-      <c r="AE54" s="210"/>
+      <c r="AE54" s="227"/>
       <c r="AF54" s="118" t="s">
         <v>18</v>
       </c>
@@ -7937,14 +8043,14 @@
       <c r="AL54" s="128"/>
       <c r="AM54" s="84"/>
     </row>
-    <row r="55" spans="3:40" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C55" s="196"/>
+    <row r="55" spans="3:40" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C55" s="213"/>
       <c r="D55" s="129"/>
       <c r="O55" s="130"/>
       <c r="P55" s="130"/>
       <c r="S55" s="130"/>
       <c r="U55" s="91"/>
-      <c r="V55" s="205" t="s">
+      <c r="V55" s="222" t="s">
         <v>43</v>
       </c>
       <c r="W55" s="113" t="s">
@@ -7966,8 +8072,8 @@
       <c r="AL55" s="132"/>
       <c r="AM55" s="134"/>
     </row>
-    <row r="56" spans="3:40" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C56" s="197"/>
+    <row r="56" spans="3:40" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C56" s="214"/>
       <c r="D56" s="135"/>
       <c r="F56" s="21"/>
       <c r="G56" s="21"/>
@@ -7983,7 +8089,7 @@
       <c r="S56" s="133"/>
       <c r="T56" s="133"/>
       <c r="U56" s="136"/>
-      <c r="V56" s="206"/>
+      <c r="V56" s="223"/>
       <c r="W56" s="114" t="s">
         <v>16</v>
       </c>
@@ -8003,8 +8109,8 @@
       <c r="AL56" s="133"/>
       <c r="AM56" s="134"/>
     </row>
-    <row r="57" spans="3:40" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C57" s="197"/>
+    <row r="57" spans="3:40" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C57" s="214"/>
       <c r="D57" s="135"/>
       <c r="F57" s="21"/>
       <c r="G57" s="21"/>
@@ -8020,7 +8126,7 @@
       <c r="S57" s="133"/>
       <c r="T57" s="133"/>
       <c r="U57" s="136"/>
-      <c r="V57" s="206"/>
+      <c r="V57" s="223"/>
       <c r="W57" s="114" t="s">
         <v>17</v>
       </c>
@@ -8040,8 +8146,8 @@
       <c r="AL57" s="133"/>
       <c r="AM57" s="134"/>
     </row>
-    <row r="58" spans="3:40" ht="25.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C58" s="198"/>
+    <row r="58" spans="3:40" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C58" s="215"/>
       <c r="D58" s="137"/>
       <c r="E58" s="138"/>
       <c r="F58" s="138"/>
@@ -8060,7 +8166,7 @@
       <c r="S58" s="139"/>
       <c r="T58" s="139"/>
       <c r="U58" s="140"/>
-      <c r="V58" s="207"/>
+      <c r="V58" s="224"/>
       <c r="W58" s="117" t="s">
         <v>18</v>
       </c>
@@ -8081,358 +8187,357 @@
       <c r="AL58" s="138"/>
       <c r="AM58" s="145"/>
     </row>
-    <row r="59" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C59" s="130"/>
       <c r="X59" s="130"/>
       <c r="Y59" s="130"/>
       <c r="AC59" s="130"/>
       <c r="AD59" s="130"/>
     </row>
-    <row r="61" spans="3:40" x14ac:dyDescent="0.3">
-      <c r="C61" s="154"/>
-      <c r="D61" s="154"/>
-      <c r="E61" s="154"/>
-      <c r="F61" s="154"/>
-      <c r="G61" s="154"/>
-      <c r="H61" s="154"/>
-      <c r="I61" s="154"/>
-      <c r="J61" s="154"/>
-      <c r="K61" s="154"/>
-      <c r="L61" s="154"/>
-      <c r="M61" s="154"/>
-      <c r="N61" s="154"/>
-      <c r="O61" s="154"/>
-      <c r="P61" s="154"/>
-      <c r="Q61" s="154"/>
-      <c r="R61" s="154"/>
-      <c r="S61" s="154"/>
-      <c r="T61" s="154"/>
-      <c r="U61" s="154"/>
-    </row>
-    <row r="62" spans="3:40" x14ac:dyDescent="0.3">
-      <c r="C62" s="154"/>
-      <c r="D62" s="154"/>
-      <c r="E62" s="154"/>
-      <c r="F62" s="154"/>
-      <c r="G62" s="154"/>
-      <c r="H62" s="154"/>
-      <c r="I62" s="154"/>
-      <c r="J62" s="154"/>
-      <c r="K62" s="154"/>
-      <c r="L62" s="154"/>
-      <c r="M62" s="154"/>
-      <c r="N62" s="154"/>
-      <c r="O62" s="154"/>
-      <c r="P62" s="154"/>
-      <c r="Q62" s="154"/>
-      <c r="R62" s="154"/>
-      <c r="S62" s="154"/>
-      <c r="T62" s="154"/>
-      <c r="U62" s="154"/>
-    </row>
-    <row r="63" spans="3:40" x14ac:dyDescent="0.3">
-      <c r="C63" s="154"/>
-      <c r="D63" s="154"/>
-      <c r="E63" s="154"/>
-      <c r="F63" s="154"/>
-      <c r="G63" s="154"/>
-      <c r="H63" s="154"/>
-      <c r="I63" s="154"/>
-      <c r="J63" s="154"/>
-      <c r="K63" s="154"/>
-      <c r="L63" s="154"/>
-      <c r="M63" s="154"/>
-      <c r="N63" s="154"/>
-      <c r="O63" s="154"/>
-      <c r="P63" s="154"/>
-      <c r="Q63" s="154"/>
-      <c r="R63" s="154"/>
-      <c r="S63" s="154"/>
-      <c r="T63" s="154"/>
-      <c r="U63" s="154"/>
-    </row>
-    <row r="64" spans="3:40" x14ac:dyDescent="0.3">
-      <c r="C64" s="154"/>
-      <c r="D64" s="154"/>
-      <c r="E64" s="154"/>
-      <c r="F64" s="154"/>
-      <c r="G64" s="154"/>
-      <c r="H64" s="154"/>
-      <c r="I64" s="154"/>
-      <c r="J64" s="154"/>
-      <c r="K64" s="154"/>
-      <c r="L64" s="154"/>
-      <c r="M64" s="154"/>
-      <c r="N64" s="154"/>
-      <c r="O64" s="154"/>
-      <c r="P64" s="154"/>
-      <c r="Q64" s="154"/>
-      <c r="R64" s="154"/>
-      <c r="S64" s="154"/>
-      <c r="T64" s="154"/>
-      <c r="U64" s="154"/>
-    </row>
-    <row r="65" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="C65" s="154"/>
-      <c r="D65" s="154"/>
-      <c r="E65" s="154"/>
-      <c r="F65" s="154"/>
-      <c r="G65" s="154"/>
-      <c r="H65" s="154"/>
-      <c r="I65" s="154"/>
-      <c r="J65" s="154"/>
-      <c r="K65" s="154"/>
-      <c r="L65" s="154"/>
-      <c r="M65" s="154"/>
-      <c r="N65" s="154"/>
-      <c r="O65" s="154"/>
-      <c r="P65" s="154"/>
-      <c r="Q65" s="154"/>
-      <c r="R65" s="154"/>
-      <c r="S65" s="154"/>
-      <c r="T65" s="154"/>
-      <c r="U65" s="154"/>
-    </row>
-    <row r="66" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="C66" s="154"/>
-      <c r="D66" s="154"/>
-      <c r="E66" s="154"/>
-      <c r="F66" s="154"/>
-      <c r="G66" s="154"/>
-      <c r="H66" s="154"/>
-      <c r="I66" s="154"/>
-      <c r="J66" s="154"/>
-      <c r="K66" s="154"/>
-      <c r="L66" s="154"/>
-      <c r="M66" s="154"/>
-      <c r="N66" s="154"/>
-      <c r="O66" s="154"/>
-      <c r="P66" s="154"/>
-      <c r="Q66" s="154"/>
-      <c r="R66" s="154"/>
-      <c r="S66" s="154"/>
-      <c r="T66" s="154"/>
-      <c r="U66" s="154"/>
-    </row>
-    <row r="67" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="C67" s="154"/>
-      <c r="D67" s="154"/>
-      <c r="E67" s="154"/>
-      <c r="F67" s="154"/>
-      <c r="G67" s="154"/>
-      <c r="H67" s="154"/>
-      <c r="I67" s="154"/>
-      <c r="J67" s="154"/>
-      <c r="K67" s="154"/>
-      <c r="L67" s="154"/>
-      <c r="M67" s="154"/>
-      <c r="N67" s="154"/>
-      <c r="O67" s="154"/>
-      <c r="P67" s="154"/>
-      <c r="Q67" s="154"/>
-      <c r="R67" s="154"/>
-      <c r="S67" s="154"/>
-      <c r="T67" s="154"/>
-      <c r="U67" s="154"/>
-    </row>
-    <row r="68" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="C68" s="154"/>
-      <c r="D68" s="154"/>
-      <c r="E68" s="154"/>
-      <c r="F68" s="154"/>
-      <c r="G68" s="154"/>
-      <c r="H68" s="154"/>
-      <c r="I68" s="154"/>
-      <c r="J68" s="154"/>
-      <c r="K68" s="154"/>
-      <c r="L68" s="154"/>
-      <c r="M68" s="154"/>
-      <c r="N68" s="154"/>
-      <c r="O68" s="154"/>
-      <c r="P68" s="154"/>
-      <c r="Q68" s="154"/>
-      <c r="R68" s="154"/>
-      <c r="S68" s="154"/>
-      <c r="T68" s="154"/>
-      <c r="U68" s="154"/>
-    </row>
-    <row r="69" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="C69" s="154"/>
-      <c r="D69" s="154"/>
-      <c r="E69" s="154"/>
-      <c r="F69" s="154"/>
-      <c r="G69" s="154"/>
-      <c r="H69" s="154"/>
-      <c r="I69" s="154"/>
-      <c r="J69" s="154"/>
-      <c r="K69" s="154"/>
-      <c r="L69" s="154"/>
-      <c r="M69" s="154"/>
-      <c r="N69" s="154"/>
-      <c r="O69" s="154"/>
-      <c r="P69" s="154"/>
-      <c r="Q69" s="154"/>
-      <c r="R69" s="154"/>
-      <c r="S69" s="154"/>
-      <c r="T69" s="154"/>
-      <c r="U69" s="154"/>
-    </row>
-    <row r="70" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="C70" s="154"/>
-      <c r="D70" s="154"/>
-      <c r="E70" s="154"/>
-      <c r="F70" s="154"/>
-      <c r="G70" s="154"/>
-      <c r="H70" s="154"/>
-      <c r="I70" s="154"/>
-      <c r="J70" s="154"/>
-      <c r="K70" s="154"/>
-      <c r="L70" s="154"/>
-      <c r="M70" s="154"/>
-      <c r="N70" s="154"/>
-      <c r="O70" s="154"/>
-      <c r="P70" s="154"/>
-      <c r="Q70" s="154"/>
-      <c r="R70" s="154"/>
-      <c r="S70" s="154"/>
-      <c r="T70" s="154"/>
-      <c r="U70" s="154"/>
-    </row>
-    <row r="71" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="C71" s="154"/>
-      <c r="D71" s="154"/>
-      <c r="E71" s="154"/>
-      <c r="F71" s="154"/>
-      <c r="G71" s="154"/>
-      <c r="H71" s="154"/>
-      <c r="I71" s="154"/>
-      <c r="J71" s="154"/>
-      <c r="K71" s="154"/>
-      <c r="L71" s="154"/>
-      <c r="M71" s="154"/>
-      <c r="N71" s="154"/>
-      <c r="O71" s="154"/>
-      <c r="P71" s="154"/>
-      <c r="Q71" s="154"/>
-      <c r="R71" s="154"/>
-      <c r="S71" s="154"/>
-      <c r="T71" s="154"/>
-      <c r="U71" s="154"/>
-    </row>
-    <row r="72" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="C72" s="154"/>
-      <c r="D72" s="154"/>
-      <c r="E72" s="154"/>
-      <c r="F72" s="154"/>
-      <c r="G72" s="154"/>
-      <c r="H72" s="154"/>
-      <c r="I72" s="154"/>
-      <c r="J72" s="154"/>
-      <c r="K72" s="154"/>
-      <c r="L72" s="154"/>
-      <c r="M72" s="154"/>
-      <c r="N72" s="154"/>
-      <c r="O72" s="154"/>
-      <c r="P72" s="154"/>
-      <c r="Q72" s="154"/>
-      <c r="R72" s="154"/>
-      <c r="S72" s="154"/>
-      <c r="T72" s="154"/>
-      <c r="U72" s="154"/>
-    </row>
-    <row r="73" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="C73" s="154"/>
-      <c r="D73" s="154"/>
-      <c r="E73" s="154"/>
-      <c r="F73" s="154"/>
-      <c r="G73" s="154"/>
-      <c r="H73" s="154"/>
-      <c r="I73" s="154"/>
-      <c r="J73" s="154"/>
-      <c r="K73" s="154"/>
-      <c r="L73" s="154"/>
-      <c r="M73" s="154"/>
-      <c r="N73" s="154"/>
-      <c r="O73" s="154"/>
-      <c r="P73" s="154"/>
-      <c r="Q73" s="154"/>
-      <c r="R73" s="154"/>
-      <c r="S73" s="154"/>
-      <c r="T73" s="154"/>
-      <c r="U73" s="154"/>
-    </row>
-    <row r="74" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="C74" s="154"/>
-      <c r="D74" s="154"/>
-      <c r="E74" s="154"/>
-      <c r="F74" s="154"/>
-      <c r="G74" s="154"/>
-      <c r="H74" s="154"/>
-      <c r="I74" s="154"/>
-      <c r="J74" s="154"/>
-      <c r="K74" s="154"/>
-      <c r="L74" s="154"/>
-      <c r="M74" s="154"/>
-      <c r="N74" s="154"/>
-      <c r="O74" s="154"/>
-      <c r="P74" s="154"/>
-      <c r="Q74" s="154"/>
-      <c r="R74" s="154"/>
-      <c r="S74" s="154"/>
-      <c r="T74" s="154"/>
-      <c r="U74" s="154"/>
-    </row>
-    <row r="75" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="C75" s="154"/>
-      <c r="D75" s="154"/>
-      <c r="E75" s="154"/>
-      <c r="F75" s="154"/>
-      <c r="G75" s="154"/>
-      <c r="H75" s="154"/>
-      <c r="I75" s="154"/>
-      <c r="J75" s="154"/>
-      <c r="K75" s="154"/>
-      <c r="L75" s="154"/>
-      <c r="M75" s="154"/>
-      <c r="N75" s="154"/>
-      <c r="O75" s="154"/>
-      <c r="P75" s="154"/>
-      <c r="Q75" s="154"/>
-      <c r="R75" s="154"/>
-      <c r="S75" s="154"/>
-      <c r="T75" s="154"/>
-      <c r="U75" s="154"/>
-    </row>
-    <row r="76" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="C76" s="154"/>
-      <c r="D76" s="154"/>
-      <c r="E76" s="154"/>
-      <c r="F76" s="154"/>
-      <c r="G76" s="154"/>
-      <c r="H76" s="154"/>
-      <c r="I76" s="154"/>
-      <c r="J76" s="154"/>
-      <c r="K76" s="154"/>
-      <c r="L76" s="154"/>
-      <c r="M76" s="154"/>
-      <c r="N76" s="154"/>
-      <c r="O76" s="154"/>
-      <c r="P76" s="154"/>
-      <c r="Q76" s="154"/>
-      <c r="R76" s="154"/>
-      <c r="S76" s="154"/>
-      <c r="T76" s="154"/>
-      <c r="U76" s="154"/>
-    </row>
-    <row r="105" ht="43.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="106" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="108" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="110" ht="23.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="112" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="113" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" spans="3:40" x14ac:dyDescent="0.25">
+      <c r="C61" s="172"/>
+      <c r="D61" s="172"/>
+      <c r="E61" s="172"/>
+      <c r="F61" s="172"/>
+      <c r="G61" s="172"/>
+      <c r="H61" s="172"/>
+      <c r="I61" s="172"/>
+      <c r="J61" s="172"/>
+      <c r="K61" s="172"/>
+      <c r="L61" s="172"/>
+      <c r="M61" s="172"/>
+      <c r="N61" s="172"/>
+      <c r="O61" s="172"/>
+      <c r="P61" s="172"/>
+      <c r="Q61" s="172"/>
+      <c r="R61" s="172"/>
+      <c r="S61" s="172"/>
+      <c r="T61" s="172"/>
+      <c r="U61" s="172"/>
+    </row>
+    <row r="62" spans="3:40" x14ac:dyDescent="0.25">
+      <c r="C62" s="172"/>
+      <c r="D62" s="172"/>
+      <c r="E62" s="172"/>
+      <c r="F62" s="172"/>
+      <c r="G62" s="172"/>
+      <c r="H62" s="172"/>
+      <c r="I62" s="172"/>
+      <c r="J62" s="172"/>
+      <c r="K62" s="172"/>
+      <c r="L62" s="172"/>
+      <c r="M62" s="172"/>
+      <c r="N62" s="172"/>
+      <c r="O62" s="172"/>
+      <c r="P62" s="172"/>
+      <c r="Q62" s="172"/>
+      <c r="R62" s="172"/>
+      <c r="S62" s="172"/>
+      <c r="T62" s="172"/>
+      <c r="U62" s="172"/>
+    </row>
+    <row r="63" spans="3:40" x14ac:dyDescent="0.25">
+      <c r="C63" s="172"/>
+      <c r="D63" s="172"/>
+      <c r="E63" s="172"/>
+      <c r="F63" s="172"/>
+      <c r="G63" s="172"/>
+      <c r="H63" s="172"/>
+      <c r="I63" s="172"/>
+      <c r="J63" s="172"/>
+      <c r="K63" s="172"/>
+      <c r="L63" s="172"/>
+      <c r="M63" s="172"/>
+      <c r="N63" s="172"/>
+      <c r="O63" s="172"/>
+      <c r="P63" s="172"/>
+      <c r="Q63" s="172"/>
+      <c r="R63" s="172"/>
+      <c r="S63" s="172"/>
+      <c r="T63" s="172"/>
+      <c r="U63" s="172"/>
+    </row>
+    <row r="64" spans="3:40" x14ac:dyDescent="0.25">
+      <c r="C64" s="172"/>
+      <c r="D64" s="172"/>
+      <c r="E64" s="172"/>
+      <c r="F64" s="172"/>
+      <c r="G64" s="172"/>
+      <c r="H64" s="172"/>
+      <c r="I64" s="172"/>
+      <c r="J64" s="172"/>
+      <c r="K64" s="172"/>
+      <c r="L64" s="172"/>
+      <c r="M64" s="172"/>
+      <c r="N64" s="172"/>
+      <c r="O64" s="172"/>
+      <c r="P64" s="172"/>
+      <c r="Q64" s="172"/>
+      <c r="R64" s="172"/>
+      <c r="S64" s="172"/>
+      <c r="T64" s="172"/>
+      <c r="U64" s="172"/>
+    </row>
+    <row r="65" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C65" s="172"/>
+      <c r="D65" s="172"/>
+      <c r="E65" s="172"/>
+      <c r="F65" s="172"/>
+      <c r="G65" s="172"/>
+      <c r="H65" s="172"/>
+      <c r="I65" s="172"/>
+      <c r="J65" s="172"/>
+      <c r="K65" s="172"/>
+      <c r="L65" s="172"/>
+      <c r="M65" s="172"/>
+      <c r="N65" s="172"/>
+      <c r="O65" s="172"/>
+      <c r="P65" s="172"/>
+      <c r="Q65" s="172"/>
+      <c r="R65" s="172"/>
+      <c r="S65" s="172"/>
+      <c r="T65" s="172"/>
+      <c r="U65" s="172"/>
+    </row>
+    <row r="66" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C66" s="172"/>
+      <c r="D66" s="172"/>
+      <c r="E66" s="172"/>
+      <c r="F66" s="172"/>
+      <c r="G66" s="172"/>
+      <c r="H66" s="172"/>
+      <c r="I66" s="172"/>
+      <c r="J66" s="172"/>
+      <c r="K66" s="172"/>
+      <c r="L66" s="172"/>
+      <c r="M66" s="172"/>
+      <c r="N66" s="172"/>
+      <c r="O66" s="172"/>
+      <c r="P66" s="172"/>
+      <c r="Q66" s="172"/>
+      <c r="R66" s="172"/>
+      <c r="S66" s="172"/>
+      <c r="T66" s="172"/>
+      <c r="U66" s="172"/>
+    </row>
+    <row r="67" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C67" s="172"/>
+      <c r="D67" s="172"/>
+      <c r="E67" s="172"/>
+      <c r="F67" s="172"/>
+      <c r="G67" s="172"/>
+      <c r="H67" s="172"/>
+      <c r="I67" s="172"/>
+      <c r="J67" s="172"/>
+      <c r="K67" s="172"/>
+      <c r="L67" s="172"/>
+      <c r="M67" s="172"/>
+      <c r="N67" s="172"/>
+      <c r="O67" s="172"/>
+      <c r="P67" s="172"/>
+      <c r="Q67" s="172"/>
+      <c r="R67" s="172"/>
+      <c r="S67" s="172"/>
+      <c r="T67" s="172"/>
+      <c r="U67" s="172"/>
+    </row>
+    <row r="68" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C68" s="172"/>
+      <c r="D68" s="172"/>
+      <c r="E68" s="172"/>
+      <c r="F68" s="172"/>
+      <c r="G68" s="172"/>
+      <c r="H68" s="172"/>
+      <c r="I68" s="172"/>
+      <c r="J68" s="172"/>
+      <c r="K68" s="172"/>
+      <c r="L68" s="172"/>
+      <c r="M68" s="172"/>
+      <c r="N68" s="172"/>
+      <c r="O68" s="172"/>
+      <c r="P68" s="172"/>
+      <c r="Q68" s="172"/>
+      <c r="R68" s="172"/>
+      <c r="S68" s="172"/>
+      <c r="T68" s="172"/>
+      <c r="U68" s="172"/>
+    </row>
+    <row r="69" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C69" s="172"/>
+      <c r="D69" s="172"/>
+      <c r="E69" s="172"/>
+      <c r="F69" s="172"/>
+      <c r="G69" s="172"/>
+      <c r="H69" s="172"/>
+      <c r="I69" s="172"/>
+      <c r="J69" s="172"/>
+      <c r="K69" s="172"/>
+      <c r="L69" s="172"/>
+      <c r="M69" s="172"/>
+      <c r="N69" s="172"/>
+      <c r="O69" s="172"/>
+      <c r="P69" s="172"/>
+      <c r="Q69" s="172"/>
+      <c r="R69" s="172"/>
+      <c r="S69" s="172"/>
+      <c r="T69" s="172"/>
+      <c r="U69" s="172"/>
+    </row>
+    <row r="70" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C70" s="172"/>
+      <c r="D70" s="172"/>
+      <c r="E70" s="172"/>
+      <c r="F70" s="172"/>
+      <c r="G70" s="172"/>
+      <c r="H70" s="172"/>
+      <c r="I70" s="172"/>
+      <c r="J70" s="172"/>
+      <c r="K70" s="172"/>
+      <c r="L70" s="172"/>
+      <c r="M70" s="172"/>
+      <c r="N70" s="172"/>
+      <c r="O70" s="172"/>
+      <c r="P70" s="172"/>
+      <c r="Q70" s="172"/>
+      <c r="R70" s="172"/>
+      <c r="S70" s="172"/>
+      <c r="T70" s="172"/>
+      <c r="U70" s="172"/>
+    </row>
+    <row r="71" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C71" s="172"/>
+      <c r="D71" s="172"/>
+      <c r="E71" s="172"/>
+      <c r="F71" s="172"/>
+      <c r="G71" s="172"/>
+      <c r="H71" s="172"/>
+      <c r="I71" s="172"/>
+      <c r="J71" s="172"/>
+      <c r="K71" s="172"/>
+      <c r="L71" s="172"/>
+      <c r="M71" s="172"/>
+      <c r="N71" s="172"/>
+      <c r="O71" s="172"/>
+      <c r="P71" s="172"/>
+      <c r="Q71" s="172"/>
+      <c r="R71" s="172"/>
+      <c r="S71" s="172"/>
+      <c r="T71" s="172"/>
+      <c r="U71" s="172"/>
+    </row>
+    <row r="72" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C72" s="172"/>
+      <c r="D72" s="172"/>
+      <c r="E72" s="172"/>
+      <c r="F72" s="172"/>
+      <c r="G72" s="172"/>
+      <c r="H72" s="172"/>
+      <c r="I72" s="172"/>
+      <c r="J72" s="172"/>
+      <c r="K72" s="172"/>
+      <c r="L72" s="172"/>
+      <c r="M72" s="172"/>
+      <c r="N72" s="172"/>
+      <c r="O72" s="172"/>
+      <c r="P72" s="172"/>
+      <c r="Q72" s="172"/>
+      <c r="R72" s="172"/>
+      <c r="S72" s="172"/>
+      <c r="T72" s="172"/>
+      <c r="U72" s="172"/>
+    </row>
+    <row r="73" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C73" s="172"/>
+      <c r="D73" s="172"/>
+      <c r="E73" s="172"/>
+      <c r="F73" s="172"/>
+      <c r="G73" s="172"/>
+      <c r="H73" s="172"/>
+      <c r="I73" s="172"/>
+      <c r="J73" s="172"/>
+      <c r="K73" s="172"/>
+      <c r="L73" s="172"/>
+      <c r="M73" s="172"/>
+      <c r="N73" s="172"/>
+      <c r="O73" s="172"/>
+      <c r="P73" s="172"/>
+      <c r="Q73" s="172"/>
+      <c r="R73" s="172"/>
+      <c r="S73" s="172"/>
+      <c r="T73" s="172"/>
+      <c r="U73" s="172"/>
+    </row>
+    <row r="74" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C74" s="172"/>
+      <c r="D74" s="172"/>
+      <c r="E74" s="172"/>
+      <c r="F74" s="172"/>
+      <c r="G74" s="172"/>
+      <c r="H74" s="172"/>
+      <c r="I74" s="172"/>
+      <c r="J74" s="172"/>
+      <c r="K74" s="172"/>
+      <c r="L74" s="172"/>
+      <c r="M74" s="172"/>
+      <c r="N74" s="172"/>
+      <c r="O74" s="172"/>
+      <c r="P74" s="172"/>
+      <c r="Q74" s="172"/>
+      <c r="R74" s="172"/>
+      <c r="S74" s="172"/>
+      <c r="T74" s="172"/>
+      <c r="U74" s="172"/>
+    </row>
+    <row r="75" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C75" s="172"/>
+      <c r="D75" s="172"/>
+      <c r="E75" s="172"/>
+      <c r="F75" s="172"/>
+      <c r="G75" s="172"/>
+      <c r="H75" s="172"/>
+      <c r="I75" s="172"/>
+      <c r="J75" s="172"/>
+      <c r="K75" s="172"/>
+      <c r="L75" s="172"/>
+      <c r="M75" s="172"/>
+      <c r="N75" s="172"/>
+      <c r="O75" s="172"/>
+      <c r="P75" s="172"/>
+      <c r="Q75" s="172"/>
+      <c r="R75" s="172"/>
+      <c r="S75" s="172"/>
+      <c r="T75" s="172"/>
+      <c r="U75" s="172"/>
+    </row>
+    <row r="76" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C76" s="172"/>
+      <c r="D76" s="172"/>
+      <c r="E76" s="172"/>
+      <c r="F76" s="172"/>
+      <c r="G76" s="172"/>
+      <c r="H76" s="172"/>
+      <c r="I76" s="172"/>
+      <c r="J76" s="172"/>
+      <c r="K76" s="172"/>
+      <c r="L76" s="172"/>
+      <c r="M76" s="172"/>
+      <c r="N76" s="172"/>
+      <c r="O76" s="172"/>
+      <c r="P76" s="172"/>
+      <c r="Q76" s="172"/>
+      <c r="R76" s="172"/>
+      <c r="S76" s="172"/>
+      <c r="T76" s="172"/>
+      <c r="U76" s="172"/>
+    </row>
+    <row r="105" ht="43.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="20.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="23.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="AB16:AD16"/>
     <mergeCell ref="AH16:AJ16"/>
     <mergeCell ref="AK16:AM16"/>
     <mergeCell ref="C18:C42"/>
@@ -8448,12 +8553,11 @@
     <mergeCell ref="S16:U16"/>
     <mergeCell ref="Y16:AA16"/>
     <mergeCell ref="AE19:AE22"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="V23:V26"/>
     <mergeCell ref="AE23:AE26"/>
     <mergeCell ref="D27:D30"/>
     <mergeCell ref="V27:V30"/>
     <mergeCell ref="AE27:AE30"/>
+    <mergeCell ref="AB16:AD16"/>
     <mergeCell ref="AE31:AE34"/>
     <mergeCell ref="V35:V38"/>
     <mergeCell ref="V39:V42"/>
@@ -8476,6 +8580,8 @@
     <mergeCell ref="D31:D34"/>
     <mergeCell ref="V31:V34"/>
     <mergeCell ref="V19:V22"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="V23:V26"/>
   </mergeCells>
   <conditionalFormatting sqref="O19:U22 F19:L34 AG19:AM34 X19:AD58 F43:L54 O43:U54 AG43:AM54">
     <cfRule type="cellIs" dxfId="6" priority="2" operator="between">

--- a/public/blobs/DjelatnostTemplate.xlsx
+++ b/public/blobs/DjelatnostTemplate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fesb-my.sharepoint.com/personal/aklepo01_fesb_hr/Documents/Documents/VSCode projekti/TDA/Kalkulator_procjene_rizika/public/blobs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="403" documentId="8_{8DBDF971-16D4-4F43-9E93-18B3ACE6548A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC4AEEC3-B748-4D02-BFC3-433C7097F07E}"/>
+  <xr:revisionPtr revIDLastSave="455" documentId="8_{8DBDF971-16D4-4F43-9E93-18B3ACE6548A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09212310-5CC7-47D2-A9BA-A7E15942013A}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{B92CB1F4-CC3F-45C5-A53B-1957C3DED16D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{B92CB1F4-CC3F-45C5-A53B-1957C3DED16D}"/>
   </bookViews>
   <sheets>
     <sheet name="Opći podaci" sheetId="5" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="59">
   <si>
     <t>RCP 4.5</t>
   </si>
@@ -214,9 +214,6 @@
     <t>Naziv</t>
   </si>
   <si>
-    <t>Grupa</t>
-  </si>
-  <si>
     <t>Rezultat izračuna s mjerama prilagodbe</t>
   </si>
 </sst>
@@ -224,7 +221,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -417,8 +414,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -479,8 +484,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDEDEDE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="91">
+  <borders count="90">
     <border>
       <left/>
       <right/>
@@ -1593,26 +1604,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="249">
+  <cellXfs count="267">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1713,9 +1710,6 @@
     <xf numFmtId="1" fontId="8" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1947,18 +1941,12 @@
     <xf numFmtId="1" fontId="8" fillId="0" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1973,9 +1961,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -2087,14 +2072,139 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="90" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2110,6 +2220,24 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -2165,166 +2293,134 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="1" fontId="8" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="11" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="11" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="11" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="11" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="11" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="11" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="11" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="11" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="11" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="11" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="11" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="11" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="11" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="11" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="11" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="11" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="11" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="11" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="89" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normalno" xfId="0" builtinId="0"/>
+    <cellStyle name="Postotak" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="21">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2425,6 +2521,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFDEDEDE"/>
       <color rgb="FFDAF2D0"/>
     </mruColors>
   </colors>
@@ -2762,764 +2859,761 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3A6D3A6-6CB6-4EDF-A7FA-B385CACA3BAA}">
   <dimension ref="C3:AM55"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J24" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AE17" sqref="AE17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:39" x14ac:dyDescent="0.25">
-      <c r="C3" s="171"/>
-      <c r="D3" s="171"/>
-      <c r="E3" s="171"/>
-      <c r="F3" s="171"/>
-      <c r="G3" s="171"/>
-      <c r="H3" s="171"/>
-      <c r="I3" s="151"/>
+      <c r="C3" s="176"/>
+      <c r="D3" s="176"/>
+      <c r="E3" s="176"/>
+      <c r="F3" s="176"/>
+      <c r="G3" s="176"/>
+      <c r="H3" s="176"/>
+      <c r="I3" s="147"/>
     </row>
     <row r="4" spans="3:39" x14ac:dyDescent="0.25">
-      <c r="C4" s="171"/>
-      <c r="D4" s="171"/>
-      <c r="E4" s="171"/>
-      <c r="F4" s="171"/>
-      <c r="G4" s="171"/>
-      <c r="H4" s="171"/>
-      <c r="I4" s="151"/>
+      <c r="C4" s="176"/>
+      <c r="D4" s="176"/>
+      <c r="E4" s="176"/>
+      <c r="F4" s="176"/>
+      <c r="G4" s="176"/>
+      <c r="H4" s="176"/>
+      <c r="I4" s="147"/>
     </row>
     <row r="5" spans="3:39" x14ac:dyDescent="0.25">
-      <c r="C5" s="171"/>
-      <c r="D5" s="171"/>
-      <c r="E5" s="171"/>
-      <c r="F5" s="171"/>
-      <c r="G5" s="171"/>
-      <c r="H5" s="171"/>
-      <c r="I5" s="151"/>
+      <c r="C5" s="176"/>
+      <c r="D5" s="176"/>
+      <c r="E5" s="176"/>
+      <c r="F5" s="176"/>
+      <c r="G5" s="176"/>
+      <c r="H5" s="176"/>
+      <c r="I5" s="147"/>
     </row>
     <row r="6" spans="3:39" x14ac:dyDescent="0.25">
-      <c r="C6" s="171"/>
-      <c r="D6" s="171"/>
-      <c r="E6" s="171"/>
-      <c r="F6" s="171"/>
-      <c r="G6" s="171"/>
-      <c r="H6" s="171"/>
-      <c r="I6" s="151"/>
+      <c r="C6" s="176"/>
+      <c r="D6" s="176"/>
+      <c r="E6" s="176"/>
+      <c r="F6" s="176"/>
+      <c r="G6" s="176"/>
+      <c r="H6" s="176"/>
+      <c r="I6" s="147"/>
     </row>
     <row r="11" spans="3:39" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="C11" s="150" t="s">
+      <c r="C11" s="146" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="146"/>
-      <c r="E11" s="146"/>
-      <c r="F11" s="147"/>
-      <c r="G11" s="147"/>
-      <c r="H11" s="147"/>
-      <c r="I11" s="147"/>
-      <c r="J11" s="147"/>
-      <c r="K11" s="147"/>
-      <c r="L11" s="147"/>
-      <c r="M11" s="147"/>
-      <c r="N11" s="147"/>
-      <c r="O11" s="149"/>
-      <c r="P11" s="149"/>
-      <c r="Q11" s="152"/>
-      <c r="R11" s="152"/>
-      <c r="S11" s="152"/>
-      <c r="T11" s="152"/>
-      <c r="U11" s="152"/>
-      <c r="V11" s="152"/>
-      <c r="W11" s="152"/>
-      <c r="X11" s="152"/>
-      <c r="Y11" s="152"/>
-      <c r="Z11" s="152"/>
-      <c r="AA11" s="152"/>
-      <c r="AB11" s="152"/>
-      <c r="AC11" s="152"/>
-      <c r="AD11" s="152"/>
-      <c r="AE11" s="152"/>
-      <c r="AF11" s="152"/>
-      <c r="AG11" s="152"/>
-      <c r="AH11" s="152"/>
-      <c r="AI11" s="152"/>
-      <c r="AJ11" s="152"/>
-      <c r="AK11" s="152"/>
-      <c r="AL11" s="152"/>
-      <c r="AM11" s="153"/>
+      <c r="D11" s="142"/>
+      <c r="E11" s="142"/>
+      <c r="F11" s="143"/>
+      <c r="G11" s="143"/>
+      <c r="H11" s="143"/>
+      <c r="I11" s="143"/>
+      <c r="J11" s="143"/>
+      <c r="K11" s="143"/>
+      <c r="L11" s="143"/>
+      <c r="M11" s="143"/>
+      <c r="N11" s="143"/>
+      <c r="O11" s="145"/>
+      <c r="P11" s="145"/>
+      <c r="Q11" s="148"/>
+      <c r="R11" s="148"/>
+      <c r="S11" s="148"/>
+      <c r="T11" s="264"/>
+      <c r="U11" s="262"/>
+      <c r="V11" s="262"/>
+      <c r="W11" s="262"/>
+      <c r="X11" s="262"/>
+      <c r="Y11" s="262"/>
+      <c r="Z11" s="262"/>
+      <c r="AA11" s="262"/>
+      <c r="AB11" s="262"/>
+      <c r="AC11" s="262"/>
+      <c r="AD11" s="262"/>
+      <c r="AE11" s="262"/>
+      <c r="AF11" s="262"/>
+      <c r="AG11" s="262"/>
+      <c r="AH11" s="262"/>
+      <c r="AI11" s="262"/>
+      <c r="AJ11" s="262"/>
+      <c r="AK11" s="262"/>
+      <c r="AL11" s="262"/>
+      <c r="AM11" s="263"/>
     </row>
     <row r="14" spans="3:39" ht="25.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C14" s="160" t="s">
+      <c r="C14" s="156" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="154"/>
-      <c r="E14" s="154"/>
-      <c r="H14" s="157"/>
+      <c r="D14" s="150"/>
+      <c r="E14" s="150"/>
+      <c r="H14" s="153"/>
     </row>
     <row r="15" spans="3:39" ht="24" x14ac:dyDescent="0.4">
-      <c r="C15" s="160"/>
-      <c r="D15" s="154"/>
-      <c r="E15" s="154"/>
-      <c r="H15" s="156"/>
+      <c r="C15" s="156"/>
+      <c r="D15" s="150"/>
+      <c r="E15" s="150"/>
+      <c r="H15" s="152"/>
     </row>
     <row r="16" spans="3:39" ht="25.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C16" s="160" t="s">
+      <c r="C16" s="156" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="154"/>
-      <c r="E16" s="154"/>
-      <c r="H16" s="159"/>
+      <c r="D16" s="150"/>
+      <c r="E16" s="150"/>
+      <c r="H16" s="155"/>
     </row>
     <row r="17" spans="3:9" ht="24" x14ac:dyDescent="0.4">
-      <c r="C17" s="160"/>
-      <c r="D17" s="154"/>
-      <c r="E17" s="154"/>
-      <c r="H17" s="156"/>
+      <c r="C17" s="156"/>
+      <c r="D17" s="150"/>
+      <c r="E17" s="150"/>
+      <c r="H17" s="152"/>
     </row>
     <row r="18" spans="3:9" ht="25.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C18" s="160" t="s">
+      <c r="C18" s="156" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="154"/>
-      <c r="E18" s="154"/>
-      <c r="H18" s="159"/>
-      <c r="I18" s="155"/>
+      <c r="D18" s="150"/>
+      <c r="E18" s="150"/>
+      <c r="H18" s="155"/>
+      <c r="I18" s="151"/>
     </row>
     <row r="19" spans="3:9" ht="24" x14ac:dyDescent="0.4">
-      <c r="C19" s="160"/>
-      <c r="D19" s="154"/>
-      <c r="E19" s="154"/>
-      <c r="H19" s="156"/>
+      <c r="C19" s="156"/>
+      <c r="D19" s="150"/>
+      <c r="E19" s="150"/>
+      <c r="H19" s="152"/>
     </row>
     <row r="20" spans="3:9" ht="25.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C20" s="160" t="s">
+      <c r="C20" s="156" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="154"/>
-      <c r="E20" s="154"/>
-      <c r="H20" s="159"/>
+      <c r="D20" s="150"/>
+      <c r="E20" s="150"/>
+      <c r="H20" s="155"/>
     </row>
     <row r="21" spans="3:9" ht="24" x14ac:dyDescent="0.4">
-      <c r="C21" s="160"/>
-      <c r="D21" s="154"/>
-      <c r="E21" s="154"/>
-      <c r="H21" s="156"/>
+      <c r="C21" s="156"/>
+      <c r="D21" s="150"/>
+      <c r="E21" s="150"/>
+      <c r="H21" s="152"/>
     </row>
     <row r="22" spans="3:9" ht="25.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C22" s="160" t="s">
+      <c r="C22" s="156" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="154"/>
-      <c r="E22" s="154"/>
-      <c r="H22" s="159"/>
+      <c r="D22" s="150"/>
+      <c r="E22" s="150"/>
+      <c r="H22" s="155"/>
     </row>
     <row r="23" spans="3:9" ht="24" x14ac:dyDescent="0.4">
-      <c r="C23" s="160"/>
-      <c r="D23" s="154"/>
-      <c r="E23" s="154"/>
-      <c r="H23" s="156"/>
+      <c r="C23" s="156"/>
+      <c r="D23" s="150"/>
+      <c r="E23" s="150"/>
+      <c r="H23" s="152"/>
     </row>
     <row r="24" spans="3:9" ht="25.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C24" s="160" t="s">
+      <c r="C24" s="156" t="s">
         <v>51</v>
       </c>
-      <c r="D24" s="154"/>
-      <c r="E24" s="154"/>
-      <c r="H24" s="159"/>
-      <c r="I24" s="154"/>
+      <c r="D24" s="150"/>
+      <c r="E24" s="150"/>
+      <c r="H24" s="155"/>
+      <c r="I24" s="150"/>
     </row>
     <row r="25" spans="3:9" ht="24" x14ac:dyDescent="0.4">
-      <c r="C25" s="160"/>
-      <c r="D25" s="154"/>
-      <c r="E25" s="154"/>
-      <c r="H25" s="156"/>
+      <c r="C25" s="156"/>
+      <c r="D25" s="150"/>
+      <c r="E25" s="150"/>
+      <c r="H25" s="152"/>
     </row>
     <row r="26" spans="3:9" ht="25.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C26" s="160" t="s">
+      <c r="C26" s="156" t="s">
         <v>52</v>
       </c>
-      <c r="D26" s="154"/>
-      <c r="E26" s="154"/>
-      <c r="H26" s="159"/>
+      <c r="D26" s="150"/>
+      <c r="E26" s="150"/>
+      <c r="H26" s="155"/>
     </row>
     <row r="27" spans="3:9" ht="24" x14ac:dyDescent="0.4">
-      <c r="C27" s="160"/>
-      <c r="D27" s="154"/>
-      <c r="E27" s="154"/>
-      <c r="H27" s="156"/>
+      <c r="C27" s="156"/>
+      <c r="D27" s="150"/>
+      <c r="E27" s="150"/>
+      <c r="H27" s="152"/>
     </row>
     <row r="28" spans="3:9" ht="25.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C28" s="160" t="s">
+      <c r="C28" s="156" t="s">
         <v>53</v>
       </c>
-      <c r="D28" s="154"/>
-      <c r="E28" s="154"/>
-      <c r="H28" s="159"/>
+      <c r="D28" s="150"/>
+      <c r="E28" s="150"/>
+      <c r="H28" s="155"/>
     </row>
     <row r="29" spans="3:9" ht="24" x14ac:dyDescent="0.4">
-      <c r="C29" s="160"/>
-      <c r="D29" s="154"/>
-      <c r="E29" s="154"/>
-      <c r="H29" s="156"/>
+      <c r="C29" s="156"/>
+      <c r="D29" s="150"/>
+      <c r="E29" s="150"/>
+      <c r="H29" s="152"/>
     </row>
     <row r="30" spans="3:9" ht="25.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C30" s="160" t="s">
+      <c r="C30" s="156" t="s">
         <v>54</v>
       </c>
-      <c r="D30" s="154"/>
-      <c r="E30" s="154"/>
-      <c r="H30" s="159"/>
+      <c r="D30" s="150"/>
+      <c r="E30" s="150"/>
+      <c r="H30" s="155"/>
     </row>
     <row r="34" spans="3:39" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="C34" s="150" t="s">
+      <c r="C34" s="146" t="s">
         <v>55</v>
       </c>
-      <c r="D34" s="146"/>
-      <c r="E34" s="146"/>
-      <c r="F34" s="147"/>
-      <c r="G34" s="147"/>
-      <c r="H34" s="147"/>
-      <c r="I34" s="147"/>
-      <c r="J34" s="147"/>
-      <c r="K34" s="147"/>
-      <c r="L34" s="147"/>
-      <c r="M34" s="147"/>
-      <c r="N34" s="147"/>
-      <c r="O34" s="149"/>
-      <c r="P34" s="149"/>
-      <c r="Q34" s="152"/>
-      <c r="R34" s="152"/>
-      <c r="S34" s="152"/>
-      <c r="T34" s="152"/>
-      <c r="U34" s="152"/>
-      <c r="V34" s="152"/>
-      <c r="W34" s="152"/>
-      <c r="X34" s="152"/>
-      <c r="Y34" s="152"/>
-      <c r="Z34" s="152"/>
-      <c r="AA34" s="152"/>
-      <c r="AB34" s="152"/>
-      <c r="AC34" s="152"/>
-      <c r="AD34" s="152"/>
-      <c r="AE34" s="152"/>
-      <c r="AF34" s="152"/>
-      <c r="AG34" s="152"/>
-      <c r="AH34" s="152"/>
-      <c r="AI34" s="152"/>
-      <c r="AJ34" s="152"/>
-      <c r="AK34" s="152"/>
-      <c r="AL34" s="152"/>
-      <c r="AM34" s="153"/>
+      <c r="D34" s="142"/>
+      <c r="E34" s="142"/>
+      <c r="F34" s="143"/>
+      <c r="G34" s="143"/>
+      <c r="H34" s="143"/>
+      <c r="I34" s="143"/>
+      <c r="J34" s="143"/>
+      <c r="K34" s="143"/>
+      <c r="L34" s="143"/>
+      <c r="M34" s="143"/>
+      <c r="N34" s="143"/>
+      <c r="O34" s="145"/>
+      <c r="P34" s="145"/>
+      <c r="Q34" s="148"/>
+      <c r="R34" s="148"/>
+      <c r="S34" s="148"/>
+      <c r="T34" s="148"/>
+      <c r="U34" s="262"/>
+      <c r="V34" s="262"/>
+      <c r="W34" s="262"/>
+      <c r="X34" s="262"/>
+      <c r="Y34" s="262"/>
+      <c r="Z34" s="262"/>
+      <c r="AA34" s="262"/>
+      <c r="AB34" s="262"/>
+      <c r="AC34" s="262"/>
+      <c r="AD34" s="262"/>
+      <c r="AE34" s="262"/>
+      <c r="AF34" s="262"/>
+      <c r="AG34" s="262"/>
+      <c r="AH34" s="262"/>
+      <c r="AI34" s="262"/>
+      <c r="AJ34" s="262"/>
+      <c r="AK34" s="262"/>
+      <c r="AL34" s="262"/>
+      <c r="AM34" s="263"/>
     </row>
     <row r="36" spans="3:39" x14ac:dyDescent="0.25">
-      <c r="C36" s="164"/>
-      <c r="D36" s="164"/>
-      <c r="E36" s="164"/>
-      <c r="F36" s="164"/>
-      <c r="G36" s="164"/>
-      <c r="H36" s="164"/>
-      <c r="I36" s="164"/>
-      <c r="J36" s="164"/>
-      <c r="K36" s="164"/>
-      <c r="L36" s="164"/>
-      <c r="M36" s="164"/>
-      <c r="N36" s="164"/>
-      <c r="O36" s="164"/>
-      <c r="P36" s="164"/>
-      <c r="Q36" s="164"/>
-      <c r="R36" s="164"/>
-      <c r="S36" s="164"/>
-      <c r="T36" s="164"/>
-      <c r="U36" s="164"/>
-      <c r="V36" s="164"/>
-      <c r="W36" s="164"/>
-      <c r="X36" s="164"/>
-      <c r="Y36" s="164"/>
-      <c r="Z36" s="164"/>
-      <c r="AA36" s="164"/>
-      <c r="AB36" s="164"/>
-      <c r="AC36" s="164"/>
-      <c r="AD36" s="164"/>
-      <c r="AE36" s="164"/>
+      <c r="C36" s="160"/>
+      <c r="D36" s="160"/>
+      <c r="E36" s="160"/>
+      <c r="F36" s="160"/>
+      <c r="G36" s="160"/>
+      <c r="H36" s="160"/>
+      <c r="I36" s="160"/>
+      <c r="J36" s="160"/>
+      <c r="K36" s="160"/>
+      <c r="L36" s="160"/>
+      <c r="M36" s="160"/>
+      <c r="N36" s="160"/>
+      <c r="O36" s="160"/>
+      <c r="P36" s="160"/>
+      <c r="Q36" s="160"/>
+      <c r="R36" s="160"/>
+      <c r="S36" s="160"/>
+      <c r="T36" s="160"/>
+      <c r="U36" s="160"/>
+      <c r="V36" s="160"/>
+      <c r="W36" s="160"/>
+      <c r="X36" s="160"/>
+      <c r="Y36" s="160"/>
+      <c r="Z36" s="160"/>
+      <c r="AA36" s="160"/>
+      <c r="AB36" s="160"/>
+      <c r="AC36" s="160"/>
+      <c r="AD36" s="160"/>
+      <c r="AE36" s="160"/>
     </row>
     <row r="37" spans="3:39" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="C37" s="236" t="s">
+      <c r="C37" s="166" t="s">
         <v>56</v>
       </c>
-      <c r="D37" s="166"/>
-      <c r="E37" s="166"/>
-      <c r="F37" s="164"/>
-      <c r="G37" s="164"/>
-      <c r="H37" s="237" t="s">
+      <c r="D37" s="162"/>
+      <c r="E37" s="162"/>
+      <c r="F37" s="160"/>
+      <c r="G37" s="160"/>
+      <c r="H37" s="167" t="s">
         <v>57</v>
       </c>
-      <c r="I37" s="164"/>
-      <c r="J37" s="164"/>
-      <c r="K37" s="164"/>
-      <c r="L37" s="164"/>
-      <c r="M37" s="164"/>
-      <c r="N37" s="164"/>
-      <c r="O37" s="164"/>
-      <c r="P37" s="164"/>
-      <c r="Q37" s="164"/>
-      <c r="R37" s="164"/>
-      <c r="S37" s="164"/>
-      <c r="T37" s="164"/>
-      <c r="U37" s="164"/>
-      <c r="V37" s="164"/>
-      <c r="W37" s="164"/>
-      <c r="X37" s="164"/>
-      <c r="Y37" s="164"/>
-      <c r="Z37" s="164"/>
-      <c r="AA37" s="164"/>
-      <c r="AB37" s="164"/>
-      <c r="AC37" s="164"/>
-      <c r="AD37" s="164"/>
-      <c r="AE37" s="164"/>
-      <c r="AH37" s="238" t="s">
-        <v>58</v>
-      </c>
+      <c r="I37" s="160"/>
+      <c r="J37" s="160"/>
+      <c r="K37" s="160"/>
+      <c r="L37" s="160"/>
+      <c r="M37" s="160"/>
+      <c r="N37" s="160"/>
+      <c r="O37" s="160"/>
+      <c r="P37" s="160"/>
+      <c r="Q37" s="160"/>
+      <c r="R37" s="160"/>
+      <c r="S37" s="160"/>
+      <c r="T37" s="160"/>
+      <c r="U37" s="160"/>
+      <c r="V37" s="160"/>
+      <c r="W37" s="160"/>
+      <c r="X37" s="160"/>
+      <c r="Y37" s="160"/>
+      <c r="Z37" s="160"/>
+      <c r="AA37" s="160"/>
+      <c r="AB37" s="160"/>
+      <c r="AC37" s="160"/>
+      <c r="AD37" s="160"/>
+      <c r="AE37" s="160"/>
+      <c r="AH37" s="168"/>
     </row>
     <row r="38" spans="3:39" ht="24" x14ac:dyDescent="0.4">
-      <c r="C38" s="165"/>
-      <c r="D38" s="166"/>
-      <c r="E38" s="166"/>
-      <c r="F38" s="164"/>
-      <c r="G38" s="164"/>
-      <c r="H38" s="167"/>
-      <c r="I38" s="164"/>
-      <c r="J38" s="164"/>
-      <c r="K38" s="164"/>
-      <c r="L38" s="164"/>
-      <c r="M38" s="164"/>
-      <c r="N38" s="164"/>
-      <c r="O38" s="164"/>
-      <c r="P38" s="164"/>
-      <c r="Q38" s="164"/>
-      <c r="R38" s="164"/>
-      <c r="S38" s="164"/>
-      <c r="T38" s="164"/>
-      <c r="U38" s="164"/>
-      <c r="V38" s="164"/>
-      <c r="W38" s="164"/>
-      <c r="X38" s="164"/>
-      <c r="Y38" s="164"/>
-      <c r="Z38" s="164"/>
-      <c r="AA38" s="164"/>
-      <c r="AB38" s="164"/>
-      <c r="AC38" s="164"/>
-      <c r="AD38" s="164"/>
-      <c r="AE38" s="164"/>
-    </row>
-    <row r="39" spans="3:39" s="154" customFormat="1" ht="24" x14ac:dyDescent="0.4">
-      <c r="C39" s="241"/>
-      <c r="D39" s="242"/>
-      <c r="E39" s="242"/>
-      <c r="F39" s="242"/>
-      <c r="G39" s="243"/>
-      <c r="H39" s="248"/>
-      <c r="I39" s="248"/>
-      <c r="J39" s="248"/>
-      <c r="K39" s="248"/>
-      <c r="L39" s="248"/>
-      <c r="M39" s="248"/>
-      <c r="N39" s="248"/>
-      <c r="O39" s="248"/>
-      <c r="P39" s="248"/>
-      <c r="Q39" s="248"/>
-      <c r="R39" s="248"/>
-      <c r="S39" s="248"/>
-      <c r="T39" s="248"/>
-      <c r="U39" s="248"/>
-      <c r="V39" s="248"/>
-      <c r="W39" s="248"/>
-      <c r="X39" s="248"/>
-      <c r="Y39" s="248"/>
-      <c r="Z39" s="248"/>
-      <c r="AA39" s="248"/>
-      <c r="AB39" s="248"/>
-      <c r="AC39" s="248"/>
-      <c r="AD39" s="248"/>
-      <c r="AE39" s="248"/>
-      <c r="AF39" s="248"/>
-      <c r="AG39" s="244"/>
-      <c r="AH39" s="245"/>
-      <c r="AI39" s="246"/>
-      <c r="AJ39" s="246"/>
-      <c r="AK39" s="246"/>
-      <c r="AL39" s="246"/>
-      <c r="AM39" s="246"/>
-    </row>
-    <row r="40" spans="3:39" s="154" customFormat="1" ht="24" x14ac:dyDescent="0.4">
-      <c r="C40" s="241"/>
-      <c r="D40" s="242"/>
-      <c r="E40" s="242"/>
-      <c r="F40" s="242"/>
-      <c r="G40" s="243"/>
-      <c r="H40" s="248"/>
-      <c r="I40" s="248"/>
-      <c r="J40" s="248"/>
-      <c r="K40" s="248"/>
-      <c r="L40" s="248"/>
-      <c r="M40" s="248"/>
-      <c r="N40" s="248"/>
-      <c r="O40" s="248"/>
-      <c r="P40" s="248"/>
-      <c r="Q40" s="248"/>
-      <c r="R40" s="248"/>
-      <c r="S40" s="248"/>
-      <c r="T40" s="248"/>
-      <c r="U40" s="248"/>
-      <c r="V40" s="248"/>
-      <c r="W40" s="248"/>
-      <c r="X40" s="248"/>
-      <c r="Y40" s="248"/>
-      <c r="Z40" s="248"/>
-      <c r="AA40" s="248"/>
-      <c r="AB40" s="248"/>
-      <c r="AC40" s="248"/>
-      <c r="AD40" s="248"/>
-      <c r="AE40" s="248"/>
-      <c r="AF40" s="248"/>
-      <c r="AG40" s="244"/>
-      <c r="AH40" s="245"/>
-      <c r="AI40" s="246"/>
-      <c r="AJ40" s="246"/>
-      <c r="AK40" s="246"/>
-      <c r="AL40" s="246"/>
-      <c r="AM40" s="246"/>
+      <c r="C38" s="161"/>
+      <c r="D38" s="162"/>
+      <c r="E38" s="162"/>
+      <c r="F38" s="160"/>
+      <c r="G38" s="160"/>
+      <c r="H38" s="163"/>
+      <c r="I38" s="160"/>
+      <c r="J38" s="160"/>
+      <c r="K38" s="160"/>
+      <c r="L38" s="160"/>
+      <c r="M38" s="160"/>
+      <c r="N38" s="160"/>
+      <c r="O38" s="160"/>
+      <c r="P38" s="160"/>
+      <c r="Q38" s="160"/>
+      <c r="R38" s="160"/>
+      <c r="S38" s="160"/>
+      <c r="T38" s="160"/>
+      <c r="U38" s="160"/>
+      <c r="V38" s="160"/>
+      <c r="W38" s="160"/>
+      <c r="X38" s="160"/>
+      <c r="Y38" s="160"/>
+      <c r="Z38" s="160"/>
+      <c r="AA38" s="160"/>
+      <c r="AB38" s="160"/>
+      <c r="AC38" s="160"/>
+      <c r="AD38" s="160"/>
+      <c r="AE38" s="160"/>
+    </row>
+    <row r="39" spans="3:39" s="150" customFormat="1" ht="24" x14ac:dyDescent="0.4">
+      <c r="C39" s="171"/>
+      <c r="D39" s="165"/>
+      <c r="E39" s="165"/>
+      <c r="F39" s="165"/>
+      <c r="G39" s="162"/>
+      <c r="H39" s="175"/>
+      <c r="I39" s="175"/>
+      <c r="J39" s="175"/>
+      <c r="K39" s="175"/>
+      <c r="L39" s="175"/>
+      <c r="M39" s="175"/>
+      <c r="N39" s="175"/>
+      <c r="O39" s="175"/>
+      <c r="P39" s="175"/>
+      <c r="Q39" s="175"/>
+      <c r="R39" s="175"/>
+      <c r="S39" s="175"/>
+      <c r="T39" s="175"/>
+      <c r="U39" s="175"/>
+      <c r="V39" s="175"/>
+      <c r="W39" s="175"/>
+      <c r="X39" s="175"/>
+      <c r="Y39" s="175"/>
+      <c r="Z39" s="175"/>
+      <c r="AA39" s="175"/>
+      <c r="AB39" s="175"/>
+      <c r="AC39" s="175"/>
+      <c r="AD39" s="175"/>
+      <c r="AE39" s="175"/>
+      <c r="AF39" s="175"/>
+      <c r="AH39" s="172"/>
+      <c r="AI39" s="173"/>
+      <c r="AJ39" s="173"/>
+      <c r="AK39" s="173"/>
+      <c r="AL39" s="173"/>
+      <c r="AM39" s="173"/>
+    </row>
+    <row r="40" spans="3:39" s="150" customFormat="1" ht="24" x14ac:dyDescent="0.4">
+      <c r="C40" s="171"/>
+      <c r="D40" s="165"/>
+      <c r="E40" s="165"/>
+      <c r="F40" s="165"/>
+      <c r="G40" s="162"/>
+      <c r="H40" s="175"/>
+      <c r="I40" s="175"/>
+      <c r="J40" s="175"/>
+      <c r="K40" s="175"/>
+      <c r="L40" s="175"/>
+      <c r="M40" s="175"/>
+      <c r="N40" s="175"/>
+      <c r="O40" s="175"/>
+      <c r="P40" s="175"/>
+      <c r="Q40" s="175"/>
+      <c r="R40" s="175"/>
+      <c r="S40" s="175"/>
+      <c r="T40" s="175"/>
+      <c r="U40" s="175"/>
+      <c r="V40" s="175"/>
+      <c r="W40" s="175"/>
+      <c r="X40" s="175"/>
+      <c r="Y40" s="175"/>
+      <c r="Z40" s="175"/>
+      <c r="AA40" s="175"/>
+      <c r="AB40" s="175"/>
+      <c r="AC40" s="175"/>
+      <c r="AD40" s="175"/>
+      <c r="AE40" s="175"/>
+      <c r="AF40" s="175"/>
+      <c r="AH40" s="172"/>
+      <c r="AI40" s="173"/>
+      <c r="AJ40" s="173"/>
+      <c r="AK40" s="173"/>
+      <c r="AL40" s="173"/>
+      <c r="AM40" s="173"/>
     </row>
     <row r="41" spans="3:39" ht="24" x14ac:dyDescent="0.4">
-      <c r="C41" s="169"/>
-      <c r="D41" s="239"/>
-      <c r="E41" s="239"/>
-      <c r="F41" s="239"/>
-      <c r="G41" s="164"/>
-      <c r="H41" s="247"/>
-      <c r="I41" s="247"/>
-      <c r="J41" s="247"/>
-      <c r="K41" s="247"/>
-      <c r="L41" s="247"/>
-      <c r="M41" s="247"/>
-      <c r="N41" s="247"/>
-      <c r="O41" s="247"/>
-      <c r="P41" s="247"/>
-      <c r="Q41" s="247"/>
-      <c r="R41" s="247"/>
-      <c r="S41" s="247"/>
-      <c r="T41" s="247"/>
-      <c r="U41" s="247"/>
-      <c r="V41" s="247"/>
-      <c r="W41" s="247"/>
-      <c r="X41" s="247"/>
-      <c r="Y41" s="247"/>
-      <c r="Z41" s="247"/>
-      <c r="AA41" s="247"/>
-      <c r="AB41" s="247"/>
-      <c r="AC41" s="247"/>
-      <c r="AD41" s="247"/>
-      <c r="AE41" s="247"/>
-      <c r="AF41" s="247"/>
-      <c r="AH41" s="170"/>
-      <c r="AI41" s="170"/>
-      <c r="AJ41" s="170"/>
-      <c r="AK41" s="170"/>
-      <c r="AL41" s="170"/>
-      <c r="AM41" s="170"/>
+      <c r="C41" s="165"/>
+      <c r="D41" s="169"/>
+      <c r="E41" s="169"/>
+      <c r="F41" s="169"/>
+      <c r="G41" s="160"/>
+      <c r="H41" s="174"/>
+      <c r="I41" s="174"/>
+      <c r="J41" s="174"/>
+      <c r="K41" s="174"/>
+      <c r="L41" s="174"/>
+      <c r="M41" s="174"/>
+      <c r="N41" s="174"/>
+      <c r="O41" s="174"/>
+      <c r="P41" s="174"/>
+      <c r="Q41" s="174"/>
+      <c r="R41" s="174"/>
+      <c r="S41" s="174"/>
+      <c r="T41" s="174"/>
+      <c r="U41" s="174"/>
+      <c r="V41" s="174"/>
+      <c r="W41" s="174"/>
+      <c r="X41" s="174"/>
+      <c r="Y41" s="174"/>
+      <c r="Z41" s="174"/>
+      <c r="AA41" s="174"/>
+      <c r="AB41" s="174"/>
+      <c r="AC41" s="174"/>
+      <c r="AD41" s="174"/>
+      <c r="AE41" s="174"/>
+      <c r="AF41" s="174"/>
+      <c r="AH41" s="177"/>
+      <c r="AI41" s="177"/>
+      <c r="AJ41" s="177"/>
+      <c r="AK41" s="177"/>
+      <c r="AL41" s="177"/>
+      <c r="AM41" s="177"/>
     </row>
     <row r="42" spans="3:39" ht="24" x14ac:dyDescent="0.4">
-      <c r="C42" s="168"/>
-      <c r="D42" s="166"/>
-      <c r="E42" s="166"/>
-      <c r="F42" s="164"/>
-      <c r="G42" s="164"/>
-      <c r="H42" s="167"/>
-      <c r="I42" s="164"/>
-      <c r="J42" s="164"/>
-      <c r="K42" s="164"/>
-      <c r="L42" s="164"/>
-      <c r="M42" s="164"/>
-      <c r="N42" s="164"/>
-      <c r="O42" s="164"/>
-      <c r="P42" s="164"/>
-      <c r="Q42" s="164"/>
-      <c r="R42" s="164"/>
-      <c r="S42" s="164"/>
-      <c r="T42" s="164"/>
-      <c r="U42" s="164"/>
-      <c r="V42" s="164"/>
-      <c r="W42" s="164"/>
-      <c r="X42" s="164"/>
-      <c r="Y42" s="164"/>
-      <c r="Z42" s="164"/>
-      <c r="AA42" s="164"/>
-      <c r="AB42" s="164"/>
-      <c r="AC42" s="164"/>
-      <c r="AD42" s="164"/>
-      <c r="AE42" s="164"/>
+      <c r="C42" s="164"/>
+      <c r="D42" s="162"/>
+      <c r="E42" s="162"/>
+      <c r="F42" s="160"/>
+      <c r="G42" s="160"/>
+      <c r="H42" s="163"/>
+      <c r="I42" s="160"/>
+      <c r="J42" s="160"/>
+      <c r="K42" s="160"/>
+      <c r="L42" s="160"/>
+      <c r="M42" s="160"/>
+      <c r="N42" s="160"/>
+      <c r="O42" s="160"/>
+      <c r="P42" s="160"/>
+      <c r="Q42" s="160"/>
+      <c r="R42" s="160"/>
+      <c r="S42" s="160"/>
+      <c r="T42" s="160"/>
+      <c r="U42" s="160"/>
+      <c r="V42" s="160"/>
+      <c r="W42" s="160"/>
+      <c r="X42" s="160"/>
+      <c r="Y42" s="160"/>
+      <c r="Z42" s="160"/>
+      <c r="AA42" s="160"/>
+      <c r="AB42" s="160"/>
+      <c r="AC42" s="160"/>
+      <c r="AD42" s="160"/>
+      <c r="AE42" s="160"/>
     </row>
     <row r="43" spans="3:39" ht="24" x14ac:dyDescent="0.4">
-      <c r="C43" s="168"/>
-      <c r="D43" s="166"/>
-      <c r="E43" s="166"/>
-      <c r="F43" s="164"/>
-      <c r="G43" s="164"/>
-      <c r="H43" s="240"/>
-      <c r="I43" s="164"/>
-      <c r="J43" s="164"/>
-      <c r="K43" s="164"/>
-      <c r="L43" s="164"/>
-      <c r="M43" s="164"/>
-      <c r="N43" s="164"/>
-      <c r="O43" s="164"/>
-      <c r="P43" s="164"/>
-      <c r="Q43" s="164"/>
-      <c r="R43" s="164"/>
-      <c r="S43" s="164"/>
-      <c r="T43" s="164"/>
-      <c r="U43" s="164"/>
-      <c r="V43" s="164"/>
-      <c r="W43" s="164"/>
-      <c r="X43" s="164"/>
-      <c r="Y43" s="164"/>
-      <c r="Z43" s="164"/>
-      <c r="AA43" s="164"/>
-      <c r="AB43" s="164"/>
-      <c r="AC43" s="164"/>
-      <c r="AD43" s="164"/>
-      <c r="AE43" s="164"/>
+      <c r="C43" s="164"/>
+      <c r="D43" s="162"/>
+      <c r="E43" s="162"/>
+      <c r="F43" s="160"/>
+      <c r="G43" s="160"/>
+      <c r="H43" s="170"/>
+      <c r="I43" s="160"/>
+      <c r="J43" s="160"/>
+      <c r="K43" s="160"/>
+      <c r="L43" s="160"/>
+      <c r="M43" s="160"/>
+      <c r="N43" s="160"/>
+      <c r="O43" s="160"/>
+      <c r="P43" s="160"/>
+      <c r="Q43" s="160"/>
+      <c r="R43" s="160"/>
+      <c r="S43" s="160"/>
+      <c r="T43" s="160"/>
+      <c r="U43" s="160"/>
+      <c r="V43" s="160"/>
+      <c r="W43" s="160"/>
+      <c r="X43" s="160"/>
+      <c r="Y43" s="160"/>
+      <c r="Z43" s="160"/>
+      <c r="AA43" s="160"/>
+      <c r="AB43" s="160"/>
+      <c r="AC43" s="160"/>
+      <c r="AD43" s="160"/>
+      <c r="AE43" s="160"/>
     </row>
     <row r="44" spans="3:39" ht="24" x14ac:dyDescent="0.4">
-      <c r="C44" s="168"/>
-      <c r="D44" s="166"/>
-      <c r="E44" s="166"/>
-      <c r="F44" s="164"/>
-      <c r="G44" s="164"/>
-      <c r="H44" s="167"/>
-      <c r="I44" s="164"/>
-      <c r="J44" s="164"/>
-      <c r="K44" s="164"/>
-      <c r="L44" s="164"/>
-      <c r="M44" s="164"/>
-      <c r="N44" s="164"/>
-      <c r="O44" s="164"/>
-      <c r="P44" s="164"/>
-      <c r="Q44" s="164"/>
-      <c r="R44" s="164"/>
-      <c r="S44" s="164"/>
-      <c r="T44" s="164"/>
-      <c r="U44" s="164"/>
-      <c r="V44" s="164"/>
-      <c r="W44" s="164"/>
-      <c r="X44" s="164"/>
-      <c r="Y44" s="164"/>
-      <c r="Z44" s="164"/>
-      <c r="AA44" s="164"/>
-      <c r="AB44" s="164"/>
-      <c r="AC44" s="164"/>
-      <c r="AD44" s="164"/>
-      <c r="AE44" s="164"/>
+      <c r="C44" s="164"/>
+      <c r="D44" s="162"/>
+      <c r="E44" s="162"/>
+      <c r="F44" s="160"/>
+      <c r="G44" s="160"/>
+      <c r="H44" s="163"/>
+      <c r="I44" s="160"/>
+      <c r="J44" s="160"/>
+      <c r="K44" s="160"/>
+      <c r="L44" s="160"/>
+      <c r="M44" s="160"/>
+      <c r="N44" s="160"/>
+      <c r="O44" s="160"/>
+      <c r="P44" s="160"/>
+      <c r="Q44" s="160"/>
+      <c r="R44" s="160"/>
+      <c r="S44" s="160"/>
+      <c r="T44" s="160"/>
+      <c r="U44" s="160"/>
+      <c r="V44" s="160"/>
+      <c r="W44" s="160"/>
+      <c r="X44" s="160"/>
+      <c r="Y44" s="160"/>
+      <c r="Z44" s="160"/>
+      <c r="AA44" s="160"/>
+      <c r="AB44" s="160"/>
+      <c r="AC44" s="160"/>
+      <c r="AD44" s="160"/>
+      <c r="AE44" s="160"/>
     </row>
     <row r="45" spans="3:39" ht="24" x14ac:dyDescent="0.4">
-      <c r="C45" s="168"/>
-      <c r="D45" s="166"/>
-      <c r="E45" s="166"/>
-      <c r="F45" s="164"/>
-      <c r="G45" s="164"/>
-      <c r="H45" s="168"/>
-      <c r="I45" s="164"/>
-      <c r="J45" s="164"/>
-      <c r="K45" s="164"/>
-      <c r="L45" s="164"/>
-      <c r="M45" s="164"/>
-      <c r="N45" s="164"/>
-      <c r="O45" s="164"/>
-      <c r="P45" s="164"/>
-      <c r="Q45" s="164"/>
-      <c r="R45" s="164"/>
-      <c r="S45" s="164"/>
-      <c r="T45" s="164"/>
-      <c r="U45" s="164"/>
-      <c r="V45" s="164"/>
-      <c r="W45" s="164"/>
-      <c r="X45" s="164"/>
-      <c r="Y45" s="164"/>
-      <c r="Z45" s="164"/>
-      <c r="AA45" s="164"/>
-      <c r="AB45" s="164"/>
-      <c r="AC45" s="164"/>
-      <c r="AD45" s="164"/>
-      <c r="AE45" s="164"/>
+      <c r="C45" s="164"/>
+      <c r="D45" s="162"/>
+      <c r="E45" s="162"/>
+      <c r="F45" s="160"/>
+      <c r="G45" s="160"/>
+      <c r="H45" s="164"/>
+      <c r="I45" s="160"/>
+      <c r="J45" s="160"/>
+      <c r="K45" s="160"/>
+      <c r="L45" s="160"/>
+      <c r="M45" s="160"/>
+      <c r="N45" s="160"/>
+      <c r="O45" s="160"/>
+      <c r="P45" s="160"/>
+      <c r="Q45" s="160"/>
+      <c r="R45" s="160"/>
+      <c r="S45" s="160"/>
+      <c r="T45" s="160"/>
+      <c r="U45" s="160"/>
+      <c r="V45" s="160"/>
+      <c r="W45" s="160"/>
+      <c r="X45" s="160"/>
+      <c r="Y45" s="160"/>
+      <c r="Z45" s="160"/>
+      <c r="AA45" s="160"/>
+      <c r="AB45" s="160"/>
+      <c r="AC45" s="160"/>
+      <c r="AD45" s="160"/>
+      <c r="AE45" s="160"/>
     </row>
     <row r="46" spans="3:39" ht="24" x14ac:dyDescent="0.4">
-      <c r="C46" s="168"/>
-      <c r="D46" s="166"/>
-      <c r="E46" s="166"/>
-      <c r="F46" s="164"/>
-      <c r="G46" s="164"/>
-      <c r="H46" s="167"/>
-      <c r="I46" s="164"/>
-      <c r="J46" s="164"/>
-      <c r="K46" s="164"/>
-      <c r="L46" s="164"/>
-      <c r="M46" s="164"/>
-      <c r="N46" s="164"/>
-      <c r="O46" s="164"/>
-      <c r="P46" s="164"/>
-      <c r="Q46" s="164"/>
-      <c r="R46" s="164"/>
-      <c r="S46" s="164"/>
-      <c r="T46" s="164"/>
-      <c r="U46" s="164"/>
-      <c r="V46" s="164"/>
-      <c r="W46" s="164"/>
-      <c r="X46" s="164"/>
-      <c r="Y46" s="164"/>
-      <c r="Z46" s="164"/>
-      <c r="AA46" s="164"/>
-      <c r="AB46" s="164"/>
-      <c r="AC46" s="164"/>
-      <c r="AD46" s="164"/>
-      <c r="AE46" s="164"/>
+      <c r="C46" s="164"/>
+      <c r="D46" s="162"/>
+      <c r="E46" s="162"/>
+      <c r="F46" s="160"/>
+      <c r="G46" s="160"/>
+      <c r="H46" s="163"/>
+      <c r="I46" s="160"/>
+      <c r="J46" s="160"/>
+      <c r="K46" s="160"/>
+      <c r="L46" s="160"/>
+      <c r="M46" s="160"/>
+      <c r="N46" s="160"/>
+      <c r="O46" s="160"/>
+      <c r="P46" s="160"/>
+      <c r="Q46" s="160"/>
+      <c r="R46" s="160"/>
+      <c r="S46" s="160"/>
+      <c r="T46" s="160"/>
+      <c r="U46" s="160"/>
+      <c r="V46" s="160"/>
+      <c r="W46" s="160"/>
+      <c r="X46" s="160"/>
+      <c r="Y46" s="160"/>
+      <c r="Z46" s="160"/>
+      <c r="AA46" s="160"/>
+      <c r="AB46" s="160"/>
+      <c r="AC46" s="160"/>
+      <c r="AD46" s="160"/>
+      <c r="AE46" s="160"/>
     </row>
     <row r="47" spans="3:39" ht="24" x14ac:dyDescent="0.4">
-      <c r="C47" s="168"/>
-      <c r="D47" s="166"/>
-      <c r="E47" s="166"/>
-      <c r="F47" s="164"/>
-      <c r="G47" s="164"/>
-      <c r="H47" s="168"/>
-      <c r="I47" s="166"/>
-      <c r="J47" s="164"/>
-      <c r="K47" s="164"/>
-      <c r="L47" s="164"/>
-      <c r="M47" s="164"/>
-      <c r="N47" s="164"/>
-      <c r="O47" s="164"/>
-      <c r="P47" s="164"/>
-      <c r="Q47" s="164"/>
-      <c r="R47" s="164"/>
-      <c r="S47" s="164"/>
-      <c r="T47" s="164"/>
-      <c r="U47" s="164"/>
-      <c r="V47" s="164"/>
-      <c r="W47" s="164"/>
-      <c r="X47" s="164"/>
-      <c r="Y47" s="164"/>
-      <c r="Z47" s="164"/>
-      <c r="AA47" s="164"/>
-      <c r="AB47" s="164"/>
-      <c r="AC47" s="164"/>
-      <c r="AD47" s="164"/>
-      <c r="AE47" s="164"/>
+      <c r="C47" s="164"/>
+      <c r="D47" s="162"/>
+      <c r="E47" s="162"/>
+      <c r="F47" s="160"/>
+      <c r="G47" s="160"/>
+      <c r="H47" s="164"/>
+      <c r="I47" s="162"/>
+      <c r="J47" s="160"/>
+      <c r="K47" s="160"/>
+      <c r="L47" s="160"/>
+      <c r="M47" s="160"/>
+      <c r="N47" s="160"/>
+      <c r="O47" s="160"/>
+      <c r="P47" s="160"/>
+      <c r="Q47" s="160"/>
+      <c r="R47" s="160"/>
+      <c r="S47" s="160"/>
+      <c r="T47" s="160"/>
+      <c r="U47" s="160"/>
+      <c r="V47" s="160"/>
+      <c r="W47" s="160"/>
+      <c r="X47" s="160"/>
+      <c r="Y47" s="160"/>
+      <c r="Z47" s="160"/>
+      <c r="AA47" s="160"/>
+      <c r="AB47" s="160"/>
+      <c r="AC47" s="160"/>
+      <c r="AD47" s="160"/>
+      <c r="AE47" s="160"/>
     </row>
     <row r="48" spans="3:39" ht="24" x14ac:dyDescent="0.4">
-      <c r="C48" s="168"/>
-      <c r="D48" s="166"/>
-      <c r="E48" s="166"/>
-      <c r="F48" s="164"/>
-      <c r="G48" s="164"/>
-      <c r="H48" s="167"/>
-      <c r="I48" s="164"/>
-      <c r="J48" s="164"/>
-      <c r="K48" s="164"/>
-      <c r="L48" s="164"/>
-      <c r="M48" s="164"/>
-      <c r="N48" s="164"/>
-      <c r="O48" s="164"/>
-      <c r="P48" s="164"/>
-      <c r="Q48" s="164"/>
-      <c r="R48" s="164"/>
-      <c r="S48" s="164"/>
-      <c r="T48" s="164"/>
-      <c r="U48" s="164"/>
-      <c r="V48" s="164"/>
-      <c r="W48" s="164"/>
-      <c r="X48" s="164"/>
-      <c r="Y48" s="164"/>
-      <c r="Z48" s="164"/>
-      <c r="AA48" s="164"/>
-      <c r="AB48" s="164"/>
-      <c r="AC48" s="164"/>
-      <c r="AD48" s="164"/>
-      <c r="AE48" s="164"/>
+      <c r="C48" s="164"/>
+      <c r="D48" s="162"/>
+      <c r="E48" s="162"/>
+      <c r="F48" s="160"/>
+      <c r="G48" s="160"/>
+      <c r="H48" s="163"/>
+      <c r="I48" s="160"/>
+      <c r="J48" s="160"/>
+      <c r="K48" s="160"/>
+      <c r="L48" s="160"/>
+      <c r="M48" s="160"/>
+      <c r="N48" s="160"/>
+      <c r="O48" s="160"/>
+      <c r="P48" s="160"/>
+      <c r="Q48" s="160"/>
+      <c r="R48" s="160"/>
+      <c r="S48" s="160"/>
+      <c r="T48" s="160"/>
+      <c r="U48" s="160"/>
+      <c r="V48" s="160"/>
+      <c r="W48" s="160"/>
+      <c r="X48" s="160"/>
+      <c r="Y48" s="160"/>
+      <c r="Z48" s="160"/>
+      <c r="AA48" s="160"/>
+      <c r="AB48" s="160"/>
+      <c r="AC48" s="160"/>
+      <c r="AD48" s="160"/>
+      <c r="AE48" s="160"/>
     </row>
     <row r="49" spans="3:11" ht="24" x14ac:dyDescent="0.4">
-      <c r="C49" s="161"/>
-      <c r="D49" s="162"/>
-      <c r="E49" s="162"/>
-      <c r="F49" s="163"/>
-      <c r="G49" s="163"/>
-      <c r="H49" s="158"/>
-      <c r="I49" s="163"/>
-      <c r="J49" s="163"/>
-      <c r="K49" s="163"/>
+      <c r="C49" s="157"/>
+      <c r="D49" s="158"/>
+      <c r="E49" s="158"/>
+      <c r="F49" s="159"/>
+      <c r="G49" s="159"/>
+      <c r="H49" s="154"/>
+      <c r="I49" s="159"/>
+      <c r="J49" s="159"/>
+      <c r="K49" s="159"/>
     </row>
     <row r="50" spans="3:11" ht="24" x14ac:dyDescent="0.4">
-      <c r="C50" s="161"/>
-      <c r="D50" s="162"/>
-      <c r="E50" s="162"/>
-      <c r="F50" s="163"/>
-      <c r="G50" s="163"/>
-      <c r="H50" s="156"/>
-      <c r="I50" s="163"/>
-      <c r="J50" s="163"/>
-      <c r="K50" s="163"/>
+      <c r="C50" s="157"/>
+      <c r="D50" s="158"/>
+      <c r="E50" s="158"/>
+      <c r="F50" s="159"/>
+      <c r="G50" s="159"/>
+      <c r="H50" s="152"/>
+      <c r="I50" s="159"/>
+      <c r="J50" s="159"/>
+      <c r="K50" s="159"/>
     </row>
     <row r="51" spans="3:11" ht="24" x14ac:dyDescent="0.4">
-      <c r="C51" s="161"/>
-      <c r="D51" s="162"/>
-      <c r="E51" s="162"/>
-      <c r="F51" s="163"/>
-      <c r="G51" s="163"/>
-      <c r="H51" s="158"/>
-      <c r="I51" s="163"/>
-      <c r="J51" s="163"/>
-      <c r="K51" s="163"/>
+      <c r="C51" s="157"/>
+      <c r="D51" s="158"/>
+      <c r="E51" s="158"/>
+      <c r="F51" s="159"/>
+      <c r="G51" s="159"/>
+      <c r="H51" s="154"/>
+      <c r="I51" s="159"/>
+      <c r="J51" s="159"/>
+      <c r="K51" s="159"/>
     </row>
     <row r="52" spans="3:11" ht="24" x14ac:dyDescent="0.4">
-      <c r="C52" s="161"/>
-      <c r="D52" s="162"/>
-      <c r="E52" s="162"/>
-      <c r="F52" s="163"/>
-      <c r="G52" s="163"/>
-      <c r="H52" s="156"/>
-      <c r="I52" s="163"/>
-      <c r="J52" s="163"/>
-      <c r="K52" s="163"/>
+      <c r="C52" s="157"/>
+      <c r="D52" s="158"/>
+      <c r="E52" s="158"/>
+      <c r="F52" s="159"/>
+      <c r="G52" s="159"/>
+      <c r="H52" s="152"/>
+      <c r="I52" s="159"/>
+      <c r="J52" s="159"/>
+      <c r="K52" s="159"/>
     </row>
     <row r="53" spans="3:11" ht="24" x14ac:dyDescent="0.4">
-      <c r="C53" s="161"/>
-      <c r="D53" s="162"/>
-      <c r="E53" s="162"/>
-      <c r="F53" s="163"/>
-      <c r="G53" s="163"/>
-      <c r="H53" s="158"/>
-      <c r="I53" s="163"/>
-      <c r="J53" s="163"/>
-      <c r="K53" s="163"/>
+      <c r="C53" s="157"/>
+      <c r="D53" s="158"/>
+      <c r="E53" s="158"/>
+      <c r="F53" s="159"/>
+      <c r="G53" s="159"/>
+      <c r="H53" s="154"/>
+      <c r="I53" s="159"/>
+      <c r="J53" s="159"/>
+      <c r="K53" s="159"/>
     </row>
     <row r="54" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C54" s="163"/>
-      <c r="D54" s="163"/>
-      <c r="E54" s="163"/>
-      <c r="F54" s="163"/>
-      <c r="G54" s="163"/>
-      <c r="H54" s="163"/>
-      <c r="I54" s="163"/>
-      <c r="J54" s="163"/>
-      <c r="K54" s="163"/>
+      <c r="C54" s="159"/>
+      <c r="D54" s="159"/>
+      <c r="E54" s="159"/>
+      <c r="F54" s="159"/>
+      <c r="G54" s="159"/>
+      <c r="H54" s="159"/>
+      <c r="I54" s="159"/>
+      <c r="J54" s="159"/>
+      <c r="K54" s="159"/>
     </row>
     <row r="55" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C55" s="163"/>
-      <c r="D55" s="163"/>
-      <c r="E55" s="163"/>
-      <c r="F55" s="163"/>
-      <c r="G55" s="163"/>
-      <c r="H55" s="163"/>
-      <c r="I55" s="163"/>
-      <c r="J55" s="163"/>
-      <c r="K55" s="163"/>
+      <c r="C55" s="159"/>
+      <c r="D55" s="159"/>
+      <c r="E55" s="159"/>
+      <c r="F55" s="159"/>
+      <c r="G55" s="159"/>
+      <c r="H55" s="159"/>
+      <c r="I55" s="159"/>
+      <c r="J55" s="159"/>
+      <c r="K55" s="159"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3534,8 +3628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0321B480-B903-4438-8B39-3864CCC53DE8}">
   <dimension ref="B3:AN113"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:AM11"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="V80" sqref="V80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3559,151 +3653,151 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:39" x14ac:dyDescent="0.25">
-      <c r="C3" s="171"/>
-      <c r="D3" s="171"/>
-      <c r="E3" s="171"/>
-      <c r="F3" s="171"/>
-      <c r="G3" s="171"/>
-      <c r="H3" s="171"/>
-      <c r="I3" s="171"/>
+      <c r="C3" s="176"/>
+      <c r="D3" s="176"/>
+      <c r="E3" s="176"/>
+      <c r="F3" s="176"/>
+      <c r="G3" s="176"/>
+      <c r="H3" s="176"/>
+      <c r="I3" s="176"/>
     </row>
     <row r="4" spans="3:39" x14ac:dyDescent="0.25">
-      <c r="C4" s="171"/>
-      <c r="D4" s="171"/>
-      <c r="E4" s="171"/>
-      <c r="F4" s="171"/>
-      <c r="G4" s="171"/>
-      <c r="H4" s="171"/>
-      <c r="I4" s="171"/>
+      <c r="C4" s="176"/>
+      <c r="D4" s="176"/>
+      <c r="E4" s="176"/>
+      <c r="F4" s="176"/>
+      <c r="G4" s="176"/>
+      <c r="H4" s="176"/>
+      <c r="I4" s="176"/>
     </row>
     <row r="5" spans="3:39" x14ac:dyDescent="0.25">
-      <c r="C5" s="171"/>
-      <c r="D5" s="171"/>
-      <c r="E5" s="171"/>
-      <c r="F5" s="171"/>
-      <c r="G5" s="171"/>
-      <c r="H5" s="171"/>
-      <c r="I5" s="171"/>
+      <c r="C5" s="176"/>
+      <c r="D5" s="176"/>
+      <c r="E5" s="176"/>
+      <c r="F5" s="176"/>
+      <c r="G5" s="176"/>
+      <c r="H5" s="176"/>
+      <c r="I5" s="176"/>
     </row>
     <row r="6" spans="3:39" x14ac:dyDescent="0.25">
-      <c r="C6" s="171"/>
-      <c r="D6" s="171"/>
-      <c r="E6" s="171"/>
-      <c r="F6" s="171"/>
-      <c r="G6" s="171"/>
-      <c r="H6" s="171"/>
-      <c r="I6" s="171"/>
+      <c r="C6" s="176"/>
+      <c r="D6" s="176"/>
+      <c r="E6" s="176"/>
+      <c r="F6" s="176"/>
+      <c r="G6" s="176"/>
+      <c r="H6" s="176"/>
+      <c r="I6" s="176"/>
     </row>
     <row r="7" spans="3:39" x14ac:dyDescent="0.25">
-      <c r="C7" s="151"/>
-      <c r="D7" s="151"/>
-      <c r="E7" s="151"/>
-      <c r="F7" s="151"/>
-      <c r="G7" s="151"/>
-      <c r="H7" s="151"/>
-      <c r="I7" s="151"/>
+      <c r="C7" s="147"/>
+      <c r="D7" s="147"/>
+      <c r="E7" s="147"/>
+      <c r="F7" s="147"/>
+      <c r="G7" s="147"/>
+      <c r="H7" s="147"/>
+      <c r="I7" s="147"/>
     </row>
     <row r="8" spans="3:39" x14ac:dyDescent="0.25">
       <c r="D8"/>
       <c r="E8"/>
     </row>
     <row r="10" spans="3:39" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C10" s="148"/>
+      <c r="C10" s="144"/>
     </row>
     <row r="11" spans="3:39" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="C11" s="150" t="s">
+      <c r="C11" s="146" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="146"/>
-      <c r="E11" s="146"/>
-      <c r="F11" s="147"/>
-      <c r="G11" s="147"/>
-      <c r="H11" s="147"/>
-      <c r="I11" s="147"/>
-      <c r="J11" s="147"/>
-      <c r="K11" s="147"/>
-      <c r="L11" s="147"/>
-      <c r="M11" s="147"/>
-      <c r="N11" s="147"/>
-      <c r="O11" s="149"/>
-      <c r="P11" s="149"/>
-      <c r="Q11" s="152"/>
-      <c r="R11" s="152"/>
-      <c r="S11" s="152"/>
-      <c r="T11" s="152"/>
-      <c r="U11" s="152"/>
-      <c r="V11" s="152"/>
-      <c r="W11" s="152"/>
-      <c r="X11" s="152"/>
-      <c r="Y11" s="152"/>
-      <c r="Z11" s="152"/>
-      <c r="AA11" s="152"/>
-      <c r="AB11" s="152"/>
-      <c r="AC11" s="152"/>
-      <c r="AD11" s="152"/>
-      <c r="AE11" s="152"/>
-      <c r="AF11" s="152"/>
-      <c r="AG11" s="152"/>
-      <c r="AH11" s="152"/>
-      <c r="AI11" s="152"/>
-      <c r="AJ11" s="152"/>
-      <c r="AK11" s="152"/>
-      <c r="AL11" s="152"/>
-      <c r="AM11" s="153"/>
+      <c r="D11" s="142"/>
+      <c r="E11" s="142"/>
+      <c r="F11" s="143"/>
+      <c r="G11" s="143"/>
+      <c r="H11" s="143"/>
+      <c r="I11" s="143"/>
+      <c r="J11" s="143"/>
+      <c r="K11" s="143"/>
+      <c r="L11" s="143"/>
+      <c r="M11" s="143"/>
+      <c r="N11" s="143"/>
+      <c r="O11" s="145"/>
+      <c r="P11" s="145"/>
+      <c r="Q11" s="148"/>
+      <c r="R11" s="148"/>
+      <c r="S11" s="148"/>
+      <c r="T11" s="148"/>
+      <c r="U11" s="148"/>
+      <c r="V11" s="148"/>
+      <c r="W11" s="148"/>
+      <c r="X11" s="148"/>
+      <c r="Y11" s="148"/>
+      <c r="Z11" s="148"/>
+      <c r="AA11" s="148"/>
+      <c r="AB11" s="148"/>
+      <c r="AC11" s="148"/>
+      <c r="AD11" s="148"/>
+      <c r="AE11" s="148"/>
+      <c r="AF11" s="148"/>
+      <c r="AG11" s="148"/>
+      <c r="AH11" s="148"/>
+      <c r="AI11" s="148"/>
+      <c r="AJ11" s="148"/>
+      <c r="AK11" s="148"/>
+      <c r="AL11" s="148"/>
+      <c r="AM11" s="149"/>
     </row>
     <row r="15" spans="3:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="3:39" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="G16" s="173" t="s">
+      <c r="G16" s="212" t="s">
         <v>0</v>
       </c>
-      <c r="H16" s="174"/>
-      <c r="I16" s="175"/>
-      <c r="J16" s="173" t="s">
+      <c r="H16" s="213"/>
+      <c r="I16" s="214"/>
+      <c r="J16" s="212" t="s">
         <v>1</v>
       </c>
-      <c r="K16" s="174"/>
-      <c r="L16" s="177"/>
+      <c r="K16" s="213"/>
+      <c r="L16" s="216"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-      <c r="P16" s="173" t="s">
+      <c r="P16" s="212" t="s">
         <v>0</v>
       </c>
-      <c r="Q16" s="174"/>
-      <c r="R16" s="175"/>
-      <c r="S16" s="176" t="s">
+      <c r="Q16" s="213"/>
+      <c r="R16" s="214"/>
+      <c r="S16" s="215" t="s">
         <v>1</v>
       </c>
-      <c r="T16" s="174"/>
-      <c r="U16" s="177"/>
+      <c r="T16" s="213"/>
+      <c r="U16" s="216"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="4"/>
-      <c r="Y16" s="173" t="s">
+      <c r="Y16" s="212" t="s">
         <v>0</v>
       </c>
-      <c r="Z16" s="174"/>
-      <c r="AA16" s="175"/>
-      <c r="AB16" s="176" t="s">
+      <c r="Z16" s="213"/>
+      <c r="AA16" s="214"/>
+      <c r="AB16" s="215" t="s">
         <v>1</v>
       </c>
-      <c r="AC16" s="174"/>
-      <c r="AD16" s="177"/>
+      <c r="AC16" s="213"/>
+      <c r="AD16" s="216"/>
       <c r="AE16" s="5"/>
       <c r="AF16" s="6"/>
       <c r="AG16" s="7"/>
-      <c r="AH16" s="173" t="s">
+      <c r="AH16" s="212" t="s">
         <v>0</v>
       </c>
-      <c r="AI16" s="174"/>
-      <c r="AJ16" s="175"/>
-      <c r="AK16" s="176" t="s">
+      <c r="AI16" s="213"/>
+      <c r="AJ16" s="214"/>
+      <c r="AK16" s="215" t="s">
         <v>1</v>
       </c>
-      <c r="AL16" s="174"/>
-      <c r="AM16" s="177"/>
+      <c r="AL16" s="213"/>
+      <c r="AM16" s="216"/>
     </row>
     <row r="17" spans="2:39" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="8"/>
@@ -3802,57 +3896,57 @@
       </c>
     </row>
     <row r="18" spans="2:39" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="178" t="s">
+      <c r="C18" s="223" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="180" t="s">
+      <c r="D18" s="225" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="180"/>
-      <c r="F18" s="180"/>
-      <c r="G18" s="180"/>
-      <c r="H18" s="180"/>
-      <c r="I18" s="180"/>
-      <c r="J18" s="180"/>
-      <c r="K18" s="180"/>
-      <c r="L18" s="181"/>
-      <c r="M18" s="182" t="s">
+      <c r="E18" s="225"/>
+      <c r="F18" s="225"/>
+      <c r="G18" s="225"/>
+      <c r="H18" s="225"/>
+      <c r="I18" s="225"/>
+      <c r="J18" s="225"/>
+      <c r="K18" s="225"/>
+      <c r="L18" s="226"/>
+      <c r="M18" s="227" t="s">
         <v>8</v>
       </c>
-      <c r="N18" s="183"/>
-      <c r="O18" s="183"/>
-      <c r="P18" s="183"/>
-      <c r="Q18" s="183"/>
-      <c r="R18" s="183"/>
-      <c r="S18" s="183"/>
-      <c r="T18" s="183"/>
-      <c r="U18" s="184"/>
-      <c r="V18" s="185" t="s">
+      <c r="N18" s="228"/>
+      <c r="O18" s="228"/>
+      <c r="P18" s="228"/>
+      <c r="Q18" s="228"/>
+      <c r="R18" s="228"/>
+      <c r="S18" s="228"/>
+      <c r="T18" s="228"/>
+      <c r="U18" s="229"/>
+      <c r="V18" s="230" t="s">
         <v>9</v>
       </c>
-      <c r="W18" s="185"/>
-      <c r="X18" s="185"/>
-      <c r="Y18" s="185"/>
-      <c r="Z18" s="185"/>
-      <c r="AA18" s="185"/>
-      <c r="AB18" s="185"/>
-      <c r="AC18" s="185"/>
-      <c r="AD18" s="185"/>
-      <c r="AE18" s="186" t="s">
+      <c r="W18" s="230"/>
+      <c r="X18" s="230"/>
+      <c r="Y18" s="230"/>
+      <c r="Z18" s="230"/>
+      <c r="AA18" s="230"/>
+      <c r="AB18" s="230"/>
+      <c r="AC18" s="230"/>
+      <c r="AD18" s="230"/>
+      <c r="AE18" s="231" t="s">
         <v>10</v>
       </c>
-      <c r="AF18" s="187"/>
-      <c r="AG18" s="187"/>
-      <c r="AH18" s="187"/>
-      <c r="AI18" s="187"/>
-      <c r="AJ18" s="187"/>
-      <c r="AK18" s="187"/>
-      <c r="AL18" s="188"/>
-      <c r="AM18" s="189"/>
+      <c r="AF18" s="232"/>
+      <c r="AG18" s="232"/>
+      <c r="AH18" s="232"/>
+      <c r="AI18" s="232"/>
+      <c r="AJ18" s="232"/>
+      <c r="AK18" s="232"/>
+      <c r="AL18" s="233"/>
+      <c r="AM18" s="234"/>
     </row>
     <row r="19" spans="2:39" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="179"/>
-      <c r="D19" s="190" t="s">
+      <c r="C19" s="224"/>
+      <c r="D19" s="235" t="s">
         <v>11</v>
       </c>
       <c r="E19" s="20" t="s">
@@ -3865,7 +3959,7 @@
       <c r="J19" s="24"/>
       <c r="K19" s="25"/>
       <c r="L19" s="25"/>
-      <c r="M19" s="193" t="s">
+      <c r="M19" s="238" t="s">
         <v>13</v>
       </c>
       <c r="N19" s="20" t="s">
@@ -3878,7 +3972,7 @@
       <c r="S19" s="24"/>
       <c r="T19" s="24"/>
       <c r="U19" s="28"/>
-      <c r="V19" s="196" t="s">
+      <c r="V19" s="194" t="s">
         <v>14</v>
       </c>
       <c r="W19" s="29" t="s">
@@ -3891,186 +3985,186 @@
       <c r="AB19" s="32"/>
       <c r="AC19" s="32"/>
       <c r="AD19" s="33"/>
-      <c r="AE19" s="198" t="s">
+      <c r="AE19" s="196" t="s">
         <v>15</v>
       </c>
       <c r="AF19" s="34" t="s">
         <v>12</v>
       </c>
       <c r="AG19" s="35"/>
-      <c r="AH19" s="22"/>
-      <c r="AI19" s="24"/>
-      <c r="AJ19" s="24"/>
-      <c r="AK19" s="24"/>
-      <c r="AL19" s="24"/>
-      <c r="AM19" s="36"/>
+      <c r="AH19" s="241"/>
+      <c r="AI19" s="242"/>
+      <c r="AJ19" s="242"/>
+      <c r="AK19" s="242"/>
+      <c r="AL19" s="242"/>
+      <c r="AM19" s="243"/>
     </row>
     <row r="20" spans="2:39" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="179"/>
-      <c r="D20" s="191"/>
-      <c r="E20" s="37" t="s">
+      <c r="C20" s="224"/>
+      <c r="D20" s="236"/>
+      <c r="E20" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="38"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="41"/>
-      <c r="L20" s="42"/>
-      <c r="M20" s="194"/>
-      <c r="N20" s="43" t="s">
+      <c r="F20" s="37"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="41"/>
+      <c r="M20" s="239"/>
+      <c r="N20" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="O20" s="38"/>
-      <c r="P20" s="44"/>
-      <c r="Q20" s="41"/>
-      <c r="R20" s="45"/>
-      <c r="S20" s="45"/>
-      <c r="T20" s="45"/>
-      <c r="U20" s="46"/>
-      <c r="V20" s="196"/>
-      <c r="W20" s="47" t="s">
+      <c r="O20" s="37"/>
+      <c r="P20" s="43"/>
+      <c r="Q20" s="40"/>
+      <c r="R20" s="44"/>
+      <c r="S20" s="44"/>
+      <c r="T20" s="44"/>
+      <c r="U20" s="45"/>
+      <c r="V20" s="194"/>
+      <c r="W20" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="X20" s="48"/>
-      <c r="Y20" s="49"/>
-      <c r="Z20" s="50"/>
-      <c r="AA20" s="50"/>
-      <c r="AB20" s="50"/>
-      <c r="AC20" s="50"/>
-      <c r="AD20" s="51"/>
-      <c r="AE20" s="199"/>
-      <c r="AF20" s="52" t="s">
+      <c r="X20" s="47"/>
+      <c r="Y20" s="48"/>
+      <c r="Z20" s="49"/>
+      <c r="AA20" s="49"/>
+      <c r="AB20" s="49"/>
+      <c r="AC20" s="49"/>
+      <c r="AD20" s="50"/>
+      <c r="AE20" s="197"/>
+      <c r="AF20" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="AG20" s="53"/>
-      <c r="AH20" s="54"/>
-      <c r="AI20" s="45"/>
-      <c r="AJ20" s="45"/>
-      <c r="AK20" s="45"/>
-      <c r="AL20" s="45"/>
-      <c r="AM20" s="55"/>
+      <c r="AG20" s="52"/>
+      <c r="AH20" s="244"/>
+      <c r="AI20" s="245"/>
+      <c r="AJ20" s="245"/>
+      <c r="AK20" s="245"/>
+      <c r="AL20" s="245"/>
+      <c r="AM20" s="246"/>
     </row>
     <row r="21" spans="2:39" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="179"/>
-      <c r="D21" s="191"/>
-      <c r="E21" s="43" t="s">
+      <c r="C21" s="224"/>
+      <c r="D21" s="236"/>
+      <c r="E21" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="38"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="41"/>
-      <c r="J21" s="41"/>
-      <c r="K21" s="41"/>
-      <c r="L21" s="40"/>
-      <c r="M21" s="194"/>
-      <c r="N21" s="43" t="s">
+      <c r="F21" s="37"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="239"/>
+      <c r="N21" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="O21" s="38"/>
-      <c r="P21" s="39"/>
-      <c r="Q21" s="45"/>
-      <c r="R21" s="45"/>
-      <c r="S21" s="45"/>
-      <c r="T21" s="45"/>
-      <c r="U21" s="46"/>
-      <c r="V21" s="196"/>
-      <c r="W21" s="56" t="s">
+      <c r="O21" s="37"/>
+      <c r="P21" s="38"/>
+      <c r="Q21" s="44"/>
+      <c r="R21" s="44"/>
+      <c r="S21" s="44"/>
+      <c r="T21" s="44"/>
+      <c r="U21" s="45"/>
+      <c r="V21" s="194"/>
+      <c r="W21" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="X21" s="48"/>
-      <c r="Y21" s="57"/>
-      <c r="Z21" s="50"/>
-      <c r="AA21" s="50"/>
-      <c r="AB21" s="50"/>
-      <c r="AC21" s="50"/>
-      <c r="AD21" s="51"/>
-      <c r="AE21" s="199"/>
-      <c r="AF21" s="52" t="s">
+      <c r="X21" s="47"/>
+      <c r="Y21" s="56"/>
+      <c r="Z21" s="49"/>
+      <c r="AA21" s="49"/>
+      <c r="AB21" s="49"/>
+      <c r="AC21" s="49"/>
+      <c r="AD21" s="50"/>
+      <c r="AE21" s="197"/>
+      <c r="AF21" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="AG21" s="53"/>
-      <c r="AH21" s="54"/>
-      <c r="AI21" s="45"/>
-      <c r="AJ21" s="45"/>
-      <c r="AK21" s="45"/>
-      <c r="AL21" s="45"/>
-      <c r="AM21" s="55"/>
+      <c r="AG21" s="52"/>
+      <c r="AH21" s="244"/>
+      <c r="AI21" s="245"/>
+      <c r="AJ21" s="245"/>
+      <c r="AK21" s="245"/>
+      <c r="AL21" s="245"/>
+      <c r="AM21" s="246"/>
     </row>
     <row r="22" spans="2:39" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="179"/>
-      <c r="D22" s="192"/>
-      <c r="E22" s="58" t="s">
+      <c r="C22" s="224"/>
+      <c r="D22" s="237"/>
+      <c r="E22" s="57" t="s">
         <v>18</v>
       </c>
       <c r="F22" s="21"/>
-      <c r="G22" s="54"/>
+      <c r="G22" s="53"/>
       <c r="H22" s="21"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="45"/>
-      <c r="K22" s="45"/>
-      <c r="L22" s="59"/>
-      <c r="M22" s="195"/>
-      <c r="N22" s="58" t="s">
+      <c r="I22" s="44"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="58"/>
+      <c r="M22" s="240"/>
+      <c r="N22" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="O22" s="60"/>
-      <c r="P22" s="61"/>
-      <c r="Q22" s="62"/>
-      <c r="R22" s="62"/>
-      <c r="S22" s="62"/>
-      <c r="T22" s="63"/>
-      <c r="U22" s="60"/>
-      <c r="V22" s="197"/>
-      <c r="W22" s="64" t="s">
+      <c r="O22" s="59"/>
+      <c r="P22" s="60"/>
+      <c r="Q22" s="61"/>
+      <c r="R22" s="61"/>
+      <c r="S22" s="61"/>
+      <c r="T22" s="62"/>
+      <c r="U22" s="59"/>
+      <c r="V22" s="195"/>
+      <c r="W22" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="X22" s="51"/>
-      <c r="Y22" s="57"/>
-      <c r="Z22" s="50"/>
-      <c r="AA22" s="50"/>
-      <c r="AB22" s="50"/>
-      <c r="AC22" s="50"/>
-      <c r="AD22" s="51"/>
-      <c r="AE22" s="200"/>
-      <c r="AF22" s="65" t="s">
+      <c r="X22" s="50"/>
+      <c r="Y22" s="56"/>
+      <c r="Z22" s="49"/>
+      <c r="AA22" s="49"/>
+      <c r="AB22" s="49"/>
+      <c r="AC22" s="49"/>
+      <c r="AD22" s="50"/>
+      <c r="AE22" s="198"/>
+      <c r="AF22" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="AG22" s="66"/>
-      <c r="AH22" s="54"/>
-      <c r="AI22" s="45"/>
-      <c r="AJ22" s="45"/>
-      <c r="AK22" s="45"/>
-      <c r="AL22" s="45"/>
-      <c r="AM22" s="55"/>
+      <c r="AG22" s="65"/>
+      <c r="AH22" s="244"/>
+      <c r="AI22" s="245"/>
+      <c r="AJ22" s="245"/>
+      <c r="AK22" s="245"/>
+      <c r="AL22" s="245"/>
+      <c r="AM22" s="246"/>
     </row>
     <row r="23" spans="2:39" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="179"/>
-      <c r="D23" s="201" t="s">
+      <c r="C23" s="224"/>
+      <c r="D23" s="217" t="s">
         <v>19</v>
       </c>
       <c r="E23" s="20" t="s">
         <v>12</v>
       </c>
       <c r="F23" s="35"/>
-      <c r="G23" s="67"/>
+      <c r="G23" s="66"/>
       <c r="H23" s="24"/>
       <c r="I23" s="24"/>
       <c r="J23" s="24"/>
       <c r="K23" s="24"/>
-      <c r="L23" s="46"/>
+      <c r="L23" s="45"/>
       <c r="M23" s="21"/>
       <c r="N23" s="21"/>
-      <c r="O23" s="68"/>
-      <c r="P23" s="68"/>
-      <c r="Q23" s="68"/>
-      <c r="R23" s="68"/>
-      <c r="S23" s="68"/>
+      <c r="O23" s="67"/>
+      <c r="P23" s="67"/>
+      <c r="Q23" s="67"/>
+      <c r="R23" s="67"/>
+      <c r="S23" s="67"/>
       <c r="T23" s="21"/>
       <c r="U23" s="35"/>
-      <c r="V23" s="204" t="s">
+      <c r="V23" s="220" t="s">
         <v>20</v>
       </c>
       <c r="W23" s="29" t="s">
@@ -4083,33 +4177,33 @@
       <c r="AB23" s="32"/>
       <c r="AC23" s="32"/>
       <c r="AD23" s="33"/>
-      <c r="AE23" s="198" t="s">
+      <c r="AE23" s="196" t="s">
         <v>21</v>
       </c>
       <c r="AF23" s="34" t="s">
         <v>12</v>
       </c>
       <c r="AG23" s="26"/>
-      <c r="AH23" s="22"/>
-      <c r="AI23" s="24"/>
-      <c r="AJ23" s="24"/>
-      <c r="AK23" s="24"/>
-      <c r="AL23" s="24"/>
-      <c r="AM23" s="36"/>
+      <c r="AH23" s="241"/>
+      <c r="AI23" s="242"/>
+      <c r="AJ23" s="242"/>
+      <c r="AK23" s="242"/>
+      <c r="AL23" s="242"/>
+      <c r="AM23" s="243"/>
     </row>
     <row r="24" spans="2:39" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="179"/>
-      <c r="D24" s="202"/>
-      <c r="E24" s="43" t="s">
+      <c r="C24" s="224"/>
+      <c r="D24" s="218"/>
+      <c r="E24" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="F24" s="38"/>
-      <c r="G24" s="69"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="45"/>
-      <c r="J24" s="45"/>
-      <c r="K24" s="45"/>
-      <c r="L24" s="46"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="68"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="44"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="45"/>
       <c r="M24" s="21"/>
       <c r="N24" s="21"/>
       <c r="O24" s="21"/>
@@ -4119,42 +4213,42 @@
       <c r="S24" s="21"/>
       <c r="T24" s="21"/>
       <c r="U24" s="21"/>
-      <c r="V24" s="205"/>
-      <c r="W24" s="47" t="s">
+      <c r="V24" s="221"/>
+      <c r="W24" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="X24" s="48"/>
-      <c r="Y24" s="49"/>
-      <c r="Z24" s="70"/>
-      <c r="AA24" s="70"/>
-      <c r="AB24" s="70"/>
-      <c r="AC24" s="70"/>
-      <c r="AD24" s="71"/>
-      <c r="AE24" s="199"/>
-      <c r="AF24" s="52" t="s">
+      <c r="X24" s="47"/>
+      <c r="Y24" s="48"/>
+      <c r="Z24" s="69"/>
+      <c r="AA24" s="69"/>
+      <c r="AB24" s="69"/>
+      <c r="AC24" s="69"/>
+      <c r="AD24" s="70"/>
+      <c r="AE24" s="197"/>
+      <c r="AF24" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="AG24" s="38"/>
-      <c r="AH24" s="61"/>
-      <c r="AI24" s="45"/>
-      <c r="AJ24" s="45"/>
-      <c r="AK24" s="45"/>
-      <c r="AL24" s="45"/>
-      <c r="AM24" s="55"/>
+      <c r="AG24" s="37"/>
+      <c r="AH24" s="247"/>
+      <c r="AI24" s="245"/>
+      <c r="AJ24" s="245"/>
+      <c r="AK24" s="245"/>
+      <c r="AL24" s="245"/>
+      <c r="AM24" s="246"/>
     </row>
     <row r="25" spans="2:39" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="179"/>
-      <c r="D25" s="202"/>
-      <c r="E25" s="43" t="s">
+      <c r="C25" s="224"/>
+      <c r="D25" s="218"/>
+      <c r="E25" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="F25" s="60"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="41"/>
-      <c r="L25" s="46"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="45"/>
       <c r="M25" s="21"/>
       <c r="N25" s="21"/>
       <c r="O25" s="21"/>
@@ -4164,42 +4258,42 @@
       <c r="S25" s="21"/>
       <c r="T25" s="21"/>
       <c r="U25" s="21"/>
-      <c r="V25" s="205"/>
-      <c r="W25" s="56" t="s">
+      <c r="V25" s="221"/>
+      <c r="W25" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="X25" s="48"/>
-      <c r="Y25" s="49"/>
-      <c r="Z25" s="70"/>
-      <c r="AA25" s="70"/>
-      <c r="AB25" s="70"/>
-      <c r="AC25" s="70"/>
-      <c r="AD25" s="71"/>
-      <c r="AE25" s="199"/>
-      <c r="AF25" s="52" t="s">
+      <c r="X25" s="47"/>
+      <c r="Y25" s="48"/>
+      <c r="Z25" s="69"/>
+      <c r="AA25" s="69"/>
+      <c r="AB25" s="69"/>
+      <c r="AC25" s="69"/>
+      <c r="AD25" s="70"/>
+      <c r="AE25" s="197"/>
+      <c r="AF25" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="AG25" s="38"/>
-      <c r="AH25" s="39"/>
-      <c r="AI25" s="45"/>
-      <c r="AJ25" s="45"/>
-      <c r="AK25" s="45"/>
-      <c r="AL25" s="45"/>
-      <c r="AM25" s="55"/>
+      <c r="AG25" s="37"/>
+      <c r="AH25" s="248"/>
+      <c r="AI25" s="245"/>
+      <c r="AJ25" s="245"/>
+      <c r="AK25" s="245"/>
+      <c r="AL25" s="245"/>
+      <c r="AM25" s="246"/>
     </row>
     <row r="26" spans="2:39" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="179"/>
-      <c r="D26" s="203"/>
-      <c r="E26" s="72" t="s">
+      <c r="C26" s="224"/>
+      <c r="D26" s="219"/>
+      <c r="E26" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="F26" s="66"/>
-      <c r="G26" s="69"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="45"/>
-      <c r="J26" s="45"/>
-      <c r="K26" s="45"/>
-      <c r="L26" s="46"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="68"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="44"/>
+      <c r="L26" s="45"/>
       <c r="M26" s="21"/>
       <c r="N26" s="21"/>
       <c r="O26" s="21"/>
@@ -4209,32 +4303,32 @@
       <c r="S26" s="21"/>
       <c r="T26" s="21"/>
       <c r="U26" s="21"/>
-      <c r="V26" s="206"/>
-      <c r="W26" s="73" t="s">
+      <c r="V26" s="222"/>
+      <c r="W26" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="X26" s="74"/>
-      <c r="Y26" s="75"/>
-      <c r="Z26" s="76"/>
-      <c r="AA26" s="77"/>
-      <c r="AB26" s="77"/>
-      <c r="AC26" s="77"/>
-      <c r="AD26" s="78"/>
-      <c r="AE26" s="200"/>
-      <c r="AF26" s="79" t="s">
+      <c r="X26" s="73"/>
+      <c r="Y26" s="74"/>
+      <c r="Z26" s="75"/>
+      <c r="AA26" s="76"/>
+      <c r="AB26" s="76"/>
+      <c r="AC26" s="76"/>
+      <c r="AD26" s="77"/>
+      <c r="AE26" s="198"/>
+      <c r="AF26" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="AG26" s="46"/>
-      <c r="AH26" s="54"/>
-      <c r="AI26" s="45"/>
-      <c r="AJ26" s="45"/>
-      <c r="AK26" s="45"/>
-      <c r="AL26" s="45"/>
-      <c r="AM26" s="55"/>
+      <c r="AG26" s="45"/>
+      <c r="AH26" s="244"/>
+      <c r="AI26" s="245"/>
+      <c r="AJ26" s="245"/>
+      <c r="AK26" s="245"/>
+      <c r="AL26" s="245"/>
+      <c r="AM26" s="246"/>
     </row>
     <row r="27" spans="2:39" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="179"/>
-      <c r="D27" s="207" t="s">
+      <c r="C27" s="224"/>
+      <c r="D27" s="190" t="s">
         <v>22</v>
       </c>
       <c r="E27" s="20" t="s">
@@ -4255,47 +4349,47 @@
       <c r="R27" s="21"/>
       <c r="S27" s="21"/>
       <c r="T27" s="21"/>
-      <c r="U27" s="60"/>
-      <c r="V27" s="210" t="s">
+      <c r="U27" s="59"/>
+      <c r="V27" s="193" t="s">
         <v>23</v>
       </c>
-      <c r="W27" s="80" t="s">
+      <c r="W27" s="79" t="s">
         <v>12</v>
       </c>
       <c r="X27" s="26"/>
-      <c r="Y27" s="54"/>
+      <c r="Y27" s="53"/>
       <c r="Z27" s="24"/>
-      <c r="AA27" s="45"/>
-      <c r="AB27" s="45"/>
-      <c r="AC27" s="45"/>
-      <c r="AD27" s="81"/>
-      <c r="AE27" s="198" t="s">
+      <c r="AA27" s="44"/>
+      <c r="AB27" s="44"/>
+      <c r="AC27" s="44"/>
+      <c r="AD27" s="80"/>
+      <c r="AE27" s="196" t="s">
         <v>24</v>
       </c>
       <c r="AF27" s="34" t="s">
         <v>12</v>
       </c>
       <c r="AG27" s="26"/>
-      <c r="AH27" s="22"/>
-      <c r="AI27" s="24"/>
-      <c r="AJ27" s="24"/>
-      <c r="AK27" s="24"/>
-      <c r="AL27" s="24"/>
-      <c r="AM27" s="36"/>
+      <c r="AH27" s="241"/>
+      <c r="AI27" s="242"/>
+      <c r="AJ27" s="242"/>
+      <c r="AK27" s="242"/>
+      <c r="AL27" s="242"/>
+      <c r="AM27" s="243"/>
     </row>
     <row r="28" spans="2:39" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="179"/>
-      <c r="D28" s="208"/>
-      <c r="E28" s="43" t="s">
+      <c r="C28" s="224"/>
+      <c r="D28" s="191"/>
+      <c r="E28" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="F28" s="53"/>
-      <c r="G28" s="54"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="45"/>
-      <c r="J28" s="45"/>
-      <c r="K28" s="45"/>
-      <c r="L28" s="46"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="44"/>
+      <c r="K28" s="44"/>
+      <c r="L28" s="45"/>
       <c r="M28" s="21"/>
       <c r="N28" s="21"/>
       <c r="O28" s="21"/>
@@ -4304,43 +4398,43 @@
       <c r="R28" s="21"/>
       <c r="S28" s="21"/>
       <c r="T28" s="21"/>
-      <c r="U28" s="60"/>
-      <c r="V28" s="196"/>
-      <c r="W28" s="56" t="s">
+      <c r="U28" s="59"/>
+      <c r="V28" s="194"/>
+      <c r="W28" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="X28" s="46"/>
-      <c r="Y28" s="54"/>
-      <c r="Z28" s="45"/>
-      <c r="AA28" s="45"/>
-      <c r="AB28" s="45"/>
-      <c r="AC28" s="45"/>
-      <c r="AD28" s="81"/>
-      <c r="AE28" s="199"/>
-      <c r="AF28" s="52" t="s">
+      <c r="X28" s="45"/>
+      <c r="Y28" s="53"/>
+      <c r="Z28" s="44"/>
+      <c r="AA28" s="44"/>
+      <c r="AB28" s="44"/>
+      <c r="AC28" s="44"/>
+      <c r="AD28" s="80"/>
+      <c r="AE28" s="197"/>
+      <c r="AF28" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="AG28" s="38"/>
-      <c r="AH28" s="39"/>
-      <c r="AI28" s="45"/>
-      <c r="AJ28" s="45"/>
-      <c r="AK28" s="45"/>
-      <c r="AL28" s="45"/>
-      <c r="AM28" s="55"/>
+      <c r="AG28" s="37"/>
+      <c r="AH28" s="248"/>
+      <c r="AI28" s="245"/>
+      <c r="AJ28" s="245"/>
+      <c r="AK28" s="245"/>
+      <c r="AL28" s="245"/>
+      <c r="AM28" s="246"/>
     </row>
     <row r="29" spans="2:39" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="179"/>
-      <c r="D29" s="208"/>
-      <c r="E29" s="43" t="s">
+      <c r="C29" s="224"/>
+      <c r="D29" s="191"/>
+      <c r="E29" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="F29" s="38"/>
-      <c r="G29" s="54"/>
-      <c r="H29" s="45"/>
-      <c r="I29" s="45"/>
-      <c r="J29" s="45"/>
-      <c r="K29" s="45"/>
-      <c r="L29" s="46"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="44"/>
+      <c r="K29" s="44"/>
+      <c r="L29" s="45"/>
       <c r="M29" s="21"/>
       <c r="N29" s="21"/>
       <c r="O29" s="21"/>
@@ -4349,43 +4443,43 @@
       <c r="R29" s="21"/>
       <c r="S29" s="21"/>
       <c r="T29" s="21"/>
-      <c r="U29" s="60"/>
-      <c r="V29" s="196"/>
-      <c r="W29" s="56" t="s">
+      <c r="U29" s="59"/>
+      <c r="V29" s="194"/>
+      <c r="W29" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="X29" s="46"/>
-      <c r="Y29" s="54"/>
-      <c r="Z29" s="45"/>
-      <c r="AA29" s="45"/>
-      <c r="AB29" s="45"/>
-      <c r="AC29" s="45"/>
-      <c r="AD29" s="81"/>
-      <c r="AE29" s="199"/>
-      <c r="AF29" s="52" t="s">
+      <c r="X29" s="45"/>
+      <c r="Y29" s="53"/>
+      <c r="Z29" s="44"/>
+      <c r="AA29" s="44"/>
+      <c r="AB29" s="44"/>
+      <c r="AC29" s="44"/>
+      <c r="AD29" s="80"/>
+      <c r="AE29" s="197"/>
+      <c r="AF29" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="AG29" s="60"/>
-      <c r="AH29" s="54"/>
-      <c r="AI29" s="45"/>
-      <c r="AJ29" s="45"/>
-      <c r="AK29" s="45"/>
-      <c r="AL29" s="45"/>
-      <c r="AM29" s="55"/>
+      <c r="AG29" s="59"/>
+      <c r="AH29" s="244"/>
+      <c r="AI29" s="245"/>
+      <c r="AJ29" s="245"/>
+      <c r="AK29" s="245"/>
+      <c r="AL29" s="245"/>
+      <c r="AM29" s="246"/>
     </row>
     <row r="30" spans="2:39" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C30" s="179"/>
-      <c r="D30" s="209"/>
-      <c r="E30" s="72" t="s">
+      <c r="C30" s="224"/>
+      <c r="D30" s="192"/>
+      <c r="E30" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="F30" s="46"/>
-      <c r="G30" s="54"/>
-      <c r="H30" s="45"/>
-      <c r="I30" s="45"/>
-      <c r="J30" s="45"/>
-      <c r="K30" s="45"/>
-      <c r="L30" s="46"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="53"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="44"/>
+      <c r="J30" s="44"/>
+      <c r="K30" s="44"/>
+      <c r="L30" s="45"/>
       <c r="M30" s="21"/>
       <c r="N30" s="21"/>
       <c r="O30" s="21"/>
@@ -4394,33 +4488,33 @@
       <c r="R30" s="21"/>
       <c r="S30" s="21"/>
       <c r="T30" s="21"/>
-      <c r="U30" s="60"/>
-      <c r="V30" s="197"/>
-      <c r="W30" s="64" t="s">
+      <c r="U30" s="59"/>
+      <c r="V30" s="195"/>
+      <c r="W30" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="X30" s="46"/>
-      <c r="Y30" s="54"/>
-      <c r="Z30" s="45"/>
-      <c r="AA30" s="45"/>
-      <c r="AB30" s="45"/>
-      <c r="AC30" s="45"/>
-      <c r="AD30" s="81"/>
-      <c r="AE30" s="200"/>
-      <c r="AF30" s="82" t="s">
+      <c r="X30" s="45"/>
+      <c r="Y30" s="53"/>
+      <c r="Z30" s="44"/>
+      <c r="AA30" s="44"/>
+      <c r="AB30" s="44"/>
+      <c r="AC30" s="44"/>
+      <c r="AD30" s="80"/>
+      <c r="AE30" s="198"/>
+      <c r="AF30" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="AG30" s="53"/>
-      <c r="AH30" s="83"/>
-      <c r="AI30" s="63"/>
-      <c r="AJ30" s="63"/>
-      <c r="AK30" s="63"/>
-      <c r="AL30" s="63"/>
-      <c r="AM30" s="84"/>
+      <c r="AG30" s="52"/>
+      <c r="AH30" s="249"/>
+      <c r="AI30" s="250"/>
+      <c r="AJ30" s="250"/>
+      <c r="AK30" s="250"/>
+      <c r="AL30" s="250"/>
+      <c r="AM30" s="251"/>
     </row>
     <row r="31" spans="2:39" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="179"/>
-      <c r="D31" s="207" t="s">
+      <c r="C31" s="224"/>
+      <c r="D31" s="190" t="s">
         <v>25</v>
       </c>
       <c r="E31" s="20" t="s">
@@ -4441,8 +4535,8 @@
       <c r="R31" s="21"/>
       <c r="S31" s="21"/>
       <c r="T31" s="21"/>
-      <c r="U31" s="60"/>
-      <c r="V31" s="196" t="s">
+      <c r="U31" s="59"/>
+      <c r="V31" s="194" t="s">
         <v>26</v>
       </c>
       <c r="W31" s="29" t="s">
@@ -4455,33 +4549,33 @@
       <c r="AB31" s="24"/>
       <c r="AC31" s="24"/>
       <c r="AD31" s="28"/>
-      <c r="AE31" s="228" t="s">
+      <c r="AE31" s="207" t="s">
         <v>27</v>
       </c>
-      <c r="AF31" s="85" t="s">
+      <c r="AF31" s="84" t="s">
         <v>12</v>
       </c>
       <c r="AG31" s="26"/>
-      <c r="AH31" s="54"/>
-      <c r="AI31" s="45"/>
-      <c r="AJ31" s="45"/>
-      <c r="AK31" s="45"/>
-      <c r="AL31" s="45"/>
-      <c r="AM31" s="86"/>
+      <c r="AH31" s="53"/>
+      <c r="AI31" s="44"/>
+      <c r="AJ31" s="44"/>
+      <c r="AK31" s="44"/>
+      <c r="AL31" s="44"/>
+      <c r="AM31" s="85"/>
     </row>
     <row r="32" spans="2:39" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C32" s="179"/>
-      <c r="D32" s="208"/>
-      <c r="E32" s="43" t="s">
+      <c r="C32" s="224"/>
+      <c r="D32" s="191"/>
+      <c r="E32" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="F32" s="53"/>
-      <c r="G32" s="54"/>
-      <c r="H32" s="45"/>
-      <c r="I32" s="45"/>
-      <c r="J32" s="45"/>
-      <c r="K32" s="45"/>
-      <c r="L32" s="38"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="53"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="44"/>
+      <c r="K32" s="44"/>
+      <c r="L32" s="37"/>
       <c r="M32" s="21"/>
       <c r="N32" s="21"/>
       <c r="O32" s="21"/>
@@ -4490,43 +4584,43 @@
       <c r="R32" s="21"/>
       <c r="S32" s="21"/>
       <c r="T32" s="21"/>
-      <c r="U32" s="60"/>
-      <c r="V32" s="196"/>
-      <c r="W32" s="80" t="s">
+      <c r="U32" s="59"/>
+      <c r="V32" s="194"/>
+      <c r="W32" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="X32" s="53"/>
-      <c r="Y32" s="61"/>
-      <c r="Z32" s="41"/>
-      <c r="AA32" s="41"/>
-      <c r="AB32" s="41"/>
-      <c r="AC32" s="41"/>
-      <c r="AD32" s="87"/>
-      <c r="AE32" s="228"/>
-      <c r="AF32" s="88" t="s">
+      <c r="X32" s="52"/>
+      <c r="Y32" s="60"/>
+      <c r="Z32" s="40"/>
+      <c r="AA32" s="40"/>
+      <c r="AB32" s="40"/>
+      <c r="AC32" s="40"/>
+      <c r="AD32" s="86"/>
+      <c r="AE32" s="207"/>
+      <c r="AF32" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="AG32" s="81"/>
-      <c r="AH32" s="54"/>
-      <c r="AI32" s="45"/>
-      <c r="AJ32" s="45"/>
-      <c r="AK32" s="45"/>
-      <c r="AL32" s="45"/>
-      <c r="AM32" s="89"/>
+      <c r="AG32" s="80"/>
+      <c r="AH32" s="53"/>
+      <c r="AI32" s="44"/>
+      <c r="AJ32" s="44"/>
+      <c r="AK32" s="44"/>
+      <c r="AL32" s="44"/>
+      <c r="AM32" s="88"/>
     </row>
     <row r="33" spans="3:40" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="179"/>
-      <c r="D33" s="208"/>
-      <c r="E33" s="90" t="s">
+      <c r="C33" s="224"/>
+      <c r="D33" s="191"/>
+      <c r="E33" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="F33" s="38"/>
-      <c r="G33" s="61"/>
-      <c r="H33" s="62"/>
-      <c r="I33" s="62"/>
-      <c r="J33" s="62"/>
-      <c r="K33" s="62"/>
-      <c r="L33" s="60"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="60"/>
+      <c r="H33" s="61"/>
+      <c r="I33" s="61"/>
+      <c r="J33" s="61"/>
+      <c r="K33" s="61"/>
+      <c r="L33" s="59"/>
       <c r="M33" s="21"/>
       <c r="N33" s="21"/>
       <c r="O33" s="21"/>
@@ -4535,43 +4629,43 @@
       <c r="R33" s="21"/>
       <c r="S33" s="21"/>
       <c r="T33" s="21"/>
-      <c r="U33" s="60"/>
-      <c r="V33" s="196"/>
-      <c r="W33" s="80" t="s">
+      <c r="U33" s="59"/>
+      <c r="V33" s="194"/>
+      <c r="W33" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="X33" s="38"/>
-      <c r="Y33" s="39"/>
-      <c r="Z33" s="41"/>
-      <c r="AA33" s="41"/>
-      <c r="AB33" s="41"/>
-      <c r="AC33" s="41"/>
-      <c r="AD33" s="87"/>
-      <c r="AE33" s="228"/>
-      <c r="AF33" s="56" t="s">
+      <c r="X33" s="37"/>
+      <c r="Y33" s="38"/>
+      <c r="Z33" s="40"/>
+      <c r="AA33" s="40"/>
+      <c r="AB33" s="40"/>
+      <c r="AC33" s="40"/>
+      <c r="AD33" s="86"/>
+      <c r="AE33" s="207"/>
+      <c r="AF33" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="AG33" s="81"/>
-      <c r="AH33" s="54"/>
-      <c r="AI33" s="45"/>
-      <c r="AJ33" s="45"/>
-      <c r="AK33" s="45"/>
-      <c r="AL33" s="45"/>
-      <c r="AM33" s="89"/>
+      <c r="AG33" s="80"/>
+      <c r="AH33" s="53"/>
+      <c r="AI33" s="44"/>
+      <c r="AJ33" s="44"/>
+      <c r="AK33" s="44"/>
+      <c r="AL33" s="44"/>
+      <c r="AM33" s="88"/>
     </row>
     <row r="34" spans="3:40" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C34" s="179"/>
-      <c r="D34" s="209"/>
-      <c r="E34" s="58" t="s">
+      <c r="C34" s="224"/>
+      <c r="D34" s="192"/>
+      <c r="E34" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="F34" s="59"/>
-      <c r="G34" s="83"/>
-      <c r="H34" s="63"/>
-      <c r="I34" s="63"/>
-      <c r="J34" s="63"/>
-      <c r="K34" s="63"/>
-      <c r="L34" s="66"/>
+      <c r="F34" s="58"/>
+      <c r="G34" s="82"/>
+      <c r="H34" s="62"/>
+      <c r="I34" s="62"/>
+      <c r="J34" s="62"/>
+      <c r="K34" s="62"/>
+      <c r="L34" s="65"/>
       <c r="M34" s="21"/>
       <c r="N34" s="21"/>
       <c r="O34" s="21"/>
@@ -4580,36 +4674,36 @@
       <c r="R34" s="21"/>
       <c r="S34" s="21"/>
       <c r="T34" s="21"/>
-      <c r="U34" s="60"/>
-      <c r="V34" s="197"/>
-      <c r="W34" s="64" t="s">
+      <c r="U34" s="59"/>
+      <c r="V34" s="195"/>
+      <c r="W34" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="X34" s="46"/>
-      <c r="Y34" s="54"/>
-      <c r="Z34" s="45"/>
-      <c r="AA34" s="45"/>
-      <c r="AB34" s="45"/>
-      <c r="AC34" s="45"/>
-      <c r="AD34" s="46"/>
-      <c r="AE34" s="229"/>
-      <c r="AF34" s="64" t="s">
+      <c r="X34" s="45"/>
+      <c r="Y34" s="53"/>
+      <c r="Z34" s="44"/>
+      <c r="AA34" s="44"/>
+      <c r="AB34" s="44"/>
+      <c r="AC34" s="44"/>
+      <c r="AD34" s="45"/>
+      <c r="AE34" s="208"/>
+      <c r="AF34" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="AG34" s="66"/>
-      <c r="AH34" s="83"/>
-      <c r="AI34" s="63"/>
-      <c r="AJ34" s="63"/>
-      <c r="AK34" s="63"/>
-      <c r="AL34" s="63"/>
-      <c r="AM34" s="84"/>
+      <c r="AG34" s="65"/>
+      <c r="AH34" s="82"/>
+      <c r="AI34" s="62"/>
+      <c r="AJ34" s="62"/>
+      <c r="AK34" s="62"/>
+      <c r="AL34" s="62"/>
+      <c r="AM34" s="83"/>
     </row>
     <row r="35" spans="3:40" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C35" s="179"/>
+      <c r="C35" s="224"/>
       <c r="D35"/>
       <c r="E35"/>
-      <c r="U35" s="91"/>
-      <c r="V35" s="196" t="s">
+      <c r="U35" s="90"/>
+      <c r="V35" s="194" t="s">
         <v>28</v>
       </c>
       <c r="W35" s="29" t="s">
@@ -4630,10 +4724,10 @@
       <c r="AJ35" s="21"/>
       <c r="AK35" s="21"/>
       <c r="AL35" s="21"/>
-      <c r="AM35" s="92"/>
+      <c r="AM35" s="91"/>
     </row>
     <row r="36" spans="3:40" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C36" s="179"/>
+      <c r="C36" s="224"/>
       <c r="D36"/>
       <c r="E36"/>
       <c r="G36" s="21"/>
@@ -4646,18 +4740,18 @@
       <c r="N36" s="21"/>
       <c r="S36" s="21"/>
       <c r="T36" s="21"/>
-      <c r="U36" s="91"/>
-      <c r="V36" s="196"/>
-      <c r="W36" s="56" t="s">
+      <c r="U36" s="90"/>
+      <c r="V36" s="194"/>
+      <c r="W36" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="X36" s="60"/>
-      <c r="Y36" s="61"/>
-      <c r="Z36" s="62"/>
-      <c r="AA36" s="62"/>
-      <c r="AB36" s="62"/>
-      <c r="AC36" s="62"/>
-      <c r="AD36" s="60"/>
+      <c r="X36" s="59"/>
+      <c r="Y36" s="60"/>
+      <c r="Z36" s="61"/>
+      <c r="AA36" s="61"/>
+      <c r="AB36" s="61"/>
+      <c r="AC36" s="61"/>
+      <c r="AD36" s="59"/>
       <c r="AE36" s="21"/>
       <c r="AF36" s="21"/>
       <c r="AG36" s="21"/>
@@ -4666,10 +4760,10 @@
       <c r="AJ36" s="21"/>
       <c r="AK36" s="21"/>
       <c r="AL36" s="21"/>
-      <c r="AM36" s="92"/>
+      <c r="AM36" s="91"/>
     </row>
     <row r="37" spans="3:40" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C37" s="179"/>
+      <c r="C37" s="224"/>
       <c r="D37"/>
       <c r="E37"/>
       <c r="G37" s="21"/>
@@ -4686,18 +4780,18 @@
       <c r="R37" s="21"/>
       <c r="S37" s="21"/>
       <c r="T37" s="21"/>
-      <c r="U37" s="91"/>
-      <c r="V37" s="196"/>
-      <c r="W37" s="80" t="s">
+      <c r="U37" s="90"/>
+      <c r="V37" s="194"/>
+      <c r="W37" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="X37" s="38"/>
-      <c r="Y37" s="93"/>
-      <c r="Z37" s="41"/>
-      <c r="AA37" s="41"/>
-      <c r="AB37" s="41"/>
-      <c r="AC37" s="41"/>
-      <c r="AD37" s="38"/>
+      <c r="X37" s="37"/>
+      <c r="Y37" s="92"/>
+      <c r="Z37" s="40"/>
+      <c r="AA37" s="40"/>
+      <c r="AB37" s="40"/>
+      <c r="AC37" s="40"/>
+      <c r="AD37" s="37"/>
       <c r="AE37" s="21"/>
       <c r="AF37" s="21"/>
       <c r="AG37" s="21"/>
@@ -4706,10 +4800,10 @@
       <c r="AJ37" s="21"/>
       <c r="AK37" s="21"/>
       <c r="AL37" s="21"/>
-      <c r="AM37" s="92"/>
+      <c r="AM37" s="91"/>
     </row>
     <row r="38" spans="3:40" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C38" s="179"/>
+      <c r="C38" s="224"/>
       <c r="D38"/>
       <c r="E38"/>
       <c r="G38" s="21"/>
@@ -4726,18 +4820,18 @@
       <c r="R38" s="21"/>
       <c r="S38" s="21"/>
       <c r="T38" s="21"/>
-      <c r="U38" s="91"/>
-      <c r="V38" s="197"/>
-      <c r="W38" s="64" t="s">
+      <c r="U38" s="90"/>
+      <c r="V38" s="195"/>
+      <c r="W38" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="X38" s="53"/>
-      <c r="Y38" s="83"/>
-      <c r="Z38" s="63"/>
-      <c r="AA38" s="63"/>
-      <c r="AB38" s="63"/>
-      <c r="AC38" s="63"/>
-      <c r="AD38" s="46"/>
+      <c r="X38" s="52"/>
+      <c r="Y38" s="82"/>
+      <c r="Z38" s="62"/>
+      <c r="AA38" s="62"/>
+      <c r="AB38" s="62"/>
+      <c r="AC38" s="62"/>
+      <c r="AD38" s="45"/>
       <c r="AE38" s="21"/>
       <c r="AF38" s="21"/>
       <c r="AG38" s="21"/>
@@ -4746,10 +4840,10 @@
       <c r="AJ38" s="21"/>
       <c r="AK38" s="21"/>
       <c r="AL38" s="21"/>
-      <c r="AM38" s="92"/>
+      <c r="AM38" s="91"/>
     </row>
     <row r="39" spans="3:40" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C39" s="179"/>
+      <c r="C39" s="224"/>
       <c r="D39"/>
       <c r="E39"/>
       <c r="G39" s="21"/>
@@ -4766,19 +4860,19 @@
       <c r="R39" s="21"/>
       <c r="S39" s="21"/>
       <c r="T39" s="21"/>
-      <c r="U39" s="91"/>
-      <c r="V39" s="196" t="s">
+      <c r="U39" s="90"/>
+      <c r="V39" s="194" t="s">
         <v>29</v>
       </c>
-      <c r="W39" s="47" t="s">
+      <c r="W39" s="46" t="s">
         <v>12</v>
       </c>
       <c r="X39" s="26"/>
-      <c r="Y39" s="61"/>
-      <c r="Z39" s="62"/>
-      <c r="AA39" s="62"/>
-      <c r="AB39" s="62"/>
-      <c r="AC39" s="62"/>
+      <c r="Y39" s="60"/>
+      <c r="Z39" s="61"/>
+      <c r="AA39" s="61"/>
+      <c r="AB39" s="61"/>
+      <c r="AC39" s="61"/>
       <c r="AD39" s="35"/>
       <c r="AE39" s="21"/>
       <c r="AF39" s="21"/>
@@ -4788,12 +4882,12 @@
       <c r="AJ39" s="21"/>
       <c r="AK39" s="21"/>
       <c r="AL39" s="21"/>
-      <c r="AM39" s="92"/>
+      <c r="AM39" s="91"/>
     </row>
     <row r="40" spans="3:40" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C40" s="179"/>
+      <c r="C40" s="224"/>
       <c r="D40"/>
-      <c r="E40" s="94"/>
+      <c r="E40" s="93"/>
       <c r="F40" s="21"/>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
@@ -4809,18 +4903,18 @@
       <c r="R40" s="21"/>
       <c r="S40" s="21"/>
       <c r="T40" s="21"/>
-      <c r="U40" s="91"/>
-      <c r="V40" s="196"/>
-      <c r="W40" s="56" t="s">
+      <c r="U40" s="90"/>
+      <c r="V40" s="194"/>
+      <c r="W40" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="X40" s="60"/>
-      <c r="Y40" s="44"/>
-      <c r="Z40" s="41"/>
-      <c r="AA40" s="41"/>
-      <c r="AB40" s="41"/>
-      <c r="AC40" s="41"/>
-      <c r="AD40" s="53"/>
+      <c r="X40" s="59"/>
+      <c r="Y40" s="43"/>
+      <c r="Z40" s="40"/>
+      <c r="AA40" s="40"/>
+      <c r="AB40" s="40"/>
+      <c r="AC40" s="40"/>
+      <c r="AD40" s="52"/>
       <c r="AE40" s="21"/>
       <c r="AF40" s="21"/>
       <c r="AG40" s="21"/>
@@ -4829,12 +4923,12 @@
       <c r="AJ40" s="21"/>
       <c r="AK40" s="21"/>
       <c r="AL40" s="21"/>
-      <c r="AM40" s="92"/>
+      <c r="AM40" s="91"/>
     </row>
     <row r="41" spans="3:40" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C41" s="179"/>
+      <c r="C41" s="224"/>
       <c r="D41"/>
-      <c r="E41" s="94"/>
+      <c r="E41" s="93"/>
       <c r="F41" s="21"/>
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
@@ -4850,18 +4944,18 @@
       <c r="R41" s="21"/>
       <c r="S41" s="21"/>
       <c r="T41" s="21"/>
-      <c r="U41" s="91"/>
-      <c r="V41" s="196"/>
-      <c r="W41" s="56" t="s">
+      <c r="U41" s="90"/>
+      <c r="V41" s="194"/>
+      <c r="W41" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="X41" s="53"/>
-      <c r="Y41" s="39"/>
-      <c r="Z41" s="45"/>
-      <c r="AA41" s="45"/>
-      <c r="AB41" s="45"/>
-      <c r="AC41" s="45"/>
-      <c r="AD41" s="53"/>
+      <c r="X41" s="52"/>
+      <c r="Y41" s="38"/>
+      <c r="Z41" s="44"/>
+      <c r="AA41" s="44"/>
+      <c r="AB41" s="44"/>
+      <c r="AC41" s="44"/>
+      <c r="AD41" s="52"/>
       <c r="AE41" s="21"/>
       <c r="AF41" s="21"/>
       <c r="AG41" s="21"/>
@@ -4870,10 +4964,10 @@
       <c r="AJ41" s="21"/>
       <c r="AK41" s="21"/>
       <c r="AL41" s="21"/>
-      <c r="AM41" s="92"/>
+      <c r="AM41" s="91"/>
     </row>
     <row r="42" spans="3:40" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C42" s="179"/>
+      <c r="C42" s="224"/>
       <c r="D42"/>
       <c r="E42"/>
       <c r="M42" s="2"/>
@@ -4884,59 +4978,59 @@
       <c r="R42" s="2"/>
       <c r="S42" s="2"/>
       <c r="T42" s="2"/>
-      <c r="U42" s="95"/>
-      <c r="V42" s="196"/>
-      <c r="W42" s="64" t="s">
+      <c r="U42" s="94"/>
+      <c r="V42" s="194"/>
+      <c r="W42" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="X42" s="66"/>
-      <c r="Y42" s="83"/>
-      <c r="Z42" s="62"/>
-      <c r="AA42" s="62"/>
-      <c r="AB42" s="62"/>
-      <c r="AC42" s="62"/>
-      <c r="AD42" s="66"/>
-      <c r="AE42" s="96"/>
-      <c r="AF42" s="96"/>
+      <c r="X42" s="65"/>
+      <c r="Y42" s="82"/>
+      <c r="Z42" s="61"/>
+      <c r="AA42" s="61"/>
+      <c r="AB42" s="61"/>
+      <c r="AC42" s="61"/>
+      <c r="AD42" s="65"/>
+      <c r="AE42" s="95"/>
+      <c r="AF42" s="95"/>
       <c r="AG42" s="21"/>
-      <c r="AH42" s="96"/>
-      <c r="AI42" s="96"/>
-      <c r="AJ42" s="96"/>
-      <c r="AK42" s="96"/>
-      <c r="AL42" s="96"/>
-      <c r="AM42" s="97"/>
+      <c r="AH42" s="95"/>
+      <c r="AI42" s="95"/>
+      <c r="AJ42" s="95"/>
+      <c r="AK42" s="95"/>
+      <c r="AL42" s="95"/>
+      <c r="AM42" s="96"/>
     </row>
     <row r="43" spans="3:40" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C43" s="211" t="s">
+      <c r="C43" s="199" t="s">
         <v>30</v>
       </c>
-      <c r="D43" s="216" t="s">
+      <c r="D43" s="184" t="s">
         <v>31</v>
       </c>
-      <c r="E43" s="98" t="s">
+      <c r="E43" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="F43" s="99"/>
-      <c r="G43" s="100"/>
+      <c r="F43" s="98"/>
+      <c r="G43" s="99"/>
       <c r="H43" s="27"/>
       <c r="I43" s="27"/>
       <c r="J43" s="27"/>
       <c r="K43" s="27"/>
-      <c r="L43" s="68"/>
-      <c r="M43" s="219" t="s">
+      <c r="L43" s="67"/>
+      <c r="M43" s="204" t="s">
         <v>32</v>
       </c>
-      <c r="N43" s="101" t="s">
+      <c r="N43" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="O43" s="46"/>
+      <c r="O43" s="45"/>
       <c r="P43" s="22"/>
-      <c r="Q43" s="45"/>
-      <c r="R43" s="42"/>
-      <c r="S43" s="45"/>
-      <c r="T43" s="45"/>
-      <c r="U43" s="99"/>
-      <c r="V43" s="222" t="s">
+      <c r="Q43" s="44"/>
+      <c r="R43" s="41"/>
+      <c r="S43" s="44"/>
+      <c r="T43" s="44"/>
+      <c r="U43" s="98"/>
+      <c r="V43" s="178" t="s">
         <v>33</v>
       </c>
       <c r="W43" s="29" t="s">
@@ -4949,168 +5043,168 @@
       <c r="AB43" s="24"/>
       <c r="AC43" s="24"/>
       <c r="AD43" s="28"/>
-      <c r="AE43" s="225" t="s">
+      <c r="AE43" s="181" t="s">
         <v>34</v>
       </c>
-      <c r="AF43" s="102" t="s">
+      <c r="AF43" s="101" t="s">
         <v>12</v>
       </c>
       <c r="AG43" s="26"/>
-      <c r="AH43" s="103"/>
-      <c r="AI43" s="45"/>
-      <c r="AJ43" s="45"/>
-      <c r="AK43" s="45"/>
-      <c r="AL43" s="45"/>
-      <c r="AM43" s="42"/>
-      <c r="AN43" s="104"/>
+      <c r="AH43" s="102"/>
+      <c r="AI43" s="44"/>
+      <c r="AJ43" s="44"/>
+      <c r="AK43" s="44"/>
+      <c r="AL43" s="44"/>
+      <c r="AM43" s="41"/>
+      <c r="AN43" s="103"/>
     </row>
     <row r="44" spans="3:40" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C44" s="212"/>
-      <c r="D44" s="217"/>
-      <c r="E44" s="37" t="s">
+      <c r="C44" s="200"/>
+      <c r="D44" s="185"/>
+      <c r="E44" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="F44" s="105"/>
-      <c r="G44" s="39"/>
-      <c r="H44" s="41"/>
-      <c r="I44" s="41"/>
-      <c r="J44" s="41"/>
-      <c r="K44" s="41"/>
-      <c r="L44" s="40"/>
-      <c r="M44" s="220"/>
-      <c r="N44" s="90" t="s">
+      <c r="F44" s="104"/>
+      <c r="G44" s="38"/>
+      <c r="H44" s="40"/>
+      <c r="I44" s="40"/>
+      <c r="J44" s="40"/>
+      <c r="K44" s="40"/>
+      <c r="L44" s="39"/>
+      <c r="M44" s="205"/>
+      <c r="N44" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="O44" s="46"/>
-      <c r="P44" s="42"/>
-      <c r="Q44" s="45"/>
-      <c r="R44" s="42"/>
-      <c r="S44" s="45"/>
-      <c r="T44" s="45"/>
-      <c r="U44" s="53"/>
-      <c r="V44" s="223"/>
-      <c r="W44" s="56" t="s">
+      <c r="O44" s="45"/>
+      <c r="P44" s="41"/>
+      <c r="Q44" s="44"/>
+      <c r="R44" s="41"/>
+      <c r="S44" s="44"/>
+      <c r="T44" s="44"/>
+      <c r="U44" s="52"/>
+      <c r="V44" s="179"/>
+      <c r="W44" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="X44" s="38"/>
-      <c r="Y44" s="54"/>
-      <c r="Z44" s="45"/>
-      <c r="AA44" s="45"/>
-      <c r="AB44" s="45"/>
-      <c r="AC44" s="45"/>
-      <c r="AD44" s="46"/>
-      <c r="AE44" s="226"/>
-      <c r="AF44" s="106" t="s">
+      <c r="X44" s="37"/>
+      <c r="Y44" s="53"/>
+      <c r="Z44" s="44"/>
+      <c r="AA44" s="44"/>
+      <c r="AB44" s="44"/>
+      <c r="AC44" s="44"/>
+      <c r="AD44" s="45"/>
+      <c r="AE44" s="182"/>
+      <c r="AF44" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="AG44" s="107"/>
-      <c r="AH44" s="39"/>
-      <c r="AI44" s="45"/>
-      <c r="AJ44" s="45"/>
-      <c r="AK44" s="45"/>
-      <c r="AL44" s="45"/>
-      <c r="AM44" s="55"/>
+      <c r="AG44" s="106"/>
+      <c r="AH44" s="38"/>
+      <c r="AI44" s="44"/>
+      <c r="AJ44" s="44"/>
+      <c r="AK44" s="44"/>
+      <c r="AL44" s="44"/>
+      <c r="AM44" s="54"/>
     </row>
     <row r="45" spans="3:40" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C45" s="212"/>
-      <c r="D45" s="217"/>
-      <c r="E45" s="43" t="s">
+      <c r="C45" s="200"/>
+      <c r="D45" s="185"/>
+      <c r="E45" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="F45" s="38"/>
-      <c r="G45" s="54"/>
-      <c r="H45" s="45"/>
-      <c r="I45" s="45"/>
-      <c r="J45" s="45"/>
-      <c r="K45" s="45"/>
-      <c r="L45" s="42"/>
-      <c r="M45" s="220"/>
-      <c r="N45" s="43" t="s">
+      <c r="F45" s="37"/>
+      <c r="G45" s="53"/>
+      <c r="H45" s="44"/>
+      <c r="I45" s="44"/>
+      <c r="J45" s="44"/>
+      <c r="K45" s="44"/>
+      <c r="L45" s="41"/>
+      <c r="M45" s="205"/>
+      <c r="N45" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="O45" s="46"/>
-      <c r="P45" s="42"/>
-      <c r="Q45" s="45"/>
-      <c r="R45" s="42"/>
-      <c r="S45" s="45"/>
-      <c r="T45" s="45"/>
-      <c r="U45" s="53"/>
-      <c r="V45" s="223"/>
-      <c r="W45" s="56" t="s">
+      <c r="O45" s="45"/>
+      <c r="P45" s="41"/>
+      <c r="Q45" s="44"/>
+      <c r="R45" s="41"/>
+      <c r="S45" s="44"/>
+      <c r="T45" s="44"/>
+      <c r="U45" s="52"/>
+      <c r="V45" s="179"/>
+      <c r="W45" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="X45" s="38"/>
-      <c r="Y45" s="54"/>
-      <c r="Z45" s="45"/>
-      <c r="AA45" s="45"/>
-      <c r="AB45" s="45"/>
-      <c r="AC45" s="45"/>
-      <c r="AD45" s="46"/>
-      <c r="AE45" s="226"/>
-      <c r="AF45" s="106" t="s">
+      <c r="X45" s="37"/>
+      <c r="Y45" s="53"/>
+      <c r="Z45" s="44"/>
+      <c r="AA45" s="44"/>
+      <c r="AB45" s="44"/>
+      <c r="AC45" s="44"/>
+      <c r="AD45" s="45"/>
+      <c r="AE45" s="182"/>
+      <c r="AF45" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="AG45" s="38"/>
-      <c r="AH45" s="108"/>
-      <c r="AI45" s="41"/>
-      <c r="AJ45" s="41"/>
-      <c r="AK45" s="41"/>
-      <c r="AL45" s="41"/>
-      <c r="AM45" s="109"/>
+      <c r="AG45" s="37"/>
+      <c r="AH45" s="107"/>
+      <c r="AI45" s="40"/>
+      <c r="AJ45" s="40"/>
+      <c r="AK45" s="40"/>
+      <c r="AL45" s="40"/>
+      <c r="AM45" s="108"/>
     </row>
     <row r="46" spans="3:40" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C46" s="212"/>
-      <c r="D46" s="218"/>
-      <c r="E46" s="110" t="s">
+      <c r="C46" s="200"/>
+      <c r="D46" s="186"/>
+      <c r="E46" s="109" t="s">
         <v>18</v>
       </c>
-      <c r="F46" s="81"/>
-      <c r="G46" s="61"/>
-      <c r="H46" s="62"/>
-      <c r="I46" s="62"/>
-      <c r="J46" s="62"/>
-      <c r="K46" s="62"/>
+      <c r="F46" s="80"/>
+      <c r="G46" s="60"/>
+      <c r="H46" s="61"/>
+      <c r="I46" s="61"/>
+      <c r="J46" s="61"/>
+      <c r="K46" s="61"/>
       <c r="L46" s="21"/>
-      <c r="M46" s="221"/>
-      <c r="N46" s="90" t="s">
+      <c r="M46" s="206"/>
+      <c r="N46" s="89" t="s">
         <v>18</v>
       </c>
-      <c r="O46" s="46"/>
-      <c r="P46" s="42"/>
-      <c r="Q46" s="45"/>
-      <c r="R46" s="42"/>
-      <c r="S46" s="45"/>
-      <c r="T46" s="45"/>
-      <c r="U46" s="66"/>
-      <c r="V46" s="224"/>
-      <c r="W46" s="47" t="s">
+      <c r="O46" s="45"/>
+      <c r="P46" s="41"/>
+      <c r="Q46" s="44"/>
+      <c r="R46" s="41"/>
+      <c r="S46" s="44"/>
+      <c r="T46" s="44"/>
+      <c r="U46" s="65"/>
+      <c r="V46" s="180"/>
+      <c r="W46" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="X46" s="46"/>
-      <c r="Y46" s="54"/>
-      <c r="Z46" s="45"/>
-      <c r="AA46" s="45"/>
-      <c r="AB46" s="45"/>
-      <c r="AC46" s="45"/>
-      <c r="AD46" s="46"/>
-      <c r="AE46" s="227"/>
-      <c r="AF46" s="111" t="s">
+      <c r="X46" s="45"/>
+      <c r="Y46" s="53"/>
+      <c r="Z46" s="44"/>
+      <c r="AA46" s="44"/>
+      <c r="AB46" s="44"/>
+      <c r="AC46" s="44"/>
+      <c r="AD46" s="45"/>
+      <c r="AE46" s="183"/>
+      <c r="AF46" s="110" t="s">
         <v>18</v>
       </c>
-      <c r="AG46" s="81"/>
-      <c r="AH46" s="83"/>
-      <c r="AI46" s="45"/>
-      <c r="AJ46" s="45"/>
-      <c r="AK46" s="45"/>
-      <c r="AL46" s="45"/>
-      <c r="AM46" s="55"/>
+      <c r="AG46" s="80"/>
+      <c r="AH46" s="82"/>
+      <c r="AI46" s="44"/>
+      <c r="AJ46" s="44"/>
+      <c r="AK46" s="44"/>
+      <c r="AL46" s="44"/>
+      <c r="AM46" s="54"/>
     </row>
     <row r="47" spans="3:40" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C47" s="213"/>
-      <c r="D47" s="216" t="s">
+      <c r="C47" s="201"/>
+      <c r="D47" s="184" t="s">
         <v>35</v>
       </c>
-      <c r="E47" s="112" t="s">
+      <c r="E47" s="111" t="s">
         <v>12</v>
       </c>
       <c r="F47" s="35"/>
@@ -5120,7 +5214,7 @@
       <c r="J47" s="24"/>
       <c r="K47" s="24"/>
       <c r="L47" s="28"/>
-      <c r="M47" s="230" t="s">
+      <c r="M47" s="209" t="s">
         <v>36</v>
       </c>
       <c r="N47" s="20" t="s">
@@ -5133,10 +5227,10 @@
       <c r="S47" s="24"/>
       <c r="T47" s="24"/>
       <c r="U47" s="26"/>
-      <c r="V47" s="222" t="s">
+      <c r="V47" s="178" t="s">
         <v>37</v>
       </c>
-      <c r="W47" s="113" t="s">
+      <c r="W47" s="112" t="s">
         <v>12</v>
       </c>
       <c r="X47" s="26"/>
@@ -5146,369 +5240,369 @@
       <c r="AB47" s="24"/>
       <c r="AC47" s="24"/>
       <c r="AD47" s="28"/>
-      <c r="AE47" s="225" t="s">
+      <c r="AE47" s="181" t="s">
         <v>38</v>
       </c>
-      <c r="AF47" s="102" t="s">
+      <c r="AF47" s="101" t="s">
         <v>12</v>
       </c>
       <c r="AG47" s="26"/>
-      <c r="AH47" s="22"/>
-      <c r="AI47" s="24"/>
-      <c r="AJ47" s="24"/>
-      <c r="AK47" s="24"/>
-      <c r="AL47" s="24"/>
-      <c r="AM47" s="36"/>
+      <c r="AH47" s="241"/>
+      <c r="AI47" s="242"/>
+      <c r="AJ47" s="242"/>
+      <c r="AK47" s="242"/>
+      <c r="AL47" s="242"/>
+      <c r="AM47" s="243"/>
     </row>
     <row r="48" spans="3:40" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C48" s="213"/>
-      <c r="D48" s="217"/>
-      <c r="E48" s="43" t="s">
+      <c r="C48" s="201"/>
+      <c r="D48" s="185"/>
+      <c r="E48" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="F48" s="38"/>
-      <c r="G48" s="54"/>
-      <c r="H48" s="45"/>
-      <c r="I48" s="45"/>
-      <c r="J48" s="45"/>
-      <c r="K48" s="45"/>
-      <c r="L48" s="46"/>
-      <c r="M48" s="231"/>
-      <c r="N48" s="101" t="s">
+      <c r="F48" s="37"/>
+      <c r="G48" s="53"/>
+      <c r="H48" s="44"/>
+      <c r="I48" s="44"/>
+      <c r="J48" s="44"/>
+      <c r="K48" s="44"/>
+      <c r="L48" s="45"/>
+      <c r="M48" s="210"/>
+      <c r="N48" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="O48" s="38"/>
-      <c r="P48" s="39"/>
-      <c r="Q48" s="41"/>
-      <c r="R48" s="41"/>
-      <c r="S48" s="41"/>
-      <c r="T48" s="41"/>
-      <c r="U48" s="38"/>
-      <c r="V48" s="223"/>
-      <c r="W48" s="114" t="s">
+      <c r="O48" s="37"/>
+      <c r="P48" s="38"/>
+      <c r="Q48" s="40"/>
+      <c r="R48" s="40"/>
+      <c r="S48" s="40"/>
+      <c r="T48" s="40"/>
+      <c r="U48" s="37"/>
+      <c r="V48" s="179"/>
+      <c r="W48" s="113" t="s">
         <v>16</v>
       </c>
-      <c r="X48" s="60"/>
-      <c r="Y48" s="39"/>
-      <c r="Z48" s="41"/>
-      <c r="AA48" s="41"/>
-      <c r="AB48" s="41"/>
-      <c r="AC48" s="41"/>
-      <c r="AD48" s="87"/>
-      <c r="AE48" s="226"/>
-      <c r="AF48" s="106" t="s">
+      <c r="X48" s="59"/>
+      <c r="Y48" s="38"/>
+      <c r="Z48" s="40"/>
+      <c r="AA48" s="40"/>
+      <c r="AB48" s="40"/>
+      <c r="AC48" s="40"/>
+      <c r="AD48" s="86"/>
+      <c r="AE48" s="182"/>
+      <c r="AF48" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="AG48" s="38"/>
-      <c r="AH48" s="108"/>
-      <c r="AI48" s="62"/>
-      <c r="AJ48" s="62"/>
-      <c r="AK48" s="62"/>
-      <c r="AL48" s="62"/>
-      <c r="AM48" s="92"/>
+      <c r="AG48" s="37"/>
+      <c r="AH48" s="257"/>
+      <c r="AI48" s="258"/>
+      <c r="AJ48" s="258"/>
+      <c r="AK48" s="258"/>
+      <c r="AL48" s="258"/>
+      <c r="AM48" s="259"/>
     </row>
     <row r="49" spans="3:40" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C49" s="213"/>
-      <c r="D49" s="217"/>
-      <c r="E49" s="43" t="s">
+      <c r="C49" s="201"/>
+      <c r="D49" s="185"/>
+      <c r="E49" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="F49" s="53"/>
-      <c r="G49" s="61"/>
-      <c r="H49" s="41"/>
-      <c r="I49" s="41"/>
-      <c r="J49" s="41"/>
-      <c r="K49" s="41"/>
-      <c r="L49" s="87"/>
-      <c r="M49" s="231"/>
-      <c r="N49" s="101" t="s">
+      <c r="F49" s="52"/>
+      <c r="G49" s="60"/>
+      <c r="H49" s="40"/>
+      <c r="I49" s="40"/>
+      <c r="J49" s="40"/>
+      <c r="K49" s="40"/>
+      <c r="L49" s="86"/>
+      <c r="M49" s="210"/>
+      <c r="N49" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="O49" s="38"/>
-      <c r="P49" s="39"/>
-      <c r="Q49" s="41"/>
-      <c r="R49" s="41"/>
-      <c r="S49" s="41"/>
-      <c r="T49" s="41"/>
-      <c r="U49" s="38"/>
-      <c r="V49" s="223"/>
-      <c r="W49" s="114" t="s">
+      <c r="O49" s="37"/>
+      <c r="P49" s="38"/>
+      <c r="Q49" s="40"/>
+      <c r="R49" s="40"/>
+      <c r="S49" s="40"/>
+      <c r="T49" s="40"/>
+      <c r="U49" s="37"/>
+      <c r="V49" s="179"/>
+      <c r="W49" s="113" t="s">
         <v>17</v>
       </c>
-      <c r="X49" s="38"/>
-      <c r="Y49" s="39"/>
-      <c r="Z49" s="41"/>
-      <c r="AA49" s="41"/>
-      <c r="AB49" s="41"/>
-      <c r="AC49" s="41"/>
-      <c r="AD49" s="87"/>
-      <c r="AE49" s="226"/>
-      <c r="AF49" s="106" t="s">
+      <c r="X49" s="37"/>
+      <c r="Y49" s="38"/>
+      <c r="Z49" s="40"/>
+      <c r="AA49" s="40"/>
+      <c r="AB49" s="40"/>
+      <c r="AC49" s="40"/>
+      <c r="AD49" s="86"/>
+      <c r="AE49" s="182"/>
+      <c r="AF49" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="AG49" s="115"/>
-      <c r="AH49" s="41"/>
-      <c r="AI49" s="41"/>
-      <c r="AJ49" s="41"/>
-      <c r="AK49" s="41"/>
-      <c r="AL49" s="41"/>
-      <c r="AM49" s="116"/>
-      <c r="AN49" s="104"/>
+      <c r="AG49" s="114"/>
+      <c r="AH49" s="253"/>
+      <c r="AI49" s="253"/>
+      <c r="AJ49" s="253"/>
+      <c r="AK49" s="253"/>
+      <c r="AL49" s="253"/>
+      <c r="AM49" s="260"/>
+      <c r="AN49" s="103"/>
     </row>
     <row r="50" spans="3:40" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C50" s="213"/>
-      <c r="D50" s="218"/>
-      <c r="E50" s="72" t="s">
+      <c r="C50" s="201"/>
+      <c r="D50" s="186"/>
+      <c r="E50" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="F50" s="66"/>
-      <c r="G50" s="83"/>
-      <c r="H50" s="45"/>
-      <c r="I50" s="45"/>
-      <c r="J50" s="45"/>
-      <c r="K50" s="45"/>
-      <c r="L50" s="46"/>
-      <c r="M50" s="232"/>
-      <c r="N50" s="58" t="s">
+      <c r="F50" s="65"/>
+      <c r="G50" s="82"/>
+      <c r="H50" s="44"/>
+      <c r="I50" s="44"/>
+      <c r="J50" s="44"/>
+      <c r="K50" s="44"/>
+      <c r="L50" s="45"/>
+      <c r="M50" s="211"/>
+      <c r="N50" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="O50" s="66"/>
-      <c r="P50" s="61"/>
-      <c r="Q50" s="63"/>
-      <c r="R50" s="63"/>
-      <c r="S50" s="63"/>
-      <c r="T50" s="62"/>
-      <c r="U50" s="107"/>
-      <c r="V50" s="224"/>
-      <c r="W50" s="117" t="s">
+      <c r="O50" s="65"/>
+      <c r="P50" s="60"/>
+      <c r="Q50" s="62"/>
+      <c r="R50" s="62"/>
+      <c r="S50" s="62"/>
+      <c r="T50" s="61"/>
+      <c r="U50" s="106"/>
+      <c r="V50" s="180"/>
+      <c r="W50" s="115" t="s">
         <v>18</v>
       </c>
-      <c r="X50" s="46"/>
-      <c r="Y50" s="54"/>
-      <c r="Z50" s="45"/>
-      <c r="AA50" s="45"/>
-      <c r="AB50" s="45"/>
-      <c r="AC50" s="45"/>
-      <c r="AD50" s="46"/>
-      <c r="AE50" s="227"/>
-      <c r="AF50" s="118" t="s">
+      <c r="X50" s="45"/>
+      <c r="Y50" s="53"/>
+      <c r="Z50" s="44"/>
+      <c r="AA50" s="44"/>
+      <c r="AB50" s="44"/>
+      <c r="AC50" s="44"/>
+      <c r="AD50" s="45"/>
+      <c r="AE50" s="183"/>
+      <c r="AF50" s="116" t="s">
         <v>18</v>
       </c>
-      <c r="AG50" s="66"/>
-      <c r="AH50" s="119"/>
-      <c r="AI50" s="45"/>
-      <c r="AJ50" s="45"/>
-      <c r="AK50" s="45"/>
-      <c r="AL50" s="45"/>
-      <c r="AM50" s="55"/>
+      <c r="AG50" s="65"/>
+      <c r="AH50" s="261"/>
+      <c r="AI50" s="245"/>
+      <c r="AJ50" s="245"/>
+      <c r="AK50" s="245"/>
+      <c r="AL50" s="245"/>
+      <c r="AM50" s="246"/>
     </row>
     <row r="51" spans="3:40" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C51" s="213"/>
-      <c r="D51" s="216" t="s">
+      <c r="C51" s="201"/>
+      <c r="D51" s="184" t="s">
         <v>39</v>
       </c>
-      <c r="E51" s="120" t="s">
+      <c r="E51" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="F51" s="99"/>
-      <c r="G51" s="22"/>
-      <c r="H51" s="24"/>
-      <c r="I51" s="24"/>
-      <c r="J51" s="24"/>
-      <c r="K51" s="24"/>
-      <c r="L51" s="28"/>
-      <c r="M51" s="233" t="s">
+      <c r="F51" s="98"/>
+      <c r="G51" s="241"/>
+      <c r="H51" s="242"/>
+      <c r="I51" s="242"/>
+      <c r="J51" s="242"/>
+      <c r="K51" s="242"/>
+      <c r="L51" s="252"/>
+      <c r="M51" s="187" t="s">
         <v>40</v>
       </c>
-      <c r="N51" s="101" t="s">
+      <c r="N51" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="O51" s="46"/>
+      <c r="O51" s="45"/>
       <c r="P51" s="22"/>
-      <c r="Q51" s="45"/>
-      <c r="R51" s="45"/>
-      <c r="S51" s="45"/>
+      <c r="Q51" s="44"/>
+      <c r="R51" s="44"/>
+      <c r="S51" s="44"/>
       <c r="T51" s="27"/>
       <c r="U51" s="26"/>
-      <c r="V51" s="222" t="s">
+      <c r="V51" s="178" t="s">
         <v>41</v>
       </c>
-      <c r="W51" s="113" t="s">
+      <c r="W51" s="112" t="s">
         <v>12</v>
       </c>
       <c r="X51" s="35"/>
-      <c r="Y51" s="22"/>
-      <c r="Z51" s="24"/>
-      <c r="AA51" s="24"/>
-      <c r="AB51" s="24"/>
-      <c r="AC51" s="24"/>
-      <c r="AD51" s="28"/>
-      <c r="AE51" s="225" t="s">
+      <c r="Y51" s="241"/>
+      <c r="Z51" s="242"/>
+      <c r="AA51" s="242"/>
+      <c r="AB51" s="242"/>
+      <c r="AC51" s="242"/>
+      <c r="AD51" s="252"/>
+      <c r="AE51" s="181" t="s">
         <v>42</v>
       </c>
-      <c r="AF51" s="102" t="s">
+      <c r="AF51" s="101" t="s">
         <v>12</v>
       </c>
       <c r="AG51" s="26"/>
       <c r="AH51" s="22"/>
-      <c r="AI51" s="121"/>
-      <c r="AJ51" s="121"/>
-      <c r="AK51" s="121"/>
-      <c r="AL51" s="121"/>
-      <c r="AM51" s="122"/>
+      <c r="AI51" s="118"/>
+      <c r="AJ51" s="118"/>
+      <c r="AK51" s="118"/>
+      <c r="AL51" s="118"/>
+      <c r="AM51" s="119"/>
     </row>
     <row r="52" spans="3:40" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C52" s="213"/>
-      <c r="D52" s="217"/>
-      <c r="E52" s="43" t="s">
+      <c r="C52" s="201"/>
+      <c r="D52" s="185"/>
+      <c r="E52" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="F52" s="38"/>
-      <c r="G52" s="39"/>
-      <c r="H52" s="41"/>
-      <c r="I52" s="41"/>
-      <c r="J52" s="41"/>
-      <c r="K52" s="41"/>
-      <c r="L52" s="87"/>
-      <c r="M52" s="234"/>
-      <c r="N52" s="90" t="s">
+      <c r="F52" s="37"/>
+      <c r="G52" s="248"/>
+      <c r="H52" s="253"/>
+      <c r="I52" s="253"/>
+      <c r="J52" s="253"/>
+      <c r="K52" s="253"/>
+      <c r="L52" s="254"/>
+      <c r="M52" s="188"/>
+      <c r="N52" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="O52" s="46"/>
-      <c r="P52" s="54"/>
-      <c r="Q52" s="45"/>
-      <c r="R52" s="45"/>
-      <c r="S52" s="45"/>
-      <c r="T52" s="41"/>
-      <c r="U52" s="38"/>
-      <c r="V52" s="223"/>
-      <c r="W52" s="114" t="s">
+      <c r="O52" s="45"/>
+      <c r="P52" s="53"/>
+      <c r="Q52" s="44"/>
+      <c r="R52" s="44"/>
+      <c r="S52" s="44"/>
+      <c r="T52" s="40"/>
+      <c r="U52" s="37"/>
+      <c r="V52" s="179"/>
+      <c r="W52" s="113" t="s">
         <v>16</v>
       </c>
-      <c r="X52" s="38"/>
-      <c r="Y52" s="54"/>
-      <c r="Z52" s="45"/>
-      <c r="AA52" s="45"/>
-      <c r="AB52" s="45"/>
-      <c r="AC52" s="45"/>
-      <c r="AD52" s="46"/>
-      <c r="AE52" s="226"/>
-      <c r="AF52" s="106" t="s">
+      <c r="X52" s="37"/>
+      <c r="Y52" s="244"/>
+      <c r="Z52" s="245"/>
+      <c r="AA52" s="245"/>
+      <c r="AB52" s="245"/>
+      <c r="AC52" s="245"/>
+      <c r="AD52" s="256"/>
+      <c r="AE52" s="182"/>
+      <c r="AF52" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="AG52" s="81"/>
-      <c r="AH52" s="108"/>
-      <c r="AI52" s="41"/>
-      <c r="AJ52" s="93"/>
-      <c r="AK52" s="93"/>
-      <c r="AL52" s="93"/>
-      <c r="AM52" s="123"/>
+      <c r="AG52" s="80"/>
+      <c r="AH52" s="107"/>
+      <c r="AI52" s="40"/>
+      <c r="AJ52" s="92"/>
+      <c r="AK52" s="92"/>
+      <c r="AL52" s="92"/>
+      <c r="AM52" s="120"/>
     </row>
     <row r="53" spans="3:40" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C53" s="213"/>
-      <c r="D53" s="217"/>
-      <c r="E53" s="124" t="s">
+      <c r="C53" s="201"/>
+      <c r="D53" s="185"/>
+      <c r="E53" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="F53" s="107"/>
-      <c r="G53" s="61"/>
-      <c r="H53" s="41"/>
-      <c r="I53" s="41"/>
-      <c r="J53" s="41"/>
-      <c r="K53" s="41"/>
-      <c r="L53" s="87"/>
-      <c r="M53" s="234"/>
-      <c r="N53" s="43" t="s">
+      <c r="F53" s="106"/>
+      <c r="G53" s="247"/>
+      <c r="H53" s="253"/>
+      <c r="I53" s="253"/>
+      <c r="J53" s="253"/>
+      <c r="K53" s="253"/>
+      <c r="L53" s="254"/>
+      <c r="M53" s="188"/>
+      <c r="N53" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="O53" s="46"/>
-      <c r="P53" s="39"/>
-      <c r="Q53" s="45"/>
-      <c r="R53" s="45"/>
-      <c r="S53" s="45"/>
-      <c r="T53" s="62"/>
-      <c r="U53" s="107"/>
-      <c r="V53" s="223"/>
-      <c r="W53" s="114" t="s">
+      <c r="O53" s="45"/>
+      <c r="P53" s="38"/>
+      <c r="Q53" s="44"/>
+      <c r="R53" s="44"/>
+      <c r="S53" s="44"/>
+      <c r="T53" s="61"/>
+      <c r="U53" s="106"/>
+      <c r="V53" s="179"/>
+      <c r="W53" s="113" t="s">
         <v>17</v>
       </c>
-      <c r="X53" s="60"/>
-      <c r="Y53" s="54"/>
-      <c r="Z53" s="45"/>
-      <c r="AA53" s="45"/>
-      <c r="AB53" s="45"/>
-      <c r="AC53" s="45"/>
-      <c r="AD53" s="46"/>
-      <c r="AE53" s="226"/>
-      <c r="AF53" s="106" t="s">
+      <c r="X53" s="59"/>
+      <c r="Y53" s="244"/>
+      <c r="Z53" s="245"/>
+      <c r="AA53" s="245"/>
+      <c r="AB53" s="245"/>
+      <c r="AC53" s="245"/>
+      <c r="AD53" s="256"/>
+      <c r="AE53" s="182"/>
+      <c r="AF53" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="AG53" s="81"/>
-      <c r="AH53" s="39"/>
-      <c r="AI53" s="108"/>
-      <c r="AJ53" s="108"/>
-      <c r="AK53" s="108"/>
-      <c r="AL53" s="108"/>
-      <c r="AM53" s="86"/>
+      <c r="AG53" s="80"/>
+      <c r="AH53" s="38"/>
+      <c r="AI53" s="107"/>
+      <c r="AJ53" s="107"/>
+      <c r="AK53" s="107"/>
+      <c r="AL53" s="107"/>
+      <c r="AM53" s="85"/>
     </row>
     <row r="54" spans="3:40" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C54" s="213"/>
-      <c r="D54" s="218"/>
-      <c r="E54" s="58" t="s">
+      <c r="C54" s="201"/>
+      <c r="D54" s="186"/>
+      <c r="E54" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="F54" s="66"/>
-      <c r="G54" s="83"/>
-      <c r="H54" s="63"/>
-      <c r="I54" s="63"/>
-      <c r="J54" s="63"/>
-      <c r="K54" s="63"/>
-      <c r="L54" s="125"/>
-      <c r="M54" s="235"/>
-      <c r="N54" s="72" t="s">
+      <c r="F54" s="65"/>
+      <c r="G54" s="249"/>
+      <c r="H54" s="250"/>
+      <c r="I54" s="250"/>
+      <c r="J54" s="250"/>
+      <c r="K54" s="250"/>
+      <c r="L54" s="255"/>
+      <c r="M54" s="189"/>
+      <c r="N54" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="O54" s="60"/>
-      <c r="P54" s="61"/>
-      <c r="Q54" s="63"/>
-      <c r="R54" s="63"/>
-      <c r="S54" s="62"/>
-      <c r="T54" s="63"/>
-      <c r="U54" s="66"/>
-      <c r="V54" s="224"/>
-      <c r="W54" s="126" t="s">
+      <c r="O54" s="59"/>
+      <c r="P54" s="60"/>
+      <c r="Q54" s="62"/>
+      <c r="R54" s="62"/>
+      <c r="S54" s="61"/>
+      <c r="T54" s="62"/>
+      <c r="U54" s="65"/>
+      <c r="V54" s="180"/>
+      <c r="W54" s="122" t="s">
         <v>18</v>
       </c>
-      <c r="X54" s="66"/>
-      <c r="Y54" s="54"/>
-      <c r="Z54" s="45"/>
-      <c r="AA54" s="45"/>
-      <c r="AB54" s="45"/>
-      <c r="AC54" s="45"/>
-      <c r="AD54" s="46"/>
-      <c r="AE54" s="227"/>
-      <c r="AF54" s="118" t="s">
+      <c r="X54" s="65"/>
+      <c r="Y54" s="244"/>
+      <c r="Z54" s="245"/>
+      <c r="AA54" s="245"/>
+      <c r="AB54" s="245"/>
+      <c r="AC54" s="245"/>
+      <c r="AD54" s="256"/>
+      <c r="AE54" s="183"/>
+      <c r="AF54" s="116" t="s">
         <v>18</v>
       </c>
-      <c r="AG54" s="127"/>
-      <c r="AH54" s="83"/>
-      <c r="AI54" s="63"/>
-      <c r="AJ54" s="63"/>
-      <c r="AK54" s="63"/>
-      <c r="AL54" s="128"/>
-      <c r="AM54" s="84"/>
+      <c r="AG54" s="123"/>
+      <c r="AH54" s="82"/>
+      <c r="AI54" s="62"/>
+      <c r="AJ54" s="62"/>
+      <c r="AK54" s="62"/>
+      <c r="AL54" s="124"/>
+      <c r="AM54" s="83"/>
     </row>
     <row r="55" spans="3:40" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C55" s="213"/>
-      <c r="D55" s="129"/>
-      <c r="O55" s="130"/>
-      <c r="P55" s="130"/>
-      <c r="S55" s="130"/>
-      <c r="U55" s="91"/>
-      <c r="V55" s="222" t="s">
+      <c r="C55" s="201"/>
+      <c r="D55" s="125"/>
+      <c r="O55" s="126"/>
+      <c r="P55" s="126"/>
+      <c r="S55" s="126"/>
+      <c r="U55" s="90"/>
+      <c r="V55" s="178" t="s">
         <v>43</v>
       </c>
-      <c r="W55" s="113" t="s">
+      <c r="W55" s="112" t="s">
         <v>12</v>
       </c>
       <c r="X55" s="35"/>
@@ -5518,18 +5612,18 @@
       <c r="AB55" s="24"/>
       <c r="AC55" s="24"/>
       <c r="AD55" s="28"/>
-      <c r="AF55" s="131"/>
-      <c r="AG55" s="132"/>
-      <c r="AH55" s="133"/>
-      <c r="AI55" s="133"/>
-      <c r="AJ55" s="133"/>
-      <c r="AK55" s="133"/>
-      <c r="AL55" s="132"/>
-      <c r="AM55" s="134"/>
+      <c r="AF55" s="127"/>
+      <c r="AG55" s="128"/>
+      <c r="AH55" s="129"/>
+      <c r="AI55" s="129"/>
+      <c r="AJ55" s="129"/>
+      <c r="AK55" s="129"/>
+      <c r="AL55" s="128"/>
+      <c r="AM55" s="130"/>
     </row>
     <row r="56" spans="3:40" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C56" s="214"/>
-      <c r="D56" s="135"/>
+      <c r="C56" s="202"/>
+      <c r="D56" s="131"/>
       <c r="F56" s="21"/>
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
@@ -5537,36 +5631,36 @@
       <c r="J56" s="21"/>
       <c r="K56" s="21"/>
       <c r="L56" s="21"/>
-      <c r="O56" s="133"/>
-      <c r="P56" s="133"/>
-      <c r="Q56" s="133"/>
-      <c r="R56" s="133"/>
-      <c r="S56" s="133"/>
-      <c r="T56" s="133"/>
-      <c r="U56" s="136"/>
-      <c r="V56" s="223"/>
-      <c r="W56" s="114" t="s">
+      <c r="O56" s="129"/>
+      <c r="P56" s="129"/>
+      <c r="Q56" s="129"/>
+      <c r="R56" s="129"/>
+      <c r="S56" s="129"/>
+      <c r="T56" s="129"/>
+      <c r="U56" s="132"/>
+      <c r="V56" s="179"/>
+      <c r="W56" s="113" t="s">
         <v>16</v>
       </c>
-      <c r="X56" s="53"/>
-      <c r="Y56" s="54"/>
-      <c r="Z56" s="45"/>
-      <c r="AA56" s="45"/>
-      <c r="AB56" s="45"/>
-      <c r="AC56" s="45"/>
-      <c r="AD56" s="46"/>
-      <c r="AF56" s="131"/>
-      <c r="AG56" s="133"/>
-      <c r="AH56" s="133"/>
-      <c r="AI56" s="133"/>
-      <c r="AJ56" s="133"/>
-      <c r="AK56" s="133"/>
-      <c r="AL56" s="133"/>
-      <c r="AM56" s="134"/>
+      <c r="X56" s="52"/>
+      <c r="Y56" s="53"/>
+      <c r="Z56" s="44"/>
+      <c r="AA56" s="44"/>
+      <c r="AB56" s="44"/>
+      <c r="AC56" s="44"/>
+      <c r="AD56" s="45"/>
+      <c r="AF56" s="127"/>
+      <c r="AG56" s="129"/>
+      <c r="AH56" s="129"/>
+      <c r="AI56" s="129"/>
+      <c r="AJ56" s="129"/>
+      <c r="AK56" s="129"/>
+      <c r="AL56" s="129"/>
+      <c r="AM56" s="130"/>
     </row>
     <row r="57" spans="3:40" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C57" s="214"/>
-      <c r="D57" s="135"/>
+      <c r="C57" s="202"/>
+      <c r="D57" s="131"/>
       <c r="F57" s="21"/>
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
@@ -5574,416 +5668,416 @@
       <c r="J57" s="21"/>
       <c r="K57" s="21"/>
       <c r="L57" s="21"/>
-      <c r="O57" s="133"/>
-      <c r="P57" s="133"/>
-      <c r="Q57" s="133"/>
-      <c r="R57" s="133"/>
-      <c r="S57" s="133"/>
-      <c r="T57" s="133"/>
-      <c r="U57" s="136"/>
-      <c r="V57" s="223"/>
-      <c r="W57" s="114" t="s">
+      <c r="O57" s="129"/>
+      <c r="P57" s="129"/>
+      <c r="Q57" s="129"/>
+      <c r="R57" s="129"/>
+      <c r="S57" s="129"/>
+      <c r="T57" s="129"/>
+      <c r="U57" s="132"/>
+      <c r="V57" s="179"/>
+      <c r="W57" s="113" t="s">
         <v>17</v>
       </c>
-      <c r="X57" s="53"/>
-      <c r="Y57" s="61"/>
-      <c r="Z57" s="62"/>
-      <c r="AA57" s="62"/>
-      <c r="AB57" s="62"/>
-      <c r="AC57" s="62"/>
-      <c r="AD57" s="60"/>
-      <c r="AF57" s="131"/>
-      <c r="AG57" s="133"/>
-      <c r="AH57" s="133"/>
-      <c r="AI57" s="133"/>
-      <c r="AJ57" s="133"/>
-      <c r="AK57" s="133"/>
-      <c r="AL57" s="133"/>
-      <c r="AM57" s="134"/>
+      <c r="X57" s="52"/>
+      <c r="Y57" s="60"/>
+      <c r="Z57" s="61"/>
+      <c r="AA57" s="61"/>
+      <c r="AB57" s="61"/>
+      <c r="AC57" s="61"/>
+      <c r="AD57" s="59"/>
+      <c r="AF57" s="127"/>
+      <c r="AG57" s="129"/>
+      <c r="AH57" s="129"/>
+      <c r="AI57" s="129"/>
+      <c r="AJ57" s="129"/>
+      <c r="AK57" s="129"/>
+      <c r="AL57" s="129"/>
+      <c r="AM57" s="130"/>
     </row>
     <row r="58" spans="3:40" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C58" s="215"/>
-      <c r="D58" s="137"/>
-      <c r="E58" s="138"/>
-      <c r="F58" s="138"/>
-      <c r="G58" s="138"/>
-      <c r="H58" s="138"/>
-      <c r="I58" s="138"/>
-      <c r="J58" s="138"/>
-      <c r="K58" s="138"/>
-      <c r="L58" s="138"/>
-      <c r="M58" s="139"/>
-      <c r="N58" s="139"/>
-      <c r="O58" s="139"/>
-      <c r="P58" s="139"/>
-      <c r="Q58" s="139"/>
-      <c r="R58" s="139"/>
-      <c r="S58" s="139"/>
-      <c r="T58" s="139"/>
-      <c r="U58" s="140"/>
-      <c r="V58" s="224"/>
-      <c r="W58" s="117" t="s">
+      <c r="C58" s="203"/>
+      <c r="D58" s="133"/>
+      <c r="E58" s="134"/>
+      <c r="F58" s="134"/>
+      <c r="G58" s="134"/>
+      <c r="H58" s="134"/>
+      <c r="I58" s="134"/>
+      <c r="J58" s="134"/>
+      <c r="K58" s="134"/>
+      <c r="L58" s="134"/>
+      <c r="M58" s="135"/>
+      <c r="N58" s="135"/>
+      <c r="O58" s="135"/>
+      <c r="P58" s="135"/>
+      <c r="Q58" s="135"/>
+      <c r="R58" s="135"/>
+      <c r="S58" s="135"/>
+      <c r="T58" s="135"/>
+      <c r="U58" s="136"/>
+      <c r="V58" s="180"/>
+      <c r="W58" s="115" t="s">
         <v>18</v>
       </c>
-      <c r="X58" s="105"/>
-      <c r="Y58" s="83"/>
-      <c r="Z58" s="63"/>
-      <c r="AA58" s="63"/>
-      <c r="AB58" s="63"/>
-      <c r="AC58" s="141"/>
-      <c r="AD58" s="142"/>
-      <c r="AE58" s="143"/>
-      <c r="AF58" s="144"/>
-      <c r="AG58" s="138"/>
-      <c r="AH58" s="138"/>
-      <c r="AI58" s="138"/>
-      <c r="AJ58" s="138"/>
-      <c r="AK58" s="138"/>
-      <c r="AL58" s="138"/>
-      <c r="AM58" s="145"/>
+      <c r="X58" s="104"/>
+      <c r="Y58" s="82"/>
+      <c r="Z58" s="62"/>
+      <c r="AA58" s="62"/>
+      <c r="AB58" s="62"/>
+      <c r="AC58" s="137"/>
+      <c r="AD58" s="138"/>
+      <c r="AE58" s="139"/>
+      <c r="AF58" s="140"/>
+      <c r="AG58" s="134"/>
+      <c r="AH58" s="134"/>
+      <c r="AI58" s="134"/>
+      <c r="AJ58" s="134"/>
+      <c r="AK58" s="134"/>
+      <c r="AL58" s="134"/>
+      <c r="AM58" s="141"/>
     </row>
     <row r="59" spans="3:40" x14ac:dyDescent="0.25">
-      <c r="C59" s="130"/>
-      <c r="X59" s="130"/>
-      <c r="Y59" s="130"/>
-      <c r="AC59" s="130"/>
-      <c r="AD59" s="130"/>
+      <c r="C59" s="126"/>
+      <c r="X59" s="126"/>
+      <c r="Y59" s="126"/>
+      <c r="AC59" s="126"/>
+      <c r="AD59" s="126"/>
     </row>
     <row r="61" spans="3:40" x14ac:dyDescent="0.25">
-      <c r="C61" s="172"/>
-      <c r="D61" s="172"/>
-      <c r="E61" s="172"/>
-      <c r="F61" s="172"/>
-      <c r="G61" s="172"/>
-      <c r="H61" s="172"/>
-      <c r="I61" s="172"/>
-      <c r="J61" s="172"/>
-      <c r="K61" s="172"/>
-      <c r="L61" s="172"/>
-      <c r="M61" s="172"/>
-      <c r="N61" s="172"/>
-      <c r="O61" s="172"/>
-      <c r="P61" s="172"/>
-      <c r="Q61" s="172"/>
-      <c r="R61" s="172"/>
-      <c r="S61" s="172"/>
-      <c r="T61" s="172"/>
-      <c r="U61" s="172"/>
+      <c r="C61" s="265"/>
+      <c r="D61" s="265"/>
+      <c r="E61" s="265"/>
+      <c r="F61" s="265"/>
+      <c r="G61" s="265"/>
+      <c r="H61" s="265"/>
+      <c r="I61" s="265"/>
+      <c r="J61" s="265"/>
+      <c r="K61" s="265"/>
+      <c r="L61" s="265"/>
+      <c r="M61" s="265"/>
+      <c r="N61" s="265"/>
+      <c r="O61" s="265"/>
+      <c r="P61" s="266"/>
+      <c r="Q61" s="266"/>
+      <c r="R61" s="266"/>
+      <c r="S61" s="266"/>
+      <c r="T61" s="266"/>
+      <c r="U61" s="266"/>
     </row>
     <row r="62" spans="3:40" x14ac:dyDescent="0.25">
-      <c r="C62" s="172"/>
-      <c r="D62" s="172"/>
-      <c r="E62" s="172"/>
-      <c r="F62" s="172"/>
-      <c r="G62" s="172"/>
-      <c r="H62" s="172"/>
-      <c r="I62" s="172"/>
-      <c r="J62" s="172"/>
-      <c r="K62" s="172"/>
-      <c r="L62" s="172"/>
-      <c r="M62" s="172"/>
-      <c r="N62" s="172"/>
-      <c r="O62" s="172"/>
-      <c r="P62" s="172"/>
-      <c r="Q62" s="172"/>
-      <c r="R62" s="172"/>
-      <c r="S62" s="172"/>
-      <c r="T62" s="172"/>
-      <c r="U62" s="172"/>
+      <c r="C62" s="265"/>
+      <c r="D62" s="265"/>
+      <c r="E62" s="265"/>
+      <c r="F62" s="265"/>
+      <c r="G62" s="265"/>
+      <c r="H62" s="265"/>
+      <c r="I62" s="265"/>
+      <c r="J62" s="265"/>
+      <c r="K62" s="265"/>
+      <c r="L62" s="265"/>
+      <c r="M62" s="265"/>
+      <c r="N62" s="265"/>
+      <c r="O62" s="265"/>
+      <c r="P62" s="266"/>
+      <c r="Q62" s="266"/>
+      <c r="R62" s="266"/>
+      <c r="S62" s="266"/>
+      <c r="T62" s="266"/>
+      <c r="U62" s="266"/>
     </row>
     <row r="63" spans="3:40" x14ac:dyDescent="0.25">
-      <c r="C63" s="172"/>
-      <c r="D63" s="172"/>
-      <c r="E63" s="172"/>
-      <c r="F63" s="172"/>
-      <c r="G63" s="172"/>
-      <c r="H63" s="172"/>
-      <c r="I63" s="172"/>
-      <c r="J63" s="172"/>
-      <c r="K63" s="172"/>
-      <c r="L63" s="172"/>
-      <c r="M63" s="172"/>
-      <c r="N63" s="172"/>
-      <c r="O63" s="172"/>
-      <c r="P63" s="172"/>
-      <c r="Q63" s="172"/>
-      <c r="R63" s="172"/>
-      <c r="S63" s="172"/>
-      <c r="T63" s="172"/>
-      <c r="U63" s="172"/>
+      <c r="C63" s="265"/>
+      <c r="D63" s="265"/>
+      <c r="E63" s="265"/>
+      <c r="F63" s="265"/>
+      <c r="G63" s="265"/>
+      <c r="H63" s="265"/>
+      <c r="I63" s="265"/>
+      <c r="J63" s="265"/>
+      <c r="K63" s="265"/>
+      <c r="L63" s="265"/>
+      <c r="M63" s="265"/>
+      <c r="N63" s="265"/>
+      <c r="O63" s="265"/>
+      <c r="P63" s="266"/>
+      <c r="Q63" s="266"/>
+      <c r="R63" s="266"/>
+      <c r="S63" s="266"/>
+      <c r="T63" s="266"/>
+      <c r="U63" s="266"/>
     </row>
     <row r="64" spans="3:40" x14ac:dyDescent="0.25">
-      <c r="C64" s="172"/>
-      <c r="D64" s="172"/>
-      <c r="E64" s="172"/>
-      <c r="F64" s="172"/>
-      <c r="G64" s="172"/>
-      <c r="H64" s="172"/>
-      <c r="I64" s="172"/>
-      <c r="J64" s="172"/>
-      <c r="K64" s="172"/>
-      <c r="L64" s="172"/>
-      <c r="M64" s="172"/>
-      <c r="N64" s="172"/>
-      <c r="O64" s="172"/>
-      <c r="P64" s="172"/>
-      <c r="Q64" s="172"/>
-      <c r="R64" s="172"/>
-      <c r="S64" s="172"/>
-      <c r="T64" s="172"/>
-      <c r="U64" s="172"/>
+      <c r="C64" s="265"/>
+      <c r="D64" s="265"/>
+      <c r="E64" s="265"/>
+      <c r="F64" s="265"/>
+      <c r="G64" s="265"/>
+      <c r="H64" s="265"/>
+      <c r="I64" s="265"/>
+      <c r="J64" s="265"/>
+      <c r="K64" s="265"/>
+      <c r="L64" s="265"/>
+      <c r="M64" s="265"/>
+      <c r="N64" s="265"/>
+      <c r="O64" s="265"/>
+      <c r="P64" s="266"/>
+      <c r="Q64" s="266"/>
+      <c r="R64" s="266"/>
+      <c r="S64" s="266"/>
+      <c r="T64" s="266"/>
+      <c r="U64" s="266"/>
     </row>
     <row r="65" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C65" s="172"/>
-      <c r="D65" s="172"/>
-      <c r="E65" s="172"/>
-      <c r="F65" s="172"/>
-      <c r="G65" s="172"/>
-      <c r="H65" s="172"/>
-      <c r="I65" s="172"/>
-      <c r="J65" s="172"/>
-      <c r="K65" s="172"/>
-      <c r="L65" s="172"/>
-      <c r="M65" s="172"/>
-      <c r="N65" s="172"/>
-      <c r="O65" s="172"/>
-      <c r="P65" s="172"/>
-      <c r="Q65" s="172"/>
-      <c r="R65" s="172"/>
-      <c r="S65" s="172"/>
-      <c r="T65" s="172"/>
-      <c r="U65" s="172"/>
+      <c r="C65" s="265"/>
+      <c r="D65" s="265"/>
+      <c r="E65" s="265"/>
+      <c r="F65" s="265"/>
+      <c r="G65" s="265"/>
+      <c r="H65" s="265"/>
+      <c r="I65" s="265"/>
+      <c r="J65" s="265"/>
+      <c r="K65" s="265"/>
+      <c r="L65" s="265"/>
+      <c r="M65" s="265"/>
+      <c r="N65" s="265"/>
+      <c r="O65" s="265"/>
+      <c r="P65" s="266"/>
+      <c r="Q65" s="266"/>
+      <c r="R65" s="266"/>
+      <c r="S65" s="266"/>
+      <c r="T65" s="266"/>
+      <c r="U65" s="266"/>
     </row>
     <row r="66" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C66" s="172"/>
-      <c r="D66" s="172"/>
-      <c r="E66" s="172"/>
-      <c r="F66" s="172"/>
-      <c r="G66" s="172"/>
-      <c r="H66" s="172"/>
-      <c r="I66" s="172"/>
-      <c r="J66" s="172"/>
-      <c r="K66" s="172"/>
-      <c r="L66" s="172"/>
-      <c r="M66" s="172"/>
-      <c r="N66" s="172"/>
-      <c r="O66" s="172"/>
-      <c r="P66" s="172"/>
-      <c r="Q66" s="172"/>
-      <c r="R66" s="172"/>
-      <c r="S66" s="172"/>
-      <c r="T66" s="172"/>
-      <c r="U66" s="172"/>
+      <c r="C66" s="265"/>
+      <c r="D66" s="265"/>
+      <c r="E66" s="265"/>
+      <c r="F66" s="265"/>
+      <c r="G66" s="265"/>
+      <c r="H66" s="265"/>
+      <c r="I66" s="265"/>
+      <c r="J66" s="265"/>
+      <c r="K66" s="265"/>
+      <c r="L66" s="265"/>
+      <c r="M66" s="265"/>
+      <c r="N66" s="265"/>
+      <c r="O66" s="265"/>
+      <c r="P66" s="266"/>
+      <c r="Q66" s="266"/>
+      <c r="R66" s="266"/>
+      <c r="S66" s="266"/>
+      <c r="T66" s="266"/>
+      <c r="U66" s="266"/>
     </row>
     <row r="67" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C67" s="172"/>
-      <c r="D67" s="172"/>
-      <c r="E67" s="172"/>
-      <c r="F67" s="172"/>
-      <c r="G67" s="172"/>
-      <c r="H67" s="172"/>
-      <c r="I67" s="172"/>
-      <c r="J67" s="172"/>
-      <c r="K67" s="172"/>
-      <c r="L67" s="172"/>
-      <c r="M67" s="172"/>
-      <c r="N67" s="172"/>
-      <c r="O67" s="172"/>
-      <c r="P67" s="172"/>
-      <c r="Q67" s="172"/>
-      <c r="R67" s="172"/>
-      <c r="S67" s="172"/>
-      <c r="T67" s="172"/>
-      <c r="U67" s="172"/>
+      <c r="C67" s="265"/>
+      <c r="D67" s="265"/>
+      <c r="E67" s="265"/>
+      <c r="F67" s="265"/>
+      <c r="G67" s="265"/>
+      <c r="H67" s="265"/>
+      <c r="I67" s="265"/>
+      <c r="J67" s="265"/>
+      <c r="K67" s="265"/>
+      <c r="L67" s="265"/>
+      <c r="M67" s="265"/>
+      <c r="N67" s="265"/>
+      <c r="O67" s="265"/>
+      <c r="P67" s="266"/>
+      <c r="Q67" s="266"/>
+      <c r="R67" s="266"/>
+      <c r="S67" s="266"/>
+      <c r="T67" s="266"/>
+      <c r="U67" s="266"/>
     </row>
     <row r="68" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C68" s="172"/>
-      <c r="D68" s="172"/>
-      <c r="E68" s="172"/>
-      <c r="F68" s="172"/>
-      <c r="G68" s="172"/>
-      <c r="H68" s="172"/>
-      <c r="I68" s="172"/>
-      <c r="J68" s="172"/>
-      <c r="K68" s="172"/>
-      <c r="L68" s="172"/>
-      <c r="M68" s="172"/>
-      <c r="N68" s="172"/>
-      <c r="O68" s="172"/>
-      <c r="P68" s="172"/>
-      <c r="Q68" s="172"/>
-      <c r="R68" s="172"/>
-      <c r="S68" s="172"/>
-      <c r="T68" s="172"/>
-      <c r="U68" s="172"/>
+      <c r="C68" s="265"/>
+      <c r="D68" s="265"/>
+      <c r="E68" s="265"/>
+      <c r="F68" s="265"/>
+      <c r="G68" s="265"/>
+      <c r="H68" s="265"/>
+      <c r="I68" s="265"/>
+      <c r="J68" s="265"/>
+      <c r="K68" s="265"/>
+      <c r="L68" s="265"/>
+      <c r="M68" s="265"/>
+      <c r="N68" s="265"/>
+      <c r="O68" s="265"/>
+      <c r="P68" s="266"/>
+      <c r="Q68" s="266"/>
+      <c r="R68" s="266"/>
+      <c r="S68" s="266"/>
+      <c r="T68" s="266"/>
+      <c r="U68" s="266"/>
     </row>
     <row r="69" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C69" s="172"/>
-      <c r="D69" s="172"/>
-      <c r="E69" s="172"/>
-      <c r="F69" s="172"/>
-      <c r="G69" s="172"/>
-      <c r="H69" s="172"/>
-      <c r="I69" s="172"/>
-      <c r="J69" s="172"/>
-      <c r="K69" s="172"/>
-      <c r="L69" s="172"/>
-      <c r="M69" s="172"/>
-      <c r="N69" s="172"/>
-      <c r="O69" s="172"/>
-      <c r="P69" s="172"/>
-      <c r="Q69" s="172"/>
-      <c r="R69" s="172"/>
-      <c r="S69" s="172"/>
-      <c r="T69" s="172"/>
-      <c r="U69" s="172"/>
+      <c r="C69" s="265"/>
+      <c r="D69" s="265"/>
+      <c r="E69" s="265"/>
+      <c r="F69" s="265"/>
+      <c r="G69" s="265"/>
+      <c r="H69" s="265"/>
+      <c r="I69" s="265"/>
+      <c r="J69" s="265"/>
+      <c r="K69" s="265"/>
+      <c r="L69" s="265"/>
+      <c r="M69" s="265"/>
+      <c r="N69" s="265"/>
+      <c r="O69" s="265"/>
+      <c r="P69" s="266"/>
+      <c r="Q69" s="266"/>
+      <c r="R69" s="266"/>
+      <c r="S69" s="266"/>
+      <c r="T69" s="266"/>
+      <c r="U69" s="266"/>
     </row>
     <row r="70" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C70" s="172"/>
-      <c r="D70" s="172"/>
-      <c r="E70" s="172"/>
-      <c r="F70" s="172"/>
-      <c r="G70" s="172"/>
-      <c r="H70" s="172"/>
-      <c r="I70" s="172"/>
-      <c r="J70" s="172"/>
-      <c r="K70" s="172"/>
-      <c r="L70" s="172"/>
-      <c r="M70" s="172"/>
-      <c r="N70" s="172"/>
-      <c r="O70" s="172"/>
-      <c r="P70" s="172"/>
-      <c r="Q70" s="172"/>
-      <c r="R70" s="172"/>
-      <c r="S70" s="172"/>
-      <c r="T70" s="172"/>
-      <c r="U70" s="172"/>
+      <c r="C70" s="265"/>
+      <c r="D70" s="265"/>
+      <c r="E70" s="265"/>
+      <c r="F70" s="265"/>
+      <c r="G70" s="265"/>
+      <c r="H70" s="265"/>
+      <c r="I70" s="265"/>
+      <c r="J70" s="265"/>
+      <c r="K70" s="265"/>
+      <c r="L70" s="265"/>
+      <c r="M70" s="265"/>
+      <c r="N70" s="265"/>
+      <c r="O70" s="265"/>
+      <c r="P70" s="266"/>
+      <c r="Q70" s="266"/>
+      <c r="R70" s="266"/>
+      <c r="S70" s="266"/>
+      <c r="T70" s="266"/>
+      <c r="U70" s="266"/>
     </row>
     <row r="71" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C71" s="172"/>
-      <c r="D71" s="172"/>
-      <c r="E71" s="172"/>
-      <c r="F71" s="172"/>
-      <c r="G71" s="172"/>
-      <c r="H71" s="172"/>
-      <c r="I71" s="172"/>
-      <c r="J71" s="172"/>
-      <c r="K71" s="172"/>
-      <c r="L71" s="172"/>
-      <c r="M71" s="172"/>
-      <c r="N71" s="172"/>
-      <c r="O71" s="172"/>
-      <c r="P71" s="172"/>
-      <c r="Q71" s="172"/>
-      <c r="R71" s="172"/>
-      <c r="S71" s="172"/>
-      <c r="T71" s="172"/>
-      <c r="U71" s="172"/>
+      <c r="C71" s="265"/>
+      <c r="D71" s="265"/>
+      <c r="E71" s="265"/>
+      <c r="F71" s="265"/>
+      <c r="G71" s="265"/>
+      <c r="H71" s="265"/>
+      <c r="I71" s="265"/>
+      <c r="J71" s="265"/>
+      <c r="K71" s="265"/>
+      <c r="L71" s="265"/>
+      <c r="M71" s="265"/>
+      <c r="N71" s="265"/>
+      <c r="O71" s="265"/>
+      <c r="P71" s="266"/>
+      <c r="Q71" s="266"/>
+      <c r="R71" s="266"/>
+      <c r="S71" s="266"/>
+      <c r="T71" s="266"/>
+      <c r="U71" s="266"/>
     </row>
     <row r="72" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C72" s="172"/>
-      <c r="D72" s="172"/>
-      <c r="E72" s="172"/>
-      <c r="F72" s="172"/>
-      <c r="G72" s="172"/>
-      <c r="H72" s="172"/>
-      <c r="I72" s="172"/>
-      <c r="J72" s="172"/>
-      <c r="K72" s="172"/>
-      <c r="L72" s="172"/>
-      <c r="M72" s="172"/>
-      <c r="N72" s="172"/>
-      <c r="O72" s="172"/>
-      <c r="P72" s="172"/>
-      <c r="Q72" s="172"/>
-      <c r="R72" s="172"/>
-      <c r="S72" s="172"/>
-      <c r="T72" s="172"/>
-      <c r="U72" s="172"/>
+      <c r="C72" s="265"/>
+      <c r="D72" s="265"/>
+      <c r="E72" s="265"/>
+      <c r="F72" s="265"/>
+      <c r="G72" s="265"/>
+      <c r="H72" s="265"/>
+      <c r="I72" s="265"/>
+      <c r="J72" s="265"/>
+      <c r="K72" s="265"/>
+      <c r="L72" s="265"/>
+      <c r="M72" s="265"/>
+      <c r="N72" s="265"/>
+      <c r="O72" s="265"/>
+      <c r="P72" s="266"/>
+      <c r="Q72" s="266"/>
+      <c r="R72" s="266"/>
+      <c r="S72" s="266"/>
+      <c r="T72" s="266"/>
+      <c r="U72" s="266"/>
     </row>
     <row r="73" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C73" s="172"/>
-      <c r="D73" s="172"/>
-      <c r="E73" s="172"/>
-      <c r="F73" s="172"/>
-      <c r="G73" s="172"/>
-      <c r="H73" s="172"/>
-      <c r="I73" s="172"/>
-      <c r="J73" s="172"/>
-      <c r="K73" s="172"/>
-      <c r="L73" s="172"/>
-      <c r="M73" s="172"/>
-      <c r="N73" s="172"/>
-      <c r="O73" s="172"/>
-      <c r="P73" s="172"/>
-      <c r="Q73" s="172"/>
-      <c r="R73" s="172"/>
-      <c r="S73" s="172"/>
-      <c r="T73" s="172"/>
-      <c r="U73" s="172"/>
+      <c r="C73" s="265"/>
+      <c r="D73" s="265"/>
+      <c r="E73" s="265"/>
+      <c r="F73" s="265"/>
+      <c r="G73" s="265"/>
+      <c r="H73" s="265"/>
+      <c r="I73" s="265"/>
+      <c r="J73" s="265"/>
+      <c r="K73" s="265"/>
+      <c r="L73" s="265"/>
+      <c r="M73" s="265"/>
+      <c r="N73" s="265"/>
+      <c r="O73" s="265"/>
+      <c r="P73" s="266"/>
+      <c r="Q73" s="266"/>
+      <c r="R73" s="266"/>
+      <c r="S73" s="266"/>
+      <c r="T73" s="266"/>
+      <c r="U73" s="266"/>
     </row>
     <row r="74" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C74" s="172"/>
-      <c r="D74" s="172"/>
-      <c r="E74" s="172"/>
-      <c r="F74" s="172"/>
-      <c r="G74" s="172"/>
-      <c r="H74" s="172"/>
-      <c r="I74" s="172"/>
-      <c r="J74" s="172"/>
-      <c r="K74" s="172"/>
-      <c r="L74" s="172"/>
-      <c r="M74" s="172"/>
-      <c r="N74" s="172"/>
-      <c r="O74" s="172"/>
-      <c r="P74" s="172"/>
-      <c r="Q74" s="172"/>
-      <c r="R74" s="172"/>
-      <c r="S74" s="172"/>
-      <c r="T74" s="172"/>
-      <c r="U74" s="172"/>
+      <c r="C74" s="265"/>
+      <c r="D74" s="265"/>
+      <c r="E74" s="265"/>
+      <c r="F74" s="265"/>
+      <c r="G74" s="265"/>
+      <c r="H74" s="265"/>
+      <c r="I74" s="265"/>
+      <c r="J74" s="265"/>
+      <c r="K74" s="265"/>
+      <c r="L74" s="265"/>
+      <c r="M74" s="265"/>
+      <c r="N74" s="265"/>
+      <c r="O74" s="265"/>
+      <c r="P74" s="266"/>
+      <c r="Q74" s="266"/>
+      <c r="R74" s="266"/>
+      <c r="S74" s="266"/>
+      <c r="T74" s="266"/>
+      <c r="U74" s="266"/>
     </row>
     <row r="75" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C75" s="172"/>
-      <c r="D75" s="172"/>
-      <c r="E75" s="172"/>
-      <c r="F75" s="172"/>
-      <c r="G75" s="172"/>
-      <c r="H75" s="172"/>
-      <c r="I75" s="172"/>
-      <c r="J75" s="172"/>
-      <c r="K75" s="172"/>
-      <c r="L75" s="172"/>
-      <c r="M75" s="172"/>
-      <c r="N75" s="172"/>
-      <c r="O75" s="172"/>
-      <c r="P75" s="172"/>
-      <c r="Q75" s="172"/>
-      <c r="R75" s="172"/>
-      <c r="S75" s="172"/>
-      <c r="T75" s="172"/>
-      <c r="U75" s="172"/>
+      <c r="C75" s="265"/>
+      <c r="D75" s="265"/>
+      <c r="E75" s="265"/>
+      <c r="F75" s="265"/>
+      <c r="G75" s="265"/>
+      <c r="H75" s="265"/>
+      <c r="I75" s="265"/>
+      <c r="J75" s="265"/>
+      <c r="K75" s="265"/>
+      <c r="L75" s="265"/>
+      <c r="M75" s="265"/>
+      <c r="N75" s="265"/>
+      <c r="O75" s="265"/>
+      <c r="P75" s="266"/>
+      <c r="Q75" s="266"/>
+      <c r="R75" s="266"/>
+      <c r="S75" s="266"/>
+      <c r="T75" s="266"/>
+      <c r="U75" s="266"/>
     </row>
     <row r="76" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C76" s="172"/>
-      <c r="D76" s="172"/>
-      <c r="E76" s="172"/>
-      <c r="F76" s="172"/>
-      <c r="G76" s="172"/>
-      <c r="H76" s="172"/>
-      <c r="I76" s="172"/>
-      <c r="J76" s="172"/>
-      <c r="K76" s="172"/>
-      <c r="L76" s="172"/>
-      <c r="M76" s="172"/>
-      <c r="N76" s="172"/>
-      <c r="O76" s="172"/>
-      <c r="P76" s="172"/>
-      <c r="Q76" s="172"/>
-      <c r="R76" s="172"/>
-      <c r="S76" s="172"/>
-      <c r="T76" s="172"/>
-      <c r="U76" s="172"/>
+      <c r="C76" s="265"/>
+      <c r="D76" s="265"/>
+      <c r="E76" s="265"/>
+      <c r="F76" s="265"/>
+      <c r="G76" s="265"/>
+      <c r="H76" s="265"/>
+      <c r="I76" s="265"/>
+      <c r="J76" s="265"/>
+      <c r="K76" s="265"/>
+      <c r="L76" s="265"/>
+      <c r="M76" s="265"/>
+      <c r="N76" s="265"/>
+      <c r="O76" s="265"/>
+      <c r="P76" s="266"/>
+      <c r="Q76" s="266"/>
+      <c r="R76" s="266"/>
+      <c r="S76" s="266"/>
+      <c r="T76" s="266"/>
+      <c r="U76" s="266"/>
     </row>
     <row r="105" ht="43.15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="106" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5993,12 +6087,28 @@
     <row r="113" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="V47:V50"/>
-    <mergeCell ref="AE47:AE50"/>
-    <mergeCell ref="D51:D54"/>
-    <mergeCell ref="M51:M54"/>
-    <mergeCell ref="V51:V54"/>
-    <mergeCell ref="AE51:AE54"/>
+    <mergeCell ref="C61:O76"/>
+    <mergeCell ref="C3:I6"/>
+    <mergeCell ref="AH16:AJ16"/>
+    <mergeCell ref="AK16:AM16"/>
+    <mergeCell ref="C18:C42"/>
+    <mergeCell ref="D18:L18"/>
+    <mergeCell ref="M18:U18"/>
+    <mergeCell ref="V18:AD18"/>
+    <mergeCell ref="AE18:AM18"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="M19:M22"/>
+    <mergeCell ref="V19:V22"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="Y16:AA16"/>
+    <mergeCell ref="AB16:AD16"/>
+    <mergeCell ref="AE19:AE22"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="V23:V26"/>
+    <mergeCell ref="AE23:AE26"/>
     <mergeCell ref="D27:D30"/>
     <mergeCell ref="V27:V30"/>
     <mergeCell ref="AE27:AE30"/>
@@ -6015,57 +6125,41 @@
     <mergeCell ref="V55:V58"/>
     <mergeCell ref="D47:D50"/>
     <mergeCell ref="M47:M50"/>
-    <mergeCell ref="Y16:AA16"/>
-    <mergeCell ref="AB16:AD16"/>
-    <mergeCell ref="AE19:AE22"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="V23:V26"/>
-    <mergeCell ref="AE23:AE26"/>
-    <mergeCell ref="C61:U76"/>
-    <mergeCell ref="C3:I6"/>
-    <mergeCell ref="AH16:AJ16"/>
-    <mergeCell ref="AK16:AM16"/>
-    <mergeCell ref="C18:C42"/>
-    <mergeCell ref="D18:L18"/>
-    <mergeCell ref="M18:U18"/>
-    <mergeCell ref="V18:AD18"/>
-    <mergeCell ref="AE18:AM18"/>
-    <mergeCell ref="D19:D22"/>
-    <mergeCell ref="M19:M22"/>
-    <mergeCell ref="V19:V22"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="P16:R16"/>
-    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V47:V50"/>
+    <mergeCell ref="AE47:AE50"/>
+    <mergeCell ref="D51:D54"/>
+    <mergeCell ref="M51:M54"/>
+    <mergeCell ref="V51:V54"/>
+    <mergeCell ref="AE51:AE54"/>
   </mergeCells>
   <conditionalFormatting sqref="O19:U22 F19:L34 AG19:AM34 X19:AD58 F43:L54 O43:U54 AG43:AM54">
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="20" priority="2" operator="between">
       <formula>10.5</formula>
       <formula>16</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="19" priority="3" operator="between">
       <formula>6.5</formula>
       <formula>10.49</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="18" priority="4" operator="between">
       <formula>3.5</formula>
       <formula>6.49</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="17" priority="5" operator="between">
       <formula>1.5</formula>
       <formula>3.49</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="6" operator="between">
+    <cfRule type="cellIs" dxfId="16" priority="6" operator="between">
       <formula>0.5</formula>
       <formula>1.49</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="7" operator="between">
+    <cfRule type="cellIs" dxfId="15" priority="7" operator="between">
       <formula>0</formula>
       <formula>0.49</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P19:U22 F19:L34 AG19:AM34 X19:AD58 F43:L54 O43:U54 AG43:AM54">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="between">
       <formula>-0.1</formula>
       <formula>-15</formula>
     </cfRule>
@@ -6079,8 +6173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1490652-181F-4D07-9371-4E295C056ECC}">
   <dimension ref="B3:AN113"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView topLeftCell="A39" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="X73" sqref="X73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6104,151 +6198,151 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:39" x14ac:dyDescent="0.25">
-      <c r="C3" s="171"/>
-      <c r="D3" s="171"/>
-      <c r="E3" s="171"/>
-      <c r="F3" s="171"/>
-      <c r="G3" s="171"/>
-      <c r="H3" s="171"/>
-      <c r="I3" s="171"/>
+      <c r="C3" s="176"/>
+      <c r="D3" s="176"/>
+      <c r="E3" s="176"/>
+      <c r="F3" s="176"/>
+      <c r="G3" s="176"/>
+      <c r="H3" s="176"/>
+      <c r="I3" s="176"/>
     </row>
     <row r="4" spans="3:39" x14ac:dyDescent="0.25">
-      <c r="C4" s="171"/>
-      <c r="D4" s="171"/>
-      <c r="E4" s="171"/>
-      <c r="F4" s="171"/>
-      <c r="G4" s="171"/>
-      <c r="H4" s="171"/>
-      <c r="I4" s="171"/>
+      <c r="C4" s="176"/>
+      <c r="D4" s="176"/>
+      <c r="E4" s="176"/>
+      <c r="F4" s="176"/>
+      <c r="G4" s="176"/>
+      <c r="H4" s="176"/>
+      <c r="I4" s="176"/>
     </row>
     <row r="5" spans="3:39" x14ac:dyDescent="0.25">
-      <c r="C5" s="171"/>
-      <c r="D5" s="171"/>
-      <c r="E5" s="171"/>
-      <c r="F5" s="171"/>
-      <c r="G5" s="171"/>
-      <c r="H5" s="171"/>
-      <c r="I5" s="171"/>
+      <c r="C5" s="176"/>
+      <c r="D5" s="176"/>
+      <c r="E5" s="176"/>
+      <c r="F5" s="176"/>
+      <c r="G5" s="176"/>
+      <c r="H5" s="176"/>
+      <c r="I5" s="176"/>
     </row>
     <row r="6" spans="3:39" x14ac:dyDescent="0.25">
-      <c r="C6" s="171"/>
-      <c r="D6" s="171"/>
-      <c r="E6" s="171"/>
-      <c r="F6" s="171"/>
-      <c r="G6" s="171"/>
-      <c r="H6" s="171"/>
-      <c r="I6" s="171"/>
+      <c r="C6" s="176"/>
+      <c r="D6" s="176"/>
+      <c r="E6" s="176"/>
+      <c r="F6" s="176"/>
+      <c r="G6" s="176"/>
+      <c r="H6" s="176"/>
+      <c r="I6" s="176"/>
     </row>
     <row r="7" spans="3:39" x14ac:dyDescent="0.25">
-      <c r="C7" s="151"/>
-      <c r="D7" s="151"/>
-      <c r="E7" s="151"/>
-      <c r="F7" s="151"/>
-      <c r="G7" s="151"/>
-      <c r="H7" s="151"/>
-      <c r="I7" s="151"/>
+      <c r="C7" s="147"/>
+      <c r="D7" s="147"/>
+      <c r="E7" s="147"/>
+      <c r="F7" s="147"/>
+      <c r="G7" s="147"/>
+      <c r="H7" s="147"/>
+      <c r="I7" s="147"/>
     </row>
     <row r="8" spans="3:39" x14ac:dyDescent="0.25">
       <c r="D8"/>
       <c r="E8"/>
     </row>
     <row r="10" spans="3:39" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C10" s="148"/>
+      <c r="C10" s="144"/>
     </row>
     <row r="11" spans="3:39" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="C11" s="150" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" s="146"/>
-      <c r="E11" s="146"/>
-      <c r="F11" s="147"/>
-      <c r="G11" s="147"/>
-      <c r="H11" s="147"/>
-      <c r="I11" s="147"/>
-      <c r="J11" s="147"/>
-      <c r="K11" s="147"/>
-      <c r="L11" s="147"/>
-      <c r="M11" s="147"/>
-      <c r="N11" s="147"/>
-      <c r="O11" s="149"/>
-      <c r="P11" s="149"/>
-      <c r="Q11" s="152"/>
-      <c r="R11" s="152"/>
-      <c r="S11" s="152"/>
-      <c r="T11" s="152"/>
-      <c r="U11" s="152"/>
-      <c r="V11" s="152"/>
-      <c r="W11" s="152"/>
-      <c r="X11" s="152"/>
-      <c r="Y11" s="152"/>
-      <c r="Z11" s="152"/>
-      <c r="AA11" s="152"/>
-      <c r="AB11" s="152"/>
-      <c r="AC11" s="152"/>
-      <c r="AD11" s="152"/>
-      <c r="AE11" s="152"/>
-      <c r="AF11" s="152"/>
-      <c r="AG11" s="152"/>
-      <c r="AH11" s="152"/>
-      <c r="AI11" s="152"/>
-      <c r="AJ11" s="152"/>
-      <c r="AK11" s="152"/>
-      <c r="AL11" s="152"/>
-      <c r="AM11" s="153"/>
+      <c r="C11" s="146" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="142"/>
+      <c r="E11" s="142"/>
+      <c r="F11" s="143"/>
+      <c r="G11" s="143"/>
+      <c r="H11" s="143"/>
+      <c r="I11" s="143"/>
+      <c r="J11" s="143"/>
+      <c r="K11" s="143"/>
+      <c r="L11" s="143"/>
+      <c r="M11" s="143"/>
+      <c r="N11" s="143"/>
+      <c r="O11" s="145"/>
+      <c r="P11" s="145"/>
+      <c r="Q11" s="148"/>
+      <c r="R11" s="148"/>
+      <c r="S11" s="148"/>
+      <c r="T11" s="148"/>
+      <c r="U11" s="148"/>
+      <c r="V11" s="148"/>
+      <c r="W11" s="148"/>
+      <c r="X11" s="148"/>
+      <c r="Y11" s="148"/>
+      <c r="Z11" s="148"/>
+      <c r="AA11" s="148"/>
+      <c r="AB11" s="148"/>
+      <c r="AC11" s="148"/>
+      <c r="AD11" s="148"/>
+      <c r="AE11" s="148"/>
+      <c r="AF11" s="148"/>
+      <c r="AG11" s="148"/>
+      <c r="AH11" s="148"/>
+      <c r="AI11" s="148"/>
+      <c r="AJ11" s="148"/>
+      <c r="AK11" s="148"/>
+      <c r="AL11" s="148"/>
+      <c r="AM11" s="149"/>
     </row>
     <row r="15" spans="3:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="3:39" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="G16" s="173" t="s">
+      <c r="G16" s="212" t="s">
         <v>0</v>
       </c>
-      <c r="H16" s="174"/>
-      <c r="I16" s="175"/>
-      <c r="J16" s="173" t="s">
+      <c r="H16" s="213"/>
+      <c r="I16" s="214"/>
+      <c r="J16" s="212" t="s">
         <v>1</v>
       </c>
-      <c r="K16" s="174"/>
-      <c r="L16" s="177"/>
+      <c r="K16" s="213"/>
+      <c r="L16" s="216"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-      <c r="P16" s="173" t="s">
+      <c r="P16" s="212" t="s">
         <v>0</v>
       </c>
-      <c r="Q16" s="174"/>
-      <c r="R16" s="175"/>
-      <c r="S16" s="176" t="s">
+      <c r="Q16" s="213"/>
+      <c r="R16" s="214"/>
+      <c r="S16" s="215" t="s">
         <v>1</v>
       </c>
-      <c r="T16" s="174"/>
-      <c r="U16" s="177"/>
+      <c r="T16" s="213"/>
+      <c r="U16" s="216"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="4"/>
-      <c r="Y16" s="173" t="s">
+      <c r="Y16" s="212" t="s">
         <v>0</v>
       </c>
-      <c r="Z16" s="174"/>
-      <c r="AA16" s="175"/>
-      <c r="AB16" s="176" t="s">
+      <c r="Z16" s="213"/>
+      <c r="AA16" s="214"/>
+      <c r="AB16" s="215" t="s">
         <v>1</v>
       </c>
-      <c r="AC16" s="174"/>
-      <c r="AD16" s="177"/>
+      <c r="AC16" s="213"/>
+      <c r="AD16" s="216"/>
       <c r="AE16" s="5"/>
       <c r="AF16" s="6"/>
       <c r="AG16" s="7"/>
-      <c r="AH16" s="173" t="s">
+      <c r="AH16" s="212" t="s">
         <v>0</v>
       </c>
-      <c r="AI16" s="174"/>
-      <c r="AJ16" s="175"/>
-      <c r="AK16" s="176" t="s">
+      <c r="AI16" s="213"/>
+      <c r="AJ16" s="214"/>
+      <c r="AK16" s="215" t="s">
         <v>1</v>
       </c>
-      <c r="AL16" s="174"/>
-      <c r="AM16" s="177"/>
+      <c r="AL16" s="213"/>
+      <c r="AM16" s="216"/>
     </row>
     <row r="17" spans="2:39" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="8"/>
@@ -6347,57 +6441,57 @@
       </c>
     </row>
     <row r="18" spans="2:39" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="178" t="s">
+      <c r="C18" s="223" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="180" t="s">
+      <c r="D18" s="225" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="180"/>
-      <c r="F18" s="180"/>
-      <c r="G18" s="180"/>
-      <c r="H18" s="180"/>
-      <c r="I18" s="180"/>
-      <c r="J18" s="180"/>
-      <c r="K18" s="180"/>
-      <c r="L18" s="181"/>
-      <c r="M18" s="182" t="s">
+      <c r="E18" s="225"/>
+      <c r="F18" s="225"/>
+      <c r="G18" s="225"/>
+      <c r="H18" s="225"/>
+      <c r="I18" s="225"/>
+      <c r="J18" s="225"/>
+      <c r="K18" s="225"/>
+      <c r="L18" s="226"/>
+      <c r="M18" s="227" t="s">
         <v>8</v>
       </c>
-      <c r="N18" s="183"/>
-      <c r="O18" s="183"/>
-      <c r="P18" s="183"/>
-      <c r="Q18" s="183"/>
-      <c r="R18" s="183"/>
-      <c r="S18" s="183"/>
-      <c r="T18" s="183"/>
-      <c r="U18" s="184"/>
-      <c r="V18" s="185" t="s">
+      <c r="N18" s="228"/>
+      <c r="O18" s="228"/>
+      <c r="P18" s="228"/>
+      <c r="Q18" s="228"/>
+      <c r="R18" s="228"/>
+      <c r="S18" s="228"/>
+      <c r="T18" s="228"/>
+      <c r="U18" s="229"/>
+      <c r="V18" s="230" t="s">
         <v>9</v>
       </c>
-      <c r="W18" s="185"/>
-      <c r="X18" s="185"/>
-      <c r="Y18" s="185"/>
-      <c r="Z18" s="185"/>
-      <c r="AA18" s="185"/>
-      <c r="AB18" s="185"/>
-      <c r="AC18" s="185"/>
-      <c r="AD18" s="185"/>
-      <c r="AE18" s="186" t="s">
+      <c r="W18" s="230"/>
+      <c r="X18" s="230"/>
+      <c r="Y18" s="230"/>
+      <c r="Z18" s="230"/>
+      <c r="AA18" s="230"/>
+      <c r="AB18" s="230"/>
+      <c r="AC18" s="230"/>
+      <c r="AD18" s="230"/>
+      <c r="AE18" s="231" t="s">
         <v>10</v>
       </c>
-      <c r="AF18" s="187"/>
-      <c r="AG18" s="187"/>
-      <c r="AH18" s="187"/>
-      <c r="AI18" s="187"/>
-      <c r="AJ18" s="187"/>
-      <c r="AK18" s="187"/>
-      <c r="AL18" s="188"/>
-      <c r="AM18" s="189"/>
+      <c r="AF18" s="232"/>
+      <c r="AG18" s="232"/>
+      <c r="AH18" s="232"/>
+      <c r="AI18" s="232"/>
+      <c r="AJ18" s="232"/>
+      <c r="AK18" s="232"/>
+      <c r="AL18" s="233"/>
+      <c r="AM18" s="234"/>
     </row>
     <row r="19" spans="2:39" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="179"/>
-      <c r="D19" s="190" t="s">
+      <c r="C19" s="224"/>
+      <c r="D19" s="235" t="s">
         <v>11</v>
       </c>
       <c r="E19" s="20" t="s">
@@ -6410,7 +6504,7 @@
       <c r="J19" s="24"/>
       <c r="K19" s="25"/>
       <c r="L19" s="25"/>
-      <c r="M19" s="193" t="s">
+      <c r="M19" s="238" t="s">
         <v>13</v>
       </c>
       <c r="N19" s="20" t="s">
@@ -6423,7 +6517,7 @@
       <c r="S19" s="24"/>
       <c r="T19" s="24"/>
       <c r="U19" s="28"/>
-      <c r="V19" s="196" t="s">
+      <c r="V19" s="194" t="s">
         <v>14</v>
       </c>
       <c r="W19" s="29" t="s">
@@ -6436,186 +6530,186 @@
       <c r="AB19" s="32"/>
       <c r="AC19" s="32"/>
       <c r="AD19" s="33"/>
-      <c r="AE19" s="198" t="s">
+      <c r="AE19" s="196" t="s">
         <v>15</v>
       </c>
       <c r="AF19" s="34" t="s">
         <v>12</v>
       </c>
       <c r="AG19" s="35"/>
-      <c r="AH19" s="22"/>
-      <c r="AI19" s="24"/>
-      <c r="AJ19" s="24"/>
-      <c r="AK19" s="24"/>
-      <c r="AL19" s="24"/>
-      <c r="AM19" s="36"/>
+      <c r="AH19" s="241"/>
+      <c r="AI19" s="242"/>
+      <c r="AJ19" s="242"/>
+      <c r="AK19" s="242"/>
+      <c r="AL19" s="242"/>
+      <c r="AM19" s="243"/>
     </row>
     <row r="20" spans="2:39" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="179"/>
-      <c r="D20" s="191"/>
-      <c r="E20" s="37" t="s">
+      <c r="C20" s="224"/>
+      <c r="D20" s="236"/>
+      <c r="E20" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="38"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="41"/>
-      <c r="L20" s="42"/>
-      <c r="M20" s="194"/>
-      <c r="N20" s="43" t="s">
+      <c r="F20" s="37"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="41"/>
+      <c r="M20" s="239"/>
+      <c r="N20" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="O20" s="38"/>
-      <c r="P20" s="44"/>
-      <c r="Q20" s="41"/>
-      <c r="R20" s="45"/>
-      <c r="S20" s="45"/>
-      <c r="T20" s="45"/>
-      <c r="U20" s="46"/>
-      <c r="V20" s="196"/>
-      <c r="W20" s="47" t="s">
+      <c r="O20" s="37"/>
+      <c r="P20" s="43"/>
+      <c r="Q20" s="40"/>
+      <c r="R20" s="44"/>
+      <c r="S20" s="44"/>
+      <c r="T20" s="44"/>
+      <c r="U20" s="45"/>
+      <c r="V20" s="194"/>
+      <c r="W20" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="X20" s="48"/>
-      <c r="Y20" s="49"/>
-      <c r="Z20" s="50"/>
-      <c r="AA20" s="50"/>
-      <c r="AB20" s="50"/>
-      <c r="AC20" s="50"/>
-      <c r="AD20" s="51"/>
-      <c r="AE20" s="199"/>
-      <c r="AF20" s="52" t="s">
+      <c r="X20" s="47"/>
+      <c r="Y20" s="48"/>
+      <c r="Z20" s="49"/>
+      <c r="AA20" s="49"/>
+      <c r="AB20" s="49"/>
+      <c r="AC20" s="49"/>
+      <c r="AD20" s="50"/>
+      <c r="AE20" s="197"/>
+      <c r="AF20" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="AG20" s="53"/>
-      <c r="AH20" s="54"/>
-      <c r="AI20" s="45"/>
-      <c r="AJ20" s="45"/>
-      <c r="AK20" s="45"/>
-      <c r="AL20" s="45"/>
-      <c r="AM20" s="55"/>
+      <c r="AG20" s="52"/>
+      <c r="AH20" s="244"/>
+      <c r="AI20" s="245"/>
+      <c r="AJ20" s="245"/>
+      <c r="AK20" s="245"/>
+      <c r="AL20" s="245"/>
+      <c r="AM20" s="246"/>
     </row>
     <row r="21" spans="2:39" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="179"/>
-      <c r="D21" s="191"/>
-      <c r="E21" s="43" t="s">
+      <c r="C21" s="224"/>
+      <c r="D21" s="236"/>
+      <c r="E21" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="38"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="41"/>
-      <c r="J21" s="41"/>
-      <c r="K21" s="41"/>
-      <c r="L21" s="40"/>
-      <c r="M21" s="194"/>
-      <c r="N21" s="43" t="s">
+      <c r="F21" s="37"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="239"/>
+      <c r="N21" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="O21" s="38"/>
-      <c r="P21" s="39"/>
-      <c r="Q21" s="45"/>
-      <c r="R21" s="45"/>
-      <c r="S21" s="45"/>
-      <c r="T21" s="45"/>
-      <c r="U21" s="46"/>
-      <c r="V21" s="196"/>
-      <c r="W21" s="56" t="s">
+      <c r="O21" s="37"/>
+      <c r="P21" s="38"/>
+      <c r="Q21" s="44"/>
+      <c r="R21" s="44"/>
+      <c r="S21" s="44"/>
+      <c r="T21" s="44"/>
+      <c r="U21" s="45"/>
+      <c r="V21" s="194"/>
+      <c r="W21" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="X21" s="48"/>
-      <c r="Y21" s="57"/>
-      <c r="Z21" s="50"/>
-      <c r="AA21" s="50"/>
-      <c r="AB21" s="50"/>
-      <c r="AC21" s="50"/>
-      <c r="AD21" s="51"/>
-      <c r="AE21" s="199"/>
-      <c r="AF21" s="52" t="s">
+      <c r="X21" s="47"/>
+      <c r="Y21" s="56"/>
+      <c r="Z21" s="49"/>
+      <c r="AA21" s="49"/>
+      <c r="AB21" s="49"/>
+      <c r="AC21" s="49"/>
+      <c r="AD21" s="50"/>
+      <c r="AE21" s="197"/>
+      <c r="AF21" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="AG21" s="53"/>
-      <c r="AH21" s="54"/>
-      <c r="AI21" s="45"/>
-      <c r="AJ21" s="45"/>
-      <c r="AK21" s="45"/>
-      <c r="AL21" s="45"/>
-      <c r="AM21" s="55"/>
+      <c r="AG21" s="52"/>
+      <c r="AH21" s="244"/>
+      <c r="AI21" s="245"/>
+      <c r="AJ21" s="245"/>
+      <c r="AK21" s="245"/>
+      <c r="AL21" s="245"/>
+      <c r="AM21" s="246"/>
     </row>
     <row r="22" spans="2:39" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="179"/>
-      <c r="D22" s="192"/>
-      <c r="E22" s="58" t="s">
+      <c r="C22" s="224"/>
+      <c r="D22" s="237"/>
+      <c r="E22" s="57" t="s">
         <v>18</v>
       </c>
       <c r="F22" s="21"/>
-      <c r="G22" s="54"/>
+      <c r="G22" s="53"/>
       <c r="H22" s="21"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="45"/>
-      <c r="K22" s="45"/>
-      <c r="L22" s="59"/>
-      <c r="M22" s="195"/>
-      <c r="N22" s="58" t="s">
+      <c r="I22" s="44"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="58"/>
+      <c r="M22" s="240"/>
+      <c r="N22" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="O22" s="60"/>
-      <c r="P22" s="61"/>
-      <c r="Q22" s="62"/>
-      <c r="R22" s="62"/>
-      <c r="S22" s="62"/>
-      <c r="T22" s="63"/>
-      <c r="U22" s="60"/>
-      <c r="V22" s="197"/>
-      <c r="W22" s="64" t="s">
+      <c r="O22" s="59"/>
+      <c r="P22" s="60"/>
+      <c r="Q22" s="61"/>
+      <c r="R22" s="61"/>
+      <c r="S22" s="61"/>
+      <c r="T22" s="62"/>
+      <c r="U22" s="59"/>
+      <c r="V22" s="195"/>
+      <c r="W22" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="X22" s="51"/>
-      <c r="Y22" s="57"/>
-      <c r="Z22" s="50"/>
-      <c r="AA22" s="50"/>
-      <c r="AB22" s="50"/>
-      <c r="AC22" s="50"/>
-      <c r="AD22" s="51"/>
-      <c r="AE22" s="200"/>
-      <c r="AF22" s="65" t="s">
+      <c r="X22" s="50"/>
+      <c r="Y22" s="56"/>
+      <c r="Z22" s="49"/>
+      <c r="AA22" s="49"/>
+      <c r="AB22" s="49"/>
+      <c r="AC22" s="49"/>
+      <c r="AD22" s="50"/>
+      <c r="AE22" s="198"/>
+      <c r="AF22" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="AG22" s="66"/>
-      <c r="AH22" s="54"/>
-      <c r="AI22" s="45"/>
-      <c r="AJ22" s="45"/>
-      <c r="AK22" s="45"/>
-      <c r="AL22" s="45"/>
-      <c r="AM22" s="55"/>
+      <c r="AG22" s="65"/>
+      <c r="AH22" s="244"/>
+      <c r="AI22" s="245"/>
+      <c r="AJ22" s="245"/>
+      <c r="AK22" s="245"/>
+      <c r="AL22" s="245"/>
+      <c r="AM22" s="246"/>
     </row>
     <row r="23" spans="2:39" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="179"/>
-      <c r="D23" s="201" t="s">
+      <c r="C23" s="224"/>
+      <c r="D23" s="217" t="s">
         <v>19</v>
       </c>
       <c r="E23" s="20" t="s">
         <v>12</v>
       </c>
       <c r="F23" s="35"/>
-      <c r="G23" s="67"/>
+      <c r="G23" s="66"/>
       <c r="H23" s="24"/>
       <c r="I23" s="24"/>
       <c r="J23" s="24"/>
       <c r="K23" s="24"/>
-      <c r="L23" s="46"/>
+      <c r="L23" s="45"/>
       <c r="M23" s="21"/>
       <c r="N23" s="21"/>
-      <c r="O23" s="68"/>
-      <c r="P23" s="68"/>
-      <c r="Q23" s="68"/>
-      <c r="R23" s="68"/>
-      <c r="S23" s="68"/>
+      <c r="O23" s="67"/>
+      <c r="P23" s="67"/>
+      <c r="Q23" s="67"/>
+      <c r="R23" s="67"/>
+      <c r="S23" s="67"/>
       <c r="T23" s="21"/>
       <c r="U23" s="35"/>
-      <c r="V23" s="204" t="s">
+      <c r="V23" s="220" t="s">
         <v>20</v>
       </c>
       <c r="W23" s="29" t="s">
@@ -6628,33 +6722,33 @@
       <c r="AB23" s="32"/>
       <c r="AC23" s="32"/>
       <c r="AD23" s="33"/>
-      <c r="AE23" s="198" t="s">
+      <c r="AE23" s="196" t="s">
         <v>21</v>
       </c>
       <c r="AF23" s="34" t="s">
         <v>12</v>
       </c>
       <c r="AG23" s="26"/>
-      <c r="AH23" s="22"/>
-      <c r="AI23" s="24"/>
-      <c r="AJ23" s="24"/>
-      <c r="AK23" s="24"/>
-      <c r="AL23" s="24"/>
-      <c r="AM23" s="36"/>
+      <c r="AH23" s="241"/>
+      <c r="AI23" s="242"/>
+      <c r="AJ23" s="242"/>
+      <c r="AK23" s="242"/>
+      <c r="AL23" s="242"/>
+      <c r="AM23" s="243"/>
     </row>
     <row r="24" spans="2:39" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="179"/>
-      <c r="D24" s="202"/>
-      <c r="E24" s="43" t="s">
+      <c r="C24" s="224"/>
+      <c r="D24" s="218"/>
+      <c r="E24" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="F24" s="38"/>
-      <c r="G24" s="69"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="45"/>
-      <c r="J24" s="45"/>
-      <c r="K24" s="45"/>
-      <c r="L24" s="46"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="68"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="44"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="45"/>
       <c r="M24" s="21"/>
       <c r="N24" s="21"/>
       <c r="O24" s="21"/>
@@ -6664,42 +6758,42 @@
       <c r="S24" s="21"/>
       <c r="T24" s="21"/>
       <c r="U24" s="21"/>
-      <c r="V24" s="205"/>
-      <c r="W24" s="47" t="s">
+      <c r="V24" s="221"/>
+      <c r="W24" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="X24" s="48"/>
-      <c r="Y24" s="49"/>
-      <c r="Z24" s="70"/>
-      <c r="AA24" s="70"/>
-      <c r="AB24" s="70"/>
-      <c r="AC24" s="70"/>
-      <c r="AD24" s="71"/>
-      <c r="AE24" s="199"/>
-      <c r="AF24" s="52" t="s">
+      <c r="X24" s="47"/>
+      <c r="Y24" s="48"/>
+      <c r="Z24" s="69"/>
+      <c r="AA24" s="69"/>
+      <c r="AB24" s="69"/>
+      <c r="AC24" s="69"/>
+      <c r="AD24" s="70"/>
+      <c r="AE24" s="197"/>
+      <c r="AF24" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="AG24" s="38"/>
-      <c r="AH24" s="61"/>
-      <c r="AI24" s="45"/>
-      <c r="AJ24" s="45"/>
-      <c r="AK24" s="45"/>
-      <c r="AL24" s="45"/>
-      <c r="AM24" s="55"/>
+      <c r="AG24" s="37"/>
+      <c r="AH24" s="247"/>
+      <c r="AI24" s="245"/>
+      <c r="AJ24" s="245"/>
+      <c r="AK24" s="245"/>
+      <c r="AL24" s="245"/>
+      <c r="AM24" s="246"/>
     </row>
     <row r="25" spans="2:39" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="179"/>
-      <c r="D25" s="202"/>
-      <c r="E25" s="43" t="s">
+      <c r="C25" s="224"/>
+      <c r="D25" s="218"/>
+      <c r="E25" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="F25" s="60"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="41"/>
-      <c r="L25" s="46"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="45"/>
       <c r="M25" s="21"/>
       <c r="N25" s="21"/>
       <c r="O25" s="21"/>
@@ -6709,42 +6803,42 @@
       <c r="S25" s="21"/>
       <c r="T25" s="21"/>
       <c r="U25" s="21"/>
-      <c r="V25" s="205"/>
-      <c r="W25" s="56" t="s">
+      <c r="V25" s="221"/>
+      <c r="W25" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="X25" s="48"/>
-      <c r="Y25" s="49"/>
-      <c r="Z25" s="70"/>
-      <c r="AA25" s="70"/>
-      <c r="AB25" s="70"/>
-      <c r="AC25" s="70"/>
-      <c r="AD25" s="71"/>
-      <c r="AE25" s="199"/>
-      <c r="AF25" s="52" t="s">
+      <c r="X25" s="47"/>
+      <c r="Y25" s="48"/>
+      <c r="Z25" s="69"/>
+      <c r="AA25" s="69"/>
+      <c r="AB25" s="69"/>
+      <c r="AC25" s="69"/>
+      <c r="AD25" s="70"/>
+      <c r="AE25" s="197"/>
+      <c r="AF25" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="AG25" s="38"/>
-      <c r="AH25" s="39"/>
-      <c r="AI25" s="45"/>
-      <c r="AJ25" s="45"/>
-      <c r="AK25" s="45"/>
-      <c r="AL25" s="45"/>
-      <c r="AM25" s="55"/>
+      <c r="AG25" s="37"/>
+      <c r="AH25" s="248"/>
+      <c r="AI25" s="245"/>
+      <c r="AJ25" s="245"/>
+      <c r="AK25" s="245"/>
+      <c r="AL25" s="245"/>
+      <c r="AM25" s="246"/>
     </row>
     <row r="26" spans="2:39" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="179"/>
-      <c r="D26" s="203"/>
-      <c r="E26" s="72" t="s">
+      <c r="C26" s="224"/>
+      <c r="D26" s="219"/>
+      <c r="E26" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="F26" s="66"/>
-      <c r="G26" s="69"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="45"/>
-      <c r="J26" s="45"/>
-      <c r="K26" s="45"/>
-      <c r="L26" s="46"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="68"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="44"/>
+      <c r="L26" s="45"/>
       <c r="M26" s="21"/>
       <c r="N26" s="21"/>
       <c r="O26" s="21"/>
@@ -6754,32 +6848,32 @@
       <c r="S26" s="21"/>
       <c r="T26" s="21"/>
       <c r="U26" s="21"/>
-      <c r="V26" s="206"/>
-      <c r="W26" s="73" t="s">
+      <c r="V26" s="222"/>
+      <c r="W26" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="X26" s="74"/>
-      <c r="Y26" s="75"/>
-      <c r="Z26" s="76"/>
-      <c r="AA26" s="77"/>
-      <c r="AB26" s="77"/>
-      <c r="AC26" s="77"/>
-      <c r="AD26" s="78"/>
-      <c r="AE26" s="200"/>
-      <c r="AF26" s="79" t="s">
+      <c r="X26" s="73"/>
+      <c r="Y26" s="74"/>
+      <c r="Z26" s="75"/>
+      <c r="AA26" s="76"/>
+      <c r="AB26" s="76"/>
+      <c r="AC26" s="76"/>
+      <c r="AD26" s="77"/>
+      <c r="AE26" s="198"/>
+      <c r="AF26" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="AG26" s="46"/>
-      <c r="AH26" s="54"/>
-      <c r="AI26" s="45"/>
-      <c r="AJ26" s="45"/>
-      <c r="AK26" s="45"/>
-      <c r="AL26" s="45"/>
-      <c r="AM26" s="55"/>
+      <c r="AG26" s="45"/>
+      <c r="AH26" s="244"/>
+      <c r="AI26" s="245"/>
+      <c r="AJ26" s="245"/>
+      <c r="AK26" s="245"/>
+      <c r="AL26" s="245"/>
+      <c r="AM26" s="246"/>
     </row>
     <row r="27" spans="2:39" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="179"/>
-      <c r="D27" s="207" t="s">
+      <c r="C27" s="224"/>
+      <c r="D27" s="190" t="s">
         <v>22</v>
       </c>
       <c r="E27" s="20" t="s">
@@ -6800,47 +6894,47 @@
       <c r="R27" s="21"/>
       <c r="S27" s="21"/>
       <c r="T27" s="21"/>
-      <c r="U27" s="60"/>
-      <c r="V27" s="210" t="s">
+      <c r="U27" s="59"/>
+      <c r="V27" s="193" t="s">
         <v>23</v>
       </c>
-      <c r="W27" s="80" t="s">
+      <c r="W27" s="79" t="s">
         <v>12</v>
       </c>
       <c r="X27" s="26"/>
-      <c r="Y27" s="54"/>
+      <c r="Y27" s="53"/>
       <c r="Z27" s="24"/>
-      <c r="AA27" s="45"/>
-      <c r="AB27" s="45"/>
-      <c r="AC27" s="45"/>
-      <c r="AD27" s="81"/>
-      <c r="AE27" s="198" t="s">
+      <c r="AA27" s="44"/>
+      <c r="AB27" s="44"/>
+      <c r="AC27" s="44"/>
+      <c r="AD27" s="80"/>
+      <c r="AE27" s="196" t="s">
         <v>24</v>
       </c>
       <c r="AF27" s="34" t="s">
         <v>12</v>
       </c>
       <c r="AG27" s="26"/>
-      <c r="AH27" s="22"/>
-      <c r="AI27" s="24"/>
-      <c r="AJ27" s="24"/>
-      <c r="AK27" s="24"/>
-      <c r="AL27" s="24"/>
-      <c r="AM27" s="36"/>
+      <c r="AH27" s="241"/>
+      <c r="AI27" s="242"/>
+      <c r="AJ27" s="242"/>
+      <c r="AK27" s="242"/>
+      <c r="AL27" s="242"/>
+      <c r="AM27" s="243"/>
     </row>
     <row r="28" spans="2:39" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="179"/>
-      <c r="D28" s="208"/>
-      <c r="E28" s="43" t="s">
+      <c r="C28" s="224"/>
+      <c r="D28" s="191"/>
+      <c r="E28" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="F28" s="53"/>
-      <c r="G28" s="54"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="45"/>
-      <c r="J28" s="45"/>
-      <c r="K28" s="45"/>
-      <c r="L28" s="46"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="44"/>
+      <c r="K28" s="44"/>
+      <c r="L28" s="45"/>
       <c r="M28" s="21"/>
       <c r="N28" s="21"/>
       <c r="O28" s="21"/>
@@ -6849,43 +6943,43 @@
       <c r="R28" s="21"/>
       <c r="S28" s="21"/>
       <c r="T28" s="21"/>
-      <c r="U28" s="60"/>
-      <c r="V28" s="196"/>
-      <c r="W28" s="56" t="s">
+      <c r="U28" s="59"/>
+      <c r="V28" s="194"/>
+      <c r="W28" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="X28" s="46"/>
-      <c r="Y28" s="54"/>
-      <c r="Z28" s="45"/>
-      <c r="AA28" s="45"/>
-      <c r="AB28" s="45"/>
-      <c r="AC28" s="45"/>
-      <c r="AD28" s="81"/>
-      <c r="AE28" s="199"/>
-      <c r="AF28" s="52" t="s">
+      <c r="X28" s="45"/>
+      <c r="Y28" s="53"/>
+      <c r="Z28" s="44"/>
+      <c r="AA28" s="44"/>
+      <c r="AB28" s="44"/>
+      <c r="AC28" s="44"/>
+      <c r="AD28" s="80"/>
+      <c r="AE28" s="197"/>
+      <c r="AF28" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="AG28" s="38"/>
-      <c r="AH28" s="39"/>
-      <c r="AI28" s="45"/>
-      <c r="AJ28" s="45"/>
-      <c r="AK28" s="45"/>
-      <c r="AL28" s="45"/>
-      <c r="AM28" s="55"/>
+      <c r="AG28" s="37"/>
+      <c r="AH28" s="248"/>
+      <c r="AI28" s="245"/>
+      <c r="AJ28" s="245"/>
+      <c r="AK28" s="245"/>
+      <c r="AL28" s="245"/>
+      <c r="AM28" s="246"/>
     </row>
     <row r="29" spans="2:39" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="179"/>
-      <c r="D29" s="208"/>
-      <c r="E29" s="43" t="s">
+      <c r="C29" s="224"/>
+      <c r="D29" s="191"/>
+      <c r="E29" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="F29" s="38"/>
-      <c r="G29" s="54"/>
-      <c r="H29" s="45"/>
-      <c r="I29" s="45"/>
-      <c r="J29" s="45"/>
-      <c r="K29" s="45"/>
-      <c r="L29" s="46"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="44"/>
+      <c r="K29" s="44"/>
+      <c r="L29" s="45"/>
       <c r="M29" s="21"/>
       <c r="N29" s="21"/>
       <c r="O29" s="21"/>
@@ -6894,43 +6988,43 @@
       <c r="R29" s="21"/>
       <c r="S29" s="21"/>
       <c r="T29" s="21"/>
-      <c r="U29" s="60"/>
-      <c r="V29" s="196"/>
-      <c r="W29" s="56" t="s">
+      <c r="U29" s="59"/>
+      <c r="V29" s="194"/>
+      <c r="W29" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="X29" s="46"/>
-      <c r="Y29" s="54"/>
-      <c r="Z29" s="45"/>
-      <c r="AA29" s="45"/>
-      <c r="AB29" s="45"/>
-      <c r="AC29" s="45"/>
-      <c r="AD29" s="81"/>
-      <c r="AE29" s="199"/>
-      <c r="AF29" s="52" t="s">
+      <c r="X29" s="45"/>
+      <c r="Y29" s="53"/>
+      <c r="Z29" s="44"/>
+      <c r="AA29" s="44"/>
+      <c r="AB29" s="44"/>
+      <c r="AC29" s="44"/>
+      <c r="AD29" s="80"/>
+      <c r="AE29" s="197"/>
+      <c r="AF29" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="AG29" s="60"/>
-      <c r="AH29" s="54"/>
-      <c r="AI29" s="45"/>
-      <c r="AJ29" s="45"/>
-      <c r="AK29" s="45"/>
-      <c r="AL29" s="45"/>
-      <c r="AM29" s="55"/>
+      <c r="AG29" s="59"/>
+      <c r="AH29" s="244"/>
+      <c r="AI29" s="245"/>
+      <c r="AJ29" s="245"/>
+      <c r="AK29" s="245"/>
+      <c r="AL29" s="245"/>
+      <c r="AM29" s="246"/>
     </row>
     <row r="30" spans="2:39" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C30" s="179"/>
-      <c r="D30" s="209"/>
-      <c r="E30" s="72" t="s">
+      <c r="C30" s="224"/>
+      <c r="D30" s="192"/>
+      <c r="E30" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="F30" s="46"/>
-      <c r="G30" s="54"/>
-      <c r="H30" s="45"/>
-      <c r="I30" s="45"/>
-      <c r="J30" s="45"/>
-      <c r="K30" s="45"/>
-      <c r="L30" s="46"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="53"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="44"/>
+      <c r="J30" s="44"/>
+      <c r="K30" s="44"/>
+      <c r="L30" s="45"/>
       <c r="M30" s="21"/>
       <c r="N30" s="21"/>
       <c r="O30" s="21"/>
@@ -6939,33 +7033,33 @@
       <c r="R30" s="21"/>
       <c r="S30" s="21"/>
       <c r="T30" s="21"/>
-      <c r="U30" s="60"/>
-      <c r="V30" s="197"/>
-      <c r="W30" s="64" t="s">
+      <c r="U30" s="59"/>
+      <c r="V30" s="195"/>
+      <c r="W30" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="X30" s="46"/>
-      <c r="Y30" s="54"/>
-      <c r="Z30" s="45"/>
-      <c r="AA30" s="45"/>
-      <c r="AB30" s="45"/>
-      <c r="AC30" s="45"/>
-      <c r="AD30" s="81"/>
-      <c r="AE30" s="200"/>
-      <c r="AF30" s="82" t="s">
+      <c r="X30" s="45"/>
+      <c r="Y30" s="53"/>
+      <c r="Z30" s="44"/>
+      <c r="AA30" s="44"/>
+      <c r="AB30" s="44"/>
+      <c r="AC30" s="44"/>
+      <c r="AD30" s="80"/>
+      <c r="AE30" s="198"/>
+      <c r="AF30" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="AG30" s="53"/>
-      <c r="AH30" s="83"/>
-      <c r="AI30" s="63"/>
-      <c r="AJ30" s="63"/>
-      <c r="AK30" s="63"/>
-      <c r="AL30" s="63"/>
-      <c r="AM30" s="84"/>
+      <c r="AG30" s="52"/>
+      <c r="AH30" s="249"/>
+      <c r="AI30" s="250"/>
+      <c r="AJ30" s="250"/>
+      <c r="AK30" s="250"/>
+      <c r="AL30" s="250"/>
+      <c r="AM30" s="251"/>
     </row>
     <row r="31" spans="2:39" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="179"/>
-      <c r="D31" s="207" t="s">
+      <c r="C31" s="224"/>
+      <c r="D31" s="190" t="s">
         <v>25</v>
       </c>
       <c r="E31" s="20" t="s">
@@ -6986,8 +7080,8 @@
       <c r="R31" s="21"/>
       <c r="S31" s="21"/>
       <c r="T31" s="21"/>
-      <c r="U31" s="60"/>
-      <c r="V31" s="196" t="s">
+      <c r="U31" s="59"/>
+      <c r="V31" s="194" t="s">
         <v>26</v>
       </c>
       <c r="W31" s="29" t="s">
@@ -7000,33 +7094,33 @@
       <c r="AB31" s="24"/>
       <c r="AC31" s="24"/>
       <c r="AD31" s="28"/>
-      <c r="AE31" s="228" t="s">
+      <c r="AE31" s="207" t="s">
         <v>27</v>
       </c>
-      <c r="AF31" s="85" t="s">
+      <c r="AF31" s="84" t="s">
         <v>12</v>
       </c>
       <c r="AG31" s="26"/>
-      <c r="AH31" s="54"/>
-      <c r="AI31" s="45"/>
-      <c r="AJ31" s="45"/>
-      <c r="AK31" s="45"/>
-      <c r="AL31" s="45"/>
-      <c r="AM31" s="86"/>
+      <c r="AH31" s="53"/>
+      <c r="AI31" s="44"/>
+      <c r="AJ31" s="44"/>
+      <c r="AK31" s="44"/>
+      <c r="AL31" s="44"/>
+      <c r="AM31" s="85"/>
     </row>
     <row r="32" spans="2:39" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C32" s="179"/>
-      <c r="D32" s="208"/>
-      <c r="E32" s="43" t="s">
+      <c r="C32" s="224"/>
+      <c r="D32" s="191"/>
+      <c r="E32" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="F32" s="53"/>
-      <c r="G32" s="54"/>
-      <c r="H32" s="45"/>
-      <c r="I32" s="45"/>
-      <c r="J32" s="45"/>
-      <c r="K32" s="45"/>
-      <c r="L32" s="38"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="53"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="44"/>
+      <c r="K32" s="44"/>
+      <c r="L32" s="37"/>
       <c r="M32" s="21"/>
       <c r="N32" s="21"/>
       <c r="O32" s="21"/>
@@ -7035,43 +7129,43 @@
       <c r="R32" s="21"/>
       <c r="S32" s="21"/>
       <c r="T32" s="21"/>
-      <c r="U32" s="60"/>
-      <c r="V32" s="196"/>
-      <c r="W32" s="80" t="s">
+      <c r="U32" s="59"/>
+      <c r="V32" s="194"/>
+      <c r="W32" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="X32" s="53"/>
-      <c r="Y32" s="61"/>
-      <c r="Z32" s="41"/>
-      <c r="AA32" s="41"/>
-      <c r="AB32" s="41"/>
-      <c r="AC32" s="41"/>
-      <c r="AD32" s="87"/>
-      <c r="AE32" s="228"/>
-      <c r="AF32" s="88" t="s">
+      <c r="X32" s="52"/>
+      <c r="Y32" s="60"/>
+      <c r="Z32" s="40"/>
+      <c r="AA32" s="40"/>
+      <c r="AB32" s="40"/>
+      <c r="AC32" s="40"/>
+      <c r="AD32" s="86"/>
+      <c r="AE32" s="207"/>
+      <c r="AF32" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="AG32" s="81"/>
-      <c r="AH32" s="54"/>
-      <c r="AI32" s="45"/>
-      <c r="AJ32" s="45"/>
-      <c r="AK32" s="45"/>
-      <c r="AL32" s="45"/>
-      <c r="AM32" s="89"/>
+      <c r="AG32" s="80"/>
+      <c r="AH32" s="53"/>
+      <c r="AI32" s="44"/>
+      <c r="AJ32" s="44"/>
+      <c r="AK32" s="44"/>
+      <c r="AL32" s="44"/>
+      <c r="AM32" s="88"/>
     </row>
     <row r="33" spans="3:40" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="179"/>
-      <c r="D33" s="208"/>
-      <c r="E33" s="90" t="s">
+      <c r="C33" s="224"/>
+      <c r="D33" s="191"/>
+      <c r="E33" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="F33" s="38"/>
-      <c r="G33" s="61"/>
-      <c r="H33" s="62"/>
-      <c r="I33" s="62"/>
-      <c r="J33" s="62"/>
-      <c r="K33" s="62"/>
-      <c r="L33" s="60"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="60"/>
+      <c r="H33" s="61"/>
+      <c r="I33" s="61"/>
+      <c r="J33" s="61"/>
+      <c r="K33" s="61"/>
+      <c r="L33" s="59"/>
       <c r="M33" s="21"/>
       <c r="N33" s="21"/>
       <c r="O33" s="21"/>
@@ -7080,43 +7174,43 @@
       <c r="R33" s="21"/>
       <c r="S33" s="21"/>
       <c r="T33" s="21"/>
-      <c r="U33" s="60"/>
-      <c r="V33" s="196"/>
-      <c r="W33" s="80" t="s">
+      <c r="U33" s="59"/>
+      <c r="V33" s="194"/>
+      <c r="W33" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="X33" s="38"/>
-      <c r="Y33" s="39"/>
-      <c r="Z33" s="41"/>
-      <c r="AA33" s="41"/>
-      <c r="AB33" s="41"/>
-      <c r="AC33" s="41"/>
-      <c r="AD33" s="87"/>
-      <c r="AE33" s="228"/>
-      <c r="AF33" s="56" t="s">
+      <c r="X33" s="37"/>
+      <c r="Y33" s="38"/>
+      <c r="Z33" s="40"/>
+      <c r="AA33" s="40"/>
+      <c r="AB33" s="40"/>
+      <c r="AC33" s="40"/>
+      <c r="AD33" s="86"/>
+      <c r="AE33" s="207"/>
+      <c r="AF33" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="AG33" s="81"/>
-      <c r="AH33" s="54"/>
-      <c r="AI33" s="45"/>
-      <c r="AJ33" s="45"/>
-      <c r="AK33" s="45"/>
-      <c r="AL33" s="45"/>
-      <c r="AM33" s="89"/>
+      <c r="AG33" s="80"/>
+      <c r="AH33" s="53"/>
+      <c r="AI33" s="44"/>
+      <c r="AJ33" s="44"/>
+      <c r="AK33" s="44"/>
+      <c r="AL33" s="44"/>
+      <c r="AM33" s="88"/>
     </row>
     <row r="34" spans="3:40" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C34" s="179"/>
-      <c r="D34" s="209"/>
-      <c r="E34" s="58" t="s">
+      <c r="C34" s="224"/>
+      <c r="D34" s="192"/>
+      <c r="E34" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="F34" s="59"/>
-      <c r="G34" s="83"/>
-      <c r="H34" s="63"/>
-      <c r="I34" s="63"/>
-      <c r="J34" s="63"/>
-      <c r="K34" s="63"/>
-      <c r="L34" s="66"/>
+      <c r="F34" s="58"/>
+      <c r="G34" s="82"/>
+      <c r="H34" s="62"/>
+      <c r="I34" s="62"/>
+      <c r="J34" s="62"/>
+      <c r="K34" s="62"/>
+      <c r="L34" s="65"/>
       <c r="M34" s="21"/>
       <c r="N34" s="21"/>
       <c r="O34" s="21"/>
@@ -7125,36 +7219,36 @@
       <c r="R34" s="21"/>
       <c r="S34" s="21"/>
       <c r="T34" s="21"/>
-      <c r="U34" s="60"/>
-      <c r="V34" s="197"/>
-      <c r="W34" s="64" t="s">
+      <c r="U34" s="59"/>
+      <c r="V34" s="195"/>
+      <c r="W34" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="X34" s="46"/>
-      <c r="Y34" s="54"/>
-      <c r="Z34" s="45"/>
-      <c r="AA34" s="45"/>
-      <c r="AB34" s="45"/>
-      <c r="AC34" s="45"/>
-      <c r="AD34" s="46"/>
-      <c r="AE34" s="229"/>
-      <c r="AF34" s="64" t="s">
+      <c r="X34" s="45"/>
+      <c r="Y34" s="53"/>
+      <c r="Z34" s="44"/>
+      <c r="AA34" s="44"/>
+      <c r="AB34" s="44"/>
+      <c r="AC34" s="44"/>
+      <c r="AD34" s="45"/>
+      <c r="AE34" s="208"/>
+      <c r="AF34" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="AG34" s="66"/>
-      <c r="AH34" s="83"/>
-      <c r="AI34" s="63"/>
-      <c r="AJ34" s="63"/>
-      <c r="AK34" s="63"/>
-      <c r="AL34" s="63"/>
-      <c r="AM34" s="84"/>
+      <c r="AG34" s="65"/>
+      <c r="AH34" s="82"/>
+      <c r="AI34" s="62"/>
+      <c r="AJ34" s="62"/>
+      <c r="AK34" s="62"/>
+      <c r="AL34" s="62"/>
+      <c r="AM34" s="83"/>
     </row>
     <row r="35" spans="3:40" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C35" s="179"/>
+      <c r="C35" s="224"/>
       <c r="D35"/>
       <c r="E35"/>
-      <c r="U35" s="91"/>
-      <c r="V35" s="196" t="s">
+      <c r="U35" s="90"/>
+      <c r="V35" s="194" t="s">
         <v>28</v>
       </c>
       <c r="W35" s="29" t="s">
@@ -7175,10 +7269,10 @@
       <c r="AJ35" s="21"/>
       <c r="AK35" s="21"/>
       <c r="AL35" s="21"/>
-      <c r="AM35" s="92"/>
+      <c r="AM35" s="91"/>
     </row>
     <row r="36" spans="3:40" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C36" s="179"/>
+      <c r="C36" s="224"/>
       <c r="D36"/>
       <c r="E36"/>
       <c r="G36" s="21"/>
@@ -7191,18 +7285,18 @@
       <c r="N36" s="21"/>
       <c r="S36" s="21"/>
       <c r="T36" s="21"/>
-      <c r="U36" s="91"/>
-      <c r="V36" s="196"/>
-      <c r="W36" s="56" t="s">
+      <c r="U36" s="90"/>
+      <c r="V36" s="194"/>
+      <c r="W36" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="X36" s="60"/>
-      <c r="Y36" s="61"/>
-      <c r="Z36" s="62"/>
-      <c r="AA36" s="62"/>
-      <c r="AB36" s="62"/>
-      <c r="AC36" s="62"/>
-      <c r="AD36" s="60"/>
+      <c r="X36" s="59"/>
+      <c r="Y36" s="60"/>
+      <c r="Z36" s="61"/>
+      <c r="AA36" s="61"/>
+      <c r="AB36" s="61"/>
+      <c r="AC36" s="61"/>
+      <c r="AD36" s="59"/>
       <c r="AE36" s="21"/>
       <c r="AF36" s="21"/>
       <c r="AG36" s="21"/>
@@ -7211,10 +7305,10 @@
       <c r="AJ36" s="21"/>
       <c r="AK36" s="21"/>
       <c r="AL36" s="21"/>
-      <c r="AM36" s="92"/>
+      <c r="AM36" s="91"/>
     </row>
     <row r="37" spans="3:40" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C37" s="179"/>
+      <c r="C37" s="224"/>
       <c r="D37"/>
       <c r="E37"/>
       <c r="G37" s="21"/>
@@ -7231,18 +7325,18 @@
       <c r="R37" s="21"/>
       <c r="S37" s="21"/>
       <c r="T37" s="21"/>
-      <c r="U37" s="91"/>
-      <c r="V37" s="196"/>
-      <c r="W37" s="80" t="s">
+      <c r="U37" s="90"/>
+      <c r="V37" s="194"/>
+      <c r="W37" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="X37" s="38"/>
-      <c r="Y37" s="93"/>
-      <c r="Z37" s="41"/>
-      <c r="AA37" s="41"/>
-      <c r="AB37" s="41"/>
-      <c r="AC37" s="41"/>
-      <c r="AD37" s="38"/>
+      <c r="X37" s="37"/>
+      <c r="Y37" s="92"/>
+      <c r="Z37" s="40"/>
+      <c r="AA37" s="40"/>
+      <c r="AB37" s="40"/>
+      <c r="AC37" s="40"/>
+      <c r="AD37" s="37"/>
       <c r="AE37" s="21"/>
       <c r="AF37" s="21"/>
       <c r="AG37" s="21"/>
@@ -7251,10 +7345,10 @@
       <c r="AJ37" s="21"/>
       <c r="AK37" s="21"/>
       <c r="AL37" s="21"/>
-      <c r="AM37" s="92"/>
+      <c r="AM37" s="91"/>
     </row>
     <row r="38" spans="3:40" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C38" s="179"/>
+      <c r="C38" s="224"/>
       <c r="D38"/>
       <c r="E38"/>
       <c r="G38" s="21"/>
@@ -7271,18 +7365,18 @@
       <c r="R38" s="21"/>
       <c r="S38" s="21"/>
       <c r="T38" s="21"/>
-      <c r="U38" s="91"/>
-      <c r="V38" s="197"/>
-      <c r="W38" s="64" t="s">
+      <c r="U38" s="90"/>
+      <c r="V38" s="195"/>
+      <c r="W38" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="X38" s="53"/>
-      <c r="Y38" s="83"/>
-      <c r="Z38" s="63"/>
-      <c r="AA38" s="63"/>
-      <c r="AB38" s="63"/>
-      <c r="AC38" s="63"/>
-      <c r="AD38" s="46"/>
+      <c r="X38" s="52"/>
+      <c r="Y38" s="82"/>
+      <c r="Z38" s="62"/>
+      <c r="AA38" s="62"/>
+      <c r="AB38" s="62"/>
+      <c r="AC38" s="62"/>
+      <c r="AD38" s="45"/>
       <c r="AE38" s="21"/>
       <c r="AF38" s="21"/>
       <c r="AG38" s="21"/>
@@ -7291,10 +7385,10 @@
       <c r="AJ38" s="21"/>
       <c r="AK38" s="21"/>
       <c r="AL38" s="21"/>
-      <c r="AM38" s="92"/>
+      <c r="AM38" s="91"/>
     </row>
     <row r="39" spans="3:40" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C39" s="179"/>
+      <c r="C39" s="224"/>
       <c r="D39"/>
       <c r="E39"/>
       <c r="G39" s="21"/>
@@ -7311,19 +7405,19 @@
       <c r="R39" s="21"/>
       <c r="S39" s="21"/>
       <c r="T39" s="21"/>
-      <c r="U39" s="91"/>
-      <c r="V39" s="196" t="s">
+      <c r="U39" s="90"/>
+      <c r="V39" s="194" t="s">
         <v>29</v>
       </c>
-      <c r="W39" s="47" t="s">
+      <c r="W39" s="46" t="s">
         <v>12</v>
       </c>
       <c r="X39" s="26"/>
-      <c r="Y39" s="61"/>
-      <c r="Z39" s="62"/>
-      <c r="AA39" s="62"/>
-      <c r="AB39" s="62"/>
-      <c r="AC39" s="62"/>
+      <c r="Y39" s="60"/>
+      <c r="Z39" s="61"/>
+      <c r="AA39" s="61"/>
+      <c r="AB39" s="61"/>
+      <c r="AC39" s="61"/>
       <c r="AD39" s="35"/>
       <c r="AE39" s="21"/>
       <c r="AF39" s="21"/>
@@ -7333,12 +7427,12 @@
       <c r="AJ39" s="21"/>
       <c r="AK39" s="21"/>
       <c r="AL39" s="21"/>
-      <c r="AM39" s="92"/>
+      <c r="AM39" s="91"/>
     </row>
     <row r="40" spans="3:40" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C40" s="179"/>
+      <c r="C40" s="224"/>
       <c r="D40"/>
-      <c r="E40" s="94"/>
+      <c r="E40" s="93"/>
       <c r="F40" s="21"/>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
@@ -7354,18 +7448,18 @@
       <c r="R40" s="21"/>
       <c r="S40" s="21"/>
       <c r="T40" s="21"/>
-      <c r="U40" s="91"/>
-      <c r="V40" s="196"/>
-      <c r="W40" s="56" t="s">
+      <c r="U40" s="90"/>
+      <c r="V40" s="194"/>
+      <c r="W40" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="X40" s="60"/>
-      <c r="Y40" s="44"/>
-      <c r="Z40" s="41"/>
-      <c r="AA40" s="41"/>
-      <c r="AB40" s="41"/>
-      <c r="AC40" s="41"/>
-      <c r="AD40" s="53"/>
+      <c r="X40" s="59"/>
+      <c r="Y40" s="43"/>
+      <c r="Z40" s="40"/>
+      <c r="AA40" s="40"/>
+      <c r="AB40" s="40"/>
+      <c r="AC40" s="40"/>
+      <c r="AD40" s="52"/>
       <c r="AE40" s="21"/>
       <c r="AF40" s="21"/>
       <c r="AG40" s="21"/>
@@ -7374,12 +7468,12 @@
       <c r="AJ40" s="21"/>
       <c r="AK40" s="21"/>
       <c r="AL40" s="21"/>
-      <c r="AM40" s="92"/>
+      <c r="AM40" s="91"/>
     </row>
     <row r="41" spans="3:40" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C41" s="179"/>
+      <c r="C41" s="224"/>
       <c r="D41"/>
-      <c r="E41" s="94"/>
+      <c r="E41" s="93"/>
       <c r="F41" s="21"/>
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
@@ -7395,18 +7489,18 @@
       <c r="R41" s="21"/>
       <c r="S41" s="21"/>
       <c r="T41" s="21"/>
-      <c r="U41" s="91"/>
-      <c r="V41" s="196"/>
-      <c r="W41" s="56" t="s">
+      <c r="U41" s="90"/>
+      <c r="V41" s="194"/>
+      <c r="W41" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="X41" s="53"/>
-      <c r="Y41" s="39"/>
-      <c r="Z41" s="45"/>
-      <c r="AA41" s="45"/>
-      <c r="AB41" s="45"/>
-      <c r="AC41" s="45"/>
-      <c r="AD41" s="53"/>
+      <c r="X41" s="52"/>
+      <c r="Y41" s="38"/>
+      <c r="Z41" s="44"/>
+      <c r="AA41" s="44"/>
+      <c r="AB41" s="44"/>
+      <c r="AC41" s="44"/>
+      <c r="AD41" s="52"/>
       <c r="AE41" s="21"/>
       <c r="AF41" s="21"/>
       <c r="AG41" s="21"/>
@@ -7415,10 +7509,10 @@
       <c r="AJ41" s="21"/>
       <c r="AK41" s="21"/>
       <c r="AL41" s="21"/>
-      <c r="AM41" s="92"/>
+      <c r="AM41" s="91"/>
     </row>
     <row r="42" spans="3:40" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C42" s="179"/>
+      <c r="C42" s="224"/>
       <c r="D42"/>
       <c r="E42"/>
       <c r="M42" s="2"/>
@@ -7429,59 +7523,59 @@
       <c r="R42" s="2"/>
       <c r="S42" s="2"/>
       <c r="T42" s="2"/>
-      <c r="U42" s="95"/>
-      <c r="V42" s="196"/>
-      <c r="W42" s="64" t="s">
+      <c r="U42" s="94"/>
+      <c r="V42" s="194"/>
+      <c r="W42" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="X42" s="66"/>
-      <c r="Y42" s="83"/>
-      <c r="Z42" s="62"/>
-      <c r="AA42" s="62"/>
-      <c r="AB42" s="62"/>
-      <c r="AC42" s="62"/>
-      <c r="AD42" s="66"/>
-      <c r="AE42" s="96"/>
-      <c r="AF42" s="96"/>
+      <c r="X42" s="65"/>
+      <c r="Y42" s="82"/>
+      <c r="Z42" s="61"/>
+      <c r="AA42" s="61"/>
+      <c r="AB42" s="61"/>
+      <c r="AC42" s="61"/>
+      <c r="AD42" s="65"/>
+      <c r="AE42" s="95"/>
+      <c r="AF42" s="95"/>
       <c r="AG42" s="21"/>
-      <c r="AH42" s="96"/>
-      <c r="AI42" s="96"/>
-      <c r="AJ42" s="96"/>
-      <c r="AK42" s="96"/>
-      <c r="AL42" s="96"/>
-      <c r="AM42" s="97"/>
+      <c r="AH42" s="95"/>
+      <c r="AI42" s="95"/>
+      <c r="AJ42" s="95"/>
+      <c r="AK42" s="95"/>
+      <c r="AL42" s="95"/>
+      <c r="AM42" s="96"/>
     </row>
     <row r="43" spans="3:40" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C43" s="211" t="s">
+      <c r="C43" s="199" t="s">
         <v>30</v>
       </c>
-      <c r="D43" s="216" t="s">
+      <c r="D43" s="184" t="s">
         <v>31</v>
       </c>
-      <c r="E43" s="98" t="s">
+      <c r="E43" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="F43" s="99"/>
-      <c r="G43" s="100"/>
+      <c r="F43" s="98"/>
+      <c r="G43" s="99"/>
       <c r="H43" s="27"/>
       <c r="I43" s="27"/>
       <c r="J43" s="27"/>
       <c r="K43" s="27"/>
-      <c r="L43" s="68"/>
-      <c r="M43" s="219" t="s">
+      <c r="L43" s="67"/>
+      <c r="M43" s="204" t="s">
         <v>32</v>
       </c>
-      <c r="N43" s="101" t="s">
+      <c r="N43" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="O43" s="46"/>
+      <c r="O43" s="45"/>
       <c r="P43" s="22"/>
-      <c r="Q43" s="45"/>
-      <c r="R43" s="42"/>
-      <c r="S43" s="45"/>
-      <c r="T43" s="45"/>
-      <c r="U43" s="99"/>
-      <c r="V43" s="222" t="s">
+      <c r="Q43" s="44"/>
+      <c r="R43" s="41"/>
+      <c r="S43" s="44"/>
+      <c r="T43" s="44"/>
+      <c r="U43" s="98"/>
+      <c r="V43" s="178" t="s">
         <v>33</v>
       </c>
       <c r="W43" s="29" t="s">
@@ -7494,168 +7588,168 @@
       <c r="AB43" s="24"/>
       <c r="AC43" s="24"/>
       <c r="AD43" s="28"/>
-      <c r="AE43" s="225" t="s">
+      <c r="AE43" s="181" t="s">
         <v>34</v>
       </c>
-      <c r="AF43" s="102" t="s">
+      <c r="AF43" s="101" t="s">
         <v>12</v>
       </c>
       <c r="AG43" s="26"/>
-      <c r="AH43" s="103"/>
-      <c r="AI43" s="45"/>
-      <c r="AJ43" s="45"/>
-      <c r="AK43" s="45"/>
-      <c r="AL43" s="45"/>
-      <c r="AM43" s="42"/>
-      <c r="AN43" s="104"/>
+      <c r="AH43" s="102"/>
+      <c r="AI43" s="44"/>
+      <c r="AJ43" s="44"/>
+      <c r="AK43" s="44"/>
+      <c r="AL43" s="44"/>
+      <c r="AM43" s="41"/>
+      <c r="AN43" s="103"/>
     </row>
     <row r="44" spans="3:40" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C44" s="212"/>
-      <c r="D44" s="217"/>
-      <c r="E44" s="37" t="s">
+      <c r="C44" s="200"/>
+      <c r="D44" s="185"/>
+      <c r="E44" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="F44" s="105"/>
-      <c r="G44" s="39"/>
-      <c r="H44" s="41"/>
-      <c r="I44" s="41"/>
-      <c r="J44" s="41"/>
-      <c r="K44" s="41"/>
-      <c r="L44" s="40"/>
-      <c r="M44" s="220"/>
-      <c r="N44" s="90" t="s">
+      <c r="F44" s="104"/>
+      <c r="G44" s="38"/>
+      <c r="H44" s="40"/>
+      <c r="I44" s="40"/>
+      <c r="J44" s="40"/>
+      <c r="K44" s="40"/>
+      <c r="L44" s="39"/>
+      <c r="M44" s="205"/>
+      <c r="N44" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="O44" s="46"/>
-      <c r="P44" s="42"/>
-      <c r="Q44" s="45"/>
-      <c r="R44" s="42"/>
-      <c r="S44" s="45"/>
-      <c r="T44" s="45"/>
-      <c r="U44" s="53"/>
-      <c r="V44" s="223"/>
-      <c r="W44" s="56" t="s">
+      <c r="O44" s="45"/>
+      <c r="P44" s="41"/>
+      <c r="Q44" s="44"/>
+      <c r="R44" s="41"/>
+      <c r="S44" s="44"/>
+      <c r="T44" s="44"/>
+      <c r="U44" s="52"/>
+      <c r="V44" s="179"/>
+      <c r="W44" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="X44" s="38"/>
-      <c r="Y44" s="54"/>
-      <c r="Z44" s="45"/>
-      <c r="AA44" s="45"/>
-      <c r="AB44" s="45"/>
-      <c r="AC44" s="45"/>
-      <c r="AD44" s="46"/>
-      <c r="AE44" s="226"/>
-      <c r="AF44" s="106" t="s">
+      <c r="X44" s="37"/>
+      <c r="Y44" s="53"/>
+      <c r="Z44" s="44"/>
+      <c r="AA44" s="44"/>
+      <c r="AB44" s="44"/>
+      <c r="AC44" s="44"/>
+      <c r="AD44" s="45"/>
+      <c r="AE44" s="182"/>
+      <c r="AF44" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="AG44" s="107"/>
-      <c r="AH44" s="39"/>
-      <c r="AI44" s="45"/>
-      <c r="AJ44" s="45"/>
-      <c r="AK44" s="45"/>
-      <c r="AL44" s="45"/>
-      <c r="AM44" s="55"/>
+      <c r="AG44" s="106"/>
+      <c r="AH44" s="38"/>
+      <c r="AI44" s="44"/>
+      <c r="AJ44" s="44"/>
+      <c r="AK44" s="44"/>
+      <c r="AL44" s="44"/>
+      <c r="AM44" s="54"/>
     </row>
     <row r="45" spans="3:40" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C45" s="212"/>
-      <c r="D45" s="217"/>
-      <c r="E45" s="43" t="s">
+      <c r="C45" s="200"/>
+      <c r="D45" s="185"/>
+      <c r="E45" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="F45" s="38"/>
-      <c r="G45" s="54"/>
-      <c r="H45" s="45"/>
-      <c r="I45" s="45"/>
-      <c r="J45" s="45"/>
-      <c r="K45" s="45"/>
-      <c r="L45" s="42"/>
-      <c r="M45" s="220"/>
-      <c r="N45" s="43" t="s">
+      <c r="F45" s="37"/>
+      <c r="G45" s="53"/>
+      <c r="H45" s="44"/>
+      <c r="I45" s="44"/>
+      <c r="J45" s="44"/>
+      <c r="K45" s="44"/>
+      <c r="L45" s="41"/>
+      <c r="M45" s="205"/>
+      <c r="N45" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="O45" s="46"/>
-      <c r="P45" s="42"/>
-      <c r="Q45" s="45"/>
-      <c r="R45" s="42"/>
-      <c r="S45" s="45"/>
-      <c r="T45" s="45"/>
-      <c r="U45" s="53"/>
-      <c r="V45" s="223"/>
-      <c r="W45" s="56" t="s">
+      <c r="O45" s="45"/>
+      <c r="P45" s="41"/>
+      <c r="Q45" s="44"/>
+      <c r="R45" s="41"/>
+      <c r="S45" s="44"/>
+      <c r="T45" s="44"/>
+      <c r="U45" s="52"/>
+      <c r="V45" s="179"/>
+      <c r="W45" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="X45" s="38"/>
-      <c r="Y45" s="54"/>
-      <c r="Z45" s="45"/>
-      <c r="AA45" s="45"/>
-      <c r="AB45" s="45"/>
-      <c r="AC45" s="45"/>
-      <c r="AD45" s="46"/>
-      <c r="AE45" s="226"/>
-      <c r="AF45" s="106" t="s">
+      <c r="X45" s="37"/>
+      <c r="Y45" s="53"/>
+      <c r="Z45" s="44"/>
+      <c r="AA45" s="44"/>
+      <c r="AB45" s="44"/>
+      <c r="AC45" s="44"/>
+      <c r="AD45" s="45"/>
+      <c r="AE45" s="182"/>
+      <c r="AF45" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="AG45" s="38"/>
-      <c r="AH45" s="108"/>
-      <c r="AI45" s="41"/>
-      <c r="AJ45" s="41"/>
-      <c r="AK45" s="41"/>
-      <c r="AL45" s="41"/>
-      <c r="AM45" s="109"/>
+      <c r="AG45" s="37"/>
+      <c r="AH45" s="107"/>
+      <c r="AI45" s="40"/>
+      <c r="AJ45" s="40"/>
+      <c r="AK45" s="40"/>
+      <c r="AL45" s="40"/>
+      <c r="AM45" s="108"/>
     </row>
     <row r="46" spans="3:40" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C46" s="212"/>
-      <c r="D46" s="218"/>
-      <c r="E46" s="110" t="s">
+      <c r="C46" s="200"/>
+      <c r="D46" s="186"/>
+      <c r="E46" s="109" t="s">
         <v>18</v>
       </c>
-      <c r="F46" s="81"/>
-      <c r="G46" s="61"/>
-      <c r="H46" s="62"/>
-      <c r="I46" s="62"/>
-      <c r="J46" s="62"/>
-      <c r="K46" s="62"/>
+      <c r="F46" s="80"/>
+      <c r="G46" s="60"/>
+      <c r="H46" s="61"/>
+      <c r="I46" s="61"/>
+      <c r="J46" s="61"/>
+      <c r="K46" s="61"/>
       <c r="L46" s="21"/>
-      <c r="M46" s="221"/>
-      <c r="N46" s="90" t="s">
+      <c r="M46" s="206"/>
+      <c r="N46" s="89" t="s">
         <v>18</v>
       </c>
-      <c r="O46" s="46"/>
-      <c r="P46" s="42"/>
-      <c r="Q46" s="45"/>
-      <c r="R46" s="42"/>
-      <c r="S46" s="45"/>
-      <c r="T46" s="45"/>
-      <c r="U46" s="66"/>
-      <c r="V46" s="224"/>
-      <c r="W46" s="47" t="s">
+      <c r="O46" s="45"/>
+      <c r="P46" s="41"/>
+      <c r="Q46" s="44"/>
+      <c r="R46" s="41"/>
+      <c r="S46" s="44"/>
+      <c r="T46" s="44"/>
+      <c r="U46" s="65"/>
+      <c r="V46" s="180"/>
+      <c r="W46" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="X46" s="46"/>
-      <c r="Y46" s="54"/>
-      <c r="Z46" s="45"/>
-      <c r="AA46" s="45"/>
-      <c r="AB46" s="45"/>
-      <c r="AC46" s="45"/>
-      <c r="AD46" s="46"/>
-      <c r="AE46" s="227"/>
-      <c r="AF46" s="111" t="s">
+      <c r="X46" s="45"/>
+      <c r="Y46" s="53"/>
+      <c r="Z46" s="44"/>
+      <c r="AA46" s="44"/>
+      <c r="AB46" s="44"/>
+      <c r="AC46" s="44"/>
+      <c r="AD46" s="45"/>
+      <c r="AE46" s="183"/>
+      <c r="AF46" s="110" t="s">
         <v>18</v>
       </c>
-      <c r="AG46" s="81"/>
-      <c r="AH46" s="83"/>
-      <c r="AI46" s="45"/>
-      <c r="AJ46" s="45"/>
-      <c r="AK46" s="45"/>
-      <c r="AL46" s="45"/>
-      <c r="AM46" s="55"/>
+      <c r="AG46" s="80"/>
+      <c r="AH46" s="82"/>
+      <c r="AI46" s="44"/>
+      <c r="AJ46" s="44"/>
+      <c r="AK46" s="44"/>
+      <c r="AL46" s="44"/>
+      <c r="AM46" s="54"/>
     </row>
     <row r="47" spans="3:40" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C47" s="213"/>
-      <c r="D47" s="216" t="s">
+      <c r="C47" s="201"/>
+      <c r="D47" s="184" t="s">
         <v>35</v>
       </c>
-      <c r="E47" s="112" t="s">
+      <c r="E47" s="111" t="s">
         <v>12</v>
       </c>
       <c r="F47" s="35"/>
@@ -7665,7 +7759,7 @@
       <c r="J47" s="24"/>
       <c r="K47" s="24"/>
       <c r="L47" s="28"/>
-      <c r="M47" s="230" t="s">
+      <c r="M47" s="209" t="s">
         <v>36</v>
       </c>
       <c r="N47" s="20" t="s">
@@ -7678,10 +7772,10 @@
       <c r="S47" s="24"/>
       <c r="T47" s="24"/>
       <c r="U47" s="26"/>
-      <c r="V47" s="222" t="s">
+      <c r="V47" s="178" t="s">
         <v>37</v>
       </c>
-      <c r="W47" s="113" t="s">
+      <c r="W47" s="112" t="s">
         <v>12</v>
       </c>
       <c r="X47" s="26"/>
@@ -7691,369 +7785,369 @@
       <c r="AB47" s="24"/>
       <c r="AC47" s="24"/>
       <c r="AD47" s="28"/>
-      <c r="AE47" s="225" t="s">
+      <c r="AE47" s="181" t="s">
         <v>38</v>
       </c>
-      <c r="AF47" s="102" t="s">
+      <c r="AF47" s="101" t="s">
         <v>12</v>
       </c>
       <c r="AG47" s="26"/>
-      <c r="AH47" s="22"/>
-      <c r="AI47" s="24"/>
-      <c r="AJ47" s="24"/>
-      <c r="AK47" s="24"/>
-      <c r="AL47" s="24"/>
-      <c r="AM47" s="36"/>
+      <c r="AH47" s="241"/>
+      <c r="AI47" s="242"/>
+      <c r="AJ47" s="242"/>
+      <c r="AK47" s="242"/>
+      <c r="AL47" s="242"/>
+      <c r="AM47" s="243"/>
     </row>
     <row r="48" spans="3:40" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C48" s="213"/>
-      <c r="D48" s="217"/>
-      <c r="E48" s="43" t="s">
+      <c r="C48" s="201"/>
+      <c r="D48" s="185"/>
+      <c r="E48" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="F48" s="38"/>
-      <c r="G48" s="54"/>
-      <c r="H48" s="45"/>
-      <c r="I48" s="45"/>
-      <c r="J48" s="45"/>
-      <c r="K48" s="45"/>
-      <c r="L48" s="46"/>
-      <c r="M48" s="231"/>
-      <c r="N48" s="101" t="s">
+      <c r="F48" s="37"/>
+      <c r="G48" s="53"/>
+      <c r="H48" s="44"/>
+      <c r="I48" s="44"/>
+      <c r="J48" s="44"/>
+      <c r="K48" s="44"/>
+      <c r="L48" s="45"/>
+      <c r="M48" s="210"/>
+      <c r="N48" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="O48" s="38"/>
-      <c r="P48" s="39"/>
-      <c r="Q48" s="41"/>
-      <c r="R48" s="41"/>
-      <c r="S48" s="41"/>
-      <c r="T48" s="41"/>
-      <c r="U48" s="38"/>
-      <c r="V48" s="223"/>
-      <c r="W48" s="114" t="s">
+      <c r="O48" s="37"/>
+      <c r="P48" s="38"/>
+      <c r="Q48" s="40"/>
+      <c r="R48" s="40"/>
+      <c r="S48" s="40"/>
+      <c r="T48" s="40"/>
+      <c r="U48" s="37"/>
+      <c r="V48" s="179"/>
+      <c r="W48" s="113" t="s">
         <v>16</v>
       </c>
-      <c r="X48" s="60"/>
-      <c r="Y48" s="39"/>
-      <c r="Z48" s="41"/>
-      <c r="AA48" s="41"/>
-      <c r="AB48" s="41"/>
-      <c r="AC48" s="41"/>
-      <c r="AD48" s="87"/>
-      <c r="AE48" s="226"/>
-      <c r="AF48" s="106" t="s">
+      <c r="X48" s="59"/>
+      <c r="Y48" s="38"/>
+      <c r="Z48" s="40"/>
+      <c r="AA48" s="40"/>
+      <c r="AB48" s="40"/>
+      <c r="AC48" s="40"/>
+      <c r="AD48" s="86"/>
+      <c r="AE48" s="182"/>
+      <c r="AF48" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="AG48" s="38"/>
-      <c r="AH48" s="108"/>
-      <c r="AI48" s="62"/>
-      <c r="AJ48" s="62"/>
-      <c r="AK48" s="62"/>
-      <c r="AL48" s="62"/>
-      <c r="AM48" s="92"/>
+      <c r="AG48" s="37"/>
+      <c r="AH48" s="257"/>
+      <c r="AI48" s="258"/>
+      <c r="AJ48" s="258"/>
+      <c r="AK48" s="258"/>
+      <c r="AL48" s="258"/>
+      <c r="AM48" s="259"/>
     </row>
     <row r="49" spans="3:40" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C49" s="213"/>
-      <c r="D49" s="217"/>
-      <c r="E49" s="43" t="s">
+      <c r="C49" s="201"/>
+      <c r="D49" s="185"/>
+      <c r="E49" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="F49" s="53"/>
-      <c r="G49" s="61"/>
-      <c r="H49" s="41"/>
-      <c r="I49" s="41"/>
-      <c r="J49" s="41"/>
-      <c r="K49" s="41"/>
-      <c r="L49" s="87"/>
-      <c r="M49" s="231"/>
-      <c r="N49" s="101" t="s">
+      <c r="F49" s="52"/>
+      <c r="G49" s="60"/>
+      <c r="H49" s="40"/>
+      <c r="I49" s="40"/>
+      <c r="J49" s="40"/>
+      <c r="K49" s="40"/>
+      <c r="L49" s="86"/>
+      <c r="M49" s="210"/>
+      <c r="N49" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="O49" s="38"/>
-      <c r="P49" s="39"/>
-      <c r="Q49" s="41"/>
-      <c r="R49" s="41"/>
-      <c r="S49" s="41"/>
-      <c r="T49" s="41"/>
-      <c r="U49" s="38"/>
-      <c r="V49" s="223"/>
-      <c r="W49" s="114" t="s">
+      <c r="O49" s="37"/>
+      <c r="P49" s="38"/>
+      <c r="Q49" s="40"/>
+      <c r="R49" s="40"/>
+      <c r="S49" s="40"/>
+      <c r="T49" s="40"/>
+      <c r="U49" s="37"/>
+      <c r="V49" s="179"/>
+      <c r="W49" s="113" t="s">
         <v>17</v>
       </c>
-      <c r="X49" s="38"/>
-      <c r="Y49" s="39"/>
-      <c r="Z49" s="41"/>
-      <c r="AA49" s="41"/>
-      <c r="AB49" s="41"/>
-      <c r="AC49" s="41"/>
-      <c r="AD49" s="87"/>
-      <c r="AE49" s="226"/>
-      <c r="AF49" s="106" t="s">
+      <c r="X49" s="37"/>
+      <c r="Y49" s="38"/>
+      <c r="Z49" s="40"/>
+      <c r="AA49" s="40"/>
+      <c r="AB49" s="40"/>
+      <c r="AC49" s="40"/>
+      <c r="AD49" s="86"/>
+      <c r="AE49" s="182"/>
+      <c r="AF49" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="AG49" s="115"/>
-      <c r="AH49" s="41"/>
-      <c r="AI49" s="41"/>
-      <c r="AJ49" s="41"/>
-      <c r="AK49" s="41"/>
-      <c r="AL49" s="41"/>
-      <c r="AM49" s="116"/>
-      <c r="AN49" s="104"/>
+      <c r="AG49" s="114"/>
+      <c r="AH49" s="253"/>
+      <c r="AI49" s="253"/>
+      <c r="AJ49" s="253"/>
+      <c r="AK49" s="253"/>
+      <c r="AL49" s="253"/>
+      <c r="AM49" s="260"/>
+      <c r="AN49" s="103"/>
     </row>
     <row r="50" spans="3:40" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C50" s="213"/>
-      <c r="D50" s="218"/>
-      <c r="E50" s="72" t="s">
+      <c r="C50" s="201"/>
+      <c r="D50" s="186"/>
+      <c r="E50" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="F50" s="66"/>
-      <c r="G50" s="83"/>
-      <c r="H50" s="45"/>
-      <c r="I50" s="45"/>
-      <c r="J50" s="45"/>
-      <c r="K50" s="45"/>
-      <c r="L50" s="46"/>
-      <c r="M50" s="232"/>
-      <c r="N50" s="58" t="s">
+      <c r="F50" s="65"/>
+      <c r="G50" s="82"/>
+      <c r="H50" s="44"/>
+      <c r="I50" s="44"/>
+      <c r="J50" s="44"/>
+      <c r="K50" s="44"/>
+      <c r="L50" s="45"/>
+      <c r="M50" s="211"/>
+      <c r="N50" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="O50" s="66"/>
-      <c r="P50" s="61"/>
-      <c r="Q50" s="63"/>
-      <c r="R50" s="63"/>
-      <c r="S50" s="63"/>
-      <c r="T50" s="62"/>
-      <c r="U50" s="107"/>
-      <c r="V50" s="224"/>
-      <c r="W50" s="117" t="s">
+      <c r="O50" s="65"/>
+      <c r="P50" s="60"/>
+      <c r="Q50" s="62"/>
+      <c r="R50" s="62"/>
+      <c r="S50" s="62"/>
+      <c r="T50" s="61"/>
+      <c r="U50" s="106"/>
+      <c r="V50" s="180"/>
+      <c r="W50" s="115" t="s">
         <v>18</v>
       </c>
-      <c r="X50" s="46"/>
-      <c r="Y50" s="54"/>
-      <c r="Z50" s="45"/>
-      <c r="AA50" s="45"/>
-      <c r="AB50" s="45"/>
-      <c r="AC50" s="45"/>
-      <c r="AD50" s="46"/>
-      <c r="AE50" s="227"/>
-      <c r="AF50" s="118" t="s">
+      <c r="X50" s="45"/>
+      <c r="Y50" s="53"/>
+      <c r="Z50" s="44"/>
+      <c r="AA50" s="44"/>
+      <c r="AB50" s="44"/>
+      <c r="AC50" s="44"/>
+      <c r="AD50" s="45"/>
+      <c r="AE50" s="183"/>
+      <c r="AF50" s="116" t="s">
         <v>18</v>
       </c>
-      <c r="AG50" s="66"/>
-      <c r="AH50" s="119"/>
-      <c r="AI50" s="45"/>
-      <c r="AJ50" s="45"/>
-      <c r="AK50" s="45"/>
-      <c r="AL50" s="45"/>
-      <c r="AM50" s="55"/>
+      <c r="AG50" s="65"/>
+      <c r="AH50" s="261"/>
+      <c r="AI50" s="245"/>
+      <c r="AJ50" s="245"/>
+      <c r="AK50" s="245"/>
+      <c r="AL50" s="245"/>
+      <c r="AM50" s="246"/>
     </row>
     <row r="51" spans="3:40" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C51" s="213"/>
-      <c r="D51" s="216" t="s">
+      <c r="C51" s="201"/>
+      <c r="D51" s="184" t="s">
         <v>39</v>
       </c>
-      <c r="E51" s="120" t="s">
+      <c r="E51" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="F51" s="99"/>
-      <c r="G51" s="22"/>
-      <c r="H51" s="24"/>
-      <c r="I51" s="24"/>
-      <c r="J51" s="24"/>
-      <c r="K51" s="24"/>
-      <c r="L51" s="28"/>
-      <c r="M51" s="233" t="s">
+      <c r="F51" s="98"/>
+      <c r="G51" s="241"/>
+      <c r="H51" s="242"/>
+      <c r="I51" s="242"/>
+      <c r="J51" s="242"/>
+      <c r="K51" s="242"/>
+      <c r="L51" s="252"/>
+      <c r="M51" s="187" t="s">
         <v>40</v>
       </c>
-      <c r="N51" s="101" t="s">
+      <c r="N51" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="O51" s="46"/>
+      <c r="O51" s="45"/>
       <c r="P51" s="22"/>
-      <c r="Q51" s="45"/>
-      <c r="R51" s="45"/>
-      <c r="S51" s="45"/>
+      <c r="Q51" s="44"/>
+      <c r="R51" s="44"/>
+      <c r="S51" s="44"/>
       <c r="T51" s="27"/>
       <c r="U51" s="26"/>
-      <c r="V51" s="222" t="s">
+      <c r="V51" s="178" t="s">
         <v>41</v>
       </c>
-      <c r="W51" s="113" t="s">
+      <c r="W51" s="112" t="s">
         <v>12</v>
       </c>
       <c r="X51" s="35"/>
-      <c r="Y51" s="22"/>
-      <c r="Z51" s="24"/>
-      <c r="AA51" s="24"/>
-      <c r="AB51" s="24"/>
-      <c r="AC51" s="24"/>
-      <c r="AD51" s="28"/>
-      <c r="AE51" s="225" t="s">
+      <c r="Y51" s="241"/>
+      <c r="Z51" s="242"/>
+      <c r="AA51" s="242"/>
+      <c r="AB51" s="242"/>
+      <c r="AC51" s="242"/>
+      <c r="AD51" s="252"/>
+      <c r="AE51" s="181" t="s">
         <v>42</v>
       </c>
-      <c r="AF51" s="102" t="s">
+      <c r="AF51" s="101" t="s">
         <v>12</v>
       </c>
       <c r="AG51" s="26"/>
       <c r="AH51" s="22"/>
-      <c r="AI51" s="121"/>
-      <c r="AJ51" s="121"/>
-      <c r="AK51" s="121"/>
-      <c r="AL51" s="121"/>
-      <c r="AM51" s="122"/>
+      <c r="AI51" s="118"/>
+      <c r="AJ51" s="118"/>
+      <c r="AK51" s="118"/>
+      <c r="AL51" s="118"/>
+      <c r="AM51" s="119"/>
     </row>
     <row r="52" spans="3:40" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C52" s="213"/>
-      <c r="D52" s="217"/>
-      <c r="E52" s="43" t="s">
+      <c r="C52" s="201"/>
+      <c r="D52" s="185"/>
+      <c r="E52" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="F52" s="38"/>
-      <c r="G52" s="39"/>
-      <c r="H52" s="41"/>
-      <c r="I52" s="41"/>
-      <c r="J52" s="41"/>
-      <c r="K52" s="41"/>
-      <c r="L52" s="87"/>
-      <c r="M52" s="234"/>
-      <c r="N52" s="90" t="s">
+      <c r="F52" s="37"/>
+      <c r="G52" s="248"/>
+      <c r="H52" s="253"/>
+      <c r="I52" s="253"/>
+      <c r="J52" s="253"/>
+      <c r="K52" s="253"/>
+      <c r="L52" s="254"/>
+      <c r="M52" s="188"/>
+      <c r="N52" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="O52" s="46"/>
-      <c r="P52" s="54"/>
-      <c r="Q52" s="45"/>
-      <c r="R52" s="45"/>
-      <c r="S52" s="45"/>
-      <c r="T52" s="41"/>
-      <c r="U52" s="38"/>
-      <c r="V52" s="223"/>
-      <c r="W52" s="114" t="s">
+      <c r="O52" s="45"/>
+      <c r="P52" s="53"/>
+      <c r="Q52" s="44"/>
+      <c r="R52" s="44"/>
+      <c r="S52" s="44"/>
+      <c r="T52" s="40"/>
+      <c r="U52" s="37"/>
+      <c r="V52" s="179"/>
+      <c r="W52" s="113" t="s">
         <v>16</v>
       </c>
-      <c r="X52" s="38"/>
-      <c r="Y52" s="54"/>
-      <c r="Z52" s="45"/>
-      <c r="AA52" s="45"/>
-      <c r="AB52" s="45"/>
-      <c r="AC52" s="45"/>
-      <c r="AD52" s="46"/>
-      <c r="AE52" s="226"/>
-      <c r="AF52" s="106" t="s">
+      <c r="X52" s="37"/>
+      <c r="Y52" s="244"/>
+      <c r="Z52" s="245"/>
+      <c r="AA52" s="245"/>
+      <c r="AB52" s="245"/>
+      <c r="AC52" s="245"/>
+      <c r="AD52" s="256"/>
+      <c r="AE52" s="182"/>
+      <c r="AF52" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="AG52" s="81"/>
-      <c r="AH52" s="108"/>
-      <c r="AI52" s="41"/>
-      <c r="AJ52" s="93"/>
-      <c r="AK52" s="93"/>
-      <c r="AL52" s="93"/>
-      <c r="AM52" s="123"/>
+      <c r="AG52" s="80"/>
+      <c r="AH52" s="107"/>
+      <c r="AI52" s="40"/>
+      <c r="AJ52" s="92"/>
+      <c r="AK52" s="92"/>
+      <c r="AL52" s="92"/>
+      <c r="AM52" s="120"/>
     </row>
     <row r="53" spans="3:40" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C53" s="213"/>
-      <c r="D53" s="217"/>
-      <c r="E53" s="124" t="s">
+      <c r="C53" s="201"/>
+      <c r="D53" s="185"/>
+      <c r="E53" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="F53" s="107"/>
-      <c r="G53" s="61"/>
-      <c r="H53" s="41"/>
-      <c r="I53" s="41"/>
-      <c r="J53" s="41"/>
-      <c r="K53" s="41"/>
-      <c r="L53" s="87"/>
-      <c r="M53" s="234"/>
-      <c r="N53" s="43" t="s">
+      <c r="F53" s="106"/>
+      <c r="G53" s="247"/>
+      <c r="H53" s="253"/>
+      <c r="I53" s="253"/>
+      <c r="J53" s="253"/>
+      <c r="K53" s="253"/>
+      <c r="L53" s="254"/>
+      <c r="M53" s="188"/>
+      <c r="N53" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="O53" s="46"/>
-      <c r="P53" s="39"/>
-      <c r="Q53" s="45"/>
-      <c r="R53" s="45"/>
-      <c r="S53" s="45"/>
-      <c r="T53" s="62"/>
-      <c r="U53" s="107"/>
-      <c r="V53" s="223"/>
-      <c r="W53" s="114" t="s">
+      <c r="O53" s="45"/>
+      <c r="P53" s="38"/>
+      <c r="Q53" s="44"/>
+      <c r="R53" s="44"/>
+      <c r="S53" s="44"/>
+      <c r="T53" s="61"/>
+      <c r="U53" s="106"/>
+      <c r="V53" s="179"/>
+      <c r="W53" s="113" t="s">
         <v>17</v>
       </c>
-      <c r="X53" s="60"/>
-      <c r="Y53" s="54"/>
-      <c r="Z53" s="45"/>
-      <c r="AA53" s="45"/>
-      <c r="AB53" s="45"/>
-      <c r="AC53" s="45"/>
-      <c r="AD53" s="46"/>
-      <c r="AE53" s="226"/>
-      <c r="AF53" s="106" t="s">
+      <c r="X53" s="59"/>
+      <c r="Y53" s="244"/>
+      <c r="Z53" s="245"/>
+      <c r="AA53" s="245"/>
+      <c r="AB53" s="245"/>
+      <c r="AC53" s="245"/>
+      <c r="AD53" s="256"/>
+      <c r="AE53" s="182"/>
+      <c r="AF53" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="AG53" s="81"/>
-      <c r="AH53" s="39"/>
-      <c r="AI53" s="108"/>
-      <c r="AJ53" s="108"/>
-      <c r="AK53" s="108"/>
-      <c r="AL53" s="108"/>
-      <c r="AM53" s="86"/>
+      <c r="AG53" s="80"/>
+      <c r="AH53" s="38"/>
+      <c r="AI53" s="107"/>
+      <c r="AJ53" s="107"/>
+      <c r="AK53" s="107"/>
+      <c r="AL53" s="107"/>
+      <c r="AM53" s="85"/>
     </row>
     <row r="54" spans="3:40" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C54" s="213"/>
-      <c r="D54" s="218"/>
-      <c r="E54" s="58" t="s">
+      <c r="C54" s="201"/>
+      <c r="D54" s="186"/>
+      <c r="E54" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="F54" s="66"/>
-      <c r="G54" s="83"/>
-      <c r="H54" s="63"/>
-      <c r="I54" s="63"/>
-      <c r="J54" s="63"/>
-      <c r="K54" s="63"/>
-      <c r="L54" s="125"/>
-      <c r="M54" s="235"/>
-      <c r="N54" s="72" t="s">
+      <c r="F54" s="65"/>
+      <c r="G54" s="249"/>
+      <c r="H54" s="250"/>
+      <c r="I54" s="250"/>
+      <c r="J54" s="250"/>
+      <c r="K54" s="250"/>
+      <c r="L54" s="255"/>
+      <c r="M54" s="189"/>
+      <c r="N54" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="O54" s="60"/>
-      <c r="P54" s="61"/>
-      <c r="Q54" s="63"/>
-      <c r="R54" s="63"/>
-      <c r="S54" s="62"/>
-      <c r="T54" s="63"/>
-      <c r="U54" s="66"/>
-      <c r="V54" s="224"/>
-      <c r="W54" s="126" t="s">
+      <c r="O54" s="59"/>
+      <c r="P54" s="60"/>
+      <c r="Q54" s="62"/>
+      <c r="R54" s="62"/>
+      <c r="S54" s="61"/>
+      <c r="T54" s="62"/>
+      <c r="U54" s="65"/>
+      <c r="V54" s="180"/>
+      <c r="W54" s="122" t="s">
         <v>18</v>
       </c>
-      <c r="X54" s="66"/>
-      <c r="Y54" s="54"/>
-      <c r="Z54" s="45"/>
-      <c r="AA54" s="45"/>
-      <c r="AB54" s="45"/>
-      <c r="AC54" s="45"/>
-      <c r="AD54" s="46"/>
-      <c r="AE54" s="227"/>
-      <c r="AF54" s="118" t="s">
+      <c r="X54" s="65"/>
+      <c r="Y54" s="244"/>
+      <c r="Z54" s="245"/>
+      <c r="AA54" s="245"/>
+      <c r="AB54" s="245"/>
+      <c r="AC54" s="245"/>
+      <c r="AD54" s="256"/>
+      <c r="AE54" s="183"/>
+      <c r="AF54" s="116" t="s">
         <v>18</v>
       </c>
-      <c r="AG54" s="127"/>
-      <c r="AH54" s="83"/>
-      <c r="AI54" s="63"/>
-      <c r="AJ54" s="63"/>
-      <c r="AK54" s="63"/>
-      <c r="AL54" s="128"/>
-      <c r="AM54" s="84"/>
+      <c r="AG54" s="123"/>
+      <c r="AH54" s="82"/>
+      <c r="AI54" s="62"/>
+      <c r="AJ54" s="62"/>
+      <c r="AK54" s="62"/>
+      <c r="AL54" s="124"/>
+      <c r="AM54" s="83"/>
     </row>
     <row r="55" spans="3:40" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C55" s="213"/>
-      <c r="D55" s="129"/>
-      <c r="O55" s="130"/>
-      <c r="P55" s="130"/>
-      <c r="S55" s="130"/>
-      <c r="U55" s="91"/>
-      <c r="V55" s="222" t="s">
+      <c r="C55" s="201"/>
+      <c r="D55" s="125"/>
+      <c r="O55" s="126"/>
+      <c r="P55" s="126"/>
+      <c r="S55" s="126"/>
+      <c r="U55" s="90"/>
+      <c r="V55" s="178" t="s">
         <v>43</v>
       </c>
-      <c r="W55" s="113" t="s">
+      <c r="W55" s="112" t="s">
         <v>12</v>
       </c>
       <c r="X55" s="35"/>
@@ -8063,18 +8157,18 @@
       <c r="AB55" s="24"/>
       <c r="AC55" s="24"/>
       <c r="AD55" s="28"/>
-      <c r="AF55" s="131"/>
-      <c r="AG55" s="132"/>
-      <c r="AH55" s="133"/>
-      <c r="AI55" s="133"/>
-      <c r="AJ55" s="133"/>
-      <c r="AK55" s="133"/>
-      <c r="AL55" s="132"/>
-      <c r="AM55" s="134"/>
+      <c r="AF55" s="127"/>
+      <c r="AG55" s="128"/>
+      <c r="AH55" s="129"/>
+      <c r="AI55" s="129"/>
+      <c r="AJ55" s="129"/>
+      <c r="AK55" s="129"/>
+      <c r="AL55" s="128"/>
+      <c r="AM55" s="130"/>
     </row>
     <row r="56" spans="3:40" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C56" s="214"/>
-      <c r="D56" s="135"/>
+      <c r="C56" s="202"/>
+      <c r="D56" s="131"/>
       <c r="F56" s="21"/>
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
@@ -8082,36 +8176,36 @@
       <c r="J56" s="21"/>
       <c r="K56" s="21"/>
       <c r="L56" s="21"/>
-      <c r="O56" s="133"/>
-      <c r="P56" s="133"/>
-      <c r="Q56" s="133"/>
-      <c r="R56" s="133"/>
-      <c r="S56" s="133"/>
-      <c r="T56" s="133"/>
-      <c r="U56" s="136"/>
-      <c r="V56" s="223"/>
-      <c r="W56" s="114" t="s">
+      <c r="O56" s="129"/>
+      <c r="P56" s="129"/>
+      <c r="Q56" s="129"/>
+      <c r="R56" s="129"/>
+      <c r="S56" s="129"/>
+      <c r="T56" s="129"/>
+      <c r="U56" s="132"/>
+      <c r="V56" s="179"/>
+      <c r="W56" s="113" t="s">
         <v>16</v>
       </c>
-      <c r="X56" s="53"/>
-      <c r="Y56" s="54"/>
-      <c r="Z56" s="45"/>
-      <c r="AA56" s="45"/>
-      <c r="AB56" s="45"/>
-      <c r="AC56" s="45"/>
-      <c r="AD56" s="46"/>
-      <c r="AF56" s="131"/>
-      <c r="AG56" s="133"/>
-      <c r="AH56" s="133"/>
-      <c r="AI56" s="133"/>
-      <c r="AJ56" s="133"/>
-      <c r="AK56" s="133"/>
-      <c r="AL56" s="133"/>
-      <c r="AM56" s="134"/>
+      <c r="X56" s="52"/>
+      <c r="Y56" s="53"/>
+      <c r="Z56" s="44"/>
+      <c r="AA56" s="44"/>
+      <c r="AB56" s="44"/>
+      <c r="AC56" s="44"/>
+      <c r="AD56" s="45"/>
+      <c r="AF56" s="127"/>
+      <c r="AG56" s="129"/>
+      <c r="AH56" s="129"/>
+      <c r="AI56" s="129"/>
+      <c r="AJ56" s="129"/>
+      <c r="AK56" s="129"/>
+      <c r="AL56" s="129"/>
+      <c r="AM56" s="130"/>
     </row>
     <row r="57" spans="3:40" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C57" s="214"/>
-      <c r="D57" s="135"/>
+      <c r="C57" s="202"/>
+      <c r="D57" s="131"/>
       <c r="F57" s="21"/>
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
@@ -8119,416 +8213,416 @@
       <c r="J57" s="21"/>
       <c r="K57" s="21"/>
       <c r="L57" s="21"/>
-      <c r="O57" s="133"/>
-      <c r="P57" s="133"/>
-      <c r="Q57" s="133"/>
-      <c r="R57" s="133"/>
-      <c r="S57" s="133"/>
-      <c r="T57" s="133"/>
-      <c r="U57" s="136"/>
-      <c r="V57" s="223"/>
-      <c r="W57" s="114" t="s">
+      <c r="O57" s="129"/>
+      <c r="P57" s="129"/>
+      <c r="Q57" s="129"/>
+      <c r="R57" s="129"/>
+      <c r="S57" s="129"/>
+      <c r="T57" s="129"/>
+      <c r="U57" s="132"/>
+      <c r="V57" s="179"/>
+      <c r="W57" s="113" t="s">
         <v>17</v>
       </c>
-      <c r="X57" s="53"/>
-      <c r="Y57" s="61"/>
-      <c r="Z57" s="62"/>
-      <c r="AA57" s="62"/>
-      <c r="AB57" s="62"/>
-      <c r="AC57" s="62"/>
-      <c r="AD57" s="60"/>
-      <c r="AF57" s="131"/>
-      <c r="AG57" s="133"/>
-      <c r="AH57" s="133"/>
-      <c r="AI57" s="133"/>
-      <c r="AJ57" s="133"/>
-      <c r="AK57" s="133"/>
-      <c r="AL57" s="133"/>
-      <c r="AM57" s="134"/>
+      <c r="X57" s="52"/>
+      <c r="Y57" s="60"/>
+      <c r="Z57" s="61"/>
+      <c r="AA57" s="61"/>
+      <c r="AB57" s="61"/>
+      <c r="AC57" s="61"/>
+      <c r="AD57" s="59"/>
+      <c r="AF57" s="127"/>
+      <c r="AG57" s="129"/>
+      <c r="AH57" s="129"/>
+      <c r="AI57" s="129"/>
+      <c r="AJ57" s="129"/>
+      <c r="AK57" s="129"/>
+      <c r="AL57" s="129"/>
+      <c r="AM57" s="130"/>
     </row>
     <row r="58" spans="3:40" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C58" s="215"/>
-      <c r="D58" s="137"/>
-      <c r="E58" s="138"/>
-      <c r="F58" s="138"/>
-      <c r="G58" s="138"/>
-      <c r="H58" s="138"/>
-      <c r="I58" s="138"/>
-      <c r="J58" s="138"/>
-      <c r="K58" s="138"/>
-      <c r="L58" s="138"/>
-      <c r="M58" s="139"/>
-      <c r="N58" s="139"/>
-      <c r="O58" s="139"/>
-      <c r="P58" s="139"/>
-      <c r="Q58" s="139"/>
-      <c r="R58" s="139"/>
-      <c r="S58" s="139"/>
-      <c r="T58" s="139"/>
-      <c r="U58" s="140"/>
-      <c r="V58" s="224"/>
-      <c r="W58" s="117" t="s">
+      <c r="C58" s="203"/>
+      <c r="D58" s="133"/>
+      <c r="E58" s="134"/>
+      <c r="F58" s="134"/>
+      <c r="G58" s="134"/>
+      <c r="H58" s="134"/>
+      <c r="I58" s="134"/>
+      <c r="J58" s="134"/>
+      <c r="K58" s="134"/>
+      <c r="L58" s="134"/>
+      <c r="M58" s="135"/>
+      <c r="N58" s="135"/>
+      <c r="O58" s="135"/>
+      <c r="P58" s="135"/>
+      <c r="Q58" s="135"/>
+      <c r="R58" s="135"/>
+      <c r="S58" s="135"/>
+      <c r="T58" s="135"/>
+      <c r="U58" s="136"/>
+      <c r="V58" s="180"/>
+      <c r="W58" s="115" t="s">
         <v>18</v>
       </c>
-      <c r="X58" s="105"/>
-      <c r="Y58" s="83"/>
-      <c r="Z58" s="63"/>
-      <c r="AA58" s="63"/>
-      <c r="AB58" s="63"/>
-      <c r="AC58" s="141"/>
-      <c r="AD58" s="142"/>
-      <c r="AE58" s="143"/>
-      <c r="AF58" s="144"/>
-      <c r="AG58" s="138"/>
-      <c r="AH58" s="138"/>
-      <c r="AI58" s="138"/>
-      <c r="AJ58" s="138"/>
-      <c r="AK58" s="138"/>
-      <c r="AL58" s="138"/>
-      <c r="AM58" s="145"/>
+      <c r="X58" s="104"/>
+      <c r="Y58" s="82"/>
+      <c r="Z58" s="62"/>
+      <c r="AA58" s="62"/>
+      <c r="AB58" s="62"/>
+      <c r="AC58" s="137"/>
+      <c r="AD58" s="138"/>
+      <c r="AE58" s="139"/>
+      <c r="AF58" s="140"/>
+      <c r="AG58" s="134"/>
+      <c r="AH58" s="134"/>
+      <c r="AI58" s="134"/>
+      <c r="AJ58" s="134"/>
+      <c r="AK58" s="134"/>
+      <c r="AL58" s="134"/>
+      <c r="AM58" s="141"/>
     </row>
     <row r="59" spans="3:40" x14ac:dyDescent="0.25">
-      <c r="C59" s="130"/>
-      <c r="X59" s="130"/>
-      <c r="Y59" s="130"/>
-      <c r="AC59" s="130"/>
-      <c r="AD59" s="130"/>
+      <c r="C59" s="126"/>
+      <c r="X59" s="126"/>
+      <c r="Y59" s="126"/>
+      <c r="AC59" s="126"/>
+      <c r="AD59" s="126"/>
     </row>
     <row r="61" spans="3:40" x14ac:dyDescent="0.25">
-      <c r="C61" s="172"/>
-      <c r="D61" s="172"/>
-      <c r="E61" s="172"/>
-      <c r="F61" s="172"/>
-      <c r="G61" s="172"/>
-      <c r="H61" s="172"/>
-      <c r="I61" s="172"/>
-      <c r="J61" s="172"/>
-      <c r="K61" s="172"/>
-      <c r="L61" s="172"/>
-      <c r="M61" s="172"/>
-      <c r="N61" s="172"/>
-      <c r="O61" s="172"/>
-      <c r="P61" s="172"/>
-      <c r="Q61" s="172"/>
-      <c r="R61" s="172"/>
-      <c r="S61" s="172"/>
-      <c r="T61" s="172"/>
-      <c r="U61" s="172"/>
+      <c r="C61" s="265"/>
+      <c r="D61" s="265"/>
+      <c r="E61" s="265"/>
+      <c r="F61" s="265"/>
+      <c r="G61" s="265"/>
+      <c r="H61" s="265"/>
+      <c r="I61" s="265"/>
+      <c r="J61" s="265"/>
+      <c r="K61" s="265"/>
+      <c r="L61" s="265"/>
+      <c r="M61" s="265"/>
+      <c r="N61" s="265"/>
+      <c r="O61" s="265"/>
+      <c r="P61" s="266"/>
+      <c r="Q61" s="266"/>
+      <c r="R61" s="266"/>
+      <c r="S61" s="266"/>
+      <c r="T61" s="266"/>
+      <c r="U61" s="266"/>
     </row>
     <row r="62" spans="3:40" x14ac:dyDescent="0.25">
-      <c r="C62" s="172"/>
-      <c r="D62" s="172"/>
-      <c r="E62" s="172"/>
-      <c r="F62" s="172"/>
-      <c r="G62" s="172"/>
-      <c r="H62" s="172"/>
-      <c r="I62" s="172"/>
-      <c r="J62" s="172"/>
-      <c r="K62" s="172"/>
-      <c r="L62" s="172"/>
-      <c r="M62" s="172"/>
-      <c r="N62" s="172"/>
-      <c r="O62" s="172"/>
-      <c r="P62" s="172"/>
-      <c r="Q62" s="172"/>
-      <c r="R62" s="172"/>
-      <c r="S62" s="172"/>
-      <c r="T62" s="172"/>
-      <c r="U62" s="172"/>
+      <c r="C62" s="265"/>
+      <c r="D62" s="265"/>
+      <c r="E62" s="265"/>
+      <c r="F62" s="265"/>
+      <c r="G62" s="265"/>
+      <c r="H62" s="265"/>
+      <c r="I62" s="265"/>
+      <c r="J62" s="265"/>
+      <c r="K62" s="265"/>
+      <c r="L62" s="265"/>
+      <c r="M62" s="265"/>
+      <c r="N62" s="265"/>
+      <c r="O62" s="265"/>
+      <c r="P62" s="266"/>
+      <c r="Q62" s="266"/>
+      <c r="R62" s="266"/>
+      <c r="S62" s="266"/>
+      <c r="T62" s="266"/>
+      <c r="U62" s="266"/>
     </row>
     <row r="63" spans="3:40" x14ac:dyDescent="0.25">
-      <c r="C63" s="172"/>
-      <c r="D63" s="172"/>
-      <c r="E63" s="172"/>
-      <c r="F63" s="172"/>
-      <c r="G63" s="172"/>
-      <c r="H63" s="172"/>
-      <c r="I63" s="172"/>
-      <c r="J63" s="172"/>
-      <c r="K63" s="172"/>
-      <c r="L63" s="172"/>
-      <c r="M63" s="172"/>
-      <c r="N63" s="172"/>
-      <c r="O63" s="172"/>
-      <c r="P63" s="172"/>
-      <c r="Q63" s="172"/>
-      <c r="R63" s="172"/>
-      <c r="S63" s="172"/>
-      <c r="T63" s="172"/>
-      <c r="U63" s="172"/>
+      <c r="C63" s="265"/>
+      <c r="D63" s="265"/>
+      <c r="E63" s="265"/>
+      <c r="F63" s="265"/>
+      <c r="G63" s="265"/>
+      <c r="H63" s="265"/>
+      <c r="I63" s="265"/>
+      <c r="J63" s="265"/>
+      <c r="K63" s="265"/>
+      <c r="L63" s="265"/>
+      <c r="M63" s="265"/>
+      <c r="N63" s="265"/>
+      <c r="O63" s="265"/>
+      <c r="P63" s="266"/>
+      <c r="Q63" s="266"/>
+      <c r="R63" s="266"/>
+      <c r="S63" s="266"/>
+      <c r="T63" s="266"/>
+      <c r="U63" s="266"/>
     </row>
     <row r="64" spans="3:40" x14ac:dyDescent="0.25">
-      <c r="C64" s="172"/>
-      <c r="D64" s="172"/>
-      <c r="E64" s="172"/>
-      <c r="F64" s="172"/>
-      <c r="G64" s="172"/>
-      <c r="H64" s="172"/>
-      <c r="I64" s="172"/>
-      <c r="J64" s="172"/>
-      <c r="K64" s="172"/>
-      <c r="L64" s="172"/>
-      <c r="M64" s="172"/>
-      <c r="N64" s="172"/>
-      <c r="O64" s="172"/>
-      <c r="P64" s="172"/>
-      <c r="Q64" s="172"/>
-      <c r="R64" s="172"/>
-      <c r="S64" s="172"/>
-      <c r="T64" s="172"/>
-      <c r="U64" s="172"/>
+      <c r="C64" s="265"/>
+      <c r="D64" s="265"/>
+      <c r="E64" s="265"/>
+      <c r="F64" s="265"/>
+      <c r="G64" s="265"/>
+      <c r="H64" s="265"/>
+      <c r="I64" s="265"/>
+      <c r="J64" s="265"/>
+      <c r="K64" s="265"/>
+      <c r="L64" s="265"/>
+      <c r="M64" s="265"/>
+      <c r="N64" s="265"/>
+      <c r="O64" s="265"/>
+      <c r="P64" s="266"/>
+      <c r="Q64" s="266"/>
+      <c r="R64" s="266"/>
+      <c r="S64" s="266"/>
+      <c r="T64" s="266"/>
+      <c r="U64" s="266"/>
     </row>
     <row r="65" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C65" s="172"/>
-      <c r="D65" s="172"/>
-      <c r="E65" s="172"/>
-      <c r="F65" s="172"/>
-      <c r="G65" s="172"/>
-      <c r="H65" s="172"/>
-      <c r="I65" s="172"/>
-      <c r="J65" s="172"/>
-      <c r="K65" s="172"/>
-      <c r="L65" s="172"/>
-      <c r="M65" s="172"/>
-      <c r="N65" s="172"/>
-      <c r="O65" s="172"/>
-      <c r="P65" s="172"/>
-      <c r="Q65" s="172"/>
-      <c r="R65" s="172"/>
-      <c r="S65" s="172"/>
-      <c r="T65" s="172"/>
-      <c r="U65" s="172"/>
+      <c r="C65" s="265"/>
+      <c r="D65" s="265"/>
+      <c r="E65" s="265"/>
+      <c r="F65" s="265"/>
+      <c r="G65" s="265"/>
+      <c r="H65" s="265"/>
+      <c r="I65" s="265"/>
+      <c r="J65" s="265"/>
+      <c r="K65" s="265"/>
+      <c r="L65" s="265"/>
+      <c r="M65" s="265"/>
+      <c r="N65" s="265"/>
+      <c r="O65" s="265"/>
+      <c r="P65" s="266"/>
+      <c r="Q65" s="266"/>
+      <c r="R65" s="266"/>
+      <c r="S65" s="266"/>
+      <c r="T65" s="266"/>
+      <c r="U65" s="266"/>
     </row>
     <row r="66" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C66" s="172"/>
-      <c r="D66" s="172"/>
-      <c r="E66" s="172"/>
-      <c r="F66" s="172"/>
-      <c r="G66" s="172"/>
-      <c r="H66" s="172"/>
-      <c r="I66" s="172"/>
-      <c r="J66" s="172"/>
-      <c r="K66" s="172"/>
-      <c r="L66" s="172"/>
-      <c r="M66" s="172"/>
-      <c r="N66" s="172"/>
-      <c r="O66" s="172"/>
-      <c r="P66" s="172"/>
-      <c r="Q66" s="172"/>
-      <c r="R66" s="172"/>
-      <c r="S66" s="172"/>
-      <c r="T66" s="172"/>
-      <c r="U66" s="172"/>
+      <c r="C66" s="265"/>
+      <c r="D66" s="265"/>
+      <c r="E66" s="265"/>
+      <c r="F66" s="265"/>
+      <c r="G66" s="265"/>
+      <c r="H66" s="265"/>
+      <c r="I66" s="265"/>
+      <c r="J66" s="265"/>
+      <c r="K66" s="265"/>
+      <c r="L66" s="265"/>
+      <c r="M66" s="265"/>
+      <c r="N66" s="265"/>
+      <c r="O66" s="265"/>
+      <c r="P66" s="266"/>
+      <c r="Q66" s="266"/>
+      <c r="R66" s="266"/>
+      <c r="S66" s="266"/>
+      <c r="T66" s="266"/>
+      <c r="U66" s="266"/>
     </row>
     <row r="67" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C67" s="172"/>
-      <c r="D67" s="172"/>
-      <c r="E67" s="172"/>
-      <c r="F67" s="172"/>
-      <c r="G67" s="172"/>
-      <c r="H67" s="172"/>
-      <c r="I67" s="172"/>
-      <c r="J67" s="172"/>
-      <c r="K67" s="172"/>
-      <c r="L67" s="172"/>
-      <c r="M67" s="172"/>
-      <c r="N67" s="172"/>
-      <c r="O67" s="172"/>
-      <c r="P67" s="172"/>
-      <c r="Q67" s="172"/>
-      <c r="R67" s="172"/>
-      <c r="S67" s="172"/>
-      <c r="T67" s="172"/>
-      <c r="U67" s="172"/>
+      <c r="C67" s="265"/>
+      <c r="D67" s="265"/>
+      <c r="E67" s="265"/>
+      <c r="F67" s="265"/>
+      <c r="G67" s="265"/>
+      <c r="H67" s="265"/>
+      <c r="I67" s="265"/>
+      <c r="J67" s="265"/>
+      <c r="K67" s="265"/>
+      <c r="L67" s="265"/>
+      <c r="M67" s="265"/>
+      <c r="N67" s="265"/>
+      <c r="O67" s="265"/>
+      <c r="P67" s="266"/>
+      <c r="Q67" s="266"/>
+      <c r="R67" s="266"/>
+      <c r="S67" s="266"/>
+      <c r="T67" s="266"/>
+      <c r="U67" s="266"/>
     </row>
     <row r="68" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C68" s="172"/>
-      <c r="D68" s="172"/>
-      <c r="E68" s="172"/>
-      <c r="F68" s="172"/>
-      <c r="G68" s="172"/>
-      <c r="H68" s="172"/>
-      <c r="I68" s="172"/>
-      <c r="J68" s="172"/>
-      <c r="K68" s="172"/>
-      <c r="L68" s="172"/>
-      <c r="M68" s="172"/>
-      <c r="N68" s="172"/>
-      <c r="O68" s="172"/>
-      <c r="P68" s="172"/>
-      <c r="Q68" s="172"/>
-      <c r="R68" s="172"/>
-      <c r="S68" s="172"/>
-      <c r="T68" s="172"/>
-      <c r="U68" s="172"/>
+      <c r="C68" s="265"/>
+      <c r="D68" s="265"/>
+      <c r="E68" s="265"/>
+      <c r="F68" s="265"/>
+      <c r="G68" s="265"/>
+      <c r="H68" s="265"/>
+      <c r="I68" s="265"/>
+      <c r="J68" s="265"/>
+      <c r="K68" s="265"/>
+      <c r="L68" s="265"/>
+      <c r="M68" s="265"/>
+      <c r="N68" s="265"/>
+      <c r="O68" s="265"/>
+      <c r="P68" s="266"/>
+      <c r="Q68" s="266"/>
+      <c r="R68" s="266"/>
+      <c r="S68" s="266"/>
+      <c r="T68" s="266"/>
+      <c r="U68" s="266"/>
     </row>
     <row r="69" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C69" s="172"/>
-      <c r="D69" s="172"/>
-      <c r="E69" s="172"/>
-      <c r="F69" s="172"/>
-      <c r="G69" s="172"/>
-      <c r="H69" s="172"/>
-      <c r="I69" s="172"/>
-      <c r="J69" s="172"/>
-      <c r="K69" s="172"/>
-      <c r="L69" s="172"/>
-      <c r="M69" s="172"/>
-      <c r="N69" s="172"/>
-      <c r="O69" s="172"/>
-      <c r="P69" s="172"/>
-      <c r="Q69" s="172"/>
-      <c r="R69" s="172"/>
-      <c r="S69" s="172"/>
-      <c r="T69" s="172"/>
-      <c r="U69" s="172"/>
+      <c r="C69" s="265"/>
+      <c r="D69" s="265"/>
+      <c r="E69" s="265"/>
+      <c r="F69" s="265"/>
+      <c r="G69" s="265"/>
+      <c r="H69" s="265"/>
+      <c r="I69" s="265"/>
+      <c r="J69" s="265"/>
+      <c r="K69" s="265"/>
+      <c r="L69" s="265"/>
+      <c r="M69" s="265"/>
+      <c r="N69" s="265"/>
+      <c r="O69" s="265"/>
+      <c r="P69" s="266"/>
+      <c r="Q69" s="266"/>
+      <c r="R69" s="266"/>
+      <c r="S69" s="266"/>
+      <c r="T69" s="266"/>
+      <c r="U69" s="266"/>
     </row>
     <row r="70" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C70" s="172"/>
-      <c r="D70" s="172"/>
-      <c r="E70" s="172"/>
-      <c r="F70" s="172"/>
-      <c r="G70" s="172"/>
-      <c r="H70" s="172"/>
-      <c r="I70" s="172"/>
-      <c r="J70" s="172"/>
-      <c r="K70" s="172"/>
-      <c r="L70" s="172"/>
-      <c r="M70" s="172"/>
-      <c r="N70" s="172"/>
-      <c r="O70" s="172"/>
-      <c r="P70" s="172"/>
-      <c r="Q70" s="172"/>
-      <c r="R70" s="172"/>
-      <c r="S70" s="172"/>
-      <c r="T70" s="172"/>
-      <c r="U70" s="172"/>
+      <c r="C70" s="265"/>
+      <c r="D70" s="265"/>
+      <c r="E70" s="265"/>
+      <c r="F70" s="265"/>
+      <c r="G70" s="265"/>
+      <c r="H70" s="265"/>
+      <c r="I70" s="265"/>
+      <c r="J70" s="265"/>
+      <c r="K70" s="265"/>
+      <c r="L70" s="265"/>
+      <c r="M70" s="265"/>
+      <c r="N70" s="265"/>
+      <c r="O70" s="265"/>
+      <c r="P70" s="266"/>
+      <c r="Q70" s="266"/>
+      <c r="R70" s="266"/>
+      <c r="S70" s="266"/>
+      <c r="T70" s="266"/>
+      <c r="U70" s="266"/>
     </row>
     <row r="71" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C71" s="172"/>
-      <c r="D71" s="172"/>
-      <c r="E71" s="172"/>
-      <c r="F71" s="172"/>
-      <c r="G71" s="172"/>
-      <c r="H71" s="172"/>
-      <c r="I71" s="172"/>
-      <c r="J71" s="172"/>
-      <c r="K71" s="172"/>
-      <c r="L71" s="172"/>
-      <c r="M71" s="172"/>
-      <c r="N71" s="172"/>
-      <c r="O71" s="172"/>
-      <c r="P71" s="172"/>
-      <c r="Q71" s="172"/>
-      <c r="R71" s="172"/>
-      <c r="S71" s="172"/>
-      <c r="T71" s="172"/>
-      <c r="U71" s="172"/>
+      <c r="C71" s="265"/>
+      <c r="D71" s="265"/>
+      <c r="E71" s="265"/>
+      <c r="F71" s="265"/>
+      <c r="G71" s="265"/>
+      <c r="H71" s="265"/>
+      <c r="I71" s="265"/>
+      <c r="J71" s="265"/>
+      <c r="K71" s="265"/>
+      <c r="L71" s="265"/>
+      <c r="M71" s="265"/>
+      <c r="N71" s="265"/>
+      <c r="O71" s="265"/>
+      <c r="P71" s="266"/>
+      <c r="Q71" s="266"/>
+      <c r="R71" s="266"/>
+      <c r="S71" s="266"/>
+      <c r="T71" s="266"/>
+      <c r="U71" s="266"/>
     </row>
     <row r="72" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C72" s="172"/>
-      <c r="D72" s="172"/>
-      <c r="E72" s="172"/>
-      <c r="F72" s="172"/>
-      <c r="G72" s="172"/>
-      <c r="H72" s="172"/>
-      <c r="I72" s="172"/>
-      <c r="J72" s="172"/>
-      <c r="K72" s="172"/>
-      <c r="L72" s="172"/>
-      <c r="M72" s="172"/>
-      <c r="N72" s="172"/>
-      <c r="O72" s="172"/>
-      <c r="P72" s="172"/>
-      <c r="Q72" s="172"/>
-      <c r="R72" s="172"/>
-      <c r="S72" s="172"/>
-      <c r="T72" s="172"/>
-      <c r="U72" s="172"/>
+      <c r="C72" s="265"/>
+      <c r="D72" s="265"/>
+      <c r="E72" s="265"/>
+      <c r="F72" s="265"/>
+      <c r="G72" s="265"/>
+      <c r="H72" s="265"/>
+      <c r="I72" s="265"/>
+      <c r="J72" s="265"/>
+      <c r="K72" s="265"/>
+      <c r="L72" s="265"/>
+      <c r="M72" s="265"/>
+      <c r="N72" s="265"/>
+      <c r="O72" s="265"/>
+      <c r="P72" s="266"/>
+      <c r="Q72" s="266"/>
+      <c r="R72" s="266"/>
+      <c r="S72" s="266"/>
+      <c r="T72" s="266"/>
+      <c r="U72" s="266"/>
     </row>
     <row r="73" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C73" s="172"/>
-      <c r="D73" s="172"/>
-      <c r="E73" s="172"/>
-      <c r="F73" s="172"/>
-      <c r="G73" s="172"/>
-      <c r="H73" s="172"/>
-      <c r="I73" s="172"/>
-      <c r="J73" s="172"/>
-      <c r="K73" s="172"/>
-      <c r="L73" s="172"/>
-      <c r="M73" s="172"/>
-      <c r="N73" s="172"/>
-      <c r="O73" s="172"/>
-      <c r="P73" s="172"/>
-      <c r="Q73" s="172"/>
-      <c r="R73" s="172"/>
-      <c r="S73" s="172"/>
-      <c r="T73" s="172"/>
-      <c r="U73" s="172"/>
+      <c r="C73" s="265"/>
+      <c r="D73" s="265"/>
+      <c r="E73" s="265"/>
+      <c r="F73" s="265"/>
+      <c r="G73" s="265"/>
+      <c r="H73" s="265"/>
+      <c r="I73" s="265"/>
+      <c r="J73" s="265"/>
+      <c r="K73" s="265"/>
+      <c r="L73" s="265"/>
+      <c r="M73" s="265"/>
+      <c r="N73" s="265"/>
+      <c r="O73" s="265"/>
+      <c r="P73" s="266"/>
+      <c r="Q73" s="266"/>
+      <c r="R73" s="266"/>
+      <c r="S73" s="266"/>
+      <c r="T73" s="266"/>
+      <c r="U73" s="266"/>
     </row>
     <row r="74" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C74" s="172"/>
-      <c r="D74" s="172"/>
-      <c r="E74" s="172"/>
-      <c r="F74" s="172"/>
-      <c r="G74" s="172"/>
-      <c r="H74" s="172"/>
-      <c r="I74" s="172"/>
-      <c r="J74" s="172"/>
-      <c r="K74" s="172"/>
-      <c r="L74" s="172"/>
-      <c r="M74" s="172"/>
-      <c r="N74" s="172"/>
-      <c r="O74" s="172"/>
-      <c r="P74" s="172"/>
-      <c r="Q74" s="172"/>
-      <c r="R74" s="172"/>
-      <c r="S74" s="172"/>
-      <c r="T74" s="172"/>
-      <c r="U74" s="172"/>
+      <c r="C74" s="265"/>
+      <c r="D74" s="265"/>
+      <c r="E74" s="265"/>
+      <c r="F74" s="265"/>
+      <c r="G74" s="265"/>
+      <c r="H74" s="265"/>
+      <c r="I74" s="265"/>
+      <c r="J74" s="265"/>
+      <c r="K74" s="265"/>
+      <c r="L74" s="265"/>
+      <c r="M74" s="265"/>
+      <c r="N74" s="265"/>
+      <c r="O74" s="265"/>
+      <c r="P74" s="266"/>
+      <c r="Q74" s="266"/>
+      <c r="R74" s="266"/>
+      <c r="S74" s="266"/>
+      <c r="T74" s="266"/>
+      <c r="U74" s="266"/>
     </row>
     <row r="75" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C75" s="172"/>
-      <c r="D75" s="172"/>
-      <c r="E75" s="172"/>
-      <c r="F75" s="172"/>
-      <c r="G75" s="172"/>
-      <c r="H75" s="172"/>
-      <c r="I75" s="172"/>
-      <c r="J75" s="172"/>
-      <c r="K75" s="172"/>
-      <c r="L75" s="172"/>
-      <c r="M75" s="172"/>
-      <c r="N75" s="172"/>
-      <c r="O75" s="172"/>
-      <c r="P75" s="172"/>
-      <c r="Q75" s="172"/>
-      <c r="R75" s="172"/>
-      <c r="S75" s="172"/>
-      <c r="T75" s="172"/>
-      <c r="U75" s="172"/>
+      <c r="C75" s="265"/>
+      <c r="D75" s="265"/>
+      <c r="E75" s="265"/>
+      <c r="F75" s="265"/>
+      <c r="G75" s="265"/>
+      <c r="H75" s="265"/>
+      <c r="I75" s="265"/>
+      <c r="J75" s="265"/>
+      <c r="K75" s="265"/>
+      <c r="L75" s="265"/>
+      <c r="M75" s="265"/>
+      <c r="N75" s="265"/>
+      <c r="O75" s="265"/>
+      <c r="P75" s="266"/>
+      <c r="Q75" s="266"/>
+      <c r="R75" s="266"/>
+      <c r="S75" s="266"/>
+      <c r="T75" s="266"/>
+      <c r="U75" s="266"/>
     </row>
     <row r="76" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C76" s="172"/>
-      <c r="D76" s="172"/>
-      <c r="E76" s="172"/>
-      <c r="F76" s="172"/>
-      <c r="G76" s="172"/>
-      <c r="H76" s="172"/>
-      <c r="I76" s="172"/>
-      <c r="J76" s="172"/>
-      <c r="K76" s="172"/>
-      <c r="L76" s="172"/>
-      <c r="M76" s="172"/>
-      <c r="N76" s="172"/>
-      <c r="O76" s="172"/>
-      <c r="P76" s="172"/>
-      <c r="Q76" s="172"/>
-      <c r="R76" s="172"/>
-      <c r="S76" s="172"/>
-      <c r="T76" s="172"/>
-      <c r="U76" s="172"/>
+      <c r="C76" s="265"/>
+      <c r="D76" s="265"/>
+      <c r="E76" s="265"/>
+      <c r="F76" s="265"/>
+      <c r="G76" s="265"/>
+      <c r="H76" s="265"/>
+      <c r="I76" s="265"/>
+      <c r="J76" s="265"/>
+      <c r="K76" s="265"/>
+      <c r="L76" s="265"/>
+      <c r="M76" s="265"/>
+      <c r="N76" s="265"/>
+      <c r="O76" s="265"/>
+      <c r="P76" s="266"/>
+      <c r="Q76" s="266"/>
+      <c r="R76" s="266"/>
+      <c r="S76" s="266"/>
+      <c r="T76" s="266"/>
+      <c r="U76" s="266"/>
     </row>
     <row r="105" ht="43.15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="106" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8538,6 +8632,34 @@
     <row r="113" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="C3:I6"/>
+    <mergeCell ref="D47:D50"/>
+    <mergeCell ref="M47:M50"/>
+    <mergeCell ref="V47:V50"/>
+    <mergeCell ref="D31:D34"/>
+    <mergeCell ref="V31:V34"/>
+    <mergeCell ref="V19:V22"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="V23:V26"/>
+    <mergeCell ref="C61:O76"/>
+    <mergeCell ref="AE43:AE46"/>
+    <mergeCell ref="AE47:AE50"/>
+    <mergeCell ref="D51:D54"/>
+    <mergeCell ref="M51:M54"/>
+    <mergeCell ref="V51:V54"/>
+    <mergeCell ref="AE51:AE54"/>
+    <mergeCell ref="V35:V38"/>
+    <mergeCell ref="V39:V42"/>
+    <mergeCell ref="C43:C58"/>
+    <mergeCell ref="D43:D46"/>
+    <mergeCell ref="M43:M46"/>
+    <mergeCell ref="V43:V46"/>
+    <mergeCell ref="V55:V58"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="V27:V30"/>
+    <mergeCell ref="AE27:AE30"/>
+    <mergeCell ref="AB16:AD16"/>
+    <mergeCell ref="AE31:AE34"/>
     <mergeCell ref="AH16:AJ16"/>
     <mergeCell ref="AK16:AM16"/>
     <mergeCell ref="C18:C42"/>
@@ -8554,34 +8676,6 @@
     <mergeCell ref="Y16:AA16"/>
     <mergeCell ref="AE19:AE22"/>
     <mergeCell ref="AE23:AE26"/>
-    <mergeCell ref="D27:D30"/>
-    <mergeCell ref="V27:V30"/>
-    <mergeCell ref="AE27:AE30"/>
-    <mergeCell ref="AB16:AD16"/>
-    <mergeCell ref="AE31:AE34"/>
-    <mergeCell ref="V35:V38"/>
-    <mergeCell ref="V39:V42"/>
-    <mergeCell ref="C43:C58"/>
-    <mergeCell ref="D43:D46"/>
-    <mergeCell ref="M43:M46"/>
-    <mergeCell ref="V43:V46"/>
-    <mergeCell ref="AE43:AE46"/>
-    <mergeCell ref="AE47:AE50"/>
-    <mergeCell ref="D51:D54"/>
-    <mergeCell ref="M51:M54"/>
-    <mergeCell ref="V51:V54"/>
-    <mergeCell ref="AE51:AE54"/>
-    <mergeCell ref="V55:V58"/>
-    <mergeCell ref="C3:I6"/>
-    <mergeCell ref="C61:U76"/>
-    <mergeCell ref="D47:D50"/>
-    <mergeCell ref="M47:M50"/>
-    <mergeCell ref="V47:V50"/>
-    <mergeCell ref="D31:D34"/>
-    <mergeCell ref="V31:V34"/>
-    <mergeCell ref="V19:V22"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="V23:V26"/>
   </mergeCells>
   <conditionalFormatting sqref="O19:U22 F19:L34 AG19:AM34 X19:AD58 F43:L54 O43:U54 AG43:AM54">
     <cfRule type="cellIs" dxfId="6" priority="2" operator="between">
